--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -51,7 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,7 +72,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,7 +100,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,28 +114,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,13 +231,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -790,7 +790,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>118140</v>
       </c>
       <c r="E6" s="1">
@@ -800,7 +800,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>118140</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -830,7 +830,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
@@ -840,7 +840,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -870,7 +870,7 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
@@ -880,7 +880,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -904,23 +904,23 @@
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="5" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -944,23 +944,23 @@
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="5" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -984,23 +984,23 @@
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="5" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1024,23 +1024,23 @@
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="5" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1064,23 +1064,23 @@
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="5" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>218730</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>218730</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1104,23 +1104,23 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="7" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>210791</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>210791</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1144,24 +1144,23 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <v>手枪
-(索尼克专用)</v>
+      <c r="B15" s="7" t="str">
+        <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>221099</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>221099</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1185,24 +1184,23 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="6" t="str">
-        <v>信号枪
-(粉毛怪专用)</v>
+      <c r="B16" s="7" t="str">
+        <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>43702</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>43702</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1226,24 +1224,23 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="6" t="str">
-        <v>刀
-(纲手专用)</v>
+      <c r="B17" s="7" t="str">
+        <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>103067</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>103067</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1267,24 +1264,23 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="5" t="str">
-        <v>刀
-(李洛克专用)</v>
+      <c r="B18" s="8" t="str">
+        <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <v>103080</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1308,24 +1304,23 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="6" t="str">
-        <v>镰刀
-(干柿鬼鲛专用)</v>
+      <c r="B19" s="7" t="str">
+        <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>103075</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <v>103075</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1349,24 +1344,23 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="6" t="str">
-        <v>镰刀
-(赛博女孩专用)</v>
+      <c r="B20" s="7" t="str">
+        <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>122946</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <v>122946</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -1390,24 +1384,23 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="6" t="str">
-        <v>冰封剑
-(黑寡妇专用)</v>
+      <c r="B21" s="7" t="str">
+        <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>31710</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <v>31710</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -1431,23 +1424,23 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="8" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>103069</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>103069</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -1471,24 +1464,23 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="6" t="str">
-        <v>大砍刀
-(卡卡西专用)</v>
+      <c r="B23" s="7" t="str">
+        <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>122961</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>122961</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -1512,24 +1504,23 @@
       <c r="A24" s="1">
         <v>10019</v>
       </c>
-      <c r="B24" s="10" t="str">
-        <v>法杖
-(宇智波鼬专用)</v>
+      <c r="B24" s="11" t="str">
+        <v>法杖(宇智波鼬专用)</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>272767</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <v>272767</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -1553,23 +1544,23 @@
       <c r="A25" s="1">
         <v>10020</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="11" t="str">
         <v>水枪</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>166941</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>166941</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -1593,23 +1584,23 @@
       <c r="A26" s="1">
         <v>10021</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="11" t="str">
         <v>冰钻剑</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>31712</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <v>31712</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -1633,23 +1624,23 @@
       <c r="A27" s="1">
         <v>10022</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="11" t="str">
         <v>屠刀</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>118142</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <v>118142</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -1673,24 +1664,23 @@
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <v>蓝色法杖
-(洛基专用)</v>
+      <c r="B28" s="5" t="str">
+        <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>210651</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>210651</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -1714,24 +1704,23 @@
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <v>镰刀
-(太阳神专用)</v>
+      <c r="B29" s="5" t="str">
+        <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>121672</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <v>121672</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -1755,24 +1744,23 @@
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <v>恶魔剑
-(宇智波斑爷专用)</v>
+      <c r="B30" s="5" t="str">
+        <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>122956</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <v>122956</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -1796,24 +1784,23 @@
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <v>剑
-(纳米机器人专用)</v>
+      <c r="B31" s="5" t="str">
+        <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>103068</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <v>103068</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -1837,24 +1824,23 @@
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <v>镰刀
-(死侍专用)</v>
+      <c r="B32" s="5" t="str">
+        <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>103083</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>103083</v>
       </c>
       <c r="K32" s="1" t="str">
@@ -1878,24 +1864,23 @@
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="11" t="str" xml:space="preserve">
-        <v>  荧光剑
-(火山哨兵专用)</v>
+      <c r="B33" s="3" t="str" xml:space="preserve">
+        <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>198698</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <v>198698</v>
       </c>
       <c r="K33" s="1" t="str">
@@ -1919,24 +1904,23 @@
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="11" t="str">
-        <v>狂热剑
-(绯红女巫专用)</v>
+      <c r="B34" s="3" t="str">
+        <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>29057</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <v>29057</v>
       </c>
       <c r="K34" s="1" t="str">
@@ -1960,23 +1944,23 @@
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="10" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>272130</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>272130</v>
       </c>
       <c r="K35" s="1" t="str">
@@ -2000,24 +1984,23 @@
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="7" t="str">
-        <v>木法杖
-(毒液蜘蛛侠专用)</v>
+      <c r="B36" s="10" t="str">
+        <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>300436</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <v>300436</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -2041,23 +2024,23 @@
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="10" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>121541</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>121541</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -2081,24 +2064,23 @@
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="7" t="str">
-        <v>盾
-(浩克专用)</v>
+      <c r="B38" s="10" t="str">
+        <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>122950</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <v>122950</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -2122,23 +2104,23 @@
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" s="7" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>31734</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <v>31734</v>
       </c>
       <c r="K39" s="1" t="str">
@@ -2162,24 +2144,23 @@
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="6" t="str">
-        <v>散弹喷枪
-(雏田专用)</v>
+      <c r="B40" s="7" t="str">
+        <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>155702</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <v>155702</v>
       </c>
       <c r="K40" s="1" t="str">
@@ -2203,24 +2184,23 @@
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="6" t="str">
-        <v>火枪
-(路飞专用)</v>
+      <c r="B41" s="7" t="str">
+        <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>122726</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <v>122726</v>
       </c>
       <c r="K41" s="1" t="str">
@@ -2244,24 +2224,23 @@
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="6" t="str">
-        <v>紫光剑
-(佐助专用)</v>
+      <c r="B42" s="7" t="str">
+        <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="8">
+      <c r="J42" s="6">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2285,24 +2264,23 @@
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="6" t="str">
-        <v>激光枪
-(天神专用)</v>
+      <c r="B43" s="7" t="str">
+        <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>222534</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <v>222534</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -2326,24 +2304,23 @@
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="7" t="str">
-        <v>剑
-(金刚狼专用)</v>
+      <c r="B44" s="10" t="str">
+        <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>269895</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <v>269895</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -2367,24 +2344,23 @@
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="7" t="str">
-        <v>激光枪
-(钢铁侠专用)</v>
+      <c r="B45" s="10" t="str">
+        <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>122720</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <v>122720</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -2414,7 +2390,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2424,7 +2400,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="4">
+      <c r="J46" s="2">
         <v>65710</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -2454,7 +2430,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2464,7 +2440,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="4">
+      <c r="J47" s="2">
         <v>64995</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -2494,7 +2470,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2504,7 +2480,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="4">
+      <c r="J48" s="2">
         <v>142606</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -2534,7 +2510,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2544,7 +2520,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="4">
+      <c r="J49" s="2">
         <v>63711</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2574,7 +2550,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2584,7 +2560,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="4">
+      <c r="J50" s="2">
         <v>94782</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -2614,7 +2590,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2624,7 +2600,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="4">
+      <c r="J51" s="2">
         <v>112568</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -2654,7 +2630,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="5">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2664,7 +2640,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="4">
+      <c r="J52" s="2">
         <v>117681</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -2694,7 +2670,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="5">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2704,7 +2680,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <v>64995</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -2734,7 +2710,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="8">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2744,7 +2720,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="4">
+      <c r="J54" s="2">
         <v>127800</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -2774,7 +2750,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="8">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2784,7 +2760,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="4">
+      <c r="J55" s="2">
         <v>224168</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2814,7 +2790,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2824,7 +2800,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="4">
+      <c r="J56" s="2">
         <v>94782</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2854,7 +2830,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="8">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2864,7 +2840,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="4">
+      <c r="J57" s="2">
         <v>111768</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2894,7 +2870,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="8">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2904,7 +2880,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="4">
+      <c r="J58" s="2">
         <v>111240</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2934,7 +2910,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="8">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -2944,7 +2920,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="4">
+      <c r="J59" s="2">
         <v>269652</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2974,7 +2950,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="8">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -2984,7 +2960,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="4">
+      <c r="J60" s="2">
         <v>60981</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -3014,7 +2990,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="8">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3024,7 +3000,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="4">
+      <c r="J61" s="2">
         <v>64410</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -3054,7 +3030,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="8">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3064,7 +3040,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="4">
+      <c r="J62" s="2">
         <v>128834</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -3094,7 +3070,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="8">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3104,7 +3080,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="4">
+      <c r="J63" s="2">
         <v>115849</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -3134,7 +3110,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="8">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3144,7 +3120,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="4">
+      <c r="J64" s="2">
         <v>299082</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -3174,7 +3150,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="8">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3184,7 +3160,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="4">
+      <c r="J65" s="2">
         <v>96576</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -3214,7 +3190,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="8">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3224,7 +3200,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="4">
+      <c r="J66" s="2">
         <v>63291</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -3254,7 +3230,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="8">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -3264,7 +3240,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="4">
+      <c r="J67" s="2">
         <v>59857</v>
       </c>
       <c r="K67" s="1" t="str">
@@ -3294,7 +3270,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="5">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3304,7 +3280,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="4">
+      <c r="J68" s="2">
         <v>63648</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3334,7 +3310,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="5">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3344,7 +3320,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="4">
+      <c r="J69" s="2">
         <v>248351</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3374,7 +3350,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="5">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3384,7 +3360,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="4">
+      <c r="J70" s="2">
         <v>64774</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3414,7 +3390,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="5">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3424,7 +3400,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="4">
+      <c r="J71" s="2">
         <v>63291</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3454,7 +3430,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="5">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3464,7 +3440,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="4">
+      <c r="J72" s="2">
         <v>111241</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -3494,7 +3470,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="5">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3504,7 +3480,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="4">
+      <c r="J73" s="2">
         <v>121948</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -3534,7 +3510,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="5">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3544,7 +3520,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="4">
+      <c r="J74" s="2">
         <v>64458</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -3574,7 +3550,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="5">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3584,7 +3560,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="4">
+      <c r="J75" s="2">
         <v>142606</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -3614,7 +3590,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="5">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3624,7 +3600,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="4">
+      <c r="J76" s="2">
         <v>64305</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -3654,7 +3630,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="5">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3664,7 +3640,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="4">
+      <c r="J77" s="2">
         <v>299082</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -3694,7 +3670,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="5">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3704,7 +3680,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="4">
+      <c r="J78" s="2">
         <v>181365</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -3734,7 +3710,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="5">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3744,7 +3720,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="4">
+      <c r="J79" s="2">
         <v>63291</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -3774,7 +3750,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="5">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3784,7 +3760,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="4">
+      <c r="J80" s="2">
         <v>299082</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -3814,7 +3790,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="5">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3824,7 +3800,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="4">
+      <c r="J81" s="2">
         <v>111088</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -3854,7 +3830,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="5">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3864,7 +3840,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="4">
+      <c r="J82" s="2">
         <v>124880</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -3894,7 +3870,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="5">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3904,7 +3880,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="4">
+      <c r="J83" s="2">
         <v>137518</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -3934,7 +3910,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="5">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3944,7 +3920,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="4">
+      <c r="J84" s="2">
         <v>119773</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -3974,7 +3950,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="5">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -3984,7 +3960,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="4">
+      <c r="J85" s="2">
         <v>119229</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -4024,7 +4000,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="4">
+      <c r="J86" s="2">
         <v>121882</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4064,7 +4040,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="4">
+      <c r="J87" s="2">
         <v>119745</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4104,7 +4080,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="4">
+      <c r="J88" s="2">
         <v>63539</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4144,7 +4120,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="4">
+      <c r="J89" s="2">
         <v>60981</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4184,7 +4160,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="4">
+      <c r="J90" s="2">
         <v>109144</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4224,7 +4200,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="4">
+      <c r="J91" s="2">
         <v>64141</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4264,7 +4240,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="4">
+      <c r="J92" s="2">
         <v>109058</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4304,7 +4280,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="4">
+      <c r="J93" s="2">
         <v>109839</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4344,7 +4320,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="4">
+      <c r="J94" s="2">
         <v>118079</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4384,7 +4360,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="4">
+      <c r="J95" s="2">
         <v>109839</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4424,7 +4400,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="4">
+      <c r="J96" s="2">
         <v>117681</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4464,7 +4440,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="4">
+      <c r="J97" s="2">
         <v>119483</v>
       </c>
       <c r="K97" s="1" t="str">
@@ -4504,7 +4480,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="4">
+      <c r="J98" s="2">
         <v>119112</v>
       </c>
       <c r="K98" s="1" t="str">
@@ -4544,7 +4520,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="4">
+      <c r="J99" s="2">
         <v>120575</v>
       </c>
       <c r="K99" s="1" t="str">
@@ -4584,7 +4560,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="4">
+      <c r="J100" s="2">
         <v>65780</v>
       </c>
       <c r="K100" s="1" t="str">
@@ -4624,7 +4600,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="4">
+      <c r="J101" s="2">
         <v>122779</v>
       </c>
       <c r="K101" s="1" t="str">
@@ -4664,7 +4640,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="4">
+      <c r="J102" s="2">
         <v>122779</v>
       </c>
       <c r="K102" s="1" t="str">
@@ -4704,7 +4680,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="4">
+      <c r="J103" s="2">
         <v>122779</v>
       </c>
       <c r="K103" s="1" t="str">
@@ -4744,7 +4720,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="4">
+      <c r="J104" s="2">
         <v>129936</v>
       </c>
       <c r="K104" s="1" t="str">
@@ -4784,7 +4760,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="4">
+      <c r="J105" s="2">
         <v>111519</v>
       </c>
       <c r="K105" s="1" t="str">
@@ -4824,7 +4800,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="4">
+      <c r="J106" s="2">
         <v>66554</v>
       </c>
       <c r="K106" s="1" t="str">
@@ -4864,7 +4840,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="4">
+      <c r="J107" s="2">
         <v>66414</v>
       </c>
       <c r="K107" s="1" t="str">
@@ -4904,7 +4880,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="4">
+      <c r="J108" s="2">
         <v>116791</v>
       </c>
       <c r="K108" s="1" t="str">
@@ -4944,7 +4920,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="4">
+      <c r="J109" s="2">
         <v>121533</v>
       </c>
       <c r="K109" s="1" t="str">
@@ -4984,7 +4960,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="4">
+      <c r="J110" s="2">
         <v>75457</v>
       </c>
       <c r="K110" s="1" t="str">
@@ -5024,7 +5000,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="4">
+      <c r="J111" s="2">
         <v>116791</v>
       </c>
       <c r="K111" s="1" t="str">
@@ -5064,7 +5040,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="4">
+      <c r="J112" s="2">
         <v>122779</v>
       </c>
       <c r="K112" s="1" t="str">
@@ -5104,7 +5080,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="4">
+      <c r="J113" s="2">
         <v>122779</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -5144,7 +5120,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="4">
+      <c r="J114" s="2">
         <v>122919</v>
       </c>
       <c r="K114" s="1" t="str">
@@ -5184,7 +5160,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="4">
+      <c r="J115" s="2">
         <v>109839</v>
       </c>
       <c r="K115" s="1" t="str">
@@ -5224,7 +5200,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="4">
+      <c r="J116" s="2">
         <v>94782</v>
       </c>
       <c r="K116" s="1" t="str">
@@ -5264,7 +5240,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="4">
+      <c r="J117" s="2">
         <v>111403</v>
       </c>
       <c r="K117" s="1" t="str">
@@ -5304,7 +5280,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="4">
+      <c r="J118" s="2">
         <v>94782</v>
       </c>
       <c r="K118" s="1" t="str">
@@ -5344,7 +5320,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="4">
+      <c r="J119" s="2">
         <v>111356</v>
       </c>
       <c r="K119" s="1" t="str">
@@ -5384,7 +5360,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="4">
+      <c r="J120" s="2">
         <v>94782</v>
       </c>
       <c r="K120" s="1" t="str">
@@ -5424,7 +5400,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="4">
+      <c r="J121" s="2">
         <v>125737</v>
       </c>
       <c r="K121" s="1" t="str">
@@ -5464,7 +5440,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="4">
+      <c r="J122" s="2">
         <v>94782</v>
       </c>
       <c r="K122" s="1" t="str">
@@ -5504,7 +5480,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="4">
+      <c r="J123" s="2">
         <v>111612</v>
       </c>
       <c r="K123" s="1" t="str">
@@ -5544,7 +5520,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="4">
+      <c r="J124" s="2">
         <v>112568</v>
       </c>
       <c r="K124" s="1" t="str">
@@ -5584,7 +5560,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="4">
+      <c r="J125" s="2">
         <v>75457</v>
       </c>
       <c r="K125" s="1" t="str">
@@ -5624,7 +5600,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="4">
+      <c r="J126" s="2">
         <v>94782</v>
       </c>
       <c r="K126" s="1" t="str">
@@ -5664,7 +5640,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="4">
+      <c r="J127" s="2">
         <v>111356</v>
       </c>
       <c r="K127" s="1" t="str">
@@ -5704,7 +5680,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="4">
+      <c r="J128" s="2">
         <v>111768</v>
       </c>
       <c r="K128" s="1" t="str">
@@ -5744,7 +5720,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="4">
+      <c r="J129" s="2">
         <v>75457</v>
       </c>
       <c r="K129" s="1" t="str">
@@ -5784,7 +5760,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="4">
+      <c r="J130" s="2">
         <v>111516</v>
       </c>
       <c r="K130" s="1" t="str">
@@ -5824,7 +5800,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="4">
+      <c r="J131" s="2">
         <v>111282</v>
       </c>
       <c r="K131" s="1" t="str">
@@ -5864,7 +5840,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="4">
+      <c r="J132" s="2">
         <v>60077</v>
       </c>
       <c r="K132" s="1" t="str">
@@ -5904,7 +5880,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="4">
+      <c r="J133" s="2">
         <v>129087</v>
       </c>
       <c r="K133" s="1" t="str">
@@ -5944,7 +5920,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="4">
+      <c r="J134" s="2">
         <v>64709</v>
       </c>
       <c r="K134" s="1" t="str">
@@ -5984,7 +5960,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="4">
+      <c r="J135" s="2">
         <v>63868</v>
       </c>
       <c r="K135" s="1" t="str">
@@ -6024,7 +6000,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="4">
+      <c r="J136" s="2">
         <v>129334</v>
       </c>
       <c r="K136" s="1" t="str">
@@ -6064,7 +6040,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="4">
+      <c r="J137" s="2">
         <v>63711</v>
       </c>
       <c r="K137" s="1" t="str">
@@ -6104,7 +6080,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="4">
+      <c r="J138" s="2">
         <v>63292</v>
       </c>
       <c r="K138" s="1" t="str">
@@ -6144,7 +6120,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="4">
+      <c r="J139" s="2">
         <v>126679</v>
       </c>
       <c r="K139" s="1" t="str">
@@ -6184,7 +6160,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="4">
+      <c r="J140" s="2">
         <v>119393</v>
       </c>
       <c r="K140" s="1" t="str">
@@ -6224,7 +6200,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="4">
+      <c r="J141" s="2">
         <v>75457</v>
       </c>
       <c r="K141" s="1" t="str">
@@ -6264,7 +6240,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="4">
+      <c r="J142" s="2">
         <v>299082</v>
       </c>
       <c r="K142" s="1" t="str">
@@ -6304,7 +6280,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="4">
+      <c r="J143" s="2">
         <v>64559</v>
       </c>
       <c r="K143" s="1" t="str">
@@ -6344,7 +6320,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="4">
+      <c r="J144" s="2">
         <v>142606</v>
       </c>
       <c r="K144" s="1" t="str">
@@ -6384,7 +6360,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="4">
+      <c r="J145" s="2">
         <v>111161</v>
       </c>
       <c r="K145" s="1" t="str">
@@ -13159,9 +13135,7 @@
       <c r="T288" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="289">
-      <c r="A289" s="1">
-        <v>40015</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="1" t="str">
         <v>小鸟模型</v>
       </c>
@@ -13199,9 +13173,7 @@
       <c r="T289" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="290">
-      <c r="A290" s="1">
-        <v>40016</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="1" t="str">
         <v>野狼</v>
       </c>
@@ -13239,9 +13211,7 @@
       <c r="T290" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="291">
-      <c r="A291" s="1">
-        <v>40017</v>
-      </c>
+      <c r="A291" s="1"/>
       <c r="B291" s="1" t="str">
         <v>棕野狼</v>
       </c>
@@ -13279,9 +13249,7 @@
       <c r="T291" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="292">
-      <c r="A292" s="1">
-        <v>40018</v>
-      </c>
+      <c r="A292" s="1"/>
       <c r="B292" s="1" t="str">
         <v>小兔子</v>
       </c>
@@ -13319,9 +13287,7 @@
       <c r="T292" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="293">
-      <c r="A293" s="1">
-        <v>40019</v>
-      </c>
+      <c r="A293" s="1"/>
       <c r="B293" s="1" t="str">
         <v>登山猫</v>
       </c>
@@ -13359,9 +13325,7 @@
       <c r="T293" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="294">
-      <c r="A294" s="1">
-        <v>40020</v>
-      </c>
+      <c r="A294" s="1"/>
       <c r="B294" s="1" t="str">
         <v>水手猫</v>
       </c>
@@ -13399,9 +13363,7 @@
       <c r="T294" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="295">
-      <c r="A295" s="1">
-        <v>40021</v>
-      </c>
+      <c r="A295" s="1"/>
       <c r="B295" s="1" t="str">
         <v>舞狮头猫</v>
       </c>
@@ -13439,9 +13401,7 @@
       <c r="T295" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="296">
-      <c r="A296" s="1">
-        <v>40022</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="1" t="str">
         <v>祥云能量猫</v>
       </c>
@@ -13479,9 +13439,7 @@
       <c r="T296" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="297">
-      <c r="A297" s="1">
-        <v>40023</v>
-      </c>
+      <c r="A297" s="1"/>
       <c r="B297" s="1" t="str">
         <v>喜庆棉服猫</v>
       </c>
@@ -13519,9 +13477,7 @@
       <c r="T297" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="298">
-      <c r="A298" s="1">
-        <v>40024</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="1" t="str">
         <v>冰雪狐</v>
       </c>
@@ -13559,9 +13515,7 @@
       <c r="T298" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="299">
-      <c r="A299" s="1">
-        <v>40025</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="1" t="str">
         <v>卡通木龙</v>
       </c>
@@ -13599,9 +13553,7 @@
       <c r="T299" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="300">
-      <c r="A300" s="1">
-        <v>40026</v>
-      </c>
+      <c r="A300" s="1"/>
       <c r="B300" s="1" t="str">
         <v>红龙</v>
       </c>
@@ -13639,9 +13591,7 @@
       <c r="T300" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="301">
-      <c r="A301" s="1">
-        <v>40027</v>
-      </c>
+      <c r="A301" s="1"/>
       <c r="B301" s="1" t="str">
         <v>黄龙</v>
       </c>
@@ -13679,9 +13629,7 @@
       <c r="T301" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="302">
-      <c r="A302" s="1">
-        <v>40028</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="1" t="str">
         <v>蓝龙</v>
       </c>
@@ -13719,9 +13667,7 @@
       <c r="T302" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="303">
-      <c r="A303" s="1">
-        <v>40029</v>
-      </c>
+      <c r="A303" s="1"/>
       <c r="B303" s="1" t="str">
         <v>唐装坐骑熊猫</v>
       </c>
@@ -13759,9 +13705,7 @@
       <c r="T303" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="304">
-      <c r="A304" s="1">
-        <v>40030</v>
-      </c>
+      <c r="A304" s="1"/>
       <c r="B304" s="1" t="str">
         <v>唐装熊猫</v>
       </c>
@@ -13799,9 +13743,7 @@
       <c r="T304" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="305">
-      <c r="A305" s="1">
-        <v>40031</v>
-      </c>
+      <c r="A305" s="1"/>
       <c r="B305" s="1" t="str">
         <v>小金毛</v>
       </c>
@@ -13839,9 +13781,7 @@
       <c r="T305" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="306">
-      <c r="A306" s="1">
-        <v>40032</v>
-      </c>
+      <c r="A306" s="1"/>
       <c r="B306" s="1" t="str">
         <v>垂耳兔</v>
       </c>
@@ -13879,9 +13819,7 @@
       <c r="T306" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="307">
-      <c r="A307" s="1">
-        <v>40033</v>
-      </c>
+      <c r="A307" s="1"/>
       <c r="B307" s="1" t="str">
         <v>无毛猫</v>
       </c>
@@ -13919,9 +13857,7 @@
       <c r="T307" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="308">
-      <c r="A308" s="1">
-        <v>40034</v>
-      </c>
+      <c r="A308" s="1"/>
       <c r="B308" s="1" t="str">
         <v>蓝白帽子猫</v>
       </c>
@@ -13959,9 +13895,7 @@
       <c r="T308" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="309">
-      <c r="A309" s="1">
-        <v>40035</v>
-      </c>
+      <c r="A309" s="1"/>
       <c r="B309" s="1" t="str">
         <v>礼帽暹罗猫</v>
       </c>
@@ -13999,9 +13933,7 @@
       <c r="T309" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="310">
-      <c r="A310" s="1">
-        <v>40036</v>
-      </c>
+      <c r="A310" s="1"/>
       <c r="B310" s="1" t="str">
         <v>熊猫</v>
       </c>
@@ -14039,9 +13971,7 @@
       <c r="T310" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="311">
-      <c r="A311" s="1">
-        <v>40037</v>
-      </c>
+      <c r="A311" s="1"/>
       <c r="B311" s="1" t="str">
         <v>兔子帽猫</v>
       </c>
@@ -14079,9 +14009,7 @@
       <c r="T311" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="312">
-      <c r="A312" s="1">
-        <v>40038</v>
-      </c>
+      <c r="A312" s="1"/>
       <c r="B312" s="1" t="str">
         <v>三花铃铛猫</v>
       </c>
@@ -14119,9 +14047,7 @@
       <c r="T312" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="313">
-      <c r="A313" s="1">
-        <v>40039</v>
-      </c>
+      <c r="A313" s="1"/>
       <c r="B313" s="1" t="str">
         <v>黑色蝴蝶猫</v>
       </c>
@@ -14159,9 +14085,7 @@
       <c r="T313" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="314">
-      <c r="A314" s="1">
-        <v>40040</v>
-      </c>
+      <c r="A314" s="1"/>
       <c r="B314" s="1" t="str">
         <v>美短圣诞猫</v>
       </c>
@@ -14199,9 +14123,7 @@
       <c r="T314" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="315">
-      <c r="A315" s="1">
-        <v>40041</v>
-      </c>
+      <c r="A315" s="1"/>
       <c r="B315" s="1" t="str">
         <v>蓝白垂耳兔</v>
       </c>
@@ -14239,9 +14161,7 @@
       <c r="T315" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="316">
-      <c r="A316" s="1">
-        <v>40042</v>
-      </c>
+      <c r="A316" s="1"/>
       <c r="B316" s="1" t="str">
         <v>粉猪</v>
       </c>
@@ -14279,9 +14199,7 @@
       <c r="T316" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="317">
-      <c r="A317" s="1">
-        <v>40043</v>
-      </c>
+      <c r="A317" s="1"/>
       <c r="B317" s="1" t="str">
         <v>虎斑猫</v>
       </c>
@@ -14319,9 +14237,7 @@
       <c r="T317" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="318">
-      <c r="A318" s="1">
-        <v>40044</v>
-      </c>
+      <c r="A318" s="1"/>
       <c r="B318" s="1" t="str">
         <v>天使猫</v>
       </c>
@@ -14359,9 +14275,7 @@
       <c r="T318" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="319">
-      <c r="A319" s="1">
-        <v>40045</v>
-      </c>
+      <c r="A319" s="1"/>
       <c r="B319" s="1" t="str">
         <v>小恶魔猫</v>
       </c>
@@ -14399,9 +14313,7 @@
       <c r="T319" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="320">
-      <c r="A320" s="1">
-        <v>40046</v>
-      </c>
+      <c r="A320" s="1"/>
       <c r="B320" s="1" t="str">
         <v>独眼布偶猫</v>
       </c>
@@ -14439,9 +14351,7 @@
       <c r="T320" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="321">
-      <c r="A321" s="1">
-        <v>40047</v>
-      </c>
+      <c r="A321" s="1"/>
       <c r="B321" s="1" t="str">
         <v>花猪</v>
       </c>
@@ -14479,9 +14389,7 @@
       <c r="T321" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="322">
-      <c r="A322" s="1">
-        <v>40048</v>
-      </c>
+      <c r="A322" s="1"/>
       <c r="B322" s="1" t="str">
         <v>太阳帽猫</v>
       </c>
@@ -14519,9 +14427,7 @@
       <c r="T322" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="323">
-      <c r="A323" s="1">
-        <v>40049</v>
-      </c>
+      <c r="A323" s="1"/>
       <c r="B323" s="1" t="str">
         <v>斑点垂耳狗</v>
       </c>
@@ -14559,9 +14465,7 @@
       <c r="T323" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="324">
-      <c r="A324" s="1">
-        <v>40050</v>
-      </c>
+      <c r="A324" s="1"/>
       <c r="B324" s="1" t="str">
         <v>黑白色直耳兔</v>
       </c>
@@ -14599,9 +14503,7 @@
       <c r="T324" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="325">
-      <c r="A325" s="1">
-        <v>40051</v>
-      </c>
+      <c r="A325" s="1"/>
       <c r="B325" s="1" t="str">
         <v>橘猫</v>
       </c>
@@ -14639,9 +14541,7 @@
       <c r="T325" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="326">
-      <c r="A326" s="1">
-        <v>40052</v>
-      </c>
+      <c r="A326" s="1"/>
       <c r="B326" s="1" t="str">
         <v>条纹外套白猫</v>
       </c>
@@ -14679,9 +14579,7 @@
       <c r="T326" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="327">
-      <c r="A327" s="1">
-        <v>40053</v>
-      </c>
+      <c r="A327" s="1"/>
       <c r="B327" s="1" t="str">
         <v>墨镜花猫</v>
       </c>
@@ -14719,9 +14617,7 @@
       <c r="T327" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="328">
-      <c r="A328" s="1">
-        <v>40054</v>
-      </c>
+      <c r="A328" s="1"/>
       <c r="B328" s="1" t="str">
         <v>眼镜蓝猫</v>
       </c>
@@ -14759,9 +14655,7 @@
       <c r="T328" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="329">
-      <c r="A329" s="1">
-        <v>40055</v>
-      </c>
+      <c r="A329" s="1"/>
       <c r="B329" s="1" t="str">
         <v>巫师帽猫</v>
       </c>
@@ -14799,9 +14693,7 @@
       <c r="T329" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="330">
-      <c r="A330" s="1">
-        <v>40056</v>
-      </c>
+      <c r="A330" s="1"/>
       <c r="B330" s="1" t="str">
         <v>白色萨摩耶</v>
       </c>
@@ -14839,9 +14731,7 @@
       <c r="T330" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="331">
-      <c r="A331" s="1">
-        <v>40057</v>
-      </c>
+      <c r="A331" s="1"/>
       <c r="B331" s="1" t="str">
         <v>矮脚马</v>
       </c>
@@ -14879,9 +14769,7 @@
       <c r="T331" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="332">
-      <c r="A332" s="1">
-        <v>40058</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="1" t="str">
         <v>美短方帽猫</v>
       </c>
@@ -14919,9 +14807,7 @@
       <c r="T332" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="333">
-      <c r="A333" s="1">
-        <v>40059</v>
-      </c>
+      <c r="A333" s="1"/>
       <c r="B333" s="1" t="str">
         <v>黑猫</v>
       </c>
@@ -14959,9 +14845,7 @@
       <c r="T333" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="334">
-      <c r="A334" s="1">
-        <v>40060</v>
-      </c>
+      <c r="A334" s="1"/>
       <c r="B334" s="1" t="str">
         <v>小黄狗</v>
       </c>
@@ -14999,9 +14883,7 @@
       <c r="T334" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="335">
-      <c r="A335" s="1">
-        <v>40061</v>
-      </c>
+      <c r="A335" s="1"/>
       <c r="B335" s="1" t="str">
         <v>黄色猫咪团子</v>
       </c>
@@ -15039,9 +14921,7 @@
       <c r="T335" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="336">
-      <c r="A336" s="1">
-        <v>40062</v>
-      </c>
+      <c r="A336" s="1"/>
       <c r="B336" s="1" t="str">
         <v>鹦鹉</v>
       </c>
@@ -15079,9 +14959,7 @@
       <c r="T336" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="337">
-      <c r="A337" s="1">
-        <v>40063</v>
-      </c>
+      <c r="A337" s="1"/>
       <c r="B337" s="1" t="str">
         <v>暹罗樱花猫</v>
       </c>
@@ -15119,9 +14997,7 @@
       <c r="T337" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="338">
-      <c r="A338" s="1">
-        <v>40064</v>
-      </c>
+      <c r="A338" s="1"/>
       <c r="B338" s="1" t="str">
         <v>蓝白翅膀猫</v>
       </c>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -58,20 +58,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,8 +78,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,6 +100,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +114,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>斗技|皮肤|装备|宠物</v>
+        <v>斗技|皮肤|装备|魔兽</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -784,23 +784,23 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="8" t="str">
         <v>悟空法杖</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>118140</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>118140</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -824,23 +824,23 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="8" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -864,23 +864,23 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="8" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -904,23 +904,23 @@
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="3" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -944,23 +944,23 @@
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="3" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -984,23 +984,23 @@
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="3" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1024,23 +1024,23 @@
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="3" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1064,23 +1064,23 @@
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="3" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>218730</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>218730</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1104,23 +1104,23 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="5" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>210791</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <v>210791</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1144,23 +1144,23 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="5" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>221099</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <v>221099</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1184,23 +1184,23 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="5" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>43702</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
         <v>43702</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1224,23 +1224,23 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="5" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>103067</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <v>103067</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1264,23 +1264,23 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="9" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="4">
+      <c r="J18" s="6">
         <v>103080</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1304,23 +1304,23 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="5" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>103075</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="4">
+      <c r="J19" s="6">
         <v>103075</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1344,23 +1344,23 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="5" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>122946</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="4">
+      <c r="J20" s="6">
         <v>122946</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -1384,23 +1384,23 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="5" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>31710</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="4">
+      <c r="J21" s="6">
         <v>31710</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -1424,23 +1424,23 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="9" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>103069</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="4">
+      <c r="J22" s="6">
         <v>103069</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -1464,23 +1464,23 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="5" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>122961</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="4">
+      <c r="J23" s="6">
         <v>122961</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -1504,23 +1504,23 @@
       <c r="A24" s="1">
         <v>10019</v>
       </c>
-      <c r="B24" s="11" t="str">
+      <c r="B24" s="7" t="str">
         <v>法杖(宇智波鼬专用)</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>272767</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="4">
+      <c r="J24" s="6">
         <v>272767</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -1544,23 +1544,23 @@
       <c r="A25" s="1">
         <v>10020</v>
       </c>
-      <c r="B25" s="11" t="str">
+      <c r="B25" s="7" t="str">
         <v>水枪</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>166941</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="4">
+      <c r="J25" s="6">
         <v>166941</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -1584,23 +1584,23 @@
       <c r="A26" s="1">
         <v>10021</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="B26" s="7" t="str">
         <v>冰钻剑</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>31712</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="4">
+      <c r="J26" s="6">
         <v>31712</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -1624,23 +1624,23 @@
       <c r="A27" s="1">
         <v>10022</v>
       </c>
-      <c r="B27" s="11" t="str">
+      <c r="B27" s="7" t="str">
         <v>屠刀</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>118142</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="4">
+      <c r="J27" s="6">
         <v>118142</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -1664,23 +1664,23 @@
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="3" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>210651</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="4">
+      <c r="J28" s="6">
         <v>210651</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -1704,23 +1704,23 @@
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="3" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>121672</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="4">
+      <c r="J29" s="6">
         <v>121672</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -1744,23 +1744,23 @@
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="3" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>122956</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="4">
+      <c r="J30" s="6">
         <v>122956</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -1784,23 +1784,23 @@
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="3" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>103068</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="4">
+      <c r="J31" s="6">
         <v>103068</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -1824,23 +1824,23 @@
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="3" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>103083</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="4">
+      <c r="J32" s="6">
         <v>103083</v>
       </c>
       <c r="K32" s="1" t="str">
@@ -1864,23 +1864,23 @@
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="3" t="str" xml:space="preserve">
+      <c r="B33" s="11" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>198698</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="4">
+      <c r="J33" s="6">
         <v>198698</v>
       </c>
       <c r="K33" s="1" t="str">
@@ -1904,23 +1904,23 @@
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="11" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>29057</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="4">
+      <c r="J34" s="6">
         <v>29057</v>
       </c>
       <c r="K34" s="1" t="str">
@@ -1950,7 +1950,7 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>272130</v>
       </c>
       <c r="E35" s="1">
@@ -1960,7 +1960,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="4">
+      <c r="J35" s="6">
         <v>272130</v>
       </c>
       <c r="K35" s="1" t="str">
@@ -1990,7 +1990,7 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>300436</v>
       </c>
       <c r="E36" s="1">
@@ -2000,7 +2000,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="4">
+      <c r="J36" s="6">
         <v>300436</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -2030,7 +2030,7 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>121541</v>
       </c>
       <c r="E37" s="1">
@@ -2040,7 +2040,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="4">
+      <c r="J37" s="6">
         <v>121541</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -2070,7 +2070,7 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>122950</v>
       </c>
       <c r="E38" s="1">
@@ -2080,7 +2080,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="4">
+      <c r="J38" s="6">
         <v>122950</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -2104,23 +2104,23 @@
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="5" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>31734</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="4">
+      <c r="J39" s="6">
         <v>31734</v>
       </c>
       <c r="K39" s="1" t="str">
@@ -2144,23 +2144,23 @@
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="5" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>155702</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="4">
+      <c r="J40" s="6">
         <v>155702</v>
       </c>
       <c r="K40" s="1" t="str">
@@ -2184,23 +2184,23 @@
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="5" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>122726</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="4">
+      <c r="J41" s="6">
         <v>122726</v>
       </c>
       <c r="K41" s="1" t="str">
@@ -2224,23 +2224,23 @@
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="5" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="6">
+      <c r="J42" s="4">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2264,23 +2264,23 @@
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="5" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>222534</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="4">
+      <c r="J43" s="6">
         <v>222534</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -2310,7 +2310,7 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>269895</v>
       </c>
       <c r="E44" s="1">
@@ -2320,7 +2320,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="4">
+      <c r="J44" s="6">
         <v>269895</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -2350,7 +2350,7 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>122720</v>
       </c>
       <c r="E45" s="1">
@@ -2360,7 +2360,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="4">
+      <c r="J45" s="6">
         <v>122720</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -2390,7 +2390,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2430,7 +2430,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2470,7 +2470,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2510,7 +2510,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2550,7 +2550,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2590,7 +2590,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2630,7 +2630,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2670,7 +2670,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2710,7 +2710,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2750,7 +2750,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2790,7 +2790,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2830,7 +2830,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2870,7 +2870,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2910,7 +2910,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -2950,7 +2950,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="9">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -2990,7 +2990,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="9">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3030,7 +3030,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="9">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3070,7 +3070,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3110,7 +3110,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="9">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3150,7 +3150,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="9">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3190,7 +3190,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3230,7 +3230,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="9">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -3270,7 +3270,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3310,7 +3310,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3350,7 +3350,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3390,7 +3390,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3430,7 +3430,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3470,7 +3470,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3510,7 +3510,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3550,7 +3550,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3590,7 +3590,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3630,7 +3630,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3670,7 +3670,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3710,7 +3710,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3750,7 +3750,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3790,7 +3790,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3830,7 +3830,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3870,7 +3870,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3910,7 +3910,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3950,7 +3950,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -6913,7 +6913,7 @@
         <v>30012</v>
       </c>
       <c r="B157" s="1" t="str">
-        <v>狐狸翅膀</v>
+        <v>狐狸飞行斗技</v>
       </c>
       <c r="C157" s="1">
         <v>3</v>
@@ -7009,7 +7009,7 @@
         <v>30014</v>
       </c>
       <c r="B159" s="1" t="str">
-        <v>双层翅膀</v>
+        <v>双层飞行斗技</v>
       </c>
       <c r="C159" s="1">
         <v>3</v>
@@ -7057,7 +7057,7 @@
         <v>30015</v>
       </c>
       <c r="B160" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C160" s="1">
         <v>3</v>
@@ -7105,7 +7105,7 @@
         <v>30016</v>
       </c>
       <c r="B161" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C161" s="1">
         <v>3</v>
@@ -7153,7 +7153,7 @@
         <v>30017</v>
       </c>
       <c r="B162" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C162" s="1">
         <v>3</v>
@@ -7201,7 +7201,7 @@
         <v>30018</v>
       </c>
       <c r="B163" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>火焰飞行斗技</v>
       </c>
       <c r="C163" s="1">
         <v>3</v>
@@ -7249,7 +7249,7 @@
         <v>30019</v>
       </c>
       <c r="B164" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C164" s="1">
         <v>3</v>
@@ -7297,7 +7297,7 @@
         <v>30020</v>
       </c>
       <c r="B165" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C165" s="1">
         <v>3</v>
@@ -7345,7 +7345,7 @@
         <v>30021</v>
       </c>
       <c r="B166" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C166" s="1">
         <v>3</v>
@@ -7393,7 +7393,7 @@
         <v>30022</v>
       </c>
       <c r="B167" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C167" s="1">
         <v>3</v>
@@ -7441,7 +7441,7 @@
         <v>30023</v>
       </c>
       <c r="B168" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C168" s="1">
         <v>3</v>
@@ -7489,7 +7489,7 @@
         <v>30024</v>
       </c>
       <c r="B169" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C169" s="1">
         <v>3</v>
@@ -7537,7 +7537,7 @@
         <v>30025</v>
       </c>
       <c r="B170" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C170" s="1">
         <v>3</v>
@@ -7585,7 +7585,7 @@
         <v>30026</v>
       </c>
       <c r="B171" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C171" s="1">
         <v>3</v>
@@ -7633,7 +7633,7 @@
         <v>30027</v>
       </c>
       <c r="B172" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C172" s="1">
         <v>3</v>
@@ -7681,7 +7681,7 @@
         <v>30028</v>
       </c>
       <c r="B173" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C173" s="1">
         <v>3</v>
@@ -7729,7 +7729,7 @@
         <v>30029</v>
       </c>
       <c r="B174" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C174" s="1">
         <v>3</v>
@@ -7777,7 +7777,7 @@
         <v>30030</v>
       </c>
       <c r="B175" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C175" s="1">
         <v>3</v>
@@ -7825,7 +7825,7 @@
         <v>30031</v>
       </c>
       <c r="B176" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C176" s="1">
         <v>3</v>
@@ -7873,7 +7873,7 @@
         <v>30032</v>
       </c>
       <c r="B177" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C177" s="1">
         <v>3</v>
@@ -7921,7 +7921,7 @@
         <v>30033</v>
       </c>
       <c r="B178" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C178" s="1">
         <v>3</v>
@@ -7969,7 +7969,7 @@
         <v>30034</v>
       </c>
       <c r="B179" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C179" s="1">
         <v>3</v>
@@ -8017,7 +8017,7 @@
         <v>30035</v>
       </c>
       <c r="B180" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C180" s="1">
         <v>3</v>
@@ -8065,7 +8065,7 @@
         <v>30036</v>
       </c>
       <c r="B181" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C181" s="1">
         <v>3</v>
@@ -8113,7 +8113,7 @@
         <v>30037</v>
       </c>
       <c r="B182" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C182" s="1">
         <v>3</v>
@@ -8161,7 +8161,7 @@
         <v>30038</v>
       </c>
       <c r="B183" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C183" s="1">
         <v>3</v>
@@ -8209,7 +8209,7 @@
         <v>30039</v>
       </c>
       <c r="B184" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C184" s="1">
         <v>3</v>
@@ -8257,7 +8257,7 @@
         <v>30040</v>
       </c>
       <c r="B185" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C185" s="1">
         <v>3</v>
@@ -8305,7 +8305,7 @@
         <v>30041</v>
       </c>
       <c r="B186" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C186" s="1">
         <v>3</v>
@@ -8353,7 +8353,7 @@
         <v>30042</v>
       </c>
       <c r="B187" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C187" s="1">
         <v>3</v>
@@ -8401,7 +8401,7 @@
         <v>30043</v>
       </c>
       <c r="B188" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C188" s="1">
         <v>3</v>
@@ -8449,7 +8449,7 @@
         <v>30044</v>
       </c>
       <c r="B189" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C189" s="1">
         <v>3</v>
@@ -8497,7 +8497,7 @@
         <v>30045</v>
       </c>
       <c r="B190" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C190" s="1">
         <v>3</v>
@@ -8545,7 +8545,7 @@
         <v>30046</v>
       </c>
       <c r="B191" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C191" s="1">
         <v>3</v>
@@ -8593,7 +8593,7 @@
         <v>30047</v>
       </c>
       <c r="B192" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C192" s="1">
         <v>3</v>
@@ -8641,7 +8641,7 @@
         <v>30048</v>
       </c>
       <c r="B193" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C193" s="1">
         <v>3</v>
@@ -8689,7 +8689,7 @@
         <v>30049</v>
       </c>
       <c r="B194" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C194" s="1">
         <v>3</v>
@@ -8737,7 +8737,7 @@
         <v>30050</v>
       </c>
       <c r="B195" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C195" s="1">
         <v>3</v>
@@ -8785,7 +8785,7 @@
         <v>30051</v>
       </c>
       <c r="B196" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C196" s="1">
         <v>3</v>
@@ -8833,7 +8833,7 @@
         <v>30052</v>
       </c>
       <c r="B197" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C197" s="1">
         <v>3</v>
@@ -8881,7 +8881,7 @@
         <v>30053</v>
       </c>
       <c r="B198" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C198" s="1">
         <v>3</v>
@@ -8929,7 +8929,7 @@
         <v>30054</v>
       </c>
       <c r="B199" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C199" s="1">
         <v>3</v>
@@ -8977,7 +8977,7 @@
         <v>30055</v>
       </c>
       <c r="B200" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C200" s="1">
         <v>3</v>
@@ -9025,7 +9025,7 @@
         <v>30056</v>
       </c>
       <c r="B201" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C201" s="1">
         <v>3</v>
@@ -9073,7 +9073,7 @@
         <v>30057</v>
       </c>
       <c r="B202" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C202" s="1">
         <v>3</v>
@@ -9121,7 +9121,7 @@
         <v>30058</v>
       </c>
       <c r="B203" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C203" s="1">
         <v>3</v>
@@ -9169,7 +9169,7 @@
         <v>30059</v>
       </c>
       <c r="B204" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C204" s="1">
         <v>3</v>
@@ -9217,7 +9217,7 @@
         <v>30060</v>
       </c>
       <c r="B205" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C205" s="1">
         <v>3</v>
@@ -9265,7 +9265,7 @@
         <v>30061</v>
       </c>
       <c r="B206" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C206" s="1">
         <v>3</v>
@@ -9313,7 +9313,7 @@
         <v>30062</v>
       </c>
       <c r="B207" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C207" s="1">
         <v>3</v>
@@ -9361,7 +9361,7 @@
         <v>30063</v>
       </c>
       <c r="B208" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C208" s="1">
         <v>3</v>
@@ -9409,7 +9409,7 @@
         <v>30064</v>
       </c>
       <c r="B209" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C209" s="1">
         <v>3</v>
@@ -9457,7 +9457,7 @@
         <v>30065</v>
       </c>
       <c r="B210" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C210" s="1">
         <v>3</v>
@@ -9505,7 +9505,7 @@
         <v>30066</v>
       </c>
       <c r="B211" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C211" s="1">
         <v>3</v>
@@ -9553,7 +9553,7 @@
         <v>30067</v>
       </c>
       <c r="B212" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C212" s="1">
         <v>3</v>
@@ -9601,7 +9601,7 @@
         <v>30068</v>
       </c>
       <c r="B213" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C213" s="1">
         <v>3</v>
@@ -9649,7 +9649,7 @@
         <v>30069</v>
       </c>
       <c r="B214" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C214" s="1">
         <v>3</v>
@@ -9697,7 +9697,7 @@
         <v>30070</v>
       </c>
       <c r="B215" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C215" s="1">
         <v>3</v>
@@ -9745,7 +9745,7 @@
         <v>30071</v>
       </c>
       <c r="B216" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C216" s="1">
         <v>3</v>
@@ -9793,7 +9793,7 @@
         <v>30072</v>
       </c>
       <c r="B217" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C217" s="1">
         <v>3</v>
@@ -9841,7 +9841,7 @@
         <v>30073</v>
       </c>
       <c r="B218" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C218" s="1">
         <v>3</v>
@@ -9889,7 +9889,7 @@
         <v>30074</v>
       </c>
       <c r="B219" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C219" s="1">
         <v>3</v>
@@ -9937,7 +9937,7 @@
         <v>30075</v>
       </c>
       <c r="B220" s="1" t="str">
-        <v>翅膀</v>
+        <v>飞行斗技</v>
       </c>
       <c r="C220" s="1">
         <v>3</v>
@@ -11427,7 +11427,7 @@
         <v>30106</v>
       </c>
       <c r="B251" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C251" s="1">
         <v>3</v>
@@ -11475,7 +11475,7 @@
         <v>30107</v>
       </c>
       <c r="B252" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C252" s="1">
         <v>3</v>
@@ -11523,7 +11523,7 @@
         <v>30108</v>
       </c>
       <c r="B253" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C253" s="1">
         <v>3</v>
@@ -11571,7 +11571,7 @@
         <v>30109</v>
       </c>
       <c r="B254" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C254" s="1">
         <v>3</v>
@@ -11619,7 +11619,7 @@
         <v>30110</v>
       </c>
       <c r="B255" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C255" s="1">
         <v>3</v>
@@ -11667,7 +11667,7 @@
         <v>30111</v>
       </c>
       <c r="B256" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C256" s="1">
         <v>3</v>
@@ -11715,7 +11715,7 @@
         <v>30112</v>
       </c>
       <c r="B257" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C257" s="1">
         <v>3</v>
@@ -11763,7 +11763,7 @@
         <v>30113</v>
       </c>
       <c r="B258" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C258" s="1">
         <v>3</v>
@@ -11811,7 +11811,7 @@
         <v>30114</v>
       </c>
       <c r="B259" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C259" s="1">
         <v>3</v>
@@ -11859,7 +11859,7 @@
         <v>30115</v>
       </c>
       <c r="B260" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C260" s="1">
         <v>3</v>
@@ -11907,7 +11907,7 @@
         <v>30116</v>
       </c>
       <c r="B261" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C261" s="1">
         <v>3</v>
@@ -11955,7 +11955,7 @@
         <v>30117</v>
       </c>
       <c r="B262" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C262" s="1">
         <v>3</v>
@@ -12003,7 +12003,7 @@
         <v>30118</v>
       </c>
       <c r="B263" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C263" s="1">
         <v>3</v>
@@ -12051,7 +12051,7 @@
         <v>30119</v>
       </c>
       <c r="B264" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C264" s="1">
         <v>3</v>
@@ -12099,7 +12099,7 @@
         <v>30120</v>
       </c>
       <c r="B265" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C265" s="1">
         <v>3</v>
@@ -12147,7 +12147,7 @@
         <v>30121</v>
       </c>
       <c r="B266" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C266" s="1">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>30122</v>
       </c>
       <c r="B267" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C267" s="1">
         <v>3</v>
@@ -12243,7 +12243,7 @@
         <v>30123</v>
       </c>
       <c r="B268" s="1" t="str">
-        <v>宠物</v>
+        <v>魔兽</v>
       </c>
       <c r="C268" s="1">
         <v>3</v>
@@ -12855,37 +12855,19 @@
       <c r="T281" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="282">
-      <c r="A282" s="1">
-        <v>40008</v>
-      </c>
-      <c r="B282" s="1" t="str">
-        <v>变异沙漠三头狗</v>
-      </c>
-      <c r="C282" s="1">
-        <v>4</v>
-      </c>
-      <c r="D282" s="1">
-        <v>327996</v>
-      </c>
-      <c r="E282" s="1">
-        <v>3</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K282" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L282" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M282" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
@@ -12895,37 +12877,19 @@
       <c r="T282" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="283">
-      <c r="A283" s="1">
-        <v>40009</v>
-      </c>
-      <c r="B283" s="1" t="str">
-        <v>三头狗</v>
-      </c>
-      <c r="C283" s="1">
-        <v>4</v>
-      </c>
-      <c r="D283" s="1">
-        <v>327801</v>
-      </c>
-      <c r="E283" s="1">
-        <v>3</v>
-      </c>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="1">
-        <v>327801</v>
-      </c>
-      <c r="K283" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L283" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M283" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
@@ -12935,37 +12899,19 @@
       <c r="T283" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="284">
-      <c r="A284" s="1">
-        <v>40010</v>
-      </c>
-      <c r="B284" s="1" t="str">
-        <v>小龙</v>
-      </c>
-      <c r="C284" s="1">
-        <v>4</v>
-      </c>
-      <c r="D284" s="1">
-        <v>328246</v>
-      </c>
-      <c r="E284" s="1">
-        <v>2</v>
-      </c>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="1">
-        <v>328246</v>
-      </c>
-      <c r="K284" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L284" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M284" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
@@ -12975,37 +12921,19 @@
       <c r="T284" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="285">
-      <c r="A285" s="1">
-        <v>40011</v>
-      </c>
-      <c r="B285" s="1" t="str">
-        <v>卡通木龙</v>
-      </c>
-      <c r="C285" s="1">
-        <v>4</v>
-      </c>
-      <c r="D285" s="1">
-        <v>328030</v>
-      </c>
-      <c r="E285" s="1">
-        <v>2</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="1">
-        <v>328030</v>
-      </c>
-      <c r="K285" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L285" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M285" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
@@ -13015,37 +12943,19 @@
       <c r="T285" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="286">
-      <c r="A286" s="1">
-        <v>40012</v>
-      </c>
-      <c r="B286" s="1" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C286" s="1">
-        <v>4</v>
-      </c>
-      <c r="D286" s="1">
-        <v>328093</v>
-      </c>
-      <c r="E286" s="1">
-        <v>2</v>
-      </c>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="1">
-        <v>328093</v>
-      </c>
-      <c r="K286" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L286" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M286" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
@@ -13055,37 +12965,19 @@
       <c r="T286" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="287">
-      <c r="A287" s="1">
-        <v>40013</v>
-      </c>
-      <c r="B287" s="1" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C287" s="1">
-        <v>4</v>
-      </c>
-      <c r="D287" s="1">
-        <v>328083</v>
-      </c>
-      <c r="E287" s="1">
-        <v>2</v>
-      </c>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="1">
-        <v>328083</v>
-      </c>
-      <c r="K287" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L287" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M287" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
@@ -13095,37 +12987,19 @@
       <c r="T287" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="288">
-      <c r="A288" s="1">
-        <v>40014</v>
-      </c>
-      <c r="B288" s="1" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C288" s="1">
-        <v>4</v>
-      </c>
-      <c r="D288" s="1">
-        <v>328088</v>
-      </c>
-      <c r="E288" s="1">
-        <v>2</v>
-      </c>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="1">
-        <v>328088</v>
-      </c>
-      <c r="K288" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L288" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M288" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
@@ -13136,34 +13010,18 @@
     </row>
     <row customHeight="true" ht="21" r="289">
       <c r="A289" s="1"/>
-      <c r="B289" s="1" t="str">
-        <v>小鸟模型</v>
-      </c>
-      <c r="C289" s="1">
-        <v>4</v>
-      </c>
-      <c r="D289" s="1">
-        <v>336884</v>
-      </c>
-      <c r="E289" s="1">
-        <v>0</v>
-      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="1">
-        <v>336884</v>
-      </c>
-      <c r="K289" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L289" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M289" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
@@ -13174,34 +13032,18 @@
     </row>
     <row customHeight="true" ht="21" r="290">
       <c r="A290" s="1"/>
-      <c r="B290" s="1" t="str">
-        <v>野狼</v>
-      </c>
-      <c r="C290" s="1">
-        <v>4</v>
-      </c>
-      <c r="D290" s="1">
-        <v>328238</v>
-      </c>
-      <c r="E290" s="1">
-        <v>2</v>
-      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="1">
-        <v>328238</v>
-      </c>
-      <c r="K290" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L290" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M290" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
@@ -13212,34 +13054,18 @@
     </row>
     <row customHeight="true" ht="21" r="291">
       <c r="A291" s="1"/>
-      <c r="B291" s="1" t="str">
-        <v>棕野狼</v>
-      </c>
-      <c r="C291" s="1">
-        <v>4</v>
-      </c>
-      <c r="D291" s="1">
-        <v>328219</v>
-      </c>
-      <c r="E291" s="1">
-        <v>2</v>
-      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="1">
-        <v>328219</v>
-      </c>
-      <c r="K291" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L291" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M291" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
@@ -13250,34 +13076,18 @@
     </row>
     <row customHeight="true" ht="21" r="292">
       <c r="A292" s="1"/>
-      <c r="B292" s="1" t="str">
-        <v>小兔子</v>
-      </c>
-      <c r="C292" s="1">
-        <v>4</v>
-      </c>
-      <c r="D292" s="1">
-        <v>328216</v>
-      </c>
-      <c r="E292" s="1">
-        <v>2</v>
-      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="1">
-        <v>328216</v>
-      </c>
-      <c r="K292" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L292" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M292" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
@@ -13289,23 +13099,23 @@
     <row customHeight="true" ht="21" r="293">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="str">
-        <v>登山猫</v>
+        <v>变异沙漠三头狗</v>
       </c>
       <c r="C293" s="1">
         <v>4</v>
       </c>
       <c r="D293" s="1">
-        <v>328187</v>
+        <v>327996</v>
       </c>
       <c r="E293" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1">
-        <v>328187</v>
+        <v>327996</v>
       </c>
       <c r="K293" s="1" t="str">
         <v>0|0|0</v>
@@ -13327,23 +13137,23 @@
     <row customHeight="true" ht="21" r="294">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="str">
-        <v>水手猫</v>
+        <v>三头狗</v>
       </c>
       <c r="C294" s="1">
         <v>4</v>
       </c>
       <c r="D294" s="1">
-        <v>328197</v>
+        <v>327801</v>
       </c>
       <c r="E294" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1">
-        <v>328197</v>
+        <v>327801</v>
       </c>
       <c r="K294" s="1" t="str">
         <v>0|0|0</v>
@@ -13365,13 +13175,13 @@
     <row customHeight="true" ht="21" r="295">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="str">
-        <v>舞狮头猫</v>
+        <v>小龙</v>
       </c>
       <c r="C295" s="1">
         <v>4</v>
       </c>
       <c r="D295" s="1">
-        <v>328144</v>
+        <v>328246</v>
       </c>
       <c r="E295" s="1">
         <v>2</v>
@@ -13381,7 +13191,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1">
-        <v>328144</v>
+        <v>328246</v>
       </c>
       <c r="K295" s="1" t="str">
         <v>0|0|0</v>
@@ -13403,13 +13213,13 @@
     <row customHeight="true" ht="21" r="296">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="str">
-        <v>祥云能量猫</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C296" s="1">
         <v>4</v>
       </c>
       <c r="D296" s="1">
-        <v>328137</v>
+        <v>328030</v>
       </c>
       <c r="E296" s="1">
         <v>2</v>
@@ -13419,7 +13229,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1">
-        <v>328137</v>
+        <v>328030</v>
       </c>
       <c r="K296" s="1" t="str">
         <v>0|0|0</v>
@@ -13441,13 +13251,13 @@
     <row customHeight="true" ht="21" r="297">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="str">
-        <v>喜庆棉服猫</v>
+        <v>红龙</v>
       </c>
       <c r="C297" s="1">
         <v>4</v>
       </c>
       <c r="D297" s="1">
-        <v>328135</v>
+        <v>328093</v>
       </c>
       <c r="E297" s="1">
         <v>2</v>
@@ -13457,7 +13267,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1">
-        <v>328135</v>
+        <v>328093</v>
       </c>
       <c r="K297" s="1" t="str">
         <v>0|0|0</v>
@@ -13479,13 +13289,13 @@
     <row customHeight="true" ht="21" r="298">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="str">
-        <v>冰雪狐</v>
+        <v>黄龙</v>
       </c>
       <c r="C298" s="1">
         <v>4</v>
       </c>
       <c r="D298" s="1">
-        <v>328081</v>
+        <v>328083</v>
       </c>
       <c r="E298" s="1">
         <v>2</v>
@@ -13495,7 +13305,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1">
-        <v>328081</v>
+        <v>328083</v>
       </c>
       <c r="K298" s="1" t="str">
         <v>0|0|0</v>
@@ -13517,13 +13327,13 @@
     <row customHeight="true" ht="21" r="299">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>蓝龙</v>
       </c>
       <c r="C299" s="1">
         <v>4</v>
       </c>
       <c r="D299" s="1">
-        <v>328030</v>
+        <v>328088</v>
       </c>
       <c r="E299" s="1">
         <v>2</v>
@@ -13533,7 +13343,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1">
-        <v>328030</v>
+        <v>328088</v>
       </c>
       <c r="K299" s="1" t="str">
         <v>0|0|0</v>
@@ -13554,34 +13364,18 @@
     </row>
     <row customHeight="true" ht="21" r="300">
       <c r="A300" s="1"/>
-      <c r="B300" s="1" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C300" s="1">
-        <v>4</v>
-      </c>
-      <c r="D300" s="1">
-        <v>328093</v>
-      </c>
-      <c r="E300" s="1">
-        <v>2</v>
-      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="1">
-        <v>328093</v>
-      </c>
-      <c r="K300" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L300" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M300" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
@@ -13592,34 +13386,18 @@
     </row>
     <row customHeight="true" ht="21" r="301">
       <c r="A301" s="1"/>
-      <c r="B301" s="1" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C301" s="1">
-        <v>4</v>
-      </c>
-      <c r="D301" s="1">
-        <v>328083</v>
-      </c>
-      <c r="E301" s="1">
-        <v>2</v>
-      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="1">
-        <v>328083</v>
-      </c>
-      <c r="K301" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L301" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M301" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
@@ -13630,34 +13408,18 @@
     </row>
     <row customHeight="true" ht="21" r="302">
       <c r="A302" s="1"/>
-      <c r="B302" s="1" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C302" s="1">
-        <v>4</v>
-      </c>
-      <c r="D302" s="1">
-        <v>328088</v>
-      </c>
-      <c r="E302" s="1">
-        <v>2</v>
-      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="1">
-        <v>328088</v>
-      </c>
-      <c r="K302" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L302" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M302" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
@@ -13668,34 +13430,18 @@
     </row>
     <row customHeight="true" ht="21" r="303">
       <c r="A303" s="1"/>
-      <c r="B303" s="1" t="str">
-        <v>唐装坐骑熊猫</v>
-      </c>
-      <c r="C303" s="1">
-        <v>4</v>
-      </c>
-      <c r="D303" s="1">
-        <v>327940</v>
-      </c>
-      <c r="E303" s="1">
-        <v>3</v>
-      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="1">
-        <v>327940</v>
-      </c>
-      <c r="K303" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L303" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M303" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
@@ -13706,34 +13452,18 @@
     </row>
     <row customHeight="true" ht="21" r="304">
       <c r="A304" s="1"/>
-      <c r="B304" s="1" t="str">
-        <v>唐装熊猫</v>
-      </c>
-      <c r="C304" s="1">
-        <v>4</v>
-      </c>
-      <c r="D304" s="1">
-        <v>327934</v>
-      </c>
-      <c r="E304" s="1">
-        <v>2</v>
-      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="1">
-        <v>327934</v>
-      </c>
-      <c r="K304" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L304" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M304" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
@@ -13744,34 +13474,18 @@
     </row>
     <row customHeight="true" ht="21" r="305">
       <c r="A305" s="1"/>
-      <c r="B305" s="1" t="str">
-        <v>小金毛</v>
-      </c>
-      <c r="C305" s="1">
-        <v>4</v>
-      </c>
-      <c r="D305" s="1">
-        <v>327936</v>
-      </c>
-      <c r="E305" s="1">
-        <v>0</v>
-      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="1">
-        <v>327936</v>
-      </c>
-      <c r="K305" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L305" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M305" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
@@ -13782,34 +13496,18 @@
     </row>
     <row customHeight="true" ht="21" r="306">
       <c r="A306" s="1"/>
-      <c r="B306" s="1" t="str">
-        <v>垂耳兔</v>
-      </c>
-      <c r="C306" s="1">
-        <v>4</v>
-      </c>
-      <c r="D306" s="1">
-        <v>327907</v>
-      </c>
-      <c r="E306" s="1">
-        <v>2</v>
-      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="1">
-        <v>327907</v>
-      </c>
-      <c r="K306" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L306" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M306" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
@@ -13820,34 +13518,18 @@
     </row>
     <row customHeight="true" ht="21" r="307">
       <c r="A307" s="1"/>
-      <c r="B307" s="1" t="str">
-        <v>无毛猫</v>
-      </c>
-      <c r="C307" s="1">
-        <v>4</v>
-      </c>
-      <c r="D307" s="1">
-        <v>327894</v>
-      </c>
-      <c r="E307" s="1">
-        <v>0</v>
-      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="1">
-        <v>327894</v>
-      </c>
-      <c r="K307" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L307" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M307" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
@@ -13858,34 +13540,18 @@
     </row>
     <row customHeight="true" ht="21" r="308">
       <c r="A308" s="1"/>
-      <c r="B308" s="1" t="str">
-        <v>蓝白帽子猫</v>
-      </c>
-      <c r="C308" s="1">
-        <v>4</v>
-      </c>
-      <c r="D308" s="1">
-        <v>327891</v>
-      </c>
-      <c r="E308" s="1">
-        <v>2</v>
-      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="1">
-        <v>327891</v>
-      </c>
-      <c r="K308" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L308" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M308" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
@@ -13896,34 +13562,18 @@
     </row>
     <row customHeight="true" ht="21" r="309">
       <c r="A309" s="1"/>
-      <c r="B309" s="1" t="str">
-        <v>礼帽暹罗猫</v>
-      </c>
-      <c r="C309" s="1">
-        <v>4</v>
-      </c>
-      <c r="D309" s="1">
-        <v>327889</v>
-      </c>
-      <c r="E309" s="1">
-        <v>3</v>
-      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1">
-        <v>327889</v>
-      </c>
-      <c r="K309" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L309" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M309" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
@@ -13934,34 +13584,18 @@
     </row>
     <row customHeight="true" ht="21" r="310">
       <c r="A310" s="1"/>
-      <c r="B310" s="1" t="str">
-        <v>熊猫</v>
-      </c>
-      <c r="C310" s="1">
-        <v>4</v>
-      </c>
-      <c r="D310" s="1">
-        <v>327881</v>
-      </c>
-      <c r="E310" s="1">
-        <v>0</v>
-      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="1">
-        <v>327881</v>
-      </c>
-      <c r="K310" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L310" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M310" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
@@ -13973,23 +13607,23 @@
     <row customHeight="true" ht="21" r="311">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="str">
-        <v>兔子帽猫</v>
+        <v>小鸟模型</v>
       </c>
       <c r="C311" s="1">
         <v>4</v>
       </c>
       <c r="D311" s="1">
-        <v>327874</v>
+        <v>336884</v>
       </c>
       <c r="E311" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1">
-        <v>327874</v>
+        <v>336884</v>
       </c>
       <c r="K311" s="1" t="str">
         <v>0|0|0</v>
@@ -14011,13 +13645,13 @@
     <row customHeight="true" ht="21" r="312">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="str">
-        <v>三花铃铛猫</v>
+        <v>野狼</v>
       </c>
       <c r="C312" s="1">
         <v>4</v>
       </c>
       <c r="D312" s="1">
-        <v>327868</v>
+        <v>328238</v>
       </c>
       <c r="E312" s="1">
         <v>2</v>
@@ -14027,7 +13661,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1">
-        <v>327868</v>
+        <v>328238</v>
       </c>
       <c r="K312" s="1" t="str">
         <v>0|0|0</v>
@@ -14049,13 +13683,13 @@
     <row customHeight="true" ht="21" r="313">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="str">
-        <v>黑色蝴蝶猫</v>
+        <v>棕野狼</v>
       </c>
       <c r="C313" s="1">
         <v>4</v>
       </c>
       <c r="D313" s="1">
-        <v>327837</v>
+        <v>328219</v>
       </c>
       <c r="E313" s="1">
         <v>2</v>
@@ -14065,7 +13699,7 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1">
-        <v>327837</v>
+        <v>328219</v>
       </c>
       <c r="K313" s="1" t="str">
         <v>0|0|0</v>
@@ -14087,13 +13721,13 @@
     <row customHeight="true" ht="21" r="314">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="str">
-        <v>美短圣诞猫</v>
+        <v>小兔子</v>
       </c>
       <c r="C314" s="1">
         <v>4</v>
       </c>
       <c r="D314" s="1">
-        <v>327774</v>
+        <v>328216</v>
       </c>
       <c r="E314" s="1">
         <v>2</v>
@@ -14103,7 +13737,7 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1">
-        <v>327774</v>
+        <v>328216</v>
       </c>
       <c r="K314" s="1" t="str">
         <v>0|0|0</v>
@@ -14125,23 +13759,23 @@
     <row customHeight="true" ht="21" r="315">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="str">
-        <v>蓝白垂耳兔</v>
+        <v>登山猫</v>
       </c>
       <c r="C315" s="1">
         <v>4</v>
       </c>
       <c r="D315" s="1">
-        <v>160051</v>
+        <v>328187</v>
       </c>
       <c r="E315" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1">
-        <v>160051</v>
+        <v>328187</v>
       </c>
       <c r="K315" s="1" t="str">
         <v>0|0|0</v>
@@ -14163,23 +13797,23 @@
     <row customHeight="true" ht="21" r="316">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="str">
-        <v>粉猪</v>
+        <v>水手猫</v>
       </c>
       <c r="C316" s="1">
         <v>4</v>
       </c>
       <c r="D316" s="1">
-        <v>327745</v>
+        <v>328197</v>
       </c>
       <c r="E316" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1">
-        <v>327745</v>
+        <v>328197</v>
       </c>
       <c r="K316" s="1" t="str">
         <v>0|0|0</v>
@@ -14201,23 +13835,23 @@
     <row customHeight="true" ht="21" r="317">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="str">
-        <v>虎斑猫</v>
+        <v>舞狮头猫</v>
       </c>
       <c r="C317" s="1">
         <v>4</v>
       </c>
       <c r="D317" s="1">
-        <v>327747</v>
+        <v>328144</v>
       </c>
       <c r="E317" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1">
-        <v>327747</v>
+        <v>328144</v>
       </c>
       <c r="K317" s="1" t="str">
         <v>0|0|0</v>
@@ -14239,23 +13873,23 @@
     <row customHeight="true" ht="21" r="318">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="str">
-        <v>天使猫</v>
+        <v>祥云能量猫</v>
       </c>
       <c r="C318" s="1">
         <v>4</v>
       </c>
       <c r="D318" s="1">
-        <v>327748</v>
+        <v>328137</v>
       </c>
       <c r="E318" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1">
-        <v>327748</v>
+        <v>328137</v>
       </c>
       <c r="K318" s="1" t="str">
         <v>0|0|0</v>
@@ -14277,23 +13911,23 @@
     <row customHeight="true" ht="21" r="319">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="str">
-        <v>小恶魔猫</v>
+        <v>喜庆棉服猫</v>
       </c>
       <c r="C319" s="1">
         <v>4</v>
       </c>
       <c r="D319" s="1">
-        <v>327754</v>
+        <v>328135</v>
       </c>
       <c r="E319" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1">
-        <v>327754</v>
+        <v>328135</v>
       </c>
       <c r="K319" s="1" t="str">
         <v>0|0|0</v>
@@ -14315,23 +13949,23 @@
     <row customHeight="true" ht="21" r="320">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="str">
-        <v>独眼布偶猫</v>
+        <v>冰雪狐</v>
       </c>
       <c r="C320" s="1">
         <v>4</v>
       </c>
       <c r="D320" s="1">
-        <v>327758</v>
+        <v>328081</v>
       </c>
       <c r="E320" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1">
-        <v>327758</v>
+        <v>328081</v>
       </c>
       <c r="K320" s="1" t="str">
         <v>0|0|0</v>
@@ -14353,23 +13987,23 @@
     <row customHeight="true" ht="21" r="321">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="str">
-        <v>花猪</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C321" s="1">
         <v>4</v>
       </c>
       <c r="D321" s="1">
-        <v>327761</v>
+        <v>328030</v>
       </c>
       <c r="E321" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1">
-        <v>327761</v>
+        <v>328030</v>
       </c>
       <c r="K321" s="1" t="str">
         <v>0|0|0</v>
@@ -14391,23 +14025,23 @@
     <row customHeight="true" ht="21" r="322">
       <c r="A322" s="1"/>
       <c r="B322" s="1" t="str">
-        <v>太阳帽猫</v>
+        <v>红龙</v>
       </c>
       <c r="C322" s="1">
         <v>4</v>
       </c>
       <c r="D322" s="1">
-        <v>327762</v>
+        <v>328093</v>
       </c>
       <c r="E322" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1">
-        <v>327762</v>
+        <v>328093</v>
       </c>
       <c r="K322" s="1" t="str">
         <v>0|0|0</v>
@@ -14429,23 +14063,23 @@
     <row customHeight="true" ht="21" r="323">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="str">
-        <v>斑点垂耳狗</v>
+        <v>黄龙</v>
       </c>
       <c r="C323" s="1">
         <v>4</v>
       </c>
       <c r="D323" s="1">
-        <v>327770</v>
+        <v>328083</v>
       </c>
       <c r="E323" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1">
-        <v>327770</v>
+        <v>328083</v>
       </c>
       <c r="K323" s="1" t="str">
         <v>0|0|0</v>
@@ -14467,23 +14101,23 @@
     <row customHeight="true" ht="21" r="324">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="str">
-        <v>黑白色直耳兔</v>
+        <v>蓝龙</v>
       </c>
       <c r="C324" s="1">
         <v>4</v>
       </c>
       <c r="D324" s="1">
-        <v>327773</v>
+        <v>328088</v>
       </c>
       <c r="E324" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1">
-        <v>327773</v>
+        <v>328088</v>
       </c>
       <c r="K324" s="1" t="str">
         <v>0|0|0</v>
@@ -14505,23 +14139,23 @@
     <row customHeight="true" ht="21" r="325">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="str">
-        <v>橘猫</v>
+        <v>唐装坐骑熊猫</v>
       </c>
       <c r="C325" s="1">
         <v>4</v>
       </c>
       <c r="D325" s="1">
-        <v>327786</v>
+        <v>327940</v>
       </c>
       <c r="E325" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1">
-        <v>327786</v>
+        <v>327940</v>
       </c>
       <c r="K325" s="1" t="str">
         <v>0|0|0</v>
@@ -14543,23 +14177,23 @@
     <row customHeight="true" ht="21" r="326">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="str">
-        <v>条纹外套白猫</v>
+        <v>唐装熊猫</v>
       </c>
       <c r="C326" s="1">
         <v>4</v>
       </c>
       <c r="D326" s="1">
-        <v>327791</v>
+        <v>327934</v>
       </c>
       <c r="E326" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1">
-        <v>327791</v>
+        <v>327934</v>
       </c>
       <c r="K326" s="1" t="str">
         <v>0|0|0</v>
@@ -14581,23 +14215,23 @@
     <row customHeight="true" ht="21" r="327">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="str">
-        <v>墨镜花猫</v>
+        <v>小金毛</v>
       </c>
       <c r="C327" s="1">
         <v>4</v>
       </c>
       <c r="D327" s="1">
-        <v>327860</v>
+        <v>327936</v>
       </c>
       <c r="E327" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1">
-        <v>327860</v>
+        <v>327936</v>
       </c>
       <c r="K327" s="1" t="str">
         <v>0|0|0</v>
@@ -14619,23 +14253,23 @@
     <row customHeight="true" ht="21" r="328">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="str">
-        <v>眼镜蓝猫</v>
+        <v>垂耳兔</v>
       </c>
       <c r="C328" s="1">
         <v>4</v>
       </c>
       <c r="D328" s="1">
-        <v>327849</v>
+        <v>327907</v>
       </c>
       <c r="E328" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1">
-        <v>327849</v>
+        <v>327907</v>
       </c>
       <c r="K328" s="1" t="str">
         <v>0|0|0</v>
@@ -14657,23 +14291,23 @@
     <row customHeight="true" ht="21" r="329">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="str">
-        <v>巫师帽猫</v>
+        <v>无毛猫</v>
       </c>
       <c r="C329" s="1">
         <v>4</v>
       </c>
       <c r="D329" s="1">
-        <v>327861</v>
+        <v>327894</v>
       </c>
       <c r="E329" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1">
-        <v>327861</v>
+        <v>327894</v>
       </c>
       <c r="K329" s="1" t="str">
         <v>0|0|0</v>
@@ -14695,23 +14329,23 @@
     <row customHeight="true" ht="21" r="330">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="str">
-        <v>白色萨摩耶</v>
+        <v>蓝白帽子猫</v>
       </c>
       <c r="C330" s="1">
         <v>4</v>
       </c>
       <c r="D330" s="1">
-        <v>327937</v>
+        <v>327891</v>
       </c>
       <c r="E330" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1">
-        <v>327937</v>
+        <v>327891</v>
       </c>
       <c r="K330" s="1" t="str">
         <v>0|0|0</v>
@@ -14733,23 +14367,23 @@
     <row customHeight="true" ht="21" r="331">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="str">
-        <v>矮脚马</v>
+        <v>礼帽暹罗猫</v>
       </c>
       <c r="C331" s="1">
         <v>4</v>
       </c>
       <c r="D331" s="1">
-        <v>327960</v>
+        <v>327889</v>
       </c>
       <c r="E331" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1">
-        <v>327960</v>
+        <v>327889</v>
       </c>
       <c r="K331" s="1" t="str">
         <v>0|0|0</v>
@@ -14771,23 +14405,23 @@
     <row customHeight="true" ht="21" r="332">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="str">
-        <v>美短方帽猫</v>
+        <v>熊猫</v>
       </c>
       <c r="C332" s="1">
         <v>4</v>
       </c>
       <c r="D332" s="1">
-        <v>327973</v>
+        <v>327881</v>
       </c>
       <c r="E332" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1">
-        <v>327973</v>
+        <v>327881</v>
       </c>
       <c r="K332" s="1" t="str">
         <v>0|0|0</v>
@@ -14809,23 +14443,23 @@
     <row customHeight="true" ht="21" r="333">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="str">
-        <v>黑猫</v>
+        <v>兔子帽猫</v>
       </c>
       <c r="C333" s="1">
         <v>4</v>
       </c>
       <c r="D333" s="1">
-        <v>327963</v>
+        <v>327874</v>
       </c>
       <c r="E333" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1">
-        <v>327963</v>
+        <v>327874</v>
       </c>
       <c r="K333" s="1" t="str">
         <v>0|0|0</v>
@@ -14847,23 +14481,23 @@
     <row customHeight="true" ht="21" r="334">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="str">
-        <v>小黄狗</v>
+        <v>三花铃铛猫</v>
       </c>
       <c r="C334" s="1">
         <v>4</v>
       </c>
       <c r="D334" s="1">
-        <v>327990</v>
+        <v>327868</v>
       </c>
       <c r="E334" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1">
-        <v>327990</v>
+        <v>327868</v>
       </c>
       <c r="K334" s="1" t="str">
         <v>0|0|0</v>
@@ -14885,23 +14519,23 @@
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="str">
-        <v>黄色猫咪团子</v>
+        <v>黑色蝴蝶猫</v>
       </c>
       <c r="C335" s="1">
         <v>4</v>
       </c>
       <c r="D335" s="1">
-        <v>338994</v>
+        <v>327837</v>
       </c>
       <c r="E335" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1">
-        <v>338994</v>
+        <v>327837</v>
       </c>
       <c r="K335" s="1" t="str">
         <v>0|0|0</v>
@@ -14923,23 +14557,23 @@
     <row customHeight="true" ht="21" r="336">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="str">
-        <v>鹦鹉</v>
+        <v>美短圣诞猫</v>
       </c>
       <c r="C336" s="1">
         <v>4</v>
       </c>
       <c r="D336" s="1">
-        <v>326463</v>
+        <v>327774</v>
       </c>
       <c r="E336" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1">
-        <v>326463</v>
+        <v>327774</v>
       </c>
       <c r="K336" s="1" t="str">
         <v>0|0|0</v>
@@ -14961,13 +14595,13 @@
     <row customHeight="true" ht="21" r="337">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="str">
-        <v>暹罗樱花猫</v>
+        <v>蓝白垂耳兔</v>
       </c>
       <c r="C337" s="1">
         <v>4</v>
       </c>
       <c r="D337" s="1">
-        <v>327764</v>
+        <v>160051</v>
       </c>
       <c r="E337" s="1">
         <v>1</v>
@@ -14977,7 +14611,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1">
-        <v>327764</v>
+        <v>160051</v>
       </c>
       <c r="K337" s="1" t="str">
         <v>0|0|0</v>
@@ -14999,23 +14633,23 @@
     <row customHeight="true" ht="21" r="338">
       <c r="A338" s="1"/>
       <c r="B338" s="1" t="str">
-        <v>蓝白翅膀猫</v>
+        <v>粉猪</v>
       </c>
       <c r="C338" s="1">
         <v>4</v>
       </c>
       <c r="D338" s="1">
-        <v>327814</v>
+        <v>327745</v>
       </c>
       <c r="E338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1">
-        <v>327814</v>
+        <v>327745</v>
       </c>
       <c r="K338" s="1" t="str">
         <v>0|0|0</v>
@@ -15034,6 +14668,842 @@
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
     </row>
+    <row customHeight="true" ht="21" r="339">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1" t="str">
+        <v>虎斑猫</v>
+      </c>
+      <c r="C339" s="1">
+        <v>4</v>
+      </c>
+      <c r="D339" s="1">
+        <v>327747</v>
+      </c>
+      <c r="E339" s="1">
+        <v>1</v>
+      </c>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1">
+        <v>327747</v>
+      </c>
+      <c r="K339" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L339" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M339" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="340">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1" t="str">
+        <v>天使猫</v>
+      </c>
+      <c r="C340" s="1">
+        <v>4</v>
+      </c>
+      <c r="D340" s="1">
+        <v>327748</v>
+      </c>
+      <c r="E340" s="1">
+        <v>1</v>
+      </c>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1">
+        <v>327748</v>
+      </c>
+      <c r="K340" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L340" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M340" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="341">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1" t="str">
+        <v>小恶魔猫</v>
+      </c>
+      <c r="C341" s="1">
+        <v>4</v>
+      </c>
+      <c r="D341" s="1">
+        <v>327754</v>
+      </c>
+      <c r="E341" s="1">
+        <v>3</v>
+      </c>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1">
+        <v>327754</v>
+      </c>
+      <c r="K341" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L341" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M341" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="1"/>
+      <c r="Q341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="342">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1" t="str">
+        <v>独眼布偶猫</v>
+      </c>
+      <c r="C342" s="1">
+        <v>4</v>
+      </c>
+      <c r="D342" s="1">
+        <v>327758</v>
+      </c>
+      <c r="E342" s="1">
+        <v>1</v>
+      </c>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1">
+        <v>327758</v>
+      </c>
+      <c r="K342" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L342" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M342" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+      <c r="P342" s="1"/>
+      <c r="Q342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="343">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1" t="str">
+        <v>花猪</v>
+      </c>
+      <c r="C343" s="1">
+        <v>4</v>
+      </c>
+      <c r="D343" s="1">
+        <v>327761</v>
+      </c>
+      <c r="E343" s="1">
+        <v>0</v>
+      </c>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1">
+        <v>327761</v>
+      </c>
+      <c r="K343" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L343" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M343" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="344">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1" t="str">
+        <v>太阳帽猫</v>
+      </c>
+      <c r="C344" s="1">
+        <v>4</v>
+      </c>
+      <c r="D344" s="1">
+        <v>327762</v>
+      </c>
+      <c r="E344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1">
+        <v>327762</v>
+      </c>
+      <c r="K344" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L344" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M344" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="P344" s="1"/>
+      <c r="Q344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="345">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1" t="str">
+        <v>斑点垂耳狗</v>
+      </c>
+      <c r="C345" s="1">
+        <v>4</v>
+      </c>
+      <c r="D345" s="1">
+        <v>327770</v>
+      </c>
+      <c r="E345" s="1">
+        <v>0</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1">
+        <v>327770</v>
+      </c>
+      <c r="K345" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L345" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M345" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="1"/>
+      <c r="Q345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="346">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1" t="str">
+        <v>黑白色直耳兔</v>
+      </c>
+      <c r="C346" s="1">
+        <v>4</v>
+      </c>
+      <c r="D346" s="1">
+        <v>327773</v>
+      </c>
+      <c r="E346" s="1">
+        <v>0</v>
+      </c>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1">
+        <v>327773</v>
+      </c>
+      <c r="K346" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L346" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M346" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+      <c r="P346" s="1"/>
+      <c r="Q346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="347">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1" t="str">
+        <v>橘猫</v>
+      </c>
+      <c r="C347" s="1">
+        <v>4</v>
+      </c>
+      <c r="D347" s="1">
+        <v>327786</v>
+      </c>
+      <c r="E347" s="1">
+        <v>0</v>
+      </c>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1">
+        <v>327786</v>
+      </c>
+      <c r="K347" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L347" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M347" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+      <c r="P347" s="1"/>
+      <c r="Q347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="348">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1" t="str">
+        <v>条纹外套白猫</v>
+      </c>
+      <c r="C348" s="1">
+        <v>4</v>
+      </c>
+      <c r="D348" s="1">
+        <v>327791</v>
+      </c>
+      <c r="E348" s="1">
+        <v>0</v>
+      </c>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1">
+        <v>327791</v>
+      </c>
+      <c r="K348" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L348" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M348" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="349">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1" t="str">
+        <v>墨镜花猫</v>
+      </c>
+      <c r="C349" s="1">
+        <v>4</v>
+      </c>
+      <c r="D349" s="1">
+        <v>327860</v>
+      </c>
+      <c r="E349" s="1">
+        <v>1</v>
+      </c>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1">
+        <v>327860</v>
+      </c>
+      <c r="K349" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L349" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M349" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="350">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1" t="str">
+        <v>眼镜蓝猫</v>
+      </c>
+      <c r="C350" s="1">
+        <v>4</v>
+      </c>
+      <c r="D350" s="1">
+        <v>327849</v>
+      </c>
+      <c r="E350" s="1">
+        <v>1</v>
+      </c>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1">
+        <v>327849</v>
+      </c>
+      <c r="K350" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L350" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M350" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="351">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1" t="str">
+        <v>巫师帽猫</v>
+      </c>
+      <c r="C351" s="1">
+        <v>4</v>
+      </c>
+      <c r="D351" s="1">
+        <v>327861</v>
+      </c>
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1">
+        <v>327861</v>
+      </c>
+      <c r="K351" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L351" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M351" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="352">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1" t="str">
+        <v>白色萨摩耶</v>
+      </c>
+      <c r="C352" s="1">
+        <v>4</v>
+      </c>
+      <c r="D352" s="1">
+        <v>327937</v>
+      </c>
+      <c r="E352" s="1">
+        <v>1</v>
+      </c>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1">
+        <v>327937</v>
+      </c>
+      <c r="K352" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L352" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M352" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+      <c r="P352" s="1"/>
+      <c r="Q352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="353">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1" t="str">
+        <v>矮脚马</v>
+      </c>
+      <c r="C353" s="1">
+        <v>4</v>
+      </c>
+      <c r="D353" s="1">
+        <v>327960</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1">
+        <v>327960</v>
+      </c>
+      <c r="K353" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L353" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M353" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="354">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1" t="str">
+        <v>美短方帽猫</v>
+      </c>
+      <c r="C354" s="1">
+        <v>4</v>
+      </c>
+      <c r="D354" s="1">
+        <v>327973</v>
+      </c>
+      <c r="E354" s="1">
+        <v>1</v>
+      </c>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1">
+        <v>327973</v>
+      </c>
+      <c r="K354" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L354" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M354" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="355">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1" t="str">
+        <v>黑猫</v>
+      </c>
+      <c r="C355" s="1">
+        <v>4</v>
+      </c>
+      <c r="D355" s="1">
+        <v>327963</v>
+      </c>
+      <c r="E355" s="1">
+        <v>0</v>
+      </c>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1">
+        <v>327963</v>
+      </c>
+      <c r="K355" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L355" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M355" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+      <c r="P355" s="1"/>
+      <c r="Q355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="356">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1" t="str">
+        <v>小黄狗</v>
+      </c>
+      <c r="C356" s="1">
+        <v>4</v>
+      </c>
+      <c r="D356" s="1">
+        <v>327990</v>
+      </c>
+      <c r="E356" s="1">
+        <v>0</v>
+      </c>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1">
+        <v>327990</v>
+      </c>
+      <c r="K356" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L356" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M356" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+      <c r="P356" s="1"/>
+      <c r="Q356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="357">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1" t="str">
+        <v>黄色猫咪团子</v>
+      </c>
+      <c r="C357" s="1">
+        <v>4</v>
+      </c>
+      <c r="D357" s="1">
+        <v>338994</v>
+      </c>
+      <c r="E357" s="1">
+        <v>1</v>
+      </c>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1">
+        <v>338994</v>
+      </c>
+      <c r="K357" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L357" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M357" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="358">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1" t="str">
+        <v>鹦鹉</v>
+      </c>
+      <c r="C358" s="1">
+        <v>4</v>
+      </c>
+      <c r="D358" s="1">
+        <v>326463</v>
+      </c>
+      <c r="E358" s="1">
+        <v>1</v>
+      </c>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1">
+        <v>326463</v>
+      </c>
+      <c r="K358" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L358" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M358" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="359">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1" t="str">
+        <v>暹罗樱花猫</v>
+      </c>
+      <c r="C359" s="1">
+        <v>4</v>
+      </c>
+      <c r="D359" s="1">
+        <v>327764</v>
+      </c>
+      <c r="E359" s="1">
+        <v>1</v>
+      </c>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1">
+        <v>327764</v>
+      </c>
+      <c r="K359" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L359" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M359" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
+      <c r="R359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="T359" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="360">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1" t="str">
+        <v>蓝白飞行斗技猫</v>
+      </c>
+      <c r="C360" s="1">
+        <v>4</v>
+      </c>
+      <c r="D360" s="1">
+        <v>327814</v>
+      </c>
+      <c r="E360" s="1">
+        <v>1</v>
+      </c>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1">
+        <v>327814</v>
+      </c>
+      <c r="K360" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L360" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M360" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+      <c r="P360" s="1"/>
+      <c r="Q360" s="1"/>
+      <c r="R360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="T360" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -34,10 +34,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,14 +79,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,29 +92,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,7 +107,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,14 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,10 +220,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -255,10 +241,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,29 +568,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -655,7 +638,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -703,7 +686,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="str">
@@ -732,7 +715,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -754,12 +737,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>斗技|皮肤|装备|魔兽</v>
+        <v>武魂|魂师|魂骨|魂兽</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -780,27 +763,27 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="3" t="str">
         <v>悟空法杖</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="2">
         <v>118140</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="8">
+      <c r="J6" s="2">
         <v>118140</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -820,27 +803,27 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="3" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="2">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="8">
+      <c r="J7" s="2">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -860,27 +843,27 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="3" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="2">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="8">
+      <c r="J8" s="2">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -900,27 +883,27 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="7" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="2">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8">
+      <c r="J9" s="2">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -940,27 +923,27 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="7" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="2">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8">
+      <c r="J10" s="2">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -980,27 +963,27 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="7" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="2">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="8">
+      <c r="J11" s="2">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1020,27 +1003,27 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="7" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="2">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="8">
+      <c r="J12" s="2">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1060,27 +1043,27 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="7" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>218730</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="6">
+      <c r="J13" s="1">
         <v>218730</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1100,27 +1083,27 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="6" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="1">
         <v>210791</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="6">
+      <c r="J14" s="1">
         <v>210791</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1140,27 +1123,27 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="6" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="1">
         <v>221099</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="6">
+      <c r="J15" s="1">
         <v>221099</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1180,27 +1163,27 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="6" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="1">
         <v>43702</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="6">
+      <c r="J16" s="1">
         <v>43702</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1220,27 +1203,27 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="6" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="1">
         <v>103067</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="6">
+      <c r="J17" s="1">
         <v>103067</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1260,27 +1243,27 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="5" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="6">
+      <c r="J18" s="1">
         <v>103080</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1300,27 +1283,27 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="6" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="1">
         <v>103075</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="6">
+      <c r="J19" s="1">
         <v>103075</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1340,27 +1323,27 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="6" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="1">
         <v>122946</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="6">
+      <c r="J20" s="1">
         <v>122946</v>
       </c>
       <c r="K20" s="1" t="str">
@@ -1380,27 +1363,27 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="6" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="1">
         <v>31710</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="6">
+      <c r="J21" s="1">
         <v>31710</v>
       </c>
       <c r="K21" s="1" t="str">
@@ -1420,27 +1403,27 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="5" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="1">
         <v>103069</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="6">
+      <c r="J22" s="1">
         <v>103069</v>
       </c>
       <c r="K22" s="1" t="str">
@@ -1460,27 +1443,27 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="6" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="1">
         <v>122961</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="6">
+      <c r="J23" s="1">
         <v>122961</v>
       </c>
       <c r="K23" s="1" t="str">
@@ -1500,27 +1483,27 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>10019</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="1" t="str">
         <v>法杖(宇智波鼬专用)</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="1">
         <v>272767</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="6">
+      <c r="J24" s="1">
         <v>272767</v>
       </c>
       <c r="K24" s="1" t="str">
@@ -1540,27 +1523,27 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>10020</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="1" t="str">
         <v>水枪</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="1">
         <v>166941</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="6">
+      <c r="J25" s="1">
         <v>166941</v>
       </c>
       <c r="K25" s="1" t="str">
@@ -1580,27 +1563,27 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>10021</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="1" t="str">
         <v>冰钻剑</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="1">
         <v>31712</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="6">
+      <c r="J26" s="1">
         <v>31712</v>
       </c>
       <c r="K26" s="1" t="str">
@@ -1620,27 +1603,27 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>10022</v>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="1" t="str">
         <v>屠刀</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="1">
         <v>118142</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="6">
+      <c r="J27" s="1">
         <v>118142</v>
       </c>
       <c r="K27" s="1" t="str">
@@ -1660,27 +1643,27 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="7" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="1">
         <v>210651</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="6">
+      <c r="J28" s="1">
         <v>210651</v>
       </c>
       <c r="K28" s="1" t="str">
@@ -1700,27 +1683,27 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="7" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="1">
         <v>121672</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="6">
+      <c r="J29" s="1">
         <v>121672</v>
       </c>
       <c r="K29" s="1" t="str">
@@ -1740,27 +1723,27 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="7" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="1">
         <v>122956</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="6">
+      <c r="J30" s="1">
         <v>122956</v>
       </c>
       <c r="K30" s="1" t="str">
@@ -1780,27 +1763,27 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="7" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="1">
         <v>103068</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="6">
+      <c r="J31" s="1">
         <v>103068</v>
       </c>
       <c r="K31" s="1" t="str">
@@ -1820,27 +1803,27 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="7" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="1">
         <v>103083</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="6">
+      <c r="J32" s="1">
         <v>103083</v>
       </c>
       <c r="K32" s="1" t="str">
@@ -1860,27 +1843,27 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="10" t="str" xml:space="preserve">
+      <c r="B33" s="9" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="1">
         <v>198698</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="6">
+      <c r="J33" s="1">
         <v>198698</v>
       </c>
       <c r="K33" s="1" t="str">
@@ -1900,27 +1883,27 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="9" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="1">
         <v>29057</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="6">
+      <c r="J34" s="1">
         <v>29057</v>
       </c>
       <c r="K34" s="1" t="str">
@@ -1940,27 +1923,27 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="11" t="str">
+      <c r="B35" s="8" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="1">
         <v>272130</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="6">
+      <c r="J35" s="1">
         <v>272130</v>
       </c>
       <c r="K35" s="1" t="str">
@@ -1980,27 +1963,27 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
+    <row customHeight="true" ht="23" r="36">
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="11" t="str">
+      <c r="B36" s="8" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="1">
         <v>300436</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="6">
+      <c r="J36" s="1">
         <v>300436</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -2020,27 +2003,27 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="11" t="str">
+      <c r="B37" s="8" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="1">
         <v>121541</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="6">
+      <c r="J37" s="1">
         <v>121541</v>
       </c>
       <c r="K37" s="1" t="str">
@@ -2060,27 +2043,27 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="11" t="str">
+      <c r="B38" s="8" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="1">
         <v>122950</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="6">
+      <c r="J38" s="1">
         <v>122950</v>
       </c>
       <c r="K38" s="1" t="str">
@@ -2100,27 +2083,27 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="6" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="1">
         <v>31734</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="6">
+      <c r="J39" s="1">
         <v>31734</v>
       </c>
       <c r="K39" s="1" t="str">
@@ -2140,27 +2123,27 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="6" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="1">
         <v>155702</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="6">
+      <c r="J40" s="1">
         <v>155702</v>
       </c>
       <c r="K40" s="1" t="str">
@@ -2180,27 +2163,27 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="6" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="1">
         <v>122726</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="6">
+      <c r="J41" s="1">
         <v>122726</v>
       </c>
       <c r="K41" s="1" t="str">
@@ -2220,27 +2203,27 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="6" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="2">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="8">
+      <c r="J42" s="2">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2260,27 +2243,27 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="6" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="1">
         <v>222534</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="6">
+      <c r="J43" s="1">
         <v>222534</v>
       </c>
       <c r="K43" s="1" t="str">
@@ -2300,27 +2283,27 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="11" t="str">
+      <c r="B44" s="8" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>269895</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="6">
+      <c r="J44" s="1">
         <v>269895</v>
       </c>
       <c r="K44" s="1" t="str">
@@ -2340,27 +2323,27 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="11" t="str">
+      <c r="B45" s="8" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>122720</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="6">
+      <c r="J45" s="1">
         <v>122720</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -2380,7 +2363,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1">
         <v>20001</v>
       </c>
@@ -2390,7 +2373,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="7">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2400,7 +2383,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
         <v>65710</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -2420,7 +2403,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1">
         <v>20002</v>
       </c>
@@ -2430,7 +2413,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="7">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2440,7 +2423,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="3">
+      <c r="J47" s="4">
         <v>64995</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -2460,7 +2443,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1">
         <v>20003</v>
       </c>
@@ -2470,7 +2453,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="7">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2480,7 +2463,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="3">
+      <c r="J48" s="4">
         <v>142606</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -2500,7 +2483,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1">
         <v>20004</v>
       </c>
@@ -2510,7 +2493,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="7">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2520,7 +2503,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="3">
+      <c r="J49" s="4">
         <v>63711</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2540,7 +2523,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1">
         <v>20005</v>
       </c>
@@ -2550,7 +2533,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="7">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2560,7 +2543,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="3">
+      <c r="J50" s="4">
         <v>94782</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -2580,7 +2563,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1">
         <v>20006</v>
       </c>
@@ -2590,7 +2573,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="7">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2600,7 +2583,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <v>112568</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -2620,7 +2603,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1">
         <v>20007</v>
       </c>
@@ -2630,7 +2613,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="7">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2640,7 +2623,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="3">
+      <c r="J52" s="4">
         <v>117681</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -2660,7 +2643,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1">
         <v>20008</v>
       </c>
@@ -2670,7 +2653,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="7">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2680,7 +2663,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="3">
+      <c r="J53" s="4">
         <v>64995</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -2700,7 +2683,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1">
         <v>20009</v>
       </c>
@@ -2710,7 +2693,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="5">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2720,7 +2703,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <v>127800</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -2740,7 +2723,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1">
         <v>20010</v>
       </c>
@@ -2750,7 +2733,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="5">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2760,7 +2743,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="3">
+      <c r="J55" s="4">
         <v>224168</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2780,7 +2763,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1">
         <v>20011</v>
       </c>
@@ -2790,7 +2773,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="5">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2800,7 +2783,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="3">
+      <c r="J56" s="4">
         <v>94782</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2820,7 +2803,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1">
         <v>20012</v>
       </c>
@@ -2830,7 +2813,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="5">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2840,7 +2823,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="3">
+      <c r="J57" s="4">
         <v>111768</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2860,7 +2843,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1">
         <v>20013</v>
       </c>
@@ -2870,7 +2853,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2880,7 +2863,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="3">
+      <c r="J58" s="4">
         <v>111240</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2900,7 +2883,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1">
         <v>20014</v>
       </c>
@@ -2910,7 +2893,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="5">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -2920,7 +2903,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="3">
+      <c r="J59" s="4">
         <v>269652</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2940,7 +2923,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1">
         <v>20015</v>
       </c>
@@ -2950,7 +2933,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -2960,7 +2943,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="3">
+      <c r="J60" s="4">
         <v>60981</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -2980,7 +2963,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1">
         <v>20016</v>
       </c>
@@ -2990,7 +2973,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="5">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3000,7 +2983,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="3">
+      <c r="J61" s="4">
         <v>64410</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -3020,7 +3003,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1">
         <v>20017</v>
       </c>
@@ -3030,7 +3013,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="5">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3040,7 +3023,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="3">
+      <c r="J62" s="4">
         <v>128834</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -3060,7 +3043,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1">
         <v>20018</v>
       </c>
@@ -3070,7 +3053,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="5">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3080,7 +3063,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="3">
+      <c r="J63" s="4">
         <v>115849</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -3100,7 +3083,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1">
         <v>20019</v>
       </c>
@@ -3110,7 +3093,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="5">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3120,7 +3103,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="3">
+      <c r="J64" s="4">
         <v>299082</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -3140,7 +3123,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1">
         <v>20020</v>
       </c>
@@ -3150,7 +3133,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="5">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3160,7 +3143,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="3">
+      <c r="J65" s="4">
         <v>96576</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -3180,7 +3163,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1">
         <v>20021</v>
       </c>
@@ -3190,7 +3173,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="5">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3200,7 +3183,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="3">
+      <c r="J66" s="4">
         <v>63291</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -3220,7 +3203,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1">
         <v>20022</v>
       </c>
@@ -3230,7 +3213,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="5">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -3240,7 +3223,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="3">
+      <c r="J67" s="4">
         <v>59857</v>
       </c>
       <c r="K67" s="1" t="str">
@@ -3260,7 +3243,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="1">
         <v>20023</v>
       </c>
@@ -3270,7 +3253,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="7">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3280,7 +3263,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="3">
+      <c r="J68" s="4">
         <v>63648</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3300,7 +3283,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="69">
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1">
         <v>20024</v>
       </c>
@@ -3310,7 +3293,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="7">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3320,7 +3303,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="3">
+      <c r="J69" s="4">
         <v>248351</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3340,7 +3323,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1">
         <v>20025</v>
       </c>
@@ -3350,7 +3333,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="7">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3360,7 +3343,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="3">
+      <c r="J70" s="4">
         <v>64774</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3380,7 +3363,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1">
         <v>20026</v>
       </c>
@@ -3390,7 +3373,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="7">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3400,7 +3383,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="3">
+      <c r="J71" s="4">
         <v>63291</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3420,7 +3403,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1">
         <v>20027</v>
       </c>
@@ -3430,7 +3413,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="7">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3440,7 +3423,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="3">
+      <c r="J72" s="4">
         <v>111241</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -3460,7 +3443,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1">
         <v>20028</v>
       </c>
@@ -3470,7 +3453,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="7">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3480,7 +3463,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="3">
+      <c r="J73" s="4">
         <v>121948</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -3500,7 +3483,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1">
         <v>20029</v>
       </c>
@@ -3510,7 +3493,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="7">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3520,7 +3503,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="3">
+      <c r="J74" s="4">
         <v>64458</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -3540,7 +3523,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1">
         <v>20030</v>
       </c>
@@ -3550,7 +3533,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="7">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3560,7 +3543,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="3">
+      <c r="J75" s="4">
         <v>142606</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -3580,7 +3563,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1">
         <v>20031</v>
       </c>
@@ -3590,7 +3573,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="7">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3600,7 +3583,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="3">
+      <c r="J76" s="4">
         <v>64305</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -3620,7 +3603,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1">
         <v>20032</v>
       </c>
@@ -3630,7 +3613,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="7">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3640,7 +3623,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="3">
+      <c r="J77" s="4">
         <v>299082</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -3660,7 +3643,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1">
         <v>20033</v>
       </c>
@@ -3670,7 +3653,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="7">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3680,7 +3663,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="3">
+      <c r="J78" s="4">
         <v>181365</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -3700,7 +3683,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1">
         <v>20034</v>
       </c>
@@ -3710,7 +3693,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="7">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3720,7 +3703,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="3">
+      <c r="J79" s="4">
         <v>63291</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -3740,7 +3723,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1">
         <v>20035</v>
       </c>
@@ -3750,7 +3733,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="7">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3760,7 +3743,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="3">
+      <c r="J80" s="4">
         <v>299082</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -3780,7 +3763,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1">
         <v>20036</v>
       </c>
@@ -3790,7 +3773,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="7">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3800,7 +3783,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="3">
+      <c r="J81" s="4">
         <v>111088</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -3820,7 +3803,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1">
         <v>20037</v>
       </c>
@@ -3830,7 +3813,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3840,7 +3823,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="3">
+      <c r="J82" s="4">
         <v>124880</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -3860,7 +3843,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1">
         <v>20038</v>
       </c>
@@ -3870,7 +3853,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="7">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3880,7 +3863,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="3">
+      <c r="J83" s="4">
         <v>137518</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -3900,7 +3883,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1">
         <v>20039</v>
       </c>
@@ -3910,7 +3893,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="7">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3920,7 +3903,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="3">
+      <c r="J84" s="4">
         <v>119773</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -3940,7 +3923,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1">
         <v>20040</v>
       </c>
@@ -3950,7 +3933,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="7">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -3960,7 +3943,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="3">
+      <c r="J85" s="4">
         <v>119229</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -3980,7 +3963,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1">
         <v>20041</v>
       </c>
@@ -4000,7 +3983,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="3">
+      <c r="J86" s="4">
         <v>121882</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4020,7 +4003,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1">
         <v>20042</v>
       </c>
@@ -4040,7 +4023,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="3">
+      <c r="J87" s="4">
         <v>119745</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4060,7 +4043,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1">
         <v>20043</v>
       </c>
@@ -4080,7 +4063,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="3">
+      <c r="J88" s="4">
         <v>63539</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4100,7 +4083,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1">
         <v>20044</v>
       </c>
@@ -4120,7 +4103,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="3">
+      <c r="J89" s="4">
         <v>60981</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4140,7 +4123,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1">
         <v>20045</v>
       </c>
@@ -4160,7 +4143,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="3">
+      <c r="J90" s="4">
         <v>109144</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4180,7 +4163,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1">
         <v>20046</v>
       </c>
@@ -4200,7 +4183,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="3">
+      <c r="J91" s="4">
         <v>64141</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4220,7 +4203,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1">
         <v>20047</v>
       </c>
@@ -4240,7 +4223,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="3">
+      <c r="J92" s="4">
         <v>109058</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4260,7 +4243,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1">
         <v>20048</v>
       </c>
@@ -4280,7 +4263,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="3">
+      <c r="J93" s="4">
         <v>109839</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4300,7 +4283,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1">
         <v>20049</v>
       </c>
@@ -4320,7 +4303,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="3">
+      <c r="J94" s="4">
         <v>118079</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4340,7 +4323,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1">
         <v>20050</v>
       </c>
@@ -4360,7 +4343,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="3">
+      <c r="J95" s="4">
         <v>109839</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4380,7 +4363,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1">
         <v>20051</v>
       </c>
@@ -4400,7 +4383,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="3">
+      <c r="J96" s="4">
         <v>117681</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4420,76 +4403,76 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="97">
-      <c r="A97" s="1">
+    <row customHeight="true" ht="23" r="97">
+      <c r="A97" s="7">
         <v>20052</v>
       </c>
-      <c r="B97" s="1" t="str">
+      <c r="B97" s="7" t="str">
         <v>Rainbow friends</v>
       </c>
-      <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="7">
+        <v>2</v>
+      </c>
+      <c r="D97" s="7">
         <v>143385</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="7">
         <v>3</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="3">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="10">
         <v>119483</v>
       </c>
-      <c r="K97" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L97" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M97" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="98">
+      <c r="K97" s="7" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L97" s="7" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M97" s="7" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+    </row>
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="1">
         <v>30001</v>
       </c>
       <c r="B98" s="1" t="str">
-        <v>狐狸尾巴</v>
+        <v>恶魔翅膀</v>
       </c>
       <c r="C98" s="1">
         <v>3</v>
       </c>
       <c r="D98" s="1">
-        <v>226476</v>
+        <v>223877</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
       </c>
       <c r="F98" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G98" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H98" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I98" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="J98" s="1">
-        <v>226476</v>
+        <v>223877</v>
       </c>
       <c r="K98" s="1" t="str">
         <v>0|0|0</v>
@@ -4498,7 +4481,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M98" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -4508,18 +4491,18 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="99">
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1">
         <v>30002</v>
       </c>
       <c r="B99" s="1" t="str">
-        <v>狐狸耳朵</v>
+        <v>恶魔角</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>226479</v>
+        <v>266332</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -4528,16 +4511,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|5|10</v>
       </c>
       <c r="H99" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I99" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J99" s="1">
-        <v>226479</v>
+        <v>266332</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4546,7 +4529,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M99" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -4556,24 +4539,24 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1">
         <v>30003</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>狐狸飞行斗技</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>295508</v>
+        <v>136179</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G100" s="1" t="str">
         <v>0|0|0</v>
@@ -4585,7 +4568,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J100" s="1">
-        <v>295508</v>
+        <v>136179</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4604,36 +4587,36 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1">
         <v>30004</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C101" s="1">
         <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>295506</v>
+        <v>136506</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
       </c>
       <c r="F101" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G101" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H101" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I101" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J101" s="1">
-        <v>295506</v>
+        <v>136506</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4652,36 +4635,36 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1">
         <v>30005</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>双层飞行斗技</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C102" s="1">
         <v>3</v>
       </c>
       <c r="D102" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
       </c>
       <c r="F102" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G102" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H102" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I102" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J102" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4700,18 +4683,18 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1">
         <v>30006</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>火焰飞行斗技</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C103" s="1">
         <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>223877</v>
+        <v>334814</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -4729,7 +4712,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J103" s="1">
-        <v>223877</v>
+        <v>334814</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -4748,36 +4731,36 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1">
         <v>30007</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>飞行斗技</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
       </c>
       <c r="D104" s="1">
-        <v>42818</v>
+        <v>192359</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F104" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G104" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H104" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I104" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J104" s="1">
-        <v>42818</v>
+        <v>192359</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -4796,27 +4779,27 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1">
         <v>30008</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>眼镜</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
       </c>
       <c r="D105" s="1">
-        <v>324491</v>
+        <v>226476</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G105" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H105" s="1" t="str">
         <v>0|0|0</v>
@@ -4825,7 +4808,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J105" s="1">
-        <v>324491</v>
+        <v>226476</v>
       </c>
       <c r="K105" s="1" t="str">
         <v>0|0|0</v>
@@ -4844,36 +4827,36 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1">
         <v>30009</v>
       </c>
       <c r="B106" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C106" s="1">
         <v>3</v>
       </c>
       <c r="D106" s="1">
-        <v>292313</v>
+        <v>226479</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G106" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>0|0|0</v>
       </c>
       <c r="H106" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|0</v>
       </c>
       <c r="I106" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J106" s="1">
-        <v>292313</v>
+        <v>226479</v>
       </c>
       <c r="K106" s="1" t="str">
         <v>0|0|0</v>
@@ -4882,7 +4865,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M106" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -4892,18 +4875,18 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="107">
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1">
         <v>30010</v>
       </c>
       <c r="B107" s="1" t="str">
-        <v>面纱</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C107" s="1">
         <v>3</v>
       </c>
       <c r="D107" s="1">
-        <v>269783</v>
+        <v>295506</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -4912,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="G107" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>0|0|0</v>
       </c>
       <c r="H107" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I107" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="J107" s="1">
-        <v>269783</v>
+        <v>295506</v>
       </c>
       <c r="K107" s="1" t="str">
         <v>0|0|0</v>
@@ -4930,7 +4913,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M107" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -4940,36 +4923,36 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="21" r="108">
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1">
         <v>30011</v>
       </c>
       <c r="B108" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
       </c>
       <c r="D108" s="1">
-        <v>226826</v>
+        <v>42818</v>
       </c>
       <c r="E108" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|0|0</v>
       </c>
       <c r="H108" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I108" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="J108" s="1">
-        <v>226826</v>
+        <v>42818</v>
       </c>
       <c r="K108" s="1" t="str">
         <v>0|0|0</v>
@@ -4978,7 +4961,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M108" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -4988,36 +4971,36 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1">
         <v>30012</v>
       </c>
       <c r="B109" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>眼镜</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>318663</v>
+        <v>324491</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G109" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H109" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|0</v>
       </c>
       <c r="I109" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="J109" s="1">
-        <v>318663</v>
+        <v>324491</v>
       </c>
       <c r="K109" s="1" t="str">
         <v>0|0|0</v>
@@ -5026,7 +5009,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M109" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -5036,36 +5019,36 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1">
         <v>30013</v>
       </c>
       <c r="B110" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
-        <v>152259</v>
+        <v>292313</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G110" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H110" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I110" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J110" s="1">
-        <v>152259</v>
+        <v>292313</v>
       </c>
       <c r="K110" s="1" t="str">
         <v>0|0|0</v>
@@ -5074,7 +5057,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M110" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -5084,36 +5067,36 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1">
         <v>30014</v>
       </c>
       <c r="B111" s="1" t="str">
-        <v>龙摆件</v>
+        <v>面纱</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>292574</v>
+        <v>269783</v>
       </c>
       <c r="E111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H111" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I111" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J111" s="1">
-        <v>292574</v>
+        <v>269783</v>
       </c>
       <c r="K111" s="1" t="str">
         <v>0|0|0</v>
@@ -5122,7 +5105,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M111" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -5132,36 +5115,36 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" hidden="true" ht="23" r="112">
       <c r="A112" s="1">
         <v>30015</v>
       </c>
       <c r="B112" s="1" t="str">
-        <v>帝王龙</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>192533</v>
+        <v>226826</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H112" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I112" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J112" s="1">
-        <v>192533</v>
+        <v>226826</v>
       </c>
       <c r="K112" s="1" t="str">
         <v>0|0|0</v>
@@ -5170,7 +5153,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M112" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -5180,36 +5163,36 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1">
         <v>30016</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>地狱龙</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>192420</v>
+        <v>318663</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G113" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H113" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I113" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J113" s="1">
-        <v>192420</v>
+        <v>318663</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5218,7 +5201,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M113" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -5228,21 +5211,21 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1">
         <v>30017</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>糖果龙</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>191950</v>
+        <v>152259</v>
       </c>
       <c r="E114" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F114" s="1">
         <v>21</v>
@@ -5257,7 +5240,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J114" s="1">
-        <v>191950</v>
+        <v>152259</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5276,21 +5259,21 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1">
         <v>30018</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>武士龙</v>
+        <v>龙</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>191852</v>
+        <v>292574</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" s="1">
         <v>21</v>
@@ -5305,7 +5288,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>191852</v>
+        <v>292574</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5324,28 +5307,36 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1">
         <v>30019</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>蛇女</v>
+        <v>帝王龙</v>
       </c>
       <c r="C116" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>328236</v>
+        <v>192533</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="F116" s="1">
+        <v>21</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="J116" s="1">
-        <v>328236</v>
+        <v>192533</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5364,28 +5355,36 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1">
         <v>30020</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>络新妇</v>
+        <v>地狱龙</v>
       </c>
       <c r="C117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>338436</v>
+        <v>192420</v>
       </c>
       <c r="E117" s="1">
-        <v>3</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>21</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="J117" s="1">
-        <v>338436</v>
+        <v>192420</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5404,28 +5403,36 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1">
         <v>30021</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>大蜘蛛</v>
+        <v>糖果龙</v>
       </c>
       <c r="C118" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>328291</v>
+        <v>191950</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="F118" s="1">
+        <v>21</v>
+      </c>
+      <c r="G118" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H118" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I118" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="J118" s="1">
-        <v>328291</v>
+        <v>191950</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5444,45 +5451,45 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1">
         <v>30022</v>
       </c>
-      <c r="B119" s="4" t="str">
-        <v>魔兽</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="B119" s="1" t="str">
+        <v>武士龙</v>
+      </c>
+      <c r="C119" s="1">
         <v>3</v>
       </c>
-      <c r="D119" s="4">
-        <v>152380</v>
-      </c>
-      <c r="E119" s="4">
-        <v>1</v>
-      </c>
-      <c r="F119" s="4">
-        <v>20</v>
-      </c>
-      <c r="G119" s="4" t="str">
-        <v>0|0|30</v>
-      </c>
-      <c r="H119" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I119" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
-      </c>
-      <c r="J119" s="4">
-        <v>152380</v>
-      </c>
-      <c r="K119" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L119" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M119" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
+      <c r="D119" s="1">
+        <v>191852</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>21</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H119" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>191852</v>
+      </c>
+      <c r="K119" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M119" s="1" t="str">
+        <v>1|1|1</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -5492,45 +5499,45 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1">
         <v>30023</v>
       </c>
-      <c r="B120" s="4" t="str">
-        <v>魔兽</v>
-      </c>
-      <c r="C120" s="4">
+      <c r="B120" s="1" t="str">
+        <v>水晶翅膀</v>
+      </c>
+      <c r="C120" s="1">
         <v>3</v>
       </c>
-      <c r="D120" s="4">
-        <v>152381</v>
-      </c>
-      <c r="E120" s="4">
-        <v>1</v>
-      </c>
-      <c r="F120" s="4">
-        <v>20</v>
-      </c>
-      <c r="G120" s="4" t="str">
-        <v>0|0|30</v>
-      </c>
-      <c r="H120" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I120" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
-      </c>
-      <c r="J120" s="4">
-        <v>152381</v>
-      </c>
-      <c r="K120" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L120" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M120" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
+      <c r="D120" s="1">
+        <v>375788</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>12</v>
+      </c>
+      <c r="G120" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>375788</v>
+      </c>
+      <c r="K120" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M120" s="1" t="str">
+        <v>1|1|1</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -5540,45 +5547,45 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1">
         <v>30024</v>
       </c>
-      <c r="B121" s="4" t="str">
-        <v>魔兽</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="B121" s="1" t="str">
+        <v>杀戮翅膀</v>
+      </c>
+      <c r="C121" s="1">
         <v>3</v>
       </c>
-      <c r="D121" s="4">
-        <v>152382</v>
-      </c>
-      <c r="E121" s="4">
-        <v>1</v>
-      </c>
-      <c r="F121" s="4">
-        <v>20</v>
-      </c>
-      <c r="G121" s="4" t="str">
-        <v>0|0|30</v>
-      </c>
-      <c r="H121" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I121" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
-      </c>
-      <c r="J121" s="4">
-        <v>152382</v>
-      </c>
-      <c r="K121" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L121" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M121" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
+      <c r="D121" s="1">
+        <v>136966</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>12</v>
+      </c>
+      <c r="G121" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <v>0|0|180</v>
+      </c>
+      <c r="I121" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>136966</v>
+      </c>
+      <c r="K121" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L121" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M121" s="1" t="str">
+        <v>1|1|1</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -5588,45 +5595,45 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1">
         <v>30025</v>
       </c>
-      <c r="B122" s="4" t="str">
-        <v>魔兽</v>
-      </c>
-      <c r="C122" s="4">
+      <c r="B122" s="1" t="str">
+        <v>地狱翅膀</v>
+      </c>
+      <c r="C122" s="1">
         <v>3</v>
       </c>
-      <c r="D122" s="4">
-        <v>152383</v>
-      </c>
-      <c r="E122" s="4">
-        <v>1</v>
-      </c>
-      <c r="F122" s="4">
-        <v>20</v>
-      </c>
-      <c r="G122" s="4" t="str">
-        <v>0|0|30</v>
-      </c>
-      <c r="H122" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I122" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
-      </c>
-      <c r="J122" s="4">
-        <v>152383</v>
-      </c>
-      <c r="K122" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L122" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M122" s="4" t="str">
-        <v>0.2|0.2|0.2</v>
+      <c r="D122" s="1">
+        <v>145912</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>12</v>
+      </c>
+      <c r="G122" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I122" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>145912</v>
+      </c>
+      <c r="K122" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L122" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M122" s="1" t="str">
+        <v>1|1|1</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -5636,44 +5643,44 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1">
         <v>30026</v>
       </c>
-      <c r="B123" s="4" t="str">
-        <v>飞行斗技</v>
-      </c>
-      <c r="C123" s="4">
+      <c r="B123" s="1" t="str">
+        <v>精灵翅膀</v>
+      </c>
+      <c r="C123" s="1">
         <v>3</v>
       </c>
-      <c r="D123" s="4">
-        <v>42806</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0</v>
-      </c>
-      <c r="F123" s="4">
+      <c r="D123" s="1">
+        <v>393543</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
         <v>12</v>
       </c>
-      <c r="G123" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H123" s="4" t="str">
+      <c r="G123" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H123" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="I123" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J123" s="4">
-        <v>42806</v>
-      </c>
-      <c r="K123" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L123" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M123" s="4" t="str">
+      <c r="I123" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J123" s="1">
+        <v>393543</v>
+      </c>
+      <c r="K123" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M123" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N123" s="1"/>
@@ -5684,44 +5691,44 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1">
         <v>30027</v>
       </c>
-      <c r="B124" s="4" t="str">
-        <v>飞行斗技</v>
-      </c>
-      <c r="C124" s="4">
+      <c r="B124" s="1" t="str">
+        <v>火焰翅膀</v>
+      </c>
+      <c r="C124" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="4">
-        <v>42810</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0</v>
-      </c>
-      <c r="F124" s="4">
+      <c r="D124" s="1">
+        <v>211667</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1">
         <v>12</v>
       </c>
-      <c r="G124" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H124" s="4" t="str">
+      <c r="G124" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H124" s="1" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="I124" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J124" s="4">
-        <v>42810</v>
-      </c>
-      <c r="K124" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L124" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M124" s="4" t="str">
+      <c r="I124" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J124" s="1">
+        <v>211667</v>
+      </c>
+      <c r="K124" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L124" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M124" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N124" s="1"/>
@@ -5732,44 +5739,44 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1">
         <v>30028</v>
       </c>
-      <c r="B125" s="4" t="str">
-        <v>飞行斗技</v>
-      </c>
-      <c r="C125" s="4">
+      <c r="B125" s="1" t="str">
+        <v>大剑</v>
+      </c>
+      <c r="C125" s="1">
         <v>3</v>
       </c>
-      <c r="D125" s="4">
-        <v>42819</v>
-      </c>
-      <c r="E125" s="4">
-        <v>0</v>
-      </c>
-      <c r="F125" s="4">
+      <c r="D125" s="1">
+        <v>186519</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1">
         <v>12</v>
       </c>
-      <c r="G125" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H125" s="4" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I125" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J125" s="4">
-        <v>42819</v>
-      </c>
-      <c r="K125" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L125" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M125" s="4" t="str">
+      <c r="G125" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I125" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>186519</v>
+      </c>
+      <c r="K125" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M125" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N125" s="1"/>
@@ -5780,44 +5787,44 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1">
         <v>30029</v>
       </c>
-      <c r="B126" s="4" t="str">
-        <v>飞行斗技</v>
-      </c>
-      <c r="C126" s="4">
+      <c r="B126" s="1" t="str">
+        <v>天使剑</v>
+      </c>
+      <c r="C126" s="1">
         <v>3</v>
       </c>
-      <c r="D126" s="4">
-        <v>42807</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
+      <c r="D126" s="1">
+        <v>20971</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3</v>
+      </c>
+      <c r="F126" s="1">
         <v>12</v>
       </c>
-      <c r="G126" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H126" s="4" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I126" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J126" s="4">
-        <v>42807</v>
-      </c>
-      <c r="K126" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L126" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M126" s="4" t="str">
+      <c r="G126" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I126" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>20971</v>
+      </c>
+      <c r="K126" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L126" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M126" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N126" s="1"/>
@@ -5828,44 +5835,36 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1">
-        <v>30030</v>
-      </c>
-      <c r="B127" s="4" t="str">
-        <v>飞行斗技</v>
-      </c>
-      <c r="C127" s="4">
+        <v>40001</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <v>蛇女</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1">
+        <v>328236</v>
+      </c>
+      <c r="E127" s="1">
         <v>3</v>
       </c>
-      <c r="D127" s="4">
-        <v>42809</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0</v>
-      </c>
-      <c r="F127" s="4">
-        <v>12</v>
-      </c>
-      <c r="G127" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H127" s="4" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I127" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J127" s="4">
-        <v>42809</v>
-      </c>
-      <c r="K127" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L127" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M127" s="4" t="str">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1">
+        <v>328236</v>
+      </c>
+      <c r="K127" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M127" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N127" s="1"/>
@@ -5876,44 +5875,36 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1">
-        <v>30031</v>
-      </c>
-      <c r="B128" s="4" t="str">
-        <v>大剑</v>
-      </c>
-      <c r="C128" s="4">
+        <v>40002</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <v>络新妇</v>
+      </c>
+      <c r="C128" s="1">
+        <v>4</v>
+      </c>
+      <c r="D128" s="1">
+        <v>338436</v>
+      </c>
+      <c r="E128" s="1">
         <v>3</v>
       </c>
-      <c r="D128" s="4">
-        <v>186519</v>
-      </c>
-      <c r="E128" s="4">
-        <v>3</v>
-      </c>
-      <c r="F128" s="4">
-        <v>12</v>
-      </c>
-      <c r="G128" s="4" t="str">
-        <v>7|0|20</v>
-      </c>
-      <c r="H128" s="4" t="str">
-        <v>-170|0|90</v>
-      </c>
-      <c r="I128" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J128" s="4">
-        <v>186519</v>
-      </c>
-      <c r="K128" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L128" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M128" s="4" t="str">
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1">
+        <v>338436</v>
+      </c>
+      <c r="K128" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M128" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N128" s="1"/>
@@ -5924,44 +5915,36 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1">
-        <v>30032</v>
-      </c>
-      <c r="B129" s="4" t="str">
-        <v>天使剑</v>
-      </c>
-      <c r="C129" s="4">
+        <v>40003</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <v>大蜘蛛</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>328291</v>
+      </c>
+      <c r="E129" s="1">
         <v>3</v>
       </c>
-      <c r="D129" s="4">
-        <v>20971</v>
-      </c>
-      <c r="E129" s="4">
-        <v>3</v>
-      </c>
-      <c r="F129" s="4">
-        <v>12</v>
-      </c>
-      <c r="G129" s="4" t="str">
-        <v>7|0|20</v>
-      </c>
-      <c r="H129" s="4" t="str">
-        <v>-170|0|90</v>
-      </c>
-      <c r="I129" s="4" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J129" s="4">
-        <v>20971</v>
-      </c>
-      <c r="K129" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L129" s="4" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M129" s="4" t="str">
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1">
+        <v>328291</v>
+      </c>
+      <c r="K129" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M129" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N129" s="1"/>
@@ -5972,7 +5955,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1">
         <v>40004</v>
       </c>
@@ -6012,7 +5995,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1">
         <v>40005</v>
       </c>
@@ -6052,7 +6035,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1">
         <v>40006</v>
       </c>
@@ -6092,7 +6075,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1">
         <v>40007</v>
       </c>
@@ -6132,7 +6115,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6154,7 +6137,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6176,7 +6159,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6198,7 +6181,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6220,7 +6203,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6242,7 +6225,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6264,7 +6247,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6286,7 +6269,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6308,7 +6291,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6330,7 +6313,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6352,7 +6335,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6374,7 +6357,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="str">
         <v>变异沙漠三头狗</v>
@@ -6412,7 +6395,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="str">
         <v>三头狗</v>
@@ -6450,7 +6433,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="str">
         <v>小龙</v>
@@ -6488,7 +6471,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="str">
         <v>卡通木龙</v>
@@ -6526,7 +6509,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="str">
         <v>红龙</v>
@@ -6564,7 +6547,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="str">
         <v>黄龙</v>
@@ -6602,7 +6585,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="str">
         <v>蓝龙</v>
@@ -6640,7 +6623,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6662,7 +6645,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6684,7 +6667,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6706,7 +6689,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6728,7 +6711,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6750,7 +6733,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6772,7 +6755,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6794,7 +6777,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6816,7 +6799,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6838,7 +6821,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6860,7 +6843,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6882,7 +6865,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="str">
         <v>小鸟模型</v>
@@ -6920,7 +6903,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="str">
         <v>野狼</v>
@@ -6958,7 +6941,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="str">
         <v>棕野狼</v>
@@ -6996,7 +6979,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="str">
         <v>小兔子</v>
@@ -7034,7 +7017,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="str">
         <v>登山猫</v>
@@ -7072,7 +7055,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="str">
         <v>水手猫</v>
@@ -7110,7 +7093,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="str">
         <v>舞狮头猫</v>
@@ -7148,7 +7131,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="str">
         <v>祥云能量猫</v>
@@ -7186,7 +7169,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="str">
         <v>喜庆棉服猫</v>
@@ -7224,7 +7207,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="str">
         <v>冰雪狐</v>
@@ -7262,7 +7245,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="str">
         <v>卡通木龙</v>
@@ -7300,7 +7283,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="str">
         <v>红龙</v>
@@ -7338,7 +7321,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="str">
         <v>黄龙</v>
@@ -7376,7 +7359,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="str">
         <v>蓝龙</v>
@@ -7414,7 +7397,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="str">
         <v>唐装坐骑熊猫</v>
@@ -7452,7 +7435,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="str">
         <v>唐装熊猫</v>
@@ -7490,7 +7473,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="str">
         <v>小金毛</v>
@@ -7528,7 +7511,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="str">
         <v>垂耳兔</v>
@@ -7566,7 +7549,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="str">
         <v>无毛猫</v>
@@ -7604,7 +7587,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="str">
         <v>蓝白帽子猫</v>
@@ -7642,7 +7625,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="str">
         <v>礼帽暹罗猫</v>
@@ -7680,7 +7663,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="str">
         <v>熊猫</v>
@@ -7718,7 +7701,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
         <v>兔子帽猫</v>
@@ -7756,7 +7739,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
         <v>三花铃铛猫</v>
@@ -7794,7 +7777,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
         <v>黑色蝴蝶猫</v>
@@ -7832,7 +7815,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
         <v>美短圣诞猫</v>
@@ -7870,7 +7853,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
         <v>蓝白垂耳兔</v>
@@ -7908,7 +7891,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
         <v>粉猪</v>
@@ -7946,7 +7929,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
         <v>虎斑猫</v>
@@ -7984,7 +7967,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
         <v>天使猫</v>
@@ -8022,7 +8005,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
         <v>小恶魔猫</v>
@@ -8060,7 +8043,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
         <v>独眼布偶猫</v>
@@ -8098,7 +8081,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
         <v>花猪</v>
@@ -8136,7 +8119,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
         <v>太阳帽猫</v>
@@ -8174,7 +8157,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
         <v>斑点垂耳狗</v>
@@ -8212,7 +8195,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
         <v>黑白色直耳兔</v>
@@ -8250,7 +8233,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
         <v>橘猫</v>
@@ -8288,7 +8271,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
         <v>条纹外套白猫</v>
@@ -8326,7 +8309,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
         <v>墨镜花猫</v>
@@ -8364,7 +8347,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="str">
         <v>眼镜蓝猫</v>
@@ -8402,7 +8385,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="str">
         <v>巫师帽猫</v>
@@ -8440,7 +8423,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="204">
+    <row customHeight="true" ht="23" r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="str">
         <v>白色萨摩耶</v>
@@ -8478,7 +8461,7 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="205">
+    <row customHeight="true" ht="23" r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="str">
         <v>矮脚马</v>
@@ -8516,7 +8499,7 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="206">
+    <row customHeight="true" ht="23" r="206">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="str">
         <v>美短方帽猫</v>
@@ -8554,7 +8537,7 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="207">
+    <row customHeight="true" ht="23" r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="str">
         <v>黑猫</v>
@@ -8592,7 +8575,7 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="208">
+    <row customHeight="true" ht="23" r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="str">
         <v>小黄狗</v>
@@ -8630,7 +8613,7 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="209">
+    <row customHeight="true" ht="23" r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="str">
         <v>黄色猫咪团子</v>
@@ -8668,7 +8651,7 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="210">
+    <row customHeight="true" ht="23" r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="str">
         <v>鹦鹉</v>
@@ -8706,7 +8689,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="211">
+    <row customHeight="true" ht="23" r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="str">
         <v>暹罗樱花猫</v>
@@ -8744,7 +8727,7 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="212">
+    <row customHeight="true" ht="23" r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="str">
         <v>蓝白飞行斗技猫</v>
@@ -8784,5 +8767,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -51,6 +51,34 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF270561"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,35 +93,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,10 +220,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -568,29 +568,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
+    <row customHeight="true" ht="25" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="2">
+    <row customHeight="true" ht="25" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="3">
+    <row customHeight="true" ht="25" r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="str">
@@ -715,7 +715,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="4">
+    <row customHeight="true" ht="25" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -737,7 +737,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="5">
+    <row customHeight="true" ht="25" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -763,28 +763,28 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="6">
+    <row customHeight="true" ht="25" r="6">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <v>悟空法杖</v>
+      <c r="B6" s="7" t="str">
+        <v>海神三叉戟</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>118140</v>
+      <c r="D6" s="6">
+        <v>134222</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2">
-        <v>118140</v>
+      <c r="J6" s="6">
+        <v>134222</v>
       </c>
       <c r="K6" s="1" t="str">
         <v>0|0|0</v>
@@ -803,27 +803,27 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="7">
+    <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="7" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -843,27 +843,27 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="8">
+    <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="7" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -883,27 +883,27 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="9">
+    <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="2" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2">
+      <c r="J9" s="6">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -923,27 +923,27 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="10">
+    <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="2" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2">
+      <c r="J10" s="6">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -963,27 +963,27 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="11">
+    <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="2" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1003,27 +1003,27 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="12">
+    <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="2" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2">
+      <c r="J12" s="6">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1043,11 +1043,11 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="13">
+    <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="2" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
@@ -1059,7 +1059,7 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1083,11 +1083,11 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="14">
+    <row customHeight="true" ht="25" r="14">
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="8" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
@@ -1099,7 +1099,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1123,11 +1123,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="15">
+    <row customHeight="true" ht="25" r="15">
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="8" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
@@ -1139,7 +1139,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1163,11 +1163,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="16">
+    <row customHeight="true" ht="25" r="16">
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="8" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
@@ -1179,7 +1179,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1203,11 +1203,11 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="17">
+    <row customHeight="true" ht="25" r="17">
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="8" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
@@ -1219,7 +1219,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="18">
+    <row customHeight="true" ht="25" r="18">
       <c r="A18" s="1">
         <v>10013</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1283,11 +1283,11 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="19">
+    <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="8" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1299,7 +1299,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1323,11 +1323,11 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="20">
+    <row customHeight="true" ht="25" r="20">
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="8" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1339,7 +1339,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1363,11 +1363,11 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="21">
+    <row customHeight="true" ht="25" r="21">
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="8" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
@@ -1379,7 +1379,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="22">
+    <row customHeight="true" ht="25" r="22">
       <c r="A22" s="1">
         <v>10017</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1443,11 +1443,11 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="23">
+    <row customHeight="true" ht="25" r="23">
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="8" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1459,7 +1459,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1483,7 +1483,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="24">
+    <row customHeight="true" ht="25" r="24">
       <c r="A24" s="1">
         <v>10019</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="25">
+    <row customHeight="true" ht="25" r="25">
       <c r="A25" s="1">
         <v>10020</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="26">
+    <row customHeight="true" ht="25" r="26">
       <c r="A26" s="1">
         <v>10021</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="27">
+    <row customHeight="true" ht="25" r="27">
       <c r="A27" s="1">
         <v>10022</v>
       </c>
@@ -1643,11 +1643,11 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="28">
+    <row customHeight="true" ht="25" r="28">
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="2" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
@@ -1659,7 +1659,7 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1683,11 +1683,11 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="29">
+    <row customHeight="true" ht="25" r="29">
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="2" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
@@ -1699,7 +1699,7 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1723,11 +1723,11 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="30">
+    <row customHeight="true" ht="25" r="30">
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="2" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
@@ -1739,7 +1739,7 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1763,11 +1763,11 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="31">
+    <row customHeight="true" ht="25" r="31">
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="2" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
@@ -1779,7 +1779,7 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1803,11 +1803,11 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="32">
+    <row customHeight="true" ht="25" r="32">
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="2" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
@@ -1819,7 +1819,7 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1843,7 +1843,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="33">
+    <row customHeight="true" ht="25" r="33">
       <c r="A33" s="1">
         <v>10028</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="34">
+    <row customHeight="true" ht="25" r="34">
       <c r="A34" s="1">
         <v>10029</v>
       </c>
@@ -1923,11 +1923,11 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="35">
+    <row customHeight="true" ht="25" r="35">
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="4" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
@@ -1939,7 +1939,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1963,11 +1963,11 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="36">
+    <row customHeight="true" ht="25" r="36">
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="4" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
@@ -1979,7 +1979,7 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2003,11 +2003,11 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="37">
+    <row customHeight="true" ht="25" r="37">
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="4" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
@@ -2019,7 +2019,7 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2043,11 +2043,11 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="38">
+    <row customHeight="true" ht="25" r="38">
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="4" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
@@ -2059,7 +2059,7 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2083,11 +2083,11 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="39">
+    <row customHeight="true" ht="25" r="39">
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" s="8" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
@@ -2099,7 +2099,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2123,11 +2123,11 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="40">
+    <row customHeight="true" ht="25" r="40">
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" s="8" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
@@ -2139,7 +2139,7 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2163,11 +2163,11 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="41">
+    <row customHeight="true" ht="25" r="41">
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" s="8" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2179,7 +2179,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2203,27 +2203,27 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="42">
+    <row customHeight="true" ht="25" r="42">
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="8" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="2">
+      <c r="J42" s="6">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2243,11 +2243,11 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="43">
+    <row customHeight="true" ht="25" r="43">
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" s="8" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2259,7 +2259,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2283,11 +2283,11 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="44">
+    <row customHeight="true" ht="25" r="44">
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="4" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2299,7 +2299,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2323,11 +2323,11 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="45">
+    <row customHeight="true" ht="25" r="45">
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="4" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2339,7 +2339,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="46">
+    <row customHeight="true" ht="25" r="46">
       <c r="A46" s="1">
         <v>20001</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="2">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2383,7 +2383,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>65710</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -2403,7 +2403,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="47">
+    <row customHeight="true" ht="25" r="47">
       <c r="A47" s="1">
         <v>20002</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="2">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2423,7 +2423,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>64995</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -2443,7 +2443,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="48">
+    <row customHeight="true" ht="25" r="48">
       <c r="A48" s="1">
         <v>20003</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="2">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2463,7 +2463,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>142606</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -2483,7 +2483,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="49">
+    <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
         <v>20004</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="2">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2503,7 +2503,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <v>63711</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2523,7 +2523,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="50">
+    <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
         <v>20005</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="2">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2543,7 +2543,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <v>94782</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -2563,7 +2563,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="51">
+    <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
         <v>20006</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="2">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2583,7 +2583,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
         <v>112568</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -2603,7 +2603,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="52">
+    <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
         <v>20007</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="2">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2623,7 +2623,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>117681</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -2643,7 +2643,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="53">
+    <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
         <v>20008</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="2">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2663,7 +2663,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <v>64995</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -2683,7 +2683,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="54">
+    <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
         <v>20009</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="4">
+      <c r="J54" s="3">
         <v>127800</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -2723,7 +2723,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="55">
+    <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
         <v>20010</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
         <v>224168</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2763,7 +2763,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="56">
+    <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
         <v>20011</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>94782</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2803,7 +2803,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="57">
+    <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
         <v>20012</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
         <v>111768</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2843,7 +2843,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="58">
+    <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
         <v>20013</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
         <v>111240</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2883,7 +2883,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="59">
+    <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
         <v>20014</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="4">
+      <c r="J59" s="3">
         <v>269652</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2923,7 +2923,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="60">
+    <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
         <v>20015</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
         <v>60981</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -2963,7 +2963,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="61">
+    <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
         <v>20016</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="4">
+      <c r="J61" s="3">
         <v>64410</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -3003,7 +3003,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="62">
+    <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
         <v>20017</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
         <v>128834</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -3043,7 +3043,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="63">
+    <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
         <v>20018</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="4">
+      <c r="J63" s="3">
         <v>115849</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -3083,7 +3083,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="64">
+    <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
         <v>20019</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="4">
+      <c r="J64" s="3">
         <v>299082</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -3123,7 +3123,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="65">
+    <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
         <v>20020</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="4">
+      <c r="J65" s="3">
         <v>96576</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -3163,7 +3163,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="66">
+    <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
         <v>20021</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="4">
+      <c r="J66" s="3">
         <v>63291</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -3203,7 +3203,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="67">
+    <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
         <v>20022</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="4">
+      <c r="J67" s="3">
         <v>59857</v>
       </c>
       <c r="K67" s="1" t="str">
@@ -3243,7 +3243,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="68">
+    <row customHeight="true" ht="25" r="68">
       <c r="A68" s="1">
         <v>20023</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="2">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3263,7 +3263,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="4">
+      <c r="J68" s="3">
         <v>63648</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3283,7 +3283,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="69">
+    <row customHeight="true" ht="25" r="69">
       <c r="A69" s="1">
         <v>20024</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="2">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3303,7 +3303,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="4">
+      <c r="J69" s="3">
         <v>248351</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3323,7 +3323,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="70">
+    <row customHeight="true" ht="25" r="70">
       <c r="A70" s="1">
         <v>20025</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="2">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3343,7 +3343,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="4">
+      <c r="J70" s="3">
         <v>64774</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3363,7 +3363,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="71">
+    <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
         <v>20026</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="2">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3383,7 +3383,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="4">
+      <c r="J71" s="3">
         <v>63291</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3403,7 +3403,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="72">
+    <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
         <v>20027</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="2">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3423,7 +3423,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="4">
+      <c r="J72" s="3">
         <v>111241</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -3443,7 +3443,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="73">
+    <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
         <v>20028</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="2">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3463,7 +3463,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="4">
+      <c r="J73" s="3">
         <v>121948</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -3483,7 +3483,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="74">
+    <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
         <v>20029</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="2">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3503,7 +3503,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="4">
+      <c r="J74" s="3">
         <v>64458</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -3523,7 +3523,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="75">
+    <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
         <v>20030</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="2">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3543,7 +3543,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="4">
+      <c r="J75" s="3">
         <v>142606</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -3563,7 +3563,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="76">
+    <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
         <v>20031</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="2">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3583,7 +3583,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="4">
+      <c r="J76" s="3">
         <v>64305</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -3603,7 +3603,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="77">
+    <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
         <v>20032</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="2">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3623,7 +3623,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="4">
+      <c r="J77" s="3">
         <v>299082</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -3643,7 +3643,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="78">
+    <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
         <v>20033</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="2">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3663,7 +3663,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="4">
+      <c r="J78" s="3">
         <v>181365</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -3683,7 +3683,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="79">
+    <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
         <v>20034</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="2">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3703,7 +3703,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="4">
+      <c r="J79" s="3">
         <v>63291</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -3723,7 +3723,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="80">
+    <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
         <v>20035</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="2">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3743,7 +3743,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="4">
+      <c r="J80" s="3">
         <v>299082</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -3763,7 +3763,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="81">
+    <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
         <v>20036</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="2">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3783,7 +3783,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="4">
+      <c r="J81" s="3">
         <v>111088</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -3803,7 +3803,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="82">
+    <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
         <v>20037</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="2">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3823,7 +3823,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="4">
+      <c r="J82" s="3">
         <v>124880</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -3843,7 +3843,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="83">
+    <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
         <v>20038</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="2">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3863,7 +3863,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="4">
+      <c r="J83" s="3">
         <v>137518</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -3883,7 +3883,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="84">
+    <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
         <v>20039</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="2">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3903,7 +3903,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="4">
+      <c r="J84" s="3">
         <v>119773</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -3923,7 +3923,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="85">
+    <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
         <v>20040</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="2">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -3943,7 +3943,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="4">
+      <c r="J85" s="3">
         <v>119229</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -3963,7 +3963,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="86">
+    <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
         <v>20041</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="4">
+      <c r="J86" s="3">
         <v>121882</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4003,7 +4003,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="87">
+    <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
         <v>20042</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="4">
+      <c r="J87" s="3">
         <v>119745</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4043,7 +4043,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="88">
+    <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
         <v>20043</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="4">
+      <c r="J88" s="3">
         <v>63539</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4083,7 +4083,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="89">
+    <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
         <v>20044</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
         <v>60981</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4123,7 +4123,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="90">
+    <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
         <v>20045</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
         <v>109144</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4163,7 +4163,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="91">
+    <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
         <v>20046</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
         <v>64141</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4203,7 +4203,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="92">
+    <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
         <v>20047</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="4">
+      <c r="J92" s="3">
         <v>109058</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4243,7 +4243,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="93">
+    <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
         <v>20048</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
         <v>109839</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4283,7 +4283,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="94">
+    <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
         <v>20049</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
         <v>118079</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4323,7 +4323,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="95">
+    <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
         <v>20050</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="4">
+      <c r="J95" s="3">
         <v>109839</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4363,7 +4363,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="96">
+    <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
         <v>20051</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="4">
+      <c r="J96" s="3">
         <v>117681</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4403,124 +4403,116 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="97">
-      <c r="A97" s="7">
+    <row customHeight="true" ht="25" r="97">
+      <c r="A97" s="2">
         <v>20052</v>
       </c>
-      <c r="B97" s="7" t="str">
+      <c r="B97" s="2" t="str">
         <v>Rainbow friends</v>
       </c>
-      <c r="C97" s="7">
-        <v>2</v>
-      </c>
-      <c r="D97" s="7">
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
         <v>143385</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="2">
         <v>3</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="10">
         <v>119483</v>
       </c>
-      <c r="K97" s="7" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L97" s="7" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M97" s="7" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-    </row>
-    <row customHeight="true" ht="23" r="98">
-      <c r="A98" s="1">
+      <c r="K97" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L97" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M97" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+    </row>
+    <row customHeight="true" ht="25" r="98">
+      <c r="A98" s="2">
+        <v>20053</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <v>海神</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2">
+        <v>226377</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2">
+        <v>226377</v>
+      </c>
+      <c r="K98" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L98" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M98" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+    </row>
+    <row customHeight="true" ht="25" r="99">
+      <c r="A99" s="1">
         <v>30001</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B99" s="1" t="str">
         <v>恶魔翅膀</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1">
-        <v>223877</v>
-      </c>
-      <c r="E98" s="1">
-        <v>3</v>
-      </c>
-      <c r="F98" s="1">
-        <v>12</v>
-      </c>
-      <c r="G98" s="1" t="str">
-        <v>-10|0|10</v>
-      </c>
-      <c r="H98" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I98" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="J98" s="1">
-        <v>223877</v>
-      </c>
-      <c r="K98" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L98" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M98" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-    </row>
-    <row customHeight="true" ht="23" r="99">
-      <c r="A99" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B99" s="1" t="str">
-        <v>恶魔角</v>
       </c>
       <c r="C99" s="1">
         <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>266332</v>
+        <v>223877</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
       </c>
       <c r="F99" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G99" s="1" t="str">
-        <v>0|5|10</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H99" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I99" s="1" t="str">
-        <v>1|1|2</v>
+        <v>2|2|2</v>
       </c>
       <c r="J99" s="1">
-        <v>266332</v>
+        <v>223877</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4529,7 +4521,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M99" s="1" t="str">
-        <v>1|1|2</v>
+        <v>2|2|2</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -4539,36 +4531,36 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="100">
+    <row customHeight="true" ht="25" r="100">
       <c r="A100" s="1">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>恶魔尾巴</v>
+        <v>恶魔角</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>136179</v>
+        <v>266332</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|5|10</v>
       </c>
       <c r="H100" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I100" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J100" s="1">
-        <v>136179</v>
+        <v>266332</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4577,7 +4569,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M100" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -4587,36 +4579,36 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="101">
+    <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>恶魔头骨</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C101" s="1">
         <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>136506</v>
+        <v>136179</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
       </c>
       <c r="F101" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G101" s="1" t="str">
-        <v>-4.8|0|-11</v>
+        <v>0|0|0</v>
       </c>
       <c r="H101" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I101" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J101" s="1">
-        <v>136506</v>
+        <v>136179</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4635,27 +4627,27 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="102">
+    <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>恶魔三头犬</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C102" s="1">
         <v>3</v>
       </c>
       <c r="D102" s="1">
-        <v>192395</v>
+        <v>136506</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
       </c>
       <c r="F102" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G102" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H102" s="1" t="str">
         <v>0|0|-90</v>
@@ -4664,7 +4656,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J102" s="1">
-        <v>192395</v>
+        <v>136506</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4683,36 +4675,36 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="103">
+    <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>天使翅膀</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C103" s="1">
         <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
       </c>
       <c r="F103" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G103" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H103" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I103" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J103" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -4731,36 +4723,36 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="104">
+    <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>天使蜘蛛</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
       </c>
       <c r="D104" s="1">
-        <v>192359</v>
+        <v>334814</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
       </c>
       <c r="F104" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G104" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H104" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I104" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J104" s="1">
-        <v>192359</v>
+        <v>334814</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -4779,36 +4771,36 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="105">
+    <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>30008</v>
+        <v>30007</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>狐狸尾巴</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
       </c>
       <c r="D105" s="1">
-        <v>226476</v>
+        <v>192359</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
       </c>
       <c r="F105" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G105" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H105" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I105" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J105" s="1">
-        <v>226476</v>
+        <v>192359</v>
       </c>
       <c r="K105" s="1" t="str">
         <v>0|0|0</v>
@@ -4827,24 +4819,24 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="106">
+    <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>30009</v>
+        <v>30008</v>
       </c>
       <c r="B106" s="1" t="str">
-        <v>狐狸耳朵</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C106" s="1">
         <v>3</v>
       </c>
       <c r="D106" s="1">
-        <v>226479</v>
+        <v>226476</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G106" s="1" t="str">
         <v>0|0|0</v>
@@ -4856,7 +4848,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J106" s="1">
-        <v>226479</v>
+        <v>226476</v>
       </c>
       <c r="K106" s="1" t="str">
         <v>0|0|0</v>
@@ -4875,18 +4867,18 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="107">
+    <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>30010</v>
+        <v>30009</v>
       </c>
       <c r="B107" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C107" s="1">
         <v>3</v>
       </c>
       <c r="D107" s="1">
-        <v>295506</v>
+        <v>226479</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -4904,7 +4896,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J107" s="1">
-        <v>295506</v>
+        <v>226479</v>
       </c>
       <c r="K107" s="1" t="str">
         <v>0|0|0</v>
@@ -4923,36 +4915,36 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="108">
+    <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>30011</v>
+        <v>30010</v>
       </c>
       <c r="B108" s="1" t="str">
-        <v>闪电翅膀</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
       </c>
       <c r="D108" s="1">
-        <v>42818</v>
+        <v>295506</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F108" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G108" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H108" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I108" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J108" s="1">
-        <v>42818</v>
+        <v>295506</v>
       </c>
       <c r="K108" s="1" t="str">
         <v>0|0|0</v>
@@ -4971,36 +4963,36 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="109">
+    <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>30012</v>
+        <v>30011</v>
       </c>
       <c r="B109" s="1" t="str">
-        <v>眼镜</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>324491</v>
+        <v>42818</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G109" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H109" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I109" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J109" s="1">
-        <v>324491</v>
+        <v>42818</v>
       </c>
       <c r="K109" s="1" t="str">
         <v>0|0|0</v>
@@ -5019,36 +5011,36 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="110">
+    <row customHeight="true" ht="25" r="110">
       <c r="A110" s="1">
-        <v>30013</v>
+        <v>30012</v>
       </c>
       <c r="B110" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>眼镜</v>
       </c>
       <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
-        <v>292313</v>
+        <v>324491</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G110" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H110" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|0</v>
       </c>
       <c r="I110" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J110" s="1">
-        <v>292313</v>
+        <v>324491</v>
       </c>
       <c r="K110" s="1" t="str">
         <v>0|0|0</v>
@@ -5057,7 +5049,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M110" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -5067,36 +5059,36 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="111">
+    <row customHeight="true" ht="25" r="111">
       <c r="A111" s="1">
-        <v>30014</v>
+        <v>30013</v>
       </c>
       <c r="B111" s="1" t="str">
-        <v>面纱</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>269783</v>
+        <v>292313</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
       </c>
       <c r="F111" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H111" s="1" t="str">
-        <v>0|0|0</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I111" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J111" s="1">
-        <v>269783</v>
+        <v>292313</v>
       </c>
       <c r="K111" s="1" t="str">
         <v>0|0|0</v>
@@ -5105,7 +5097,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M111" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -5115,36 +5107,36 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="23" r="112">
+    <row customHeight="true" ht="25" r="112">
       <c r="A112" s="1">
-        <v>30015</v>
+        <v>30014</v>
       </c>
       <c r="B112" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>面纱</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>226826</v>
+        <v>269783</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H112" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|0</v>
       </c>
       <c r="I112" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J112" s="1">
-        <v>226826</v>
+        <v>269783</v>
       </c>
       <c r="K112" s="1" t="str">
         <v>0|0|0</v>
@@ -5153,7 +5145,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M112" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -5163,18 +5155,18 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="113">
+    <row customHeight="true" hidden="true" ht="25" r="113">
       <c r="A113" s="1">
-        <v>30016</v>
+        <v>30015</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>318663</v>
+        <v>226826</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
@@ -5192,7 +5184,7 @@
         <v>0.5|0.5|0.5</v>
       </c>
       <c r="J113" s="1">
-        <v>318663</v>
+        <v>226826</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5211,36 +5203,36 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="114">
+    <row customHeight="true" ht="25" r="114">
       <c r="A114" s="1">
-        <v>30017</v>
+        <v>30016</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>152259</v>
+        <v>318663</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G114" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H114" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I114" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J114" s="1">
-        <v>152259</v>
+        <v>318663</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5249,7 +5241,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M114" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -5259,21 +5251,21 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="115">
+    <row customHeight="true" ht="25" r="115">
       <c r="A115" s="1">
-        <v>30018</v>
+        <v>30017</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>龙</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>292574</v>
+        <v>152259</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" s="1">
         <v>21</v>
@@ -5288,7 +5280,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>292574</v>
+        <v>152259</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5307,21 +5299,21 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="116">
+    <row customHeight="true" ht="25" r="116">
       <c r="A116" s="1">
-        <v>30019</v>
+        <v>30018</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>帝王龙</v>
+        <v>龙</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>192533</v>
+        <v>292574</v>
       </c>
       <c r="E116" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" s="1">
         <v>21</v>
@@ -5336,7 +5328,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J116" s="1">
-        <v>192533</v>
+        <v>292574</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5355,21 +5347,21 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="117">
+    <row customHeight="true" ht="25" r="117">
       <c r="A117" s="1">
-        <v>30020</v>
+        <v>30019</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>地狱龙</v>
+        <v>帝王龙</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>192420</v>
+        <v>192533</v>
       </c>
       <c r="E117" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117" s="1">
         <v>21</v>
@@ -5384,7 +5376,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J117" s="1">
-        <v>192420</v>
+        <v>192533</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5403,21 +5395,21 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="118">
+    <row customHeight="true" ht="25" r="118">
       <c r="A118" s="1">
-        <v>30021</v>
+        <v>30020</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>糖果龙</v>
+        <v>地狱龙</v>
       </c>
       <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>191950</v>
+        <v>192420</v>
       </c>
       <c r="E118" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" s="1">
         <v>21</v>
@@ -5432,7 +5424,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J118" s="1">
-        <v>191950</v>
+        <v>192420</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5451,21 +5443,21 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="119">
+    <row customHeight="true" ht="25" r="119">
       <c r="A119" s="1">
-        <v>30022</v>
+        <v>30021</v>
       </c>
       <c r="B119" s="1" t="str">
-        <v>武士龙</v>
+        <v>糖果龙</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>191852</v>
+        <v>191950</v>
       </c>
       <c r="E119" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119" s="1">
         <v>21</v>
@@ -5480,7 +5472,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J119" s="1">
-        <v>191852</v>
+        <v>191950</v>
       </c>
       <c r="K119" s="1" t="str">
         <v>0|0|0</v>
@@ -5499,36 +5491,36 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="120">
+    <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
-        <v>30023</v>
+        <v>30022</v>
       </c>
       <c r="B120" s="1" t="str">
-        <v>水晶翅膀</v>
+        <v>武士龙</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
-        <v>375788</v>
+        <v>191852</v>
       </c>
       <c r="E120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G120" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H120" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I120" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J120" s="1">
-        <v>375788</v>
+        <v>191852</v>
       </c>
       <c r="K120" s="1" t="str">
         <v>0|0|0</v>
@@ -5547,18 +5539,18 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="121">
+    <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
-        <v>30024</v>
+        <v>30023</v>
       </c>
       <c r="B121" s="1" t="str">
-        <v>杀戮翅膀</v>
+        <v>水晶翅膀</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>136966</v>
+        <v>375788</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
@@ -5570,13 +5562,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H121" s="1" t="str">
-        <v>0|0|180</v>
+        <v>0|0|90</v>
       </c>
       <c r="I121" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J121" s="1">
-        <v>136966</v>
+        <v>375788</v>
       </c>
       <c r="K121" s="1" t="str">
         <v>0|0|0</v>
@@ -5595,18 +5587,18 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="122">
+    <row customHeight="true" ht="25" r="122">
       <c r="A122" s="1">
-        <v>30025</v>
+        <v>30024</v>
       </c>
       <c r="B122" s="1" t="str">
-        <v>地狱翅膀</v>
+        <v>杀戮翅膀</v>
       </c>
       <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
-        <v>145912</v>
+        <v>136966</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -5618,13 +5610,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H122" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|180</v>
       </c>
       <c r="I122" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J122" s="1">
-        <v>145912</v>
+        <v>136966</v>
       </c>
       <c r="K122" s="1" t="str">
         <v>0|0|0</v>
@@ -5643,18 +5635,18 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="123">
+    <row customHeight="true" ht="25" r="123">
       <c r="A123" s="1">
-        <v>30026</v>
+        <v>30025</v>
       </c>
       <c r="B123" s="1" t="str">
-        <v>精灵翅膀</v>
+        <v>地狱翅膀</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>393543</v>
+        <v>145912</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -5672,7 +5664,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J123" s="1">
-        <v>393543</v>
+        <v>145912</v>
       </c>
       <c r="K123" s="1" t="str">
         <v>0|0|0</v>
@@ -5691,18 +5683,18 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="124">
+    <row customHeight="true" ht="25" r="124">
       <c r="A124" s="1">
-        <v>30027</v>
+        <v>30026</v>
       </c>
       <c r="B124" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>精灵翅膀</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>211667</v>
+        <v>393543</v>
       </c>
       <c r="E124" s="1">
         <v>2</v>
@@ -5720,7 +5712,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J124" s="1">
-        <v>211667</v>
+        <v>393543</v>
       </c>
       <c r="K124" s="1" t="str">
         <v>0|0|0</v>
@@ -5739,36 +5731,36 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="125">
+    <row customHeight="true" ht="25" r="125">
       <c r="A125" s="1">
-        <v>30028</v>
+        <v>30027</v>
       </c>
       <c r="B125" s="1" t="str">
-        <v>大剑</v>
+        <v>火焰翅膀</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>186519</v>
+        <v>211667</v>
       </c>
       <c r="E125" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1">
         <v>12</v>
       </c>
       <c r="G125" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H125" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I125" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J125" s="1">
-        <v>186519</v>
+        <v>211667</v>
       </c>
       <c r="K125" s="1" t="str">
         <v>0|0|0</v>
@@ -5787,18 +5779,18 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="126">
+    <row customHeight="true" ht="25" r="126">
       <c r="A126" s="1">
-        <v>30029</v>
+        <v>30028</v>
       </c>
       <c r="B126" s="1" t="str">
-        <v>天使剑</v>
+        <v>大剑</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
       </c>
       <c r="D126" s="1">
-        <v>20971</v>
+        <v>186519</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -5816,7 +5808,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J126" s="1">
-        <v>20971</v>
+        <v>186519</v>
       </c>
       <c r="K126" s="1" t="str">
         <v>0|0|0</v>
@@ -5835,28 +5827,36 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="127">
+    <row customHeight="true" ht="25" r="127">
       <c r="A127" s="1">
-        <v>40001</v>
+        <v>30029</v>
       </c>
       <c r="B127" s="1" t="str">
-        <v>蛇女</v>
+        <v>天使剑</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>328236</v>
+        <v>20971</v>
       </c>
       <c r="E127" s="1">
         <v>3</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="F127" s="1">
+        <v>12</v>
+      </c>
+      <c r="G127" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I127" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="J127" s="1">
-        <v>328236</v>
+        <v>20971</v>
       </c>
       <c r="K127" s="1" t="str">
         <v>0|0|0</v>
@@ -5875,18 +5875,18 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="128">
+    <row customHeight="true" ht="25" r="128">
       <c r="A128" s="1">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B128" s="1" t="str">
-        <v>络新妇</v>
+        <v>蛇女</v>
       </c>
       <c r="C128" s="1">
         <v>4</v>
       </c>
       <c r="D128" s="1">
-        <v>338436</v>
+        <v>328236</v>
       </c>
       <c r="E128" s="1">
         <v>3</v>
@@ -5896,7 +5896,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1">
-        <v>338436</v>
+        <v>328236</v>
       </c>
       <c r="K128" s="1" t="str">
         <v>0|0|0</v>
@@ -5915,18 +5915,18 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="129">
+    <row customHeight="true" ht="25" r="129">
       <c r="A129" s="1">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B129" s="1" t="str">
-        <v>大蜘蛛</v>
+        <v>络新妇</v>
       </c>
       <c r="C129" s="1">
         <v>4</v>
       </c>
       <c r="D129" s="1">
-        <v>328291</v>
+        <v>338436</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -5936,7 +5936,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1">
-        <v>328291</v>
+        <v>338436</v>
       </c>
       <c r="K129" s="1" t="str">
         <v>0|0|0</v>
@@ -5955,18 +5955,18 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="130">
+    <row customHeight="true" ht="25" r="130">
       <c r="A130" s="1">
-        <v>40004</v>
+        <v>40003</v>
       </c>
       <c r="B130" s="1" t="str">
-        <v>小型抱脸紫蜘蛛</v>
+        <v>大蜘蛛</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
       </c>
       <c r="D130" s="1">
-        <v>340103</v>
+        <v>328291</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
@@ -5976,7 +5976,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1">
-        <v>340103</v>
+        <v>328291</v>
       </c>
       <c r="K130" s="1" t="str">
         <v>0|0|0</v>
@@ -5995,18 +5995,18 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="131">
+    <row customHeight="true" ht="25" r="131">
       <c r="A131" s="1">
-        <v>40005</v>
+        <v>40004</v>
       </c>
       <c r="B131" s="1" t="str">
-        <v>小型抱脸红蜘蛛</v>
+        <v>小型抱脸紫蜘蛛</v>
       </c>
       <c r="C131" s="1">
         <v>4</v>
       </c>
       <c r="D131" s="1">
-        <v>340104</v>
+        <v>340103</v>
       </c>
       <c r="E131" s="1">
         <v>3</v>
@@ -6016,7 +6016,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1">
-        <v>340104</v>
+        <v>340103</v>
       </c>
       <c r="K131" s="1" t="str">
         <v>0|0|0</v>
@@ -6035,18 +6035,18 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="132">
+    <row customHeight="true" ht="25" r="132">
       <c r="A132" s="1">
-        <v>40006</v>
+        <v>40005</v>
       </c>
       <c r="B132" s="1" t="str">
-        <v>小型抱脸绿蜘蛛</v>
+        <v>小型抱脸红蜘蛛</v>
       </c>
       <c r="C132" s="1">
         <v>4</v>
       </c>
       <c r="D132" s="1">
-        <v>340105</v>
+        <v>340104</v>
       </c>
       <c r="E132" s="1">
         <v>3</v>
@@ -6056,7 +6056,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1">
-        <v>340105</v>
+        <v>340104</v>
       </c>
       <c r="K132" s="1" t="str">
         <v>0|0|0</v>
@@ -6075,18 +6075,18 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="133">
+    <row customHeight="true" ht="25" r="133">
       <c r="A133" s="1">
-        <v>40007</v>
+        <v>40006</v>
       </c>
       <c r="B133" s="1" t="str">
-        <v>小型抱脸蓝蜘蛛</v>
+        <v>小型抱脸绿蜘蛛</v>
       </c>
       <c r="C133" s="1">
         <v>4</v>
       </c>
       <c r="D133" s="1">
-        <v>340106</v>
+        <v>340105</v>
       </c>
       <c r="E133" s="1">
         <v>3</v>
@@ -6096,7 +6096,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1">
-        <v>340106</v>
+        <v>340105</v>
       </c>
       <c r="K133" s="1" t="str">
         <v>0|0|0</v>
@@ -6115,20 +6115,38 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+    <row customHeight="true" ht="25" r="134">
+      <c r="A134" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <v>小型抱脸蓝蜘蛛</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>340106</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="J134" s="1">
+        <v>340106</v>
+      </c>
+      <c r="K134" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M134" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -6137,7 +6155,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="135">
+    <row customHeight="true" ht="25" r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6159,7 +6177,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="136">
+    <row customHeight="true" ht="25" r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6181,7 +6199,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="137">
+    <row customHeight="true" ht="25" r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6203,7 +6221,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="138">
+    <row customHeight="true" ht="25" r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6225,7 +6243,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="139">
+    <row customHeight="true" ht="25" r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6247,7 +6265,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="140">
+    <row customHeight="true" ht="25" r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6269,7 +6287,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="141">
+    <row customHeight="true" ht="25" r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6291,7 +6309,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="142">
+    <row customHeight="true" ht="25" r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6313,7 +6331,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="143">
+    <row customHeight="true" ht="25" r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6335,7 +6353,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="144">
+    <row customHeight="true" ht="25" r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6357,36 +6375,20 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="145">
+    <row customHeight="true" ht="25" r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="1" t="str">
-        <v>变异沙漠三头狗</v>
-      </c>
-      <c r="C145" s="1">
-        <v>4</v>
-      </c>
-      <c r="D145" s="1">
-        <v>327996</v>
-      </c>
-      <c r="E145" s="1">
-        <v>3</v>
-      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K145" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L145" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M145" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
@@ -6395,16 +6397,16 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="146">
+    <row customHeight="true" ht="25" r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="str">
-        <v>三头狗</v>
+        <v>变异沙漠三头狗</v>
       </c>
       <c r="C146" s="1">
         <v>4</v>
       </c>
       <c r="D146" s="1">
-        <v>327801</v>
+        <v>327996</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
@@ -6414,7 +6416,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1">
-        <v>327801</v>
+        <v>327996</v>
       </c>
       <c r="K146" s="1" t="str">
         <v>0|0|0</v>
@@ -6433,26 +6435,26 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="147">
+    <row customHeight="true" ht="25" r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="str">
-        <v>小龙</v>
+        <v>三头狗</v>
       </c>
       <c r="C147" s="1">
         <v>4</v>
       </c>
       <c r="D147" s="1">
-        <v>328246</v>
+        <v>327801</v>
       </c>
       <c r="E147" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1">
-        <v>328246</v>
+        <v>327801</v>
       </c>
       <c r="K147" s="1" t="str">
         <v>0|0|0</v>
@@ -6471,16 +6473,16 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="148">
+    <row customHeight="true" ht="25" r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>小龙</v>
       </c>
       <c r="C148" s="1">
         <v>4</v>
       </c>
       <c r="D148" s="1">
-        <v>328030</v>
+        <v>328246</v>
       </c>
       <c r="E148" s="1">
         <v>2</v>
@@ -6490,7 +6492,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1">
-        <v>328030</v>
+        <v>328246</v>
       </c>
       <c r="K148" s="1" t="str">
         <v>0|0|0</v>
@@ -6509,16 +6511,16 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="149">
+    <row customHeight="true" ht="25" r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="str">
-        <v>红龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C149" s="1">
         <v>4</v>
       </c>
       <c r="D149" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="E149" s="1">
         <v>2</v>
@@ -6528,7 +6530,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="K149" s="1" t="str">
         <v>0|0|0</v>
@@ -6547,16 +6549,16 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="150">
+    <row customHeight="true" ht="25" r="150">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="str">
-        <v>黄龙</v>
+        <v>红龙</v>
       </c>
       <c r="C150" s="1">
         <v>4</v>
       </c>
       <c r="D150" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
@@ -6566,7 +6568,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="K150" s="1" t="str">
         <v>0|0|0</v>
@@ -6585,16 +6587,16 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="151">
+    <row customHeight="true" ht="25" r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="str">
-        <v>蓝龙</v>
+        <v>黄龙</v>
       </c>
       <c r="C151" s="1">
         <v>4</v>
       </c>
       <c r="D151" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="E151" s="1">
         <v>2</v>
@@ -6604,7 +6606,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="K151" s="1" t="str">
         <v>0|0|0</v>
@@ -6623,20 +6625,36 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="152">
+    <row customHeight="true" ht="25" r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="B152" s="1" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152" s="1">
+        <v>328088</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2</v>
+      </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
+      <c r="J152" s="1">
+        <v>328088</v>
+      </c>
+      <c r="K152" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L152" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M152" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -6645,7 +6663,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="153">
+    <row customHeight="true" ht="25" r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6667,7 +6685,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="154">
+    <row customHeight="true" ht="25" r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6689,7 +6707,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="155">
+    <row customHeight="true" ht="25" r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6711,7 +6729,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="156">
+    <row customHeight="true" ht="25" r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6733,7 +6751,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="157">
+    <row customHeight="true" ht="25" r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6755,7 +6773,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="158">
+    <row customHeight="true" ht="25" r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6777,7 +6795,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="159">
+    <row customHeight="true" ht="25" r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6799,7 +6817,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="160">
+    <row customHeight="true" ht="25" r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6821,7 +6839,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="161">
+    <row customHeight="true" ht="25" r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6843,7 +6861,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="162">
+    <row customHeight="true" ht="25" r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6865,36 +6883,20 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="163">
+    <row customHeight="true" ht="25" r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="1" t="str">
-        <v>小鸟模型</v>
-      </c>
-      <c r="C163" s="1">
-        <v>4</v>
-      </c>
-      <c r="D163" s="1">
-        <v>336884</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0</v>
-      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="1">
-        <v>336884</v>
-      </c>
-      <c r="K163" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L163" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M163" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -6903,26 +6905,26 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="164">
+    <row customHeight="true" ht="25" r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="str">
-        <v>野狼</v>
+        <v>小鸟模型</v>
       </c>
       <c r="C164" s="1">
         <v>4</v>
       </c>
       <c r="D164" s="1">
-        <v>328238</v>
+        <v>336884</v>
       </c>
       <c r="E164" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1">
-        <v>328238</v>
+        <v>336884</v>
       </c>
       <c r="K164" s="1" t="str">
         <v>0|0|0</v>
@@ -6941,16 +6943,16 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="165">
+    <row customHeight="true" ht="25" r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="str">
-        <v>棕野狼</v>
+        <v>野狼</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
       </c>
       <c r="D165" s="1">
-        <v>328219</v>
+        <v>328238</v>
       </c>
       <c r="E165" s="1">
         <v>2</v>
@@ -6960,7 +6962,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1">
-        <v>328219</v>
+        <v>328238</v>
       </c>
       <c r="K165" s="1" t="str">
         <v>0|0|0</v>
@@ -6979,16 +6981,16 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="166">
+    <row customHeight="true" ht="25" r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="str">
-        <v>小兔子</v>
+        <v>棕野狼</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
       </c>
       <c r="D166" s="1">
-        <v>328216</v>
+        <v>328219</v>
       </c>
       <c r="E166" s="1">
         <v>2</v>
@@ -6998,7 +7000,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1">
-        <v>328216</v>
+        <v>328219</v>
       </c>
       <c r="K166" s="1" t="str">
         <v>0|0|0</v>
@@ -7017,16 +7019,16 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="167">
+    <row customHeight="true" ht="25" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="str">
-        <v>登山猫</v>
+        <v>小兔子</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
       </c>
       <c r="D167" s="1">
-        <v>328187</v>
+        <v>328216</v>
       </c>
       <c r="E167" s="1">
         <v>2</v>
@@ -7036,7 +7038,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1">
-        <v>328187</v>
+        <v>328216</v>
       </c>
       <c r="K167" s="1" t="str">
         <v>0|0|0</v>
@@ -7055,16 +7057,16 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="168">
+    <row customHeight="true" ht="25" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="str">
-        <v>水手猫</v>
+        <v>登山猫</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <v>328197</v>
+        <v>328187</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -7074,7 +7076,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1">
-        <v>328197</v>
+        <v>328187</v>
       </c>
       <c r="K168" s="1" t="str">
         <v>0|0|0</v>
@@ -7093,16 +7095,16 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="169">
+    <row customHeight="true" ht="25" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="str">
-        <v>舞狮头猫</v>
+        <v>水手猫</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
       </c>
       <c r="D169" s="1">
-        <v>328144</v>
+        <v>328197</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
@@ -7112,7 +7114,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1">
-        <v>328144</v>
+        <v>328197</v>
       </c>
       <c r="K169" s="1" t="str">
         <v>0|0|0</v>
@@ -7131,16 +7133,16 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="170">
+    <row customHeight="true" ht="25" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="str">
-        <v>祥云能量猫</v>
+        <v>舞狮头猫</v>
       </c>
       <c r="C170" s="1">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <v>328137</v>
+        <v>328144</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -7150,7 +7152,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1">
-        <v>328137</v>
+        <v>328144</v>
       </c>
       <c r="K170" s="1" t="str">
         <v>0|0|0</v>
@@ -7169,16 +7171,16 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="171">
+    <row customHeight="true" ht="25" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="str">
-        <v>喜庆棉服猫</v>
+        <v>祥云能量猫</v>
       </c>
       <c r="C171" s="1">
         <v>4</v>
       </c>
       <c r="D171" s="1">
-        <v>328135</v>
+        <v>328137</v>
       </c>
       <c r="E171" s="1">
         <v>2</v>
@@ -7188,7 +7190,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1">
-        <v>328135</v>
+        <v>328137</v>
       </c>
       <c r="K171" s="1" t="str">
         <v>0|0|0</v>
@@ -7207,16 +7209,16 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="172">
+    <row customHeight="true" ht="25" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="str">
-        <v>冰雪狐</v>
+        <v>喜庆棉服猫</v>
       </c>
       <c r="C172" s="1">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <v>328081</v>
+        <v>328135</v>
       </c>
       <c r="E172" s="1">
         <v>2</v>
@@ -7226,7 +7228,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1">
-        <v>328081</v>
+        <v>328135</v>
       </c>
       <c r="K172" s="1" t="str">
         <v>0|0|0</v>
@@ -7245,16 +7247,16 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="173">
+    <row customHeight="true" ht="25" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>冰雪狐</v>
       </c>
       <c r="C173" s="1">
         <v>4</v>
       </c>
       <c r="D173" s="1">
-        <v>328030</v>
+        <v>328081</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -7264,7 +7266,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1">
-        <v>328030</v>
+        <v>328081</v>
       </c>
       <c r="K173" s="1" t="str">
         <v>0|0|0</v>
@@ -7283,16 +7285,16 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="174">
+    <row customHeight="true" ht="25" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="str">
-        <v>红龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C174" s="1">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -7302,7 +7304,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="K174" s="1" t="str">
         <v>0|0|0</v>
@@ -7321,16 +7323,16 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="175">
+    <row customHeight="true" ht="25" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="str">
-        <v>黄龙</v>
+        <v>红龙</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
       </c>
       <c r="D175" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -7340,7 +7342,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="K175" s="1" t="str">
         <v>0|0|0</v>
@@ -7359,16 +7361,16 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="176">
+    <row customHeight="true" ht="25" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="str">
-        <v>蓝龙</v>
+        <v>黄龙</v>
       </c>
       <c r="C176" s="1">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
@@ -7378,7 +7380,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="K176" s="1" t="str">
         <v>0|0|0</v>
@@ -7397,26 +7399,26 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="177">
+    <row customHeight="true" ht="25" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="str">
-        <v>唐装坐骑熊猫</v>
+        <v>蓝龙</v>
       </c>
       <c r="C177" s="1">
         <v>4</v>
       </c>
       <c r="D177" s="1">
-        <v>327940</v>
+        <v>328088</v>
       </c>
       <c r="E177" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1">
-        <v>327940</v>
+        <v>328088</v>
       </c>
       <c r="K177" s="1" t="str">
         <v>0|0|0</v>
@@ -7435,26 +7437,26 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="178">
+    <row customHeight="true" ht="25" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="str">
-        <v>唐装熊猫</v>
+        <v>唐装坐骑熊猫</v>
       </c>
       <c r="C178" s="1">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <v>327934</v>
+        <v>327940</v>
       </c>
       <c r="E178" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1">
-        <v>327934</v>
+        <v>327940</v>
       </c>
       <c r="K178" s="1" t="str">
         <v>0|0|0</v>
@@ -7473,26 +7475,26 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="179">
+    <row customHeight="true" ht="25" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="str">
-        <v>小金毛</v>
+        <v>唐装熊猫</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="1">
-        <v>327936</v>
+        <v>327934</v>
       </c>
       <c r="E179" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1">
-        <v>327936</v>
+        <v>327934</v>
       </c>
       <c r="K179" s="1" t="str">
         <v>0|0|0</v>
@@ -7511,26 +7513,26 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="180">
+    <row customHeight="true" ht="25" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="str">
-        <v>垂耳兔</v>
+        <v>小金毛</v>
       </c>
       <c r="C180" s="1">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <v>327907</v>
+        <v>327936</v>
       </c>
       <c r="E180" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1">
-        <v>327907</v>
+        <v>327936</v>
       </c>
       <c r="K180" s="1" t="str">
         <v>0|0|0</v>
@@ -7549,26 +7551,26 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="181">
+    <row customHeight="true" ht="25" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="str">
-        <v>无毛猫</v>
+        <v>垂耳兔</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
       </c>
       <c r="D181" s="1">
-        <v>327894</v>
+        <v>327907</v>
       </c>
       <c r="E181" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1">
-        <v>327894</v>
+        <v>327907</v>
       </c>
       <c r="K181" s="1" t="str">
         <v>0|0|0</v>
@@ -7587,26 +7589,26 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="182">
+    <row customHeight="true" ht="25" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="str">
-        <v>蓝白帽子猫</v>
+        <v>无毛猫</v>
       </c>
       <c r="C182" s="1">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>327891</v>
+        <v>327894</v>
       </c>
       <c r="E182" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1">
-        <v>327891</v>
+        <v>327894</v>
       </c>
       <c r="K182" s="1" t="str">
         <v>0|0|0</v>
@@ -7625,26 +7627,26 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="183">
+    <row customHeight="true" ht="25" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="str">
-        <v>礼帽暹罗猫</v>
+        <v>蓝白帽子猫</v>
       </c>
       <c r="C183" s="1">
         <v>4</v>
       </c>
       <c r="D183" s="1">
-        <v>327889</v>
+        <v>327891</v>
       </c>
       <c r="E183" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1">
-        <v>327889</v>
+        <v>327891</v>
       </c>
       <c r="K183" s="1" t="str">
         <v>0|0|0</v>
@@ -7663,26 +7665,26 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="184">
+    <row customHeight="true" ht="25" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="str">
-        <v>熊猫</v>
+        <v>礼帽暹罗猫</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <v>327881</v>
+        <v>327889</v>
       </c>
       <c r="E184" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1">
-        <v>327881</v>
+        <v>327889</v>
       </c>
       <c r="K184" s="1" t="str">
         <v>0|0|0</v>
@@ -7701,26 +7703,26 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="185">
+    <row customHeight="true" ht="25" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
-        <v>兔子帽猫</v>
+        <v>熊猫</v>
       </c>
       <c r="C185" s="1">
         <v>4</v>
       </c>
       <c r="D185" s="1">
-        <v>327874</v>
+        <v>327881</v>
       </c>
       <c r="E185" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1">
-        <v>327874</v>
+        <v>327881</v>
       </c>
       <c r="K185" s="1" t="str">
         <v>0|0|0</v>
@@ -7739,16 +7741,16 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="186">
+    <row customHeight="true" ht="25" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
-        <v>三花铃铛猫</v>
+        <v>兔子帽猫</v>
       </c>
       <c r="C186" s="1">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>327868</v>
+        <v>327874</v>
       </c>
       <c r="E186" s="1">
         <v>2</v>
@@ -7758,7 +7760,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1">
-        <v>327868</v>
+        <v>327874</v>
       </c>
       <c r="K186" s="1" t="str">
         <v>0|0|0</v>
@@ -7777,16 +7779,16 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="187">
+    <row customHeight="true" ht="25" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
-        <v>黑色蝴蝶猫</v>
+        <v>三花铃铛猫</v>
       </c>
       <c r="C187" s="1">
         <v>4</v>
       </c>
       <c r="D187" s="1">
-        <v>327837</v>
+        <v>327868</v>
       </c>
       <c r="E187" s="1">
         <v>2</v>
@@ -7796,7 +7798,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1">
-        <v>327837</v>
+        <v>327868</v>
       </c>
       <c r="K187" s="1" t="str">
         <v>0|0|0</v>
@@ -7815,16 +7817,16 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="188">
+    <row customHeight="true" ht="25" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
-        <v>美短圣诞猫</v>
+        <v>黑色蝴蝶猫</v>
       </c>
       <c r="C188" s="1">
         <v>4</v>
       </c>
       <c r="D188" s="1">
-        <v>327774</v>
+        <v>327837</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
@@ -7834,7 +7836,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1">
-        <v>327774</v>
+        <v>327837</v>
       </c>
       <c r="K188" s="1" t="str">
         <v>0|0|0</v>
@@ -7853,26 +7855,26 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="189">
+    <row customHeight="true" ht="25" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
-        <v>蓝白垂耳兔</v>
+        <v>美短圣诞猫</v>
       </c>
       <c r="C189" s="1">
         <v>4</v>
       </c>
       <c r="D189" s="1">
-        <v>160051</v>
+        <v>327774</v>
       </c>
       <c r="E189" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1">
-        <v>160051</v>
+        <v>327774</v>
       </c>
       <c r="K189" s="1" t="str">
         <v>0|0|0</v>
@@ -7891,26 +7893,26 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="190">
+    <row customHeight="true" ht="25" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
-        <v>粉猪</v>
+        <v>蓝白垂耳兔</v>
       </c>
       <c r="C190" s="1">
         <v>4</v>
       </c>
       <c r="D190" s="1">
-        <v>327745</v>
+        <v>160051</v>
       </c>
       <c r="E190" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1">
-        <v>327745</v>
+        <v>160051</v>
       </c>
       <c r="K190" s="1" t="str">
         <v>0|0|0</v>
@@ -7929,26 +7931,26 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="191">
+    <row customHeight="true" ht="25" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
-        <v>虎斑猫</v>
+        <v>粉猪</v>
       </c>
       <c r="C191" s="1">
         <v>4</v>
       </c>
       <c r="D191" s="1">
-        <v>327747</v>
+        <v>327745</v>
       </c>
       <c r="E191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1">
-        <v>327747</v>
+        <v>327745</v>
       </c>
       <c r="K191" s="1" t="str">
         <v>0|0|0</v>
@@ -7967,16 +7969,16 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="192">
+    <row customHeight="true" ht="25" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
-        <v>天使猫</v>
+        <v>虎斑猫</v>
       </c>
       <c r="C192" s="1">
         <v>4</v>
       </c>
       <c r="D192" s="1">
-        <v>327748</v>
+        <v>327747</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
@@ -7986,7 +7988,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1">
-        <v>327748</v>
+        <v>327747</v>
       </c>
       <c r="K192" s="1" t="str">
         <v>0|0|0</v>
@@ -8005,26 +8007,26 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="193">
+    <row customHeight="true" ht="25" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
-        <v>小恶魔猫</v>
+        <v>天使猫</v>
       </c>
       <c r="C193" s="1">
         <v>4</v>
       </c>
       <c r="D193" s="1">
-        <v>327754</v>
+        <v>327748</v>
       </c>
       <c r="E193" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1">
-        <v>327754</v>
+        <v>327748</v>
       </c>
       <c r="K193" s="1" t="str">
         <v>0|0|0</v>
@@ -8043,26 +8045,26 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="194">
+    <row customHeight="true" ht="25" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
-        <v>独眼布偶猫</v>
+        <v>小恶魔猫</v>
       </c>
       <c r="C194" s="1">
         <v>4</v>
       </c>
       <c r="D194" s="1">
-        <v>327758</v>
+        <v>327754</v>
       </c>
       <c r="E194" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1">
-        <v>327758</v>
+        <v>327754</v>
       </c>
       <c r="K194" s="1" t="str">
         <v>0|0|0</v>
@@ -8081,26 +8083,26 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="195">
+    <row customHeight="true" ht="25" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
-        <v>花猪</v>
+        <v>独眼布偶猫</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>327761</v>
+        <v>327758</v>
       </c>
       <c r="E195" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1">
-        <v>327761</v>
+        <v>327758</v>
       </c>
       <c r="K195" s="1" t="str">
         <v>0|0|0</v>
@@ -8119,26 +8121,26 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="196">
+    <row customHeight="true" ht="25" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
-        <v>太阳帽猫</v>
+        <v>花猪</v>
       </c>
       <c r="C196" s="1">
         <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>327762</v>
+        <v>327761</v>
       </c>
       <c r="E196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1">
-        <v>327762</v>
+        <v>327761</v>
       </c>
       <c r="K196" s="1" t="str">
         <v>0|0|0</v>
@@ -8157,26 +8159,26 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="197">
+    <row customHeight="true" ht="25" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
-        <v>斑点垂耳狗</v>
+        <v>太阳帽猫</v>
       </c>
       <c r="C197" s="1">
         <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>327770</v>
+        <v>327762</v>
       </c>
       <c r="E197" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1">
-        <v>327770</v>
+        <v>327762</v>
       </c>
       <c r="K197" s="1" t="str">
         <v>0|0|0</v>
@@ -8195,16 +8197,16 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="198">
+    <row customHeight="true" ht="25" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
-        <v>黑白色直耳兔</v>
+        <v>斑点垂耳狗</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
       </c>
       <c r="D198" s="1">
-        <v>327773</v>
+        <v>327770</v>
       </c>
       <c r="E198" s="1">
         <v>0</v>
@@ -8214,7 +8216,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1">
-        <v>327773</v>
+        <v>327770</v>
       </c>
       <c r="K198" s="1" t="str">
         <v>0|0|0</v>
@@ -8233,16 +8235,16 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="199">
+    <row customHeight="true" ht="25" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
-        <v>橘猫</v>
+        <v>黑白色直耳兔</v>
       </c>
       <c r="C199" s="1">
         <v>4</v>
       </c>
       <c r="D199" s="1">
-        <v>327786</v>
+        <v>327773</v>
       </c>
       <c r="E199" s="1">
         <v>0</v>
@@ -8252,7 +8254,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1">
-        <v>327786</v>
+        <v>327773</v>
       </c>
       <c r="K199" s="1" t="str">
         <v>0|0|0</v>
@@ -8271,16 +8273,16 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="200">
+    <row customHeight="true" ht="25" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
-        <v>条纹外套白猫</v>
+        <v>橘猫</v>
       </c>
       <c r="C200" s="1">
         <v>4</v>
       </c>
       <c r="D200" s="1">
-        <v>327791</v>
+        <v>327786</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -8290,7 +8292,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1">
-        <v>327791</v>
+        <v>327786</v>
       </c>
       <c r="K200" s="1" t="str">
         <v>0|0|0</v>
@@ -8309,26 +8311,26 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="201">
+    <row customHeight="true" ht="25" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
-        <v>墨镜花猫</v>
+        <v>条纹外套白猫</v>
       </c>
       <c r="C201" s="1">
         <v>4</v>
       </c>
       <c r="D201" s="1">
-        <v>327860</v>
+        <v>327791</v>
       </c>
       <c r="E201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1">
-        <v>327860</v>
+        <v>327791</v>
       </c>
       <c r="K201" s="1" t="str">
         <v>0|0|0</v>
@@ -8347,16 +8349,16 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="202">
+    <row customHeight="true" ht="25" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="str">
-        <v>眼镜蓝猫</v>
+        <v>墨镜花猫</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
       </c>
       <c r="D202" s="1">
-        <v>327849</v>
+        <v>327860</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -8366,7 +8368,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1">
-        <v>327849</v>
+        <v>327860</v>
       </c>
       <c r="K202" s="1" t="str">
         <v>0|0|0</v>
@@ -8385,16 +8387,16 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="203">
+    <row customHeight="true" ht="25" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="str">
-        <v>巫师帽猫</v>
+        <v>眼镜蓝猫</v>
       </c>
       <c r="C203" s="1">
         <v>4</v>
       </c>
       <c r="D203" s="1">
-        <v>327861</v>
+        <v>327849</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -8404,7 +8406,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1">
-        <v>327861</v>
+        <v>327849</v>
       </c>
       <c r="K203" s="1" t="str">
         <v>0|0|0</v>
@@ -8423,16 +8425,16 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="204">
+    <row customHeight="true" ht="25" r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="str">
-        <v>白色萨摩耶</v>
+        <v>巫师帽猫</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
       </c>
       <c r="D204" s="1">
-        <v>327937</v>
+        <v>327861</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -8442,7 +8444,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1">
-        <v>327937</v>
+        <v>327861</v>
       </c>
       <c r="K204" s="1" t="str">
         <v>0|0|0</v>
@@ -8461,16 +8463,16 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="205">
+    <row customHeight="true" ht="25" r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="str">
-        <v>矮脚马</v>
+        <v>白色萨摩耶</v>
       </c>
       <c r="C205" s="1">
         <v>4</v>
       </c>
       <c r="D205" s="1">
-        <v>327960</v>
+        <v>327937</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -8480,7 +8482,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1">
-        <v>327960</v>
+        <v>327937</v>
       </c>
       <c r="K205" s="1" t="str">
         <v>0|0|0</v>
@@ -8499,16 +8501,16 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="206">
+    <row customHeight="true" ht="25" r="206">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="str">
-        <v>美短方帽猫</v>
+        <v>矮脚马</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
       </c>
       <c r="D206" s="1">
-        <v>327973</v>
+        <v>327960</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -8518,7 +8520,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1">
-        <v>327973</v>
+        <v>327960</v>
       </c>
       <c r="K206" s="1" t="str">
         <v>0|0|0</v>
@@ -8537,26 +8539,26 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="207">
+    <row customHeight="true" ht="25" r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="str">
-        <v>黑猫</v>
+        <v>美短方帽猫</v>
       </c>
       <c r="C207" s="1">
         <v>4</v>
       </c>
       <c r="D207" s="1">
-        <v>327963</v>
+        <v>327973</v>
       </c>
       <c r="E207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1">
-        <v>327963</v>
+        <v>327973</v>
       </c>
       <c r="K207" s="1" t="str">
         <v>0|0|0</v>
@@ -8575,16 +8577,16 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="208">
+    <row customHeight="true" ht="25" r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="str">
-        <v>小黄狗</v>
+        <v>黑猫</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
       </c>
       <c r="D208" s="1">
-        <v>327990</v>
+        <v>327963</v>
       </c>
       <c r="E208" s="1">
         <v>0</v>
@@ -8594,7 +8596,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1">
-        <v>327990</v>
+        <v>327963</v>
       </c>
       <c r="K208" s="1" t="str">
         <v>0|0|0</v>
@@ -8613,26 +8615,26 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="209">
+    <row customHeight="true" ht="25" r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="str">
-        <v>黄色猫咪团子</v>
+        <v>小黄狗</v>
       </c>
       <c r="C209" s="1">
         <v>4</v>
       </c>
       <c r="D209" s="1">
-        <v>338994</v>
+        <v>327990</v>
       </c>
       <c r="E209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1">
-        <v>338994</v>
+        <v>327990</v>
       </c>
       <c r="K209" s="1" t="str">
         <v>0|0|0</v>
@@ -8651,16 +8653,16 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="210">
+    <row customHeight="true" ht="25" r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="str">
-        <v>鹦鹉</v>
+        <v>黄色猫咪团子</v>
       </c>
       <c r="C210" s="1">
         <v>4</v>
       </c>
       <c r="D210" s="1">
-        <v>326463</v>
+        <v>338994</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -8670,7 +8672,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1">
-        <v>326463</v>
+        <v>338994</v>
       </c>
       <c r="K210" s="1" t="str">
         <v>0|0|0</v>
@@ -8689,16 +8691,16 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="211">
+    <row customHeight="true" ht="25" r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="str">
-        <v>暹罗樱花猫</v>
+        <v>鹦鹉</v>
       </c>
       <c r="C211" s="1">
         <v>4</v>
       </c>
       <c r="D211" s="1">
-        <v>327764</v>
+        <v>326463</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -8708,7 +8710,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1">
-        <v>327764</v>
+        <v>326463</v>
       </c>
       <c r="K211" s="1" t="str">
         <v>0|0|0</v>
@@ -8727,16 +8729,16 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="212">
+    <row customHeight="true" ht="25" r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="str">
-        <v>蓝白飞行斗技猫</v>
+        <v>暹罗樱花猫</v>
       </c>
       <c r="C212" s="1">
         <v>4</v>
       </c>
       <c r="D212" s="1">
-        <v>327814</v>
+        <v>327764</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -8746,7 +8748,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1">
-        <v>327814</v>
+        <v>327764</v>
       </c>
       <c r="K212" s="1" t="str">
         <v>0|0|0</v>
@@ -8765,8 +8767,45 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
     </row>
+    <row customHeight="true" ht="25" r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="str">
+        <v>蓝白飞行斗技猫</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4</v>
+      </c>
+      <c r="D213" s="1">
+        <v>327814</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1">
+        <v>327814</v>
+      </c>
+      <c r="K213" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L213" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M213" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,7 +51,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,6 +65,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,7 +86,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,21 +114,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FFF14BA9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +155,35 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -209,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,15 +288,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -630,8 +698,12 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="2" t="str">
+        <v>string</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <v>string</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -678,8 +750,12 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="7" t="str">
+        <v>Idle</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <v>Move</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -767,23 +843,23 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="13" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>134222</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6">
+      <c r="J6" s="10">
         <v>134222</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -807,23 +883,23 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="13" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="6">
+      <c r="J7" s="10">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -847,23 +923,23 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="13" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="6">
+      <c r="J8" s="10">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -887,23 +963,23 @@
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="5" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="6">
+      <c r="J9" s="10">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -927,23 +1003,23 @@
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="5" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="6">
+      <c r="J10" s="10">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -967,23 +1043,23 @@
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="5" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6">
+      <c r="J11" s="10">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1007,23 +1083,23 @@
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="5" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
+      <c r="J12" s="10">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1047,7 +1123,7 @@
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="5" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
@@ -1059,7 +1135,7 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1087,7 +1163,7 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="9" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
@@ -1099,7 +1175,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1127,7 +1203,7 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="9" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
@@ -1139,7 +1215,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1167,7 +1243,7 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="9" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
@@ -1179,7 +1255,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1207,7 +1283,7 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="9" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
@@ -1219,7 +1295,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1247,19 +1323,19 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1287,7 +1363,7 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="9" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1299,7 +1375,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1327,7 +1403,7 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="9" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1339,7 +1415,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1367,7 +1443,7 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="9" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
@@ -1379,7 +1455,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1407,7 +1483,7 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="4" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
@@ -1419,7 +1495,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1447,7 +1523,7 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="9" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1459,7 +1535,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1647,7 +1723,7 @@
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="5" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
@@ -1659,7 +1735,7 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1687,7 +1763,7 @@
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="5" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
@@ -1699,7 +1775,7 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1727,7 +1803,7 @@
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="5" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
@@ -1739,7 +1815,7 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1767,7 +1843,7 @@
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="5" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
@@ -1779,7 +1855,7 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1807,7 +1883,7 @@
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="5" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
@@ -1819,7 +1895,7 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1847,7 +1923,7 @@
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="9" t="str" xml:space="preserve">
+      <c r="B33" s="11" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
@@ -1859,7 +1935,7 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1887,7 +1963,7 @@
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="9" t="str">
+      <c r="B34" s="11" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
@@ -1899,7 +1975,7 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1927,7 +2003,7 @@
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="6" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
@@ -1939,7 +2015,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1967,7 +2043,7 @@
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="6" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
@@ -1979,7 +2055,7 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2007,7 +2083,7 @@
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="4" t="str">
+      <c r="B37" s="6" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
@@ -2019,7 +2095,7 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2047,7 +2123,7 @@
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="4" t="str">
+      <c r="B38" s="6" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
@@ -2059,7 +2135,7 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2087,7 +2163,7 @@
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="9" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
@@ -2099,7 +2175,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2127,7 +2203,7 @@
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="9" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
@@ -2139,7 +2215,7 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2167,7 +2243,7 @@
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="9" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2179,7 +2255,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2207,23 +2283,23 @@
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="9" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="10">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="6">
+      <c r="J42" s="10">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2247,7 +2323,7 @@
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="9" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2259,7 +2335,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2287,7 +2363,7 @@
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="6" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2299,7 +2375,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2327,7 +2403,7 @@
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="6" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2339,7 +2415,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2373,7 +2449,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2413,7 +2489,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2453,7 +2529,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2493,7 +2569,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2533,7 +2609,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2573,7 +2649,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2613,7 +2689,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="5">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2653,7 +2729,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="5">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2693,7 +2769,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2733,7 +2809,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2773,7 +2849,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2813,7 +2889,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2853,7 +2929,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2893,7 +2969,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -2933,7 +3009,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -2973,7 +3049,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3013,7 +3089,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3053,7 +3129,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3093,7 +3169,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3133,7 +3209,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3173,7 +3249,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3213,7 +3289,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -3253,7 +3329,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="5">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3293,7 +3369,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="5">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3333,7 +3409,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="5">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3373,7 +3449,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="5">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3413,7 +3489,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="5">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3453,7 +3529,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="5">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3493,7 +3569,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="5">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3533,7 +3609,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="5">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3573,7 +3649,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="5">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3613,7 +3689,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="5">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3653,7 +3729,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="5">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3693,7 +3769,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="5">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3733,7 +3809,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="5">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3773,7 +3849,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="5">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3813,7 +3889,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="5">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3853,7 +3929,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="5">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3893,7 +3969,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="5">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3933,7 +4009,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="5">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -4404,84 +4480,84 @@
       <c r="T96" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>20052</v>
       </c>
-      <c r="B97" s="2" t="str">
+      <c r="B97" s="5" t="str">
         <v>Rainbow friends</v>
       </c>
-      <c r="C97" s="2">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5">
         <v>143385</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="5">
         <v>3</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="10">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="14">
         <v>119483</v>
       </c>
-      <c r="K97" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L97" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M97" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
+      <c r="K97" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L97" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M97" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>20053</v>
       </c>
-      <c r="B98" s="2" t="str">
+      <c r="B98" s="5" t="str">
         <v>海神</v>
       </c>
-      <c r="C98" s="2">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2">
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
         <v>226377</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="5">
         <v>3</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5">
         <v>226377</v>
       </c>
-      <c r="K98" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L98" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M98" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
+      <c r="K98" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L98" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M98" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
@@ -5876,39 +5952,43 @@
       <c r="T127" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="128">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>40001</v>
       </c>
-      <c r="B128" s="1" t="str">
+      <c r="B128" s="2" t="str">
         <v>蛇女</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>4</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>328236</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>3</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2">
         <v>328236</v>
       </c>
-      <c r="K128" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L128" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M128" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
+      <c r="K128" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L128" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M128" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N128" s="12">
+        <v>318618</v>
+      </c>
+      <c r="O128" s="12">
+        <v>318617</v>
+      </c>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -5916,39 +5996,43 @@
       <c r="T128" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="129">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>40002</v>
       </c>
-      <c r="B129" s="1" t="str">
+      <c r="B129" s="2" t="str">
         <v>络新妇</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>4</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>338436</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>3</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2">
         <v>338436</v>
       </c>
-      <c r="K129" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L129" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M129" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
+      <c r="K129" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L129" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M129" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N129" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O129" s="12">
+        <v>338467</v>
+      </c>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -5956,39 +6040,43 @@
       <c r="T129" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="130">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>40003</v>
       </c>
-      <c r="B130" s="1" t="str">
+      <c r="B130" s="2" t="str">
         <v>大蜘蛛</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>4</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>328291</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>3</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2">
         <v>328291</v>
       </c>
-      <c r="K130" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L130" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M130" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
+      <c r="K130" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L130" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M130" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N130" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O130" s="12">
+        <v>336669</v>
+      </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -5996,39 +6084,43 @@
       <c r="T130" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="131">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>40004</v>
       </c>
-      <c r="B131" s="1" t="str">
+      <c r="B131" s="2" t="str">
         <v>小型抱脸紫蜘蛛</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>340103</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>3</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1">
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2">
         <v>340103</v>
       </c>
-      <c r="K131" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L131" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M131" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
+      <c r="K131" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L131" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M131" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N131" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O131" s="12">
+        <v>336669</v>
+      </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -6036,39 +6128,43 @@
       <c r="T131" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="132">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>40005</v>
       </c>
-      <c r="B132" s="1" t="str">
+      <c r="B132" s="2" t="str">
         <v>小型抱脸红蜘蛛</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>4</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>340104</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>3</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1">
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2">
         <v>340104</v>
       </c>
-      <c r="K132" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L132" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M132" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
+      <c r="K132" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L132" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M132" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N132" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O132" s="12">
+        <v>336669</v>
+      </c>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -6076,39 +6172,43 @@
       <c r="T132" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="133">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>40006</v>
       </c>
-      <c r="B133" s="1" t="str">
+      <c r="B133" s="2" t="str">
         <v>小型抱脸绿蜘蛛</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>4</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>340105</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>3</v>
       </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2">
         <v>340105</v>
       </c>
-      <c r="K133" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L133" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M133" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+      <c r="K133" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L133" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M133" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N133" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O133" s="12">
+        <v>336669</v>
+      </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -6116,39 +6216,43 @@
       <c r="T133" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="134">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>40007</v>
       </c>
-      <c r="B134" s="1" t="str">
+      <c r="B134" s="2" t="str">
         <v>小型抱脸蓝蜘蛛</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>4</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>340106</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>3</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2">
         <v>340106</v>
       </c>
-      <c r="K134" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L134" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M134" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+      <c r="K134" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L134" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M134" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N134" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O134" s="12">
+        <v>336669</v>
+      </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -6156,21 +6260,43 @@
       <c r="T134" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
+      <c r="A135" s="2">
+        <v>40008</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <v>小龙</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4</v>
+      </c>
+      <c r="D135" s="2">
+        <v>328246</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2">
+        <v>328246</v>
+      </c>
+      <c r="K135" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L135" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M135" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N135" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O135" s="8">
+        <v>160628</v>
+      </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -6178,21 +6304,43 @@
       <c r="T135" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
+      <c r="A136" s="2">
+        <v>40009</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <v>卡通木龙</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2">
+        <v>328030</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2">
+        <v>328030</v>
+      </c>
+      <c r="K136" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L136" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M136" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N136" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O136" s="8">
+        <v>160628</v>
+      </c>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -6200,21 +6348,43 @@
       <c r="T136" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
+      <c r="A137" s="2">
+        <v>40010</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <v>红龙</v>
+      </c>
+      <c r="C137" s="2">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2">
+        <v>328093</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2">
+        <v>328093</v>
+      </c>
+      <c r="K137" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L137" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M137" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N137" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O137" s="8">
+        <v>160628</v>
+      </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -6222,21 +6392,43 @@
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
+      <c r="A138" s="2">
+        <v>40011</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2">
+        <v>328083</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2">
+        <v>328083</v>
+      </c>
+      <c r="K138" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N138" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O138" s="8">
+        <v>160628</v>
+      </c>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -6244,21 +6436,43 @@
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
+      <c r="A139" s="2">
+        <v>40012</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C139" s="2">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2">
+        <v>328088</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2">
+        <v>328088</v>
+      </c>
+      <c r="K139" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N139" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O139" s="8">
+        <v>160628</v>
+      </c>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -51,7 +51,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,7 +65,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF270561"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +73,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,29 +92,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF270561"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +121,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,10 +306,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,10 +698,10 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="6" t="str">
         <v>string</v>
       </c>
       <c r="P1" s="1"/>
@@ -753,7 +753,7 @@
       <c r="N2" s="7" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="O2" s="6" t="str">
         <v>Move</v>
       </c>
       <c r="P2" s="1"/>
@@ -843,23 +843,23 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="11" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>134222</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="10">
+      <c r="J6" s="4">
         <v>134222</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -883,23 +883,23 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="11" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="10">
+      <c r="J7" s="4">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -923,23 +923,23 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="11" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10">
+      <c r="J8" s="4">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -969,7 +969,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
@@ -979,7 +979,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -1009,7 +1009,7 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
@@ -1019,7 +1019,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1049,7 +1049,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="4">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
@@ -1059,7 +1059,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="10">
+      <c r="J11" s="4">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1089,7 +1089,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="4">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
@@ -1099,7 +1099,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="10">
+      <c r="J12" s="4">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1163,7 +1163,7 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="10" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
@@ -1175,7 +1175,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1203,7 +1203,7 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="10" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
@@ -1215,7 +1215,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1243,7 +1243,7 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="9" t="str">
+      <c r="B16" s="10" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
@@ -1255,7 +1255,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1283,7 +1283,7 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="9" t="str">
+      <c r="B17" s="10" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
@@ -1295,7 +1295,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1323,19 +1323,19 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="2" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1363,7 +1363,7 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="10" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1375,7 +1375,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="10" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1415,7 +1415,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="10" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
@@ -1455,7 +1455,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1483,7 +1483,7 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="2" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
@@ -1495,7 +1495,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1523,7 +1523,7 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="10" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1535,7 +1535,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1923,7 +1923,7 @@
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="11" t="str" xml:space="preserve">
+      <c r="B33" s="14" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
@@ -1935,7 +1935,7 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="11" t="str">
+      <c r="B34" s="14" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
@@ -1975,7 +1975,7 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2003,7 +2003,7 @@
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" s="9" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
@@ -2015,7 +2015,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2043,7 +2043,7 @@
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="9" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
@@ -2055,7 +2055,7 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2083,7 +2083,7 @@
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" s="9" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
@@ -2095,7 +2095,7 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" s="9" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
@@ -2135,7 +2135,7 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="10" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
@@ -2175,7 +2175,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="10" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
@@ -2215,7 +2215,7 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2243,7 +2243,7 @@
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B41" s="10" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2255,7 +2255,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2283,23 +2283,23 @@
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B42" s="10" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="4">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="10">
+      <c r="J42" s="4">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2323,7 +2323,7 @@
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="10" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2335,7 +2335,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2363,7 +2363,7 @@
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" s="9" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2375,7 +2375,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2403,7 +2403,7 @@
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="9" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2415,7 +2415,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2769,7 +2769,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2809,7 +2809,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2849,7 +2849,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2889,7 +2889,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2929,7 +2929,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2969,7 +2969,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -3009,7 +3009,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -3049,7 +3049,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3089,7 +3089,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3129,7 +3129,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3169,7 +3169,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3209,7 +3209,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3249,7 +3249,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3289,7 +3289,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -4499,7 +4499,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="14">
+      <c r="J97" s="13">
         <v>119483</v>
       </c>
       <c r="K97" s="5" t="str">
@@ -5952,41 +5952,41 @@
       <c r="T127" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="6">
         <v>40001</v>
       </c>
-      <c r="B128" s="2" t="str">
+      <c r="B128" s="6" t="str">
         <v>蛇女</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="6">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="6">
         <v>328236</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="6">
         <v>3</v>
       </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2">
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6">
         <v>328236</v>
       </c>
-      <c r="K128" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L128" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M128" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N128" s="12">
+      <c r="K128" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L128" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M128" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N128" s="8">
         <v>318618</v>
       </c>
-      <c r="O128" s="12">
+      <c r="O128" s="8">
         <v>318617</v>
       </c>
       <c r="P128" s="1"/>
@@ -5996,41 +5996,41 @@
       <c r="T128" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="6">
         <v>40002</v>
       </c>
-      <c r="B129" s="2" t="str">
+      <c r="B129" s="6" t="str">
         <v>络新妇</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="6">
         <v>4</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="6">
         <v>338436</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="6">
         <v>3</v>
       </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2">
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6">
         <v>338436</v>
       </c>
-      <c r="K129" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L129" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M129" s="2" t="str">
+      <c r="K129" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L129" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M129" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N129" s="7">
         <v>336668</v>
       </c>
-      <c r="O129" s="12">
+      <c r="O129" s="8">
         <v>338467</v>
       </c>
       <c r="P129" s="1"/>
@@ -6040,41 +6040,41 @@
       <c r="T129" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="6">
         <v>40003</v>
       </c>
-      <c r="B130" s="2" t="str">
+      <c r="B130" s="6" t="str">
         <v>大蜘蛛</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="6">
         <v>4</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="6">
         <v>328291</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="6">
         <v>3</v>
       </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2">
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6">
         <v>328291</v>
       </c>
-      <c r="K130" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L130" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M130" s="2" t="str">
+      <c r="K130" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L130" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M130" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N130" s="7">
         <v>336668</v>
       </c>
-      <c r="O130" s="12">
+      <c r="O130" s="8">
         <v>336669</v>
       </c>
       <c r="P130" s="1"/>
@@ -6084,41 +6084,41 @@
       <c r="T130" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="6">
         <v>40004</v>
       </c>
-      <c r="B131" s="2" t="str">
+      <c r="B131" s="6" t="str">
         <v>小型抱脸紫蜘蛛</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="6">
         <v>4</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="6">
         <v>340103</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="6">
         <v>3</v>
       </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2">
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6">
         <v>340103</v>
       </c>
-      <c r="K131" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L131" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M131" s="2" t="str">
+      <c r="K131" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L131" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M131" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N131" s="7">
         <v>336668</v>
       </c>
-      <c r="O131" s="12">
+      <c r="O131" s="8">
         <v>336669</v>
       </c>
       <c r="P131" s="1"/>
@@ -6128,41 +6128,41 @@
       <c r="T131" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="6">
         <v>40005</v>
       </c>
-      <c r="B132" s="2" t="str">
+      <c r="B132" s="6" t="str">
         <v>小型抱脸红蜘蛛</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="6">
         <v>4</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="6">
         <v>340104</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="6">
         <v>3</v>
       </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2">
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6">
         <v>340104</v>
       </c>
-      <c r="K132" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L132" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M132" s="2" t="str">
+      <c r="K132" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L132" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M132" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N132" s="7">
         <v>336668</v>
       </c>
-      <c r="O132" s="12">
+      <c r="O132" s="8">
         <v>336669</v>
       </c>
       <c r="P132" s="1"/>
@@ -6172,41 +6172,41 @@
       <c r="T132" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="6">
         <v>40006</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" s="6" t="str">
         <v>小型抱脸绿蜘蛛</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="6">
         <v>4</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="6">
         <v>340105</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="6">
         <v>3</v>
       </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2">
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6">
         <v>340105</v>
       </c>
-      <c r="K133" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L133" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M133" s="2" t="str">
+      <c r="K133" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L133" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M133" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N133" s="7">
         <v>336668</v>
       </c>
-      <c r="O133" s="12">
+      <c r="O133" s="8">
         <v>336669</v>
       </c>
       <c r="P133" s="1"/>
@@ -6216,41 +6216,41 @@
       <c r="T133" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="6">
         <v>40007</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" s="6" t="str">
         <v>小型抱脸蓝蜘蛛</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="6">
         <v>4</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="6">
         <v>340106</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="6">
         <v>3</v>
       </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6">
         <v>340106</v>
       </c>
-      <c r="K134" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L134" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M134" s="2" t="str">
+      <c r="K134" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L134" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M134" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N134" s="7">
         <v>336668</v>
       </c>
-      <c r="O134" s="12">
+      <c r="O134" s="8">
         <v>336669</v>
       </c>
       <c r="P134" s="1"/>
@@ -6260,41 +6260,41 @@
       <c r="T134" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="6">
         <v>40008</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="6" t="str">
         <v>小龙</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="6">
         <v>4</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="6">
         <v>328246</v>
       </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2">
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6">
         <v>328246</v>
       </c>
-      <c r="K135" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L135" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M135" s="2" t="str">
+      <c r="K135" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L135" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M135" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N135" s="7">
         <v>160627</v>
       </c>
-      <c r="O135" s="8">
+      <c r="O135" s="12">
         <v>160628</v>
       </c>
       <c r="P135" s="1"/>
@@ -6304,41 +6304,41 @@
       <c r="T135" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="6">
         <v>40009</v>
       </c>
-      <c r="B136" s="2" t="str">
+      <c r="B136" s="6" t="str">
         <v>卡通木龙</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="6">
         <v>4</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="6">
         <v>328030</v>
       </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2">
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6">
         <v>328030</v>
       </c>
-      <c r="K136" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L136" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M136" s="2" t="str">
+      <c r="K136" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L136" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M136" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N136" s="7">
         <v>160627</v>
       </c>
-      <c r="O136" s="8">
+      <c r="O136" s="12">
         <v>160628</v>
       </c>
       <c r="P136" s="1"/>
@@ -6348,41 +6348,41 @@
       <c r="T136" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="6">
         <v>40010</v>
       </c>
-      <c r="B137" s="2" t="str">
+      <c r="B137" s="6" t="str">
         <v>红龙</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="6">
         <v>4</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="6">
         <v>328093</v>
       </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2">
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6">
         <v>328093</v>
       </c>
-      <c r="K137" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L137" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M137" s="2" t="str">
+      <c r="K137" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L137" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M137" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N137" s="7">
         <v>160627</v>
       </c>
-      <c r="O137" s="8">
+      <c r="O137" s="12">
         <v>160628</v>
       </c>
       <c r="P137" s="1"/>
@@ -6392,41 +6392,41 @@
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="6">
         <v>40011</v>
       </c>
-      <c r="B138" s="2" t="str">
+      <c r="B138" s="6" t="str">
         <v>黄龙</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="6">
         <v>4</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="6">
         <v>328083</v>
       </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2">
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6">
         <v>328083</v>
       </c>
-      <c r="K138" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L138" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M138" s="2" t="str">
+      <c r="K138" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N138" s="7">
         <v>160627</v>
       </c>
-      <c r="O138" s="8">
+      <c r="O138" s="12">
         <v>160628</v>
       </c>
       <c r="P138" s="1"/>
@@ -6436,41 +6436,41 @@
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="6">
         <v>40012</v>
       </c>
-      <c r="B139" s="2" t="str">
+      <c r="B139" s="6" t="str">
         <v>蓝龙</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="6">
         <v>4</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="6">
         <v>328088</v>
       </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2">
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6">
         <v>328088</v>
       </c>
-      <c r="K139" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L139" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M139" s="2" t="str">
+      <c r="K139" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N139" s="7">
         <v>160627</v>
       </c>
-      <c r="O139" s="8">
+      <c r="O139" s="12">
         <v>160628</v>
       </c>
       <c r="P139" s="1"/>
@@ -6480,19 +6480,37 @@
       <c r="T139" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="A140" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <v>奥特之神</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>162938</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
+      <c r="J140" s="1">
+        <v>162938</v>
+      </c>
+      <c r="K140" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,14 +51,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF667901"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,7 +86,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,27 +128,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,14 +135,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +162,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -265,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,10 +287,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -288,10 +302,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -300,15 +314,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,13 +715,15 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="10" t="str">
         <v>string</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="str">
+        <v>int</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -750,13 +769,15 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="7" t="str">
+      <c r="N2" s="11" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="10" t="str">
         <v>Move</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1" t="str">
+        <v>GetType</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -843,23 +864,23 @@
       <c r="A6" s="1">
         <v>10001</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="7" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>134222</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>134222</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -873,7 +894,9 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -883,23 +906,23 @@
       <c r="A7" s="1">
         <v>10002</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="7" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>122953</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>122953</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -913,7 +936,9 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -923,23 +948,23 @@
       <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="7" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>118146</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>118146</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -953,7 +978,9 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -963,23 +990,23 @@
       <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="3" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>152954</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>152954</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -993,7 +1020,9 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1003,23 +1032,23 @@
       <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="3" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>118143</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <v>118143</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1033,7 +1062,9 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1043,23 +1074,23 @@
       <c r="A11" s="1">
         <v>10006</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="3" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>122960</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>122960</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1073,7 +1104,9 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1083,23 +1116,23 @@
       <c r="A12" s="1">
         <v>10007</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="3" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>33861</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>33861</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1113,7 +1146,9 @@
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="A13" s="1">
         <v>10008</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="3" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C13" s="1">
@@ -1135,7 +1170,7 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1153,7 +1188,9 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1163,7 +1200,7 @@
       <c r="A14" s="1">
         <v>10009</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="4" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C14" s="1">
@@ -1175,7 +1212,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1193,7 +1230,9 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1203,7 +1242,7 @@
       <c r="A15" s="1">
         <v>10010</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="4" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C15" s="1">
@@ -1215,7 +1254,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1233,7 +1272,9 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1243,7 +1284,7 @@
       <c r="A16" s="1">
         <v>10011</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="4" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C16" s="1">
@@ -1255,7 +1296,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1273,7 +1314,9 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1283,7 +1326,7 @@
       <c r="A17" s="1">
         <v>10012</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="4" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C17" s="1">
@@ -1295,7 +1338,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1313,7 +1356,9 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1323,19 +1368,19 @@
       <c r="A18" s="1">
         <v>10013</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="5" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>103080</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1353,7 +1398,9 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1363,7 +1410,7 @@
       <c r="A19" s="1">
         <v>10014</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="4" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1375,7 +1422,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1393,7 +1440,9 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1403,7 +1452,7 @@
       <c r="A20" s="1">
         <v>10015</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="4" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1415,7 +1464,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1433,7 +1482,9 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1443,7 +1494,7 @@
       <c r="A21" s="1">
         <v>10016</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="4" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C21" s="1">
@@ -1455,7 +1506,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1473,7 +1524,9 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1483,7 +1536,7 @@
       <c r="A22" s="1">
         <v>10017</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="5" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C22" s="1">
@@ -1495,7 +1548,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1513,7 +1566,9 @@
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1523,7 +1578,7 @@
       <c r="A23" s="1">
         <v>10018</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="4" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1535,7 +1590,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1553,7 +1608,9 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1593,7 +1650,9 @@
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1633,7 +1692,9 @@
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1673,7 +1734,9 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -1713,7 +1776,9 @@
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -1723,7 +1788,7 @@
       <c r="A28" s="1">
         <v>10023</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="3" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C28" s="1">
@@ -1735,7 +1800,7 @@
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1753,7 +1818,9 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -1763,7 +1830,7 @@
       <c r="A29" s="1">
         <v>10024</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="3" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C29" s="1">
@@ -1775,7 +1842,7 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1793,7 +1860,9 @@
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -1803,7 +1872,7 @@
       <c r="A30" s="1">
         <v>10025</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="3" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C30" s="1">
@@ -1815,7 +1884,7 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1833,7 +1902,9 @@
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -1843,7 +1914,7 @@
       <c r="A31" s="1">
         <v>10026</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="3" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C31" s="1">
@@ -1855,7 +1926,7 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1873,7 +1944,9 @@
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -1883,7 +1956,7 @@
       <c r="A32" s="1">
         <v>10027</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="3" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C32" s="1">
@@ -1895,7 +1968,7 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1913,7 +1986,9 @@
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -1923,7 +1998,7 @@
       <c r="A33" s="1">
         <v>10028</v>
       </c>
-      <c r="B33" s="14" t="str" xml:space="preserve">
+      <c r="B33" s="9" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C33" s="1">
@@ -1935,7 +2010,7 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1953,7 +2028,9 @@
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -1963,7 +2040,7 @@
       <c r="A34" s="1">
         <v>10029</v>
       </c>
-      <c r="B34" s="14" t="str">
+      <c r="B34" s="9" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C34" s="1">
@@ -1975,7 +2052,7 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1993,7 +2070,9 @@
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2003,7 +2082,7 @@
       <c r="A35" s="1">
         <v>10030</v>
       </c>
-      <c r="B35" s="9" t="str">
+      <c r="B35" s="14" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C35" s="1">
@@ -2015,7 +2094,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2033,7 +2112,9 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2043,7 +2124,7 @@
       <c r="A36" s="1">
         <v>10031</v>
       </c>
-      <c r="B36" s="9" t="str">
+      <c r="B36" s="14" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C36" s="1">
@@ -2055,7 +2136,7 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2073,7 +2154,9 @@
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2083,7 +2166,7 @@
       <c r="A37" s="1">
         <v>10032</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B37" s="14" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C37" s="1">
@@ -2095,7 +2178,7 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2113,7 +2196,9 @@
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2123,7 +2208,7 @@
       <c r="A38" s="1">
         <v>10033</v>
       </c>
-      <c r="B38" s="9" t="str">
+      <c r="B38" s="14" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C38" s="1">
@@ -2135,7 +2220,7 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2153,7 +2238,9 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2163,7 +2250,7 @@
       <c r="A39" s="1">
         <v>10034</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="4" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C39" s="1">
@@ -2175,7 +2262,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2193,7 +2280,9 @@
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -2203,7 +2292,7 @@
       <c r="A40" s="1">
         <v>10035</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="4" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C40" s="1">
@@ -2215,7 +2304,7 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2233,7 +2322,9 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2243,7 +2334,7 @@
       <c r="A41" s="1">
         <v>10036</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="4" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2255,7 +2346,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2273,7 +2364,9 @@
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2283,23 +2376,23 @@
       <c r="A42" s="1">
         <v>10037</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="4" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>297029</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="4">
+      <c r="J42" s="6">
         <v>297029</v>
       </c>
       <c r="K42" s="1" t="str">
@@ -2313,7 +2406,9 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2323,7 +2418,7 @@
       <c r="A43" s="1">
         <v>10038</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="4" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2335,7 +2430,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2353,7 +2448,9 @@
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -2363,7 +2460,7 @@
       <c r="A44" s="1">
         <v>10039</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="14" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2375,7 +2472,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2393,7 +2490,9 @@
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -2403,7 +2502,7 @@
       <c r="A45" s="1">
         <v>10040</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B45" s="14" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2415,7 +2514,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2433,7 +2532,9 @@
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -2449,7 +2550,7 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>361906</v>
       </c>
       <c r="E46" s="1">
@@ -2459,7 +2560,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>65710</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -2473,7 +2574,9 @@
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -2489,7 +2592,7 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>357571</v>
       </c>
       <c r="E47" s="1">
@@ -2499,7 +2602,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>64995</v>
       </c>
       <c r="K47" s="1" t="str">
@@ -2513,7 +2616,9 @@
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -2529,7 +2634,7 @@
       <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>357567</v>
       </c>
       <c r="E48" s="1">
@@ -2539,7 +2644,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>142606</v>
       </c>
       <c r="K48" s="1" t="str">
@@ -2553,7 +2658,9 @@
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2569,7 +2676,7 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>357566</v>
       </c>
       <c r="E49" s="1">
@@ -2579,7 +2686,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>63711</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2593,7 +2700,9 @@
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -2609,7 +2718,7 @@
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>357563</v>
       </c>
       <c r="E50" s="1">
@@ -2619,7 +2728,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>94782</v>
       </c>
       <c r="K50" s="1" t="str">
@@ -2633,7 +2742,9 @@
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -2649,7 +2760,7 @@
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>357556</v>
       </c>
       <c r="E51" s="1">
@@ -2659,7 +2770,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>112568</v>
       </c>
       <c r="K51" s="1" t="str">
@@ -2673,7 +2784,9 @@
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -2689,7 +2802,7 @@
       <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>357555</v>
       </c>
       <c r="E52" s="1">
@@ -2699,7 +2812,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>117681</v>
       </c>
       <c r="K52" s="1" t="str">
@@ -2713,7 +2826,9 @@
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -2729,7 +2844,7 @@
       <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>351891</v>
       </c>
       <c r="E53" s="1">
@@ -2739,7 +2854,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>64995</v>
       </c>
       <c r="K53" s="1" t="str">
@@ -2753,7 +2868,9 @@
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -2769,7 +2886,7 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="5">
         <v>351680</v>
       </c>
       <c r="E54" s="1">
@@ -2779,7 +2896,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>127800</v>
       </c>
       <c r="K54" s="1" t="str">
@@ -2793,7 +2910,9 @@
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -2809,7 +2928,7 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="5">
         <v>351598</v>
       </c>
       <c r="E55" s="1">
@@ -2819,7 +2938,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>224168</v>
       </c>
       <c r="K55" s="1" t="str">
@@ -2833,7 +2952,9 @@
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -2849,7 +2970,7 @@
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="5">
         <v>351597</v>
       </c>
       <c r="E56" s="1">
@@ -2859,7 +2980,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>94782</v>
       </c>
       <c r="K56" s="1" t="str">
@@ -2873,7 +2994,9 @@
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -2889,7 +3012,7 @@
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="5">
         <v>357570</v>
       </c>
       <c r="E57" s="1">
@@ -2899,7 +3022,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>111768</v>
       </c>
       <c r="K57" s="1" t="str">
@@ -2913,7 +3036,9 @@
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -2929,7 +3054,7 @@
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>357568</v>
       </c>
       <c r="E58" s="1">
@@ -2939,7 +3064,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>111240</v>
       </c>
       <c r="K58" s="1" t="str">
@@ -2953,7 +3078,9 @@
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -2969,7 +3096,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="5">
         <v>351500</v>
       </c>
       <c r="E59" s="1">
@@ -2979,7 +3106,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>269652</v>
       </c>
       <c r="K59" s="1" t="str">
@@ -2993,7 +3120,9 @@
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -3009,7 +3138,7 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>351497</v>
       </c>
       <c r="E60" s="1">
@@ -3019,7 +3148,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>60981</v>
       </c>
       <c r="K60" s="1" t="str">
@@ -3033,7 +3162,9 @@
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -3049,7 +3180,7 @@
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="5">
         <v>351405</v>
       </c>
       <c r="E61" s="1">
@@ -3059,7 +3190,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>64410</v>
       </c>
       <c r="K61" s="1" t="str">
@@ -3073,7 +3204,9 @@
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -3089,7 +3222,7 @@
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="5">
         <v>351404</v>
       </c>
       <c r="E62" s="1">
@@ -3099,7 +3232,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>128834</v>
       </c>
       <c r="K62" s="1" t="str">
@@ -3113,7 +3246,9 @@
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -3129,7 +3264,7 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="5">
         <v>351026</v>
       </c>
       <c r="E63" s="1">
@@ -3139,7 +3274,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>115849</v>
       </c>
       <c r="K63" s="1" t="str">
@@ -3153,7 +3288,9 @@
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -3169,7 +3306,7 @@
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="5">
         <v>351025</v>
       </c>
       <c r="E64" s="1">
@@ -3179,7 +3316,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>299082</v>
       </c>
       <c r="K64" s="1" t="str">
@@ -3193,7 +3330,9 @@
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -3209,7 +3348,7 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="5">
         <v>351024</v>
       </c>
       <c r="E65" s="1">
@@ -3219,7 +3358,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>96576</v>
       </c>
       <c r="K65" s="1" t="str">
@@ -3233,7 +3372,9 @@
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -3249,7 +3390,7 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="5">
         <v>351004</v>
       </c>
       <c r="E66" s="1">
@@ -3259,7 +3400,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>63291</v>
       </c>
       <c r="K66" s="1" t="str">
@@ -3273,7 +3414,9 @@
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="P66" s="1">
+        <v>1</v>
+      </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -3289,7 +3432,7 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="5">
         <v>350987</v>
       </c>
       <c r="E67" s="1">
@@ -3299,7 +3442,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>59857</v>
       </c>
       <c r="K67" s="1" t="str">
@@ -3313,7 +3456,9 @@
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -3329,7 +3474,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>350973</v>
       </c>
       <c r="E68" s="1">
@@ -3339,7 +3484,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>63648</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3353,7 +3498,9 @@
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -3369,7 +3516,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>350959</v>
       </c>
       <c r="E69" s="1">
@@ -3379,7 +3526,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>248351</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3393,7 +3540,9 @@
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -3409,7 +3558,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>350958</v>
       </c>
       <c r="E70" s="1">
@@ -3419,7 +3568,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>64774</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3433,7 +3582,9 @@
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -3449,7 +3600,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>350756</v>
       </c>
       <c r="E71" s="1">
@@ -3459,7 +3610,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <v>63291</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3473,7 +3624,9 @@
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -3489,7 +3642,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>350752</v>
       </c>
       <c r="E72" s="1">
@@ -3499,7 +3652,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>111241</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -3513,7 +3666,9 @@
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -3529,7 +3684,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>350746</v>
       </c>
       <c r="E73" s="1">
@@ -3539,7 +3694,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <v>121948</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -3553,7 +3708,9 @@
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -3569,7 +3726,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>350744</v>
       </c>
       <c r="E74" s="1">
@@ -3579,7 +3736,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>64458</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -3593,7 +3750,9 @@
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -3609,7 +3768,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>350739</v>
       </c>
       <c r="E75" s="1">
@@ -3619,7 +3778,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <v>142606</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -3633,7 +3792,9 @@
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -3649,7 +3810,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>350738</v>
       </c>
       <c r="E76" s="1">
@@ -3659,7 +3820,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <v>64305</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -3673,7 +3834,9 @@
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="P76" s="1">
+        <v>1</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -3689,7 +3852,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>350568</v>
       </c>
       <c r="E77" s="1">
@@ -3699,7 +3862,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>299082</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -3713,7 +3876,9 @@
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="P77" s="1">
+        <v>1</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -3729,7 +3894,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>350318</v>
       </c>
       <c r="E78" s="1">
@@ -3739,7 +3904,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>181365</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -3753,7 +3918,9 @@
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
+      <c r="P78" s="1">
+        <v>1</v>
+      </c>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -3769,7 +3936,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>350569</v>
       </c>
       <c r="E79" s="1">
@@ -3779,7 +3946,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <v>63291</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -3793,7 +3960,9 @@
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
+      <c r="P79" s="1">
+        <v>1</v>
+      </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -3809,7 +3978,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>350314</v>
       </c>
       <c r="E80" s="1">
@@ -3819,7 +3988,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>299082</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -3833,7 +4002,9 @@
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -3849,7 +4020,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>350260</v>
       </c>
       <c r="E81" s="1">
@@ -3859,7 +4030,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <v>111088</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -3873,7 +4044,9 @@
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="P81" s="1">
+        <v>1</v>
+      </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -3889,7 +4062,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>349270</v>
       </c>
       <c r="E82" s="1">
@@ -3899,7 +4072,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>124880</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -3913,7 +4086,9 @@
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -3929,7 +4104,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>347528</v>
       </c>
       <c r="E83" s="1">
@@ -3939,7 +4114,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>137518</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -3953,7 +4128,9 @@
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
+      <c r="P83" s="1">
+        <v>1</v>
+      </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -3969,7 +4146,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>145319</v>
       </c>
       <c r="E84" s="1">
@@ -3979,7 +4156,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>119773</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -3993,7 +4170,9 @@
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="P84" s="1">
+        <v>1</v>
+      </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -4009,7 +4188,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>143403</v>
       </c>
       <c r="E85" s="1">
@@ -4019,7 +4198,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>119229</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -4033,7 +4212,9 @@
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="1">
+        <v>1</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -4059,7 +4240,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <v>121882</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4073,7 +4254,9 @@
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="P86" s="1">
+        <v>1</v>
+      </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -4099,7 +4282,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <v>119745</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4113,7 +4296,9 @@
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="P87" s="1">
+        <v>1</v>
+      </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -4139,7 +4324,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <v>63539</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4153,7 +4338,9 @@
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="P88" s="1">
+        <v>1</v>
+      </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -4179,7 +4366,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <v>60981</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4193,7 +4380,9 @@
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
+      <c r="P89" s="1">
+        <v>1</v>
+      </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -4219,7 +4408,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <v>109144</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4233,7 +4422,9 @@
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="P90" s="1">
+        <v>1</v>
+      </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -4259,7 +4450,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <v>64141</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4273,7 +4464,9 @@
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="P91" s="1">
+        <v>1</v>
+      </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -4299,7 +4492,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <v>109058</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4313,7 +4506,9 @@
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="P92" s="1">
+        <v>1</v>
+      </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -4339,7 +4534,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <v>109839</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4353,7 +4548,9 @@
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
+      <c r="P93" s="1">
+        <v>1</v>
+      </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -4379,7 +4576,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <v>118079</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4393,7 +4590,9 @@
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="P94" s="1">
+        <v>1</v>
+      </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -4419,7 +4618,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <v>109839</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4433,7 +4632,9 @@
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
+      <c r="P95" s="1">
+        <v>1</v>
+      </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -4459,7 +4660,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <v>117681</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4473,7 +4674,9 @@
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
+      <c r="P96" s="1">
+        <v>1</v>
+      </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -4483,81 +4686,85 @@
       <c r="A97" s="1">
         <v>20052</v>
       </c>
-      <c r="B97" s="5" t="str">
+      <c r="B97" s="3" t="str">
         <v>Rainbow friends</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>2</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>143385</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="3">
         <v>3</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="13">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="8">
         <v>119483</v>
       </c>
-      <c r="K97" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L97" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M97" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
+      <c r="K97" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L97" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M97" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
         <v>20053</v>
       </c>
-      <c r="B98" s="5" t="str">
+      <c r="B98" s="3" t="str">
         <v>海神</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="3">
         <v>2</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="3">
         <v>226377</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="3">
         <v>3</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
         <v>226377</v>
       </c>
-      <c r="K98" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L98" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M98" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
+      <c r="K98" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L98" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M98" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
@@ -4601,7 +4808,9 @@
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="P99" s="1">
+        <v>1</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -4649,7 +4858,9 @@
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
+      <c r="P100" s="1">
+        <v>1</v>
+      </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -4697,7 +4908,9 @@
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
+      <c r="P101" s="1">
+        <v>1</v>
+      </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -4745,7 +4958,9 @@
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
+      <c r="P102" s="1">
+        <v>1</v>
+      </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -4793,7 +5008,9 @@
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
+      <c r="P103" s="1">
+        <v>1</v>
+      </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -4841,7 +5058,9 @@
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="P104" s="1">
+        <v>1</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -4889,7 +5108,9 @@
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
+      <c r="P105" s="1">
+        <v>1</v>
+      </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -4937,7 +5158,9 @@
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
+      <c r="P106" s="1">
+        <v>1</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -4985,7 +5208,9 @@
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1">
+        <v>1</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -5033,7 +5258,9 @@
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="P108" s="1">
+        <v>1</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5081,7 +5308,9 @@
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
+      <c r="P109" s="1">
+        <v>1</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -5129,7 +5358,9 @@
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
+      <c r="P110" s="1">
+        <v>1</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -5177,7 +5408,9 @@
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
+      <c r="P111" s="1">
+        <v>1</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -5225,7 +5458,9 @@
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="P112" s="1">
+        <v>1</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -5273,7 +5508,9 @@
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="P113" s="1">
+        <v>1</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5321,7 +5558,9 @@
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="P114" s="1">
+        <v>1</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -5369,7 +5608,9 @@
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="P115" s="1">
+        <v>1</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5417,7 +5658,9 @@
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="P116" s="1">
+        <v>1</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -5465,7 +5708,9 @@
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="P117" s="1">
+        <v>1</v>
+      </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -5513,7 +5758,9 @@
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="P118" s="1">
+        <v>1</v>
+      </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -5561,7 +5808,9 @@
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="P119" s="1">
+        <v>1</v>
+      </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -5609,7 +5858,9 @@
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="P120" s="1">
+        <v>1</v>
+      </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -5657,7 +5908,9 @@
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="P121" s="1">
+        <v>1</v>
+      </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -5705,7 +5958,9 @@
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="P122" s="1">
+        <v>1</v>
+      </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -5753,7 +6008,9 @@
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="P123" s="1">
+        <v>1</v>
+      </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -5801,7 +6058,9 @@
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="P124" s="1">
+        <v>1</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -5849,7 +6108,9 @@
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="P125" s="1">
+        <v>1</v>
+      </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -5897,7 +6158,9 @@
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="P126" s="1">
+        <v>1</v>
+      </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -5945,535 +6208,561 @@
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="P127" s="1">
+        <v>1</v>
+      </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="128">
-      <c r="A128" s="6">
+      <c r="A128" s="10">
         <v>40001</v>
       </c>
-      <c r="B128" s="6" t="str">
+      <c r="B128" s="10" t="str">
         <v>蛇女</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="10">
         <v>4</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="10">
         <v>328236</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="10">
         <v>3</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6">
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10">
         <v>328236</v>
       </c>
-      <c r="K128" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L128" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M128" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N128" s="8">
+      <c r="K128" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L128" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M128" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N128" s="12">
         <v>318618</v>
       </c>
-      <c r="O128" s="8">
+      <c r="O128" s="12">
         <v>318617</v>
       </c>
-      <c r="P128" s="1"/>
+      <c r="P128" s="1">
+        <v>1</v>
+      </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="129">
-      <c r="A129" s="6">
+      <c r="A129" s="10">
         <v>40002</v>
       </c>
-      <c r="B129" s="6" t="str">
+      <c r="B129" s="10" t="str">
         <v>络新妇</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="10">
         <v>4</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="10">
         <v>338436</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="10">
         <v>3</v>
       </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6">
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10">
         <v>338436</v>
       </c>
-      <c r="K129" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L129" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M129" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N129" s="7">
+      <c r="K129" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L129" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M129" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N129" s="11">
         <v>336668</v>
       </c>
-      <c r="O129" s="8">
+      <c r="O129" s="12">
         <v>338467</v>
       </c>
-      <c r="P129" s="1"/>
+      <c r="P129" s="1">
+        <v>1</v>
+      </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="130">
-      <c r="A130" s="6">
+      <c r="A130" s="10">
         <v>40003</v>
       </c>
-      <c r="B130" s="6" t="str">
+      <c r="B130" s="10" t="str">
         <v>大蜘蛛</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="10">
         <v>4</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="10">
         <v>328291</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="10">
         <v>3</v>
       </c>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6">
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10">
         <v>328291</v>
       </c>
-      <c r="K130" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L130" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M130" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N130" s="7">
+      <c r="K130" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L130" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M130" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N130" s="11">
         <v>336668</v>
       </c>
-      <c r="O130" s="8">
+      <c r="O130" s="12">
         <v>336669</v>
       </c>
-      <c r="P130" s="1"/>
+      <c r="P130" s="1">
+        <v>1</v>
+      </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="131">
-      <c r="A131" s="6">
+      <c r="A131" s="10">
         <v>40004</v>
       </c>
-      <c r="B131" s="6" t="str">
+      <c r="B131" s="10" t="str">
         <v>小型抱脸紫蜘蛛</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="10">
         <v>4</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="10">
         <v>340103</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="10">
         <v>3</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6">
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10">
         <v>340103</v>
       </c>
-      <c r="K131" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L131" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M131" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N131" s="7">
+      <c r="K131" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L131" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M131" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N131" s="11">
         <v>336668</v>
       </c>
-      <c r="O131" s="8">
+      <c r="O131" s="12">
         <v>336669</v>
       </c>
-      <c r="P131" s="1"/>
+      <c r="P131" s="1">
+        <v>1</v>
+      </c>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="132">
-      <c r="A132" s="6">
+      <c r="A132" s="10">
         <v>40005</v>
       </c>
-      <c r="B132" s="6" t="str">
+      <c r="B132" s="10" t="str">
         <v>小型抱脸红蜘蛛</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="10">
         <v>4</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="10">
         <v>340104</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="10">
         <v>3</v>
       </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6">
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10">
         <v>340104</v>
       </c>
-      <c r="K132" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L132" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M132" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N132" s="7">
+      <c r="K132" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L132" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M132" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N132" s="11">
         <v>336668</v>
       </c>
-      <c r="O132" s="8">
+      <c r="O132" s="12">
         <v>336669</v>
       </c>
-      <c r="P132" s="1"/>
+      <c r="P132" s="1">
+        <v>1</v>
+      </c>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="133">
-      <c r="A133" s="6">
+      <c r="A133" s="10">
         <v>40006</v>
       </c>
-      <c r="B133" s="6" t="str">
+      <c r="B133" s="10" t="str">
         <v>小型抱脸绿蜘蛛</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="10">
         <v>4</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="10">
         <v>340105</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="10">
         <v>3</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6">
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10">
         <v>340105</v>
       </c>
-      <c r="K133" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L133" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M133" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N133" s="7">
+      <c r="K133" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L133" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M133" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N133" s="11">
         <v>336668</v>
       </c>
-      <c r="O133" s="8">
+      <c r="O133" s="12">
         <v>336669</v>
       </c>
-      <c r="P133" s="1"/>
+      <c r="P133" s="1">
+        <v>1</v>
+      </c>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="134">
-      <c r="A134" s="6">
+      <c r="A134" s="10">
         <v>40007</v>
       </c>
-      <c r="B134" s="6" t="str">
+      <c r="B134" s="10" t="str">
         <v>小型抱脸蓝蜘蛛</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="10">
         <v>4</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="10">
         <v>340106</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="10">
         <v>3</v>
       </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10">
         <v>340106</v>
       </c>
-      <c r="K134" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L134" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M134" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N134" s="7">
+      <c r="K134" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L134" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M134" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N134" s="11">
         <v>336668</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="12">
         <v>336669</v>
       </c>
-      <c r="P134" s="1"/>
+      <c r="P134" s="1">
+        <v>1</v>
+      </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="135">
-      <c r="A135" s="6">
+      <c r="A135" s="10">
         <v>40008</v>
       </c>
-      <c r="B135" s="6" t="str">
+      <c r="B135" s="10" t="str">
         <v>小龙</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="10">
         <v>4</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="10">
         <v>328246</v>
       </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6">
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10">
         <v>328246</v>
       </c>
-      <c r="K135" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L135" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M135" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N135" s="7">
+      <c r="K135" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L135" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M135" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N135" s="11">
         <v>160627</v>
       </c>
-      <c r="O135" s="12">
+      <c r="O135" s="13">
         <v>160628</v>
       </c>
-      <c r="P135" s="1"/>
+      <c r="P135" s="1">
+        <v>1</v>
+      </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="136">
-      <c r="A136" s="6">
+      <c r="A136" s="10">
         <v>40009</v>
       </c>
-      <c r="B136" s="6" t="str">
+      <c r="B136" s="10" t="str">
         <v>卡通木龙</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="10">
         <v>4</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="10">
         <v>328030</v>
       </c>
-      <c r="E136" s="6">
-        <v>1</v>
-      </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6">
+      <c r="E136" s="10">
+        <v>1</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10">
         <v>328030</v>
       </c>
-      <c r="K136" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L136" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M136" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N136" s="7">
+      <c r="K136" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L136" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M136" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N136" s="11">
         <v>160627</v>
       </c>
-      <c r="O136" s="12">
+      <c r="O136" s="13">
         <v>160628</v>
       </c>
-      <c r="P136" s="1"/>
+      <c r="P136" s="1">
+        <v>1</v>
+      </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="6">
+      <c r="A137" s="10">
         <v>40010</v>
       </c>
-      <c r="B137" s="6" t="str">
+      <c r="B137" s="10" t="str">
         <v>红龙</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="10">
         <v>4</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="10">
         <v>328093</v>
       </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6">
+      <c r="E137" s="10">
+        <v>1</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10">
         <v>328093</v>
       </c>
-      <c r="K137" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L137" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M137" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N137" s="7">
+      <c r="K137" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L137" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M137" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N137" s="11">
         <v>160627</v>
       </c>
-      <c r="O137" s="12">
+      <c r="O137" s="13">
         <v>160628</v>
       </c>
-      <c r="P137" s="1"/>
+      <c r="P137" s="1">
+        <v>1</v>
+      </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="6">
+      <c r="A138" s="10">
         <v>40011</v>
       </c>
-      <c r="B138" s="6" t="str">
+      <c r="B138" s="10" t="str">
         <v>黄龙</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="10">
         <v>4</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="10">
         <v>328083</v>
       </c>
-      <c r="E138" s="6">
-        <v>1</v>
-      </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6">
+      <c r="E138" s="10">
+        <v>1</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10">
         <v>328083</v>
       </c>
-      <c r="K138" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L138" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M138" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N138" s="7">
+      <c r="K138" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N138" s="11">
         <v>160627</v>
       </c>
-      <c r="O138" s="12">
+      <c r="O138" s="13">
         <v>160628</v>
       </c>
-      <c r="P138" s="1"/>
+      <c r="P138" s="1">
+        <v>1</v>
+      </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="6">
+      <c r="A139" s="10">
         <v>40012</v>
       </c>
-      <c r="B139" s="6" t="str">
+      <c r="B139" s="10" t="str">
         <v>蓝龙</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="10">
         <v>4</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="10">
         <v>328088</v>
       </c>
-      <c r="E139" s="6">
-        <v>1</v>
-      </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6">
+      <c r="E139" s="10">
+        <v>1</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10">
         <v>328088</v>
       </c>
-      <c r="K139" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L139" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M139" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N139" s="7">
+      <c r="K139" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N139" s="11">
         <v>160627</v>
       </c>
-      <c r="O139" s="12">
+      <c r="O139" s="13">
         <v>160628</v>
       </c>
-      <c r="P139" s="1"/>
+      <c r="P139" s="1">
+        <v>1</v>
+      </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -6502,166 +6791,268 @@
       <c r="J140" s="1">
         <v>162938</v>
       </c>
-      <c r="K140" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L140" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M140" s="6" t="str">
+      <c r="K140" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="10" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
+      <c r="P140" s="1">
+        <v>1</v>
+      </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="A141" s="1">
+        <v>20055</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <v>小舞姐</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>398484</v>
+      </c>
+      <c r="E141" s="1">
+        <v>3</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
+      <c r="J141" s="1">
+        <v>398484</v>
+      </c>
+      <c r="K141" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L141" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M141" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
+      <c r="P141" s="1">
+        <v>2</v>
+      </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="A142" s="1">
+        <v>20056</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <v>制服女孩</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>367076</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="J142" s="1">
+        <v>367076</v>
+      </c>
+      <c r="K142" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L142" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M142" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
+      <c r="P142" s="1">
+        <v>2</v>
+      </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="A143" s="1">
+        <v>20057</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <v>唐三</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>343523</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
+      <c r="J143" s="1">
+        <v>343523</v>
+      </c>
+      <c r="K143" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L143" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M143" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="P143" s="1">
+        <v>2</v>
+      </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="A144" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <v>金箍棒(粉)</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>209508</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="J144" s="1">
+        <v>209508</v>
+      </c>
+      <c r="K144" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L144" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M144" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="P144" s="1">
+        <v>2</v>
+      </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="A145" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <v>金箍棒(紫)</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>313464</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="J145" s="1">
+        <v>313464</v>
+      </c>
+      <c r="K145" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L145" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M145" s="10" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="P145" s="1">
+        <v>2</v>
+      </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1" t="str">
-        <v>变异沙漠三头狗</v>
+      <c r="A146" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B146" s="15" t="str">
+        <v>昊天锤</v>
       </c>
       <c r="C146" s="1">
-        <v>4</v>
-      </c>
-      <c r="D146" s="1">
-        <v>327996</v>
+        <v>1</v>
+      </c>
+      <c r="D146" s="15">
+        <v>318640</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
       </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K146" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L146" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M146" s="1" t="str">
+      <c r="J146" s="15">
+        <v>318640</v>
+      </c>
+      <c r="K146" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L146" s="10" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M146" s="10" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="P146" s="1">
+        <v>2</v>
+      </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -6669,34 +7060,6 @@
     </row>
     <row customHeight="true" ht="25" r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="1" t="str">
-        <v>三头狗</v>
-      </c>
-      <c r="C147" s="1">
-        <v>4</v>
-      </c>
-      <c r="D147" s="1">
-        <v>327801</v>
-      </c>
-      <c r="E147" s="1">
-        <v>3</v>
-      </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1">
-        <v>327801</v>
-      </c>
-      <c r="K147" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L147" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M147" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -6707,34 +7070,6 @@
     </row>
     <row customHeight="true" ht="25" r="148">
       <c r="A148" s="1"/>
-      <c r="B148" s="1" t="str">
-        <v>小龙</v>
-      </c>
-      <c r="C148" s="1">
-        <v>4</v>
-      </c>
-      <c r="D148" s="1">
-        <v>328246</v>
-      </c>
-      <c r="E148" s="1">
-        <v>2</v>
-      </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1">
-        <v>328246</v>
-      </c>
-      <c r="K148" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L148" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M148" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -6745,34 +7080,6 @@
     </row>
     <row customHeight="true" ht="25" r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="1" t="str">
-        <v>卡通木龙</v>
-      </c>
-      <c r="C149" s="1">
-        <v>4</v>
-      </c>
-      <c r="D149" s="1">
-        <v>328030</v>
-      </c>
-      <c r="E149" s="1">
-        <v>2</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1">
-        <v>328030</v>
-      </c>
-      <c r="K149" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L149" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M149" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -6783,34 +7090,6 @@
     </row>
     <row customHeight="true" ht="25" r="150">
       <c r="A150" s="1"/>
-      <c r="B150" s="1" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C150" s="1">
-        <v>4</v>
-      </c>
-      <c r="D150" s="1">
-        <v>328093</v>
-      </c>
-      <c r="E150" s="1">
-        <v>2</v>
-      </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1">
-        <v>328093</v>
-      </c>
-      <c r="K150" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L150" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M150" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -6821,34 +7100,6 @@
     </row>
     <row customHeight="true" ht="25" r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="1" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C151" s="1">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1">
-        <v>328083</v>
-      </c>
-      <c r="E151" s="1">
-        <v>2</v>
-      </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1">
-        <v>328083</v>
-      </c>
-      <c r="K151" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L151" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M151" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -6859,34 +7110,6 @@
     </row>
     <row customHeight="true" ht="25" r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="1" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C152" s="1">
-        <v>4</v>
-      </c>
-      <c r="D152" s="1">
-        <v>328088</v>
-      </c>
-      <c r="E152" s="1">
-        <v>2</v>
-      </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1">
-        <v>328088</v>
-      </c>
-      <c r="K152" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L152" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M152" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -6897,18 +7120,6 @@
     </row>
     <row customHeight="true" ht="25" r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -9037,6 +9248,4518 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1" t="str">
+        <v>变异沙漠三头狗</v>
+      </c>
+      <c r="C227" s="1">
+        <v>4</v>
+      </c>
+      <c r="D227" s="1">
+        <v>327996</v>
+      </c>
+      <c r="E227" s="1">
+        <v>3</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1">
+        <v>327996</v>
+      </c>
+      <c r="K227" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L227" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M227" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="str">
+        <v>三头狗</v>
+      </c>
+      <c r="C228" s="1">
+        <v>4</v>
+      </c>
+      <c r="D228" s="1">
+        <v>327801</v>
+      </c>
+      <c r="E228" s="1">
+        <v>3</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1">
+        <v>327801</v>
+      </c>
+      <c r="K228" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L228" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M228" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="str">
+        <v>小龙</v>
+      </c>
+      <c r="C229" s="1">
+        <v>4</v>
+      </c>
+      <c r="D229" s="1">
+        <v>328246</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1">
+        <v>328246</v>
+      </c>
+      <c r="K229" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L229" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M229" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="str">
+        <v>卡通木龙</v>
+      </c>
+      <c r="C230" s="1">
+        <v>4</v>
+      </c>
+      <c r="D230" s="1">
+        <v>328030</v>
+      </c>
+      <c r="E230" s="1">
+        <v>2</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1">
+        <v>328030</v>
+      </c>
+      <c r="K230" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L230" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M230" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="str">
+        <v>红龙</v>
+      </c>
+      <c r="C231" s="1">
+        <v>4</v>
+      </c>
+      <c r="D231" s="1">
+        <v>328093</v>
+      </c>
+      <c r="E231" s="1">
+        <v>2</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1">
+        <v>328093</v>
+      </c>
+      <c r="K231" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L231" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M231" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C232" s="1">
+        <v>4</v>
+      </c>
+      <c r="D232" s="1">
+        <v>328083</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2</v>
+      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1">
+        <v>328083</v>
+      </c>
+      <c r="K232" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L232" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M232" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C233" s="1">
+        <v>4</v>
+      </c>
+      <c r="D233" s="1">
+        <v>328088</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1">
+        <v>328088</v>
+      </c>
+      <c r="K233" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L233" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M233" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="1"/>
+      <c r="T268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="S269" s="1"/>
+      <c r="T269" s="1"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="S274" s="1"/>
+      <c r="T274" s="1"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="S275" s="1"/>
+      <c r="T275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="S276" s="1"/>
+      <c r="T276" s="1"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="S277" s="1"/>
+      <c r="T277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="1"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="S279" s="1"/>
+      <c r="T279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="S280" s="1"/>
+      <c r="T280" s="1"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="S281" s="1"/>
+      <c r="T281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="S282" s="1"/>
+      <c r="T282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="S283" s="1"/>
+      <c r="T283" s="1"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="S285" s="1"/>
+      <c r="T285" s="1"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="S292" s="1"/>
+      <c r="T292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="S293" s="1"/>
+      <c r="T293" s="1"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="1"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="S298" s="1"/>
+      <c r="T298" s="1"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="S299" s="1"/>
+      <c r="T299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="S300" s="1"/>
+      <c r="T300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="S304" s="1"/>
+      <c r="T304" s="1"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+      <c r="L310" s="1"/>
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="S310" s="1"/>
+      <c r="T310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="1"/>
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+      <c r="K316" s="1"/>
+      <c r="L316" s="1"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+      <c r="P316" s="1"/>
+      <c r="Q316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="S316" s="1"/>
+      <c r="T316" s="1"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+      <c r="K317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+      <c r="P317" s="1"/>
+      <c r="Q317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="S317" s="1"/>
+      <c r="T317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+      <c r="P318" s="1"/>
+      <c r="Q318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+      <c r="L319" s="1"/>
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="S319" s="1"/>
+      <c r="T319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+      <c r="L320" s="1"/>
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="S320" s="1"/>
+      <c r="T320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="S321" s="1"/>
+      <c r="T321" s="1"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+      <c r="P322" s="1"/>
+      <c r="Q322" s="1"/>
+      <c r="R322" s="1"/>
+      <c r="S322" s="1"/>
+      <c r="T322" s="1"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1"/>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+      <c r="K323" s="1"/>
+      <c r="L323" s="1"/>
+      <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+      <c r="P323" s="1"/>
+      <c r="Q323" s="1"/>
+      <c r="R323" s="1"/>
+      <c r="S323" s="1"/>
+      <c r="T323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1"/>
+      <c r="L324" s="1"/>
+      <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+      <c r="P324" s="1"/>
+      <c r="Q324" s="1"/>
+      <c r="R324" s="1"/>
+      <c r="S324" s="1"/>
+      <c r="T324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+      <c r="K326" s="1"/>
+      <c r="L326" s="1"/>
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+      <c r="P326" s="1"/>
+      <c r="Q326" s="1"/>
+      <c r="R326" s="1"/>
+      <c r="S326" s="1"/>
+      <c r="T326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+      <c r="K327" s="1"/>
+      <c r="L327" s="1"/>
+      <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+      <c r="P327" s="1"/>
+      <c r="Q327" s="1"/>
+      <c r="R327" s="1"/>
+      <c r="S327" s="1"/>
+      <c r="T327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+      <c r="P328" s="1"/>
+      <c r="Q328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="S328" s="1"/>
+      <c r="T328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+      <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="S329" s="1"/>
+      <c r="T329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+      <c r="P330" s="1"/>
+      <c r="Q330" s="1"/>
+      <c r="R330" s="1"/>
+      <c r="S330" s="1"/>
+      <c r="T330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+      <c r="L331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="P331" s="1"/>
+      <c r="Q331" s="1"/>
+      <c r="R331" s="1"/>
+      <c r="S331" s="1"/>
+      <c r="T331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+      <c r="K332" s="1"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+      <c r="P332" s="1"/>
+      <c r="Q332" s="1"/>
+      <c r="R332" s="1"/>
+      <c r="S332" s="1"/>
+      <c r="T332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+      <c r="P333" s="1"/>
+      <c r="Q333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="S333" s="1"/>
+      <c r="T333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+      <c r="P334" s="1"/>
+      <c r="Q334" s="1"/>
+      <c r="R334" s="1"/>
+      <c r="S334" s="1"/>
+      <c r="T334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="P335" s="1"/>
+      <c r="Q335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="S335" s="1"/>
+      <c r="T335" s="1"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+      <c r="P336" s="1"/>
+      <c r="Q336" s="1"/>
+      <c r="R336" s="1"/>
+      <c r="S336" s="1"/>
+      <c r="T336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+      <c r="P337" s="1"/>
+      <c r="Q337" s="1"/>
+      <c r="R337" s="1"/>
+      <c r="S337" s="1"/>
+      <c r="T337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="P338" s="1"/>
+      <c r="Q338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="S338" s="1"/>
+      <c r="T338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="S339" s="1"/>
+      <c r="T339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="S340" s="1"/>
+      <c r="T340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="1"/>
+      <c r="Q341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="S341" s="1"/>
+      <c r="T341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+      <c r="P342" s="1"/>
+      <c r="Q342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="S342" s="1"/>
+      <c r="T342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="S343" s="1"/>
+      <c r="T343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="P344" s="1"/>
+      <c r="Q344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="S344" s="1"/>
+      <c r="T344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="1"/>
+      <c r="Q345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="S345" s="1"/>
+      <c r="T345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+      <c r="P346" s="1"/>
+      <c r="Q346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="S346" s="1"/>
+      <c r="T346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+      <c r="P347" s="1"/>
+      <c r="Q347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="S347" s="1"/>
+      <c r="T347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="S348" s="1"/>
+      <c r="T348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="S349" s="1"/>
+      <c r="T349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="S350" s="1"/>
+      <c r="T350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+      <c r="P352" s="1"/>
+      <c r="Q352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="S352" s="1"/>
+      <c r="T352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="S353" s="1"/>
+      <c r="T353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+      <c r="P355" s="1"/>
+      <c r="Q355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="S355" s="1"/>
+      <c r="T355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+      <c r="P356" s="1"/>
+      <c r="Q356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="S356" s="1"/>
+      <c r="T356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="S358" s="1"/>
+      <c r="T358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
+      <c r="R359" s="1"/>
+      <c r="S359" s="1"/>
+      <c r="T359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+      <c r="P360" s="1"/>
+      <c r="Q360" s="1"/>
+      <c r="R360" s="1"/>
+      <c r="S360" s="1"/>
+      <c r="T360" s="1"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+      <c r="P361" s="1"/>
+      <c r="Q361" s="1"/>
+      <c r="R361" s="1"/>
+      <c r="S361" s="1"/>
+      <c r="T361" s="1"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
+      <c r="R362" s="1"/>
+      <c r="S362" s="1"/>
+      <c r="T362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+      <c r="R363" s="1"/>
+      <c r="S363" s="1"/>
+      <c r="T363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+      <c r="P364" s="1"/>
+      <c r="Q364" s="1"/>
+      <c r="R364" s="1"/>
+      <c r="S364" s="1"/>
+      <c r="T364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1"/>
+      <c r="N365" s="1"/>
+      <c r="O365" s="1"/>
+      <c r="P365" s="1"/>
+      <c r="Q365" s="1"/>
+      <c r="R365" s="1"/>
+      <c r="S365" s="1"/>
+      <c r="T365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+      <c r="H366" s="1"/>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="M366" s="1"/>
+      <c r="N366" s="1"/>
+      <c r="O366" s="1"/>
+      <c r="P366" s="1"/>
+      <c r="Q366" s="1"/>
+      <c r="R366" s="1"/>
+      <c r="S366" s="1"/>
+      <c r="T366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+      <c r="P367" s="1"/>
+      <c r="Q367" s="1"/>
+      <c r="R367" s="1"/>
+      <c r="S367" s="1"/>
+      <c r="T367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+      <c r="P368" s="1"/>
+      <c r="Q368" s="1"/>
+      <c r="R368" s="1"/>
+      <c r="S368" s="1"/>
+      <c r="T368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+      <c r="H369" s="1"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="S369" s="1"/>
+      <c r="T369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+      <c r="P370" s="1"/>
+      <c r="Q370" s="1"/>
+      <c r="R370" s="1"/>
+      <c r="S370" s="1"/>
+      <c r="T370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+      <c r="H371" s="1"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+      <c r="P371" s="1"/>
+      <c r="Q371" s="1"/>
+      <c r="R371" s="1"/>
+      <c r="S371" s="1"/>
+      <c r="T371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="P374" s="1"/>
+      <c r="Q374" s="1"/>
+      <c r="R374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="T374" s="1"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="P375" s="1"/>
+      <c r="Q375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="T375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="P376" s="1"/>
+      <c r="Q376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="1"/>
+      <c r="Q377" s="1"/>
+      <c r="R377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="T377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="P379" s="1"/>
+      <c r="Q379" s="1"/>
+      <c r="R379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="T379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="M381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+      <c r="P381" s="1"/>
+      <c r="Q381" s="1"/>
+      <c r="R381" s="1"/>
+      <c r="S381" s="1"/>
+      <c r="T381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
+      <c r="K382" s="1"/>
+      <c r="L382" s="1"/>
+      <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+      <c r="P382" s="1"/>
+      <c r="Q382" s="1"/>
+      <c r="R382" s="1"/>
+      <c r="S382" s="1"/>
+      <c r="T382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="T383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+      <c r="K384" s="1"/>
+      <c r="L384" s="1"/>
+      <c r="M384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+      <c r="P384" s="1"/>
+      <c r="Q384" s="1"/>
+      <c r="R384" s="1"/>
+      <c r="S384" s="1"/>
+      <c r="T384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+      <c r="P385" s="1"/>
+      <c r="Q385" s="1"/>
+      <c r="R385" s="1"/>
+      <c r="S385" s="1"/>
+      <c r="T385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
+      <c r="O386" s="1"/>
+      <c r="P386" s="1"/>
+      <c r="Q386" s="1"/>
+      <c r="R386" s="1"/>
+      <c r="S386" s="1"/>
+      <c r="T386" s="1"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+      <c r="P387" s="1"/>
+      <c r="Q387" s="1"/>
+      <c r="R387" s="1"/>
+      <c r="S387" s="1"/>
+      <c r="T387" s="1"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="P388" s="1"/>
+      <c r="Q388" s="1"/>
+      <c r="R388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="T388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+      <c r="P389" s="1"/>
+      <c r="Q389" s="1"/>
+      <c r="R389" s="1"/>
+      <c r="S389" s="1"/>
+      <c r="T389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="1"/>
+      <c r="L390" s="1"/>
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+      <c r="P390" s="1"/>
+      <c r="Q390" s="1"/>
+      <c r="R390" s="1"/>
+      <c r="S390" s="1"/>
+      <c r="T390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+      <c r="P391" s="1"/>
+      <c r="Q391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="T391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+      <c r="P392" s="1"/>
+      <c r="Q392" s="1"/>
+      <c r="R392" s="1"/>
+      <c r="S392" s="1"/>
+      <c r="T392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="S393" s="1"/>
+      <c r="T393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+      <c r="L394" s="1"/>
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="S394" s="1"/>
+      <c r="T394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+      <c r="L395" s="1"/>
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="S395" s="1"/>
+      <c r="T395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+      <c r="K396" s="1"/>
+      <c r="L396" s="1"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="S396" s="1"/>
+      <c r="T396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="S397" s="1"/>
+      <c r="T397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+      <c r="L398" s="1"/>
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="S398" s="1"/>
+      <c r="T398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="S399" s="1"/>
+      <c r="T399" s="1"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="P400" s="1"/>
+      <c r="Q400" s="1"/>
+      <c r="R400" s="1"/>
+      <c r="S400" s="1"/>
+      <c r="T400" s="1"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="1"/>
+      <c r="Q401" s="1"/>
+      <c r="R401" s="1"/>
+      <c r="S401" s="1"/>
+      <c r="T401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+      <c r="Q402" s="1"/>
+      <c r="R402" s="1"/>
+      <c r="S402" s="1"/>
+      <c r="T402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="1"/>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1"/>
+      <c r="K404" s="1"/>
+      <c r="L404" s="1"/>
+      <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
+      <c r="O404" s="1"/>
+      <c r="P404" s="1"/>
+      <c r="Q404" s="1"/>
+      <c r="R404" s="1"/>
+      <c r="S404" s="1"/>
+      <c r="T404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+      <c r="P405" s="1"/>
+      <c r="Q405" s="1"/>
+      <c r="R405" s="1"/>
+      <c r="S405" s="1"/>
+      <c r="T405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+      <c r="Q406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+      <c r="Q407" s="1"/>
+      <c r="R407" s="1"/>
+      <c r="S407" s="1"/>
+      <c r="T407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="P408" s="1"/>
+      <c r="Q408" s="1"/>
+      <c r="R408" s="1"/>
+      <c r="S408" s="1"/>
+      <c r="T408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+      <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="P410" s="1"/>
+      <c r="Q410" s="1"/>
+      <c r="R410" s="1"/>
+      <c r="S410" s="1"/>
+      <c r="T410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+      <c r="K411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="M411" s="1"/>
+      <c r="N411" s="1"/>
+      <c r="O411" s="1"/>
+      <c r="P411" s="1"/>
+      <c r="Q411" s="1"/>
+      <c r="R411" s="1"/>
+      <c r="S411" s="1"/>
+      <c r="T411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+      <c r="Q412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1"/>
+      <c r="N413" s="1"/>
+      <c r="O413" s="1"/>
+      <c r="P413" s="1"/>
+      <c r="Q413" s="1"/>
+      <c r="R413" s="1"/>
+      <c r="S413" s="1"/>
+      <c r="T413" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -65,13 +65,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -79,28 +72,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +107,42 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
+      <color rgb="FF667901"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +169,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -279,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,30 +316,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,10 +732,10 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="10" t="str">
+      <c r="N1" s="6" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="10" t="str">
+      <c r="O1" s="6" t="str">
         <v>string</v>
       </c>
       <c r="P1" s="1" t="str">
@@ -769,10 +786,10 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="11" t="str">
+      <c r="N2" s="7" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="10" t="str">
+      <c r="O2" s="6" t="str">
         <v>Move</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -806,7 +823,11 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1" t="str">
+        <v>1：普通
+2：新手礼包
+3：抽奖</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -862,40 +883,40 @@
     </row>
     <row customHeight="true" ht="25" r="6">
       <c r="A6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <v>海神三叉戟</v>
+        <v>10041</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>金箍棒(粉)</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>134222</v>
+      <c r="D6" s="1">
+        <v>209508</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="6">
-        <v>134222</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M6" s="1" t="str">
+      <c r="J6" s="1">
+        <v>209508</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L6" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M6" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -904,40 +925,40 @@
     </row>
     <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <v>赛博自来也长枪</v>
+        <v>10042</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>金箍棒(紫)</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
-        <v>122953</v>
+      <c r="D7" s="1">
+        <v>313464</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="6">
-        <v>122953</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M7" s="1" t="str">
+      <c r="J7" s="1">
+        <v>313464</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M7" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -946,40 +967,36 @@
     </row>
     <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <v>海王双头刀</v>
+        <v>10043</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <v>昊天锤</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
-        <v>118146</v>
+      <c r="D8" s="16">
+        <v>318640</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6">
-        <v>118146</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M8" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>318640</v>
+      </c>
+      <c r="K8" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M8" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -988,26 +1005,26 @@
     </row>
     <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <v>美国队长神锤</v>
+        <v>10001</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <v>海神三叉戟</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>152954</v>
+      <c r="D9" s="11">
+        <v>134222</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="6">
-        <v>152954</v>
+      <c r="J9" s="11">
+        <v>134222</v>
       </c>
       <c r="K9" s="1" t="str">
         <v>0|0|0</v>
@@ -1030,26 +1047,26 @@
     </row>
     <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <v>毒液斧头</v>
+        <v>10002</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <v>赛博自来也长枪</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <v>118143</v>
+      <c r="D10" s="11">
+        <v>122953</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="6">
-        <v>118143</v>
+      <c r="J10" s="11">
+        <v>122953</v>
       </c>
       <c r="K10" s="1" t="str">
         <v>0|0|0</v>
@@ -1072,26 +1089,26 @@
     </row>
     <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <v>灭霸斧</v>
+        <v>10003</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <v>海王双头刀</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>122960</v>
+      <c r="D11" s="11">
+        <v>118146</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6">
-        <v>122960</v>
+      <c r="J11" s="11">
+        <v>118146</v>
       </c>
       <c r="K11" s="1" t="str">
         <v>0|0|0</v>
@@ -1114,26 +1131,26 @@
     </row>
     <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="B12" s="3" t="str">
-        <v>鸣人手里剑</v>
+        <v>美国队长神锤</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
-        <v>33861</v>
+      <c r="D12" s="11">
+        <v>152954</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
-        <v>33861</v>
+      <c r="J12" s="11">
+        <v>152954</v>
       </c>
       <c r="K12" s="1" t="str">
         <v>0|0|0</v>
@@ -1156,26 +1173,26 @@
     </row>
     <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="B13" s="3" t="str">
-        <v>未来战士黄金剑</v>
+        <v>毒液斧头</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>218730</v>
+      <c r="D13" s="11">
+        <v>118143</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>218730</v>
+      <c r="J13" s="11">
+        <v>118143</v>
       </c>
       <c r="K13" s="1" t="str">
         <v>0|0|0</v>
@@ -1198,26 +1215,26 @@
     </row>
     <row customHeight="true" ht="25" r="14">
       <c r="A14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <v>森林哨兵魔法仗</v>
+        <v>10006</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <v>灭霸斧</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
-        <v>210791</v>
+      <c r="D14" s="11">
+        <v>122960</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>210791</v>
+      <c r="J14" s="11">
+        <v>122960</v>
       </c>
       <c r="K14" s="1" t="str">
         <v>0|0|0</v>
@@ -1240,26 +1257,26 @@
     </row>
     <row customHeight="true" ht="25" r="15">
       <c r="A15" s="1">
-        <v>10010</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <v>手枪(索尼克专用)</v>
+        <v>10007</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <v>鸣人手里剑</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>221099</v>
+      <c r="D15" s="11">
+        <v>33861</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <v>221099</v>
+      <c r="J15" s="11">
+        <v>33861</v>
       </c>
       <c r="K15" s="1" t="str">
         <v>0|0|0</v>
@@ -1282,26 +1299,26 @@
     </row>
     <row customHeight="true" ht="25" r="16">
       <c r="A16" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <v>信号枪(粉毛怪专用)</v>
+        <v>10008</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <v>未来战士黄金剑</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>43702</v>
+        <v>218730</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <v>43702</v>
+        <v>218730</v>
       </c>
       <c r="K16" s="1" t="str">
         <v>0|0|0</v>
@@ -1324,26 +1341,26 @@
     </row>
     <row customHeight="true" ht="25" r="17">
       <c r="A17" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <v>刀(纲手专用)</v>
+        <v>10009</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <v>森林哨兵魔法仗</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>103067</v>
+        <v>210791</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <v>103067</v>
+        <v>210791</v>
       </c>
       <c r="K17" s="1" t="str">
         <v>0|0|0</v>
@@ -1366,26 +1383,26 @@
     </row>
     <row customHeight="true" ht="25" r="18">
       <c r="A18" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <v>刀(李洛克专用)</v>
+        <v>10010</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <v>手枪(索尼克专用)</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
-        <v>103080</v>
+      <c r="D18" s="1">
+        <v>221099</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <v>103080</v>
+        <v>221099</v>
       </c>
       <c r="K18" s="1" t="str">
         <v>0|0|0</v>
@@ -1408,26 +1425,26 @@
     </row>
     <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1">
-        <v>10014</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <v>镰刀(干柿鬼鲛专用)</v>
+        <v>10011</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>103075</v>
+        <v>43702</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>103075</v>
+        <v>43702</v>
       </c>
       <c r="K19" s="1" t="str">
         <v>0|0|0</v>
@@ -1450,26 +1467,26 @@
     </row>
     <row customHeight="true" ht="25" r="20">
       <c r="A20" s="1">
-        <v>10015</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <v>镰刀(赛博女孩专用)</v>
+        <v>10012</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <v>刀(纲手专用)</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>122946</v>
+        <v>103067</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>122946</v>
+        <v>103067</v>
       </c>
       <c r="K20" s="1" t="str">
         <v>0|0|0</v>
@@ -1492,26 +1509,26 @@
     </row>
     <row customHeight="true" ht="25" r="21">
       <c r="A21" s="1">
-        <v>10016</v>
+        <v>10013</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>冰封剑(黑寡妇专用)</v>
+        <v>刀(李洛克专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>31710</v>
+      <c r="D21" s="4">
+        <v>103080</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>31710</v>
+        <v>103080</v>
       </c>
       <c r="K21" s="1" t="str">
         <v>0|0|0</v>
@@ -1534,26 +1551,26 @@
     </row>
     <row customHeight="true" ht="25" r="22">
       <c r="A22" s="1">
-        <v>10017</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <v>怪物爪刀</v>
+        <v>10014</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>103069</v>
+        <v>103075</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>103069</v>
+        <v>103075</v>
       </c>
       <c r="K22" s="1" t="str">
         <v>0|0|0</v>
@@ -1576,26 +1593,26 @@
     </row>
     <row customHeight="true" ht="25" r="23">
       <c r="A23" s="1">
-        <v>10018</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <v>大砍刀(卡卡西专用)</v>
+        <v>10015</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>122961</v>
+        <v>122946</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>122961</v>
+        <v>122946</v>
       </c>
       <c r="K23" s="1" t="str">
         <v>0|0|0</v>
@@ -1618,26 +1635,26 @@
     </row>
     <row customHeight="true" ht="25" r="24">
       <c r="A24" s="1">
-        <v>10019</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>法杖(宇智波鼬专用)</v>
+        <v>10016</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>272767</v>
+        <v>31710</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>272767</v>
+        <v>31710</v>
       </c>
       <c r="K24" s="1" t="str">
         <v>0|0|0</v>
@@ -1660,26 +1677,26 @@
     </row>
     <row customHeight="true" ht="25" r="25">
       <c r="A25" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>水枪</v>
+        <v>10017</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <v>怪物爪刀</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>166941</v>
+        <v>103069</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>166941</v>
+        <v>103069</v>
       </c>
       <c r="K25" s="1" t="str">
         <v>0|0|0</v>
@@ -1702,26 +1719,26 @@
     </row>
     <row customHeight="true" ht="25" r="26">
       <c r="A26" s="1">
-        <v>10021</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <v>冰钻剑</v>
+        <v>10018</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>31712</v>
+        <v>122961</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <v>31712</v>
+        <v>122961</v>
       </c>
       <c r="K26" s="1" t="str">
         <v>0|0|0</v>
@@ -1744,26 +1761,26 @@
     </row>
     <row customHeight="true" ht="25" r="27">
       <c r="A27" s="1">
-        <v>10022</v>
+        <v>10019</v>
       </c>
       <c r="B27" s="1" t="str">
-        <v>屠刀</v>
+        <v>法杖(宇智波鼬专用)</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>118142</v>
+        <v>272767</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>118142</v>
+        <v>272767</v>
       </c>
       <c r="K27" s="1" t="str">
         <v>0|0|0</v>
@@ -1786,26 +1803,26 @@
     </row>
     <row customHeight="true" ht="25" r="28">
       <c r="A28" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <v>蓝色法杖(洛基专用)</v>
+        <v>10020</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>水枪</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>210651</v>
+        <v>166941</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>210651</v>
+        <v>166941</v>
       </c>
       <c r="K28" s="1" t="str">
         <v>0|0|0</v>
@@ -1828,26 +1845,26 @@
     </row>
     <row customHeight="true" ht="25" r="29">
       <c r="A29" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <v>镰刀(太阳神专用)</v>
+        <v>10021</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>冰钻剑</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>121672</v>
+        <v>31712</v>
       </c>
       <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>121672</v>
+        <v>31712</v>
       </c>
       <c r="K29" s="1" t="str">
         <v>0|0|0</v>
@@ -1870,26 +1887,26 @@
     </row>
     <row customHeight="true" ht="25" r="30">
       <c r="A30" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <v>恶魔剑(宇智波斑爷专用)</v>
+        <v>10022</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>屠刀</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>122956</v>
+        <v>118142</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <v>122956</v>
+        <v>118142</v>
       </c>
       <c r="K30" s="1" t="str">
         <v>0|0|0</v>
@@ -1912,16 +1929,16 @@
     </row>
     <row customHeight="true" ht="25" r="31">
       <c r="A31" s="1">
-        <v>10026</v>
+        <v>10023</v>
       </c>
       <c r="B31" s="3" t="str">
-        <v>剑(纳米机器人专用)</v>
+        <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>103068</v>
+        <v>210651</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1931,7 +1948,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>103068</v>
+        <v>210651</v>
       </c>
       <c r="K31" s="1" t="str">
         <v>0|0|0</v>
@@ -1954,26 +1971,26 @@
     </row>
     <row customHeight="true" ht="25" r="32">
       <c r="A32" s="1">
-        <v>10027</v>
+        <v>10024</v>
       </c>
       <c r="B32" s="3" t="str">
-        <v>镰刀(死侍专用)</v>
+        <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>103083</v>
+        <v>121672</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>103083</v>
+        <v>121672</v>
       </c>
       <c r="K32" s="1" t="str">
         <v>0|0|0</v>
@@ -1996,26 +2013,26 @@
     </row>
     <row customHeight="true" ht="25" r="33">
       <c r="A33" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B33" s="9" t="str" xml:space="preserve">
-        <v>  荧光剑(火山哨兵专用)</v>
+        <v>10025</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>198698</v>
+        <v>122956</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>198698</v>
+        <v>122956</v>
       </c>
       <c r="K33" s="1" t="str">
         <v>0|0|0</v>
@@ -2038,26 +2055,26 @@
     </row>
     <row customHeight="true" ht="25" r="34">
       <c r="A34" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B34" s="9" t="str">
-        <v>狂热剑(绯红女巫专用)</v>
+        <v>10026</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>29057</v>
+        <v>103068</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>29057</v>
+        <v>103068</v>
       </c>
       <c r="K34" s="1" t="str">
         <v>0|0|0</v>
@@ -2080,26 +2097,26 @@
     </row>
     <row customHeight="true" ht="25" r="35">
       <c r="A35" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B35" s="14" t="str">
-        <v>充气锤子</v>
+        <v>10027</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <v>镰刀(死侍专用)</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>272130</v>
+        <v>103083</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>272130</v>
+        <v>103083</v>
       </c>
       <c r="K35" s="1" t="str">
         <v>0|0|0</v>
@@ -2122,26 +2139,26 @@
     </row>
     <row customHeight="true" ht="25" r="36">
       <c r="A36" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B36" s="14" t="str">
-        <v>木法杖(毒液蜘蛛侠专用)</v>
+        <v>10028</v>
+      </c>
+      <c r="B36" s="15" t="str" xml:space="preserve">
+        <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>300436</v>
+        <v>198698</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="15"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <v>300436</v>
+        <v>198698</v>
       </c>
       <c r="K36" s="1" t="str">
         <v>0|0|0</v>
@@ -2164,26 +2181,26 @@
     </row>
     <row customHeight="true" ht="25" r="37">
       <c r="A37" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B37" s="14" t="str">
-        <v>瓜子盾</v>
+        <v>10029</v>
+      </c>
+      <c r="B37" s="15" t="str">
+        <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>121541</v>
+        <v>29057</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>121541</v>
+        <v>29057</v>
       </c>
       <c r="K37" s="1" t="str">
         <v>0|0|0</v>
@@ -2206,26 +2223,26 @@
     </row>
     <row customHeight="true" ht="25" r="38">
       <c r="A38" s="1">
-        <v>10033</v>
-      </c>
-      <c r="B38" s="14" t="str">
-        <v>盾(浩克专用)</v>
+        <v>10030</v>
+      </c>
+      <c r="B38" s="5" t="str">
+        <v>充气锤子</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>122950</v>
+        <v>272130</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="5"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <v>122950</v>
+        <v>272130</v>
       </c>
       <c r="K38" s="1" t="str">
         <v>0|0|0</v>
@@ -2248,26 +2265,26 @@
     </row>
     <row customHeight="true" ht="25" r="39">
       <c r="A39" s="1">
-        <v>10034</v>
-      </c>
-      <c r="B39" s="4" t="str">
-        <v>终极冰环剑</v>
+        <v>10031</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>31734</v>
+        <v>300436</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <v>31734</v>
+        <v>300436</v>
       </c>
       <c r="K39" s="1" t="str">
         <v>0|0|0</v>
@@ -2290,26 +2307,26 @@
     </row>
     <row customHeight="true" ht="25" r="40">
       <c r="A40" s="1">
-        <v>10035</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <v>散弹喷枪(雏田专用)</v>
+        <v>10032</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <v>瓜子盾</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>155702</v>
+        <v>121541</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="5"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <v>155702</v>
+        <v>121541</v>
       </c>
       <c r="K40" s="1" t="str">
         <v>0|0|0</v>
@@ -2332,26 +2349,26 @@
     </row>
     <row customHeight="true" ht="25" r="41">
       <c r="A41" s="1">
-        <v>10036</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <v>火枪(路飞专用)</v>
+        <v>10033</v>
+      </c>
+      <c r="B41" s="5" t="str">
+        <v>盾(浩克专用)</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>122726</v>
+        <v>122950</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <v>122726</v>
+        <v>122950</v>
       </c>
       <c r="K41" s="1" t="str">
         <v>0|0|0</v>
@@ -2374,26 +2391,26 @@
     </row>
     <row customHeight="true" ht="25" r="42">
       <c r="A42" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <v>紫光剑(佐助专用)</v>
+        <v>10034</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <v>终极冰环剑</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="6">
-        <v>297029</v>
+      <c r="D42" s="1">
+        <v>31734</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="6">
-        <v>297029</v>
+      <c r="J42" s="1">
+        <v>31734</v>
       </c>
       <c r="K42" s="1" t="str">
         <v>0|0|0</v>
@@ -2416,26 +2433,26 @@
     </row>
     <row customHeight="true" ht="25" r="43">
       <c r="A43" s="1">
-        <v>10038</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <v>激光枪(天神专用)</v>
+        <v>10035</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>222534</v>
+        <v>155702</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <v>222534</v>
+        <v>155702</v>
       </c>
       <c r="K43" s="1" t="str">
         <v>0|0|0</v>
@@ -2458,26 +2475,26 @@
     </row>
     <row customHeight="true" ht="25" r="44">
       <c r="A44" s="1">
-        <v>10039</v>
-      </c>
-      <c r="B44" s="14" t="str">
-        <v>剑(金刚狼专用)</v>
+        <v>10036</v>
+      </c>
+      <c r="B44" s="10" t="str">
+        <v>火枪(路飞专用)</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>269895</v>
+        <v>122726</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <v>269895</v>
+        <v>122726</v>
       </c>
       <c r="K44" s="1" t="str">
         <v>0|0|0</v>
@@ -2500,26 +2517,26 @@
     </row>
     <row customHeight="true" ht="25" r="45">
       <c r="A45" s="1">
-        <v>10040</v>
-      </c>
-      <c r="B45" s="14" t="str">
-        <v>激光枪(钢铁侠专用)</v>
+        <v>10037</v>
+      </c>
+      <c r="B45" s="10" t="str">
+        <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1">
-        <v>122720</v>
+      <c r="D45" s="11">
+        <v>297029</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1">
-        <v>122720</v>
+      <c r="J45" s="11">
+        <v>297029</v>
       </c>
       <c r="K45" s="1" t="str">
         <v>0|0|0</v>
@@ -2542,26 +2559,26 @@
     </row>
     <row customHeight="true" ht="25" r="46">
       <c r="A46" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>狐耳少女</v>
+        <v>10038</v>
+      </c>
+      <c r="B46" s="10" t="str">
+        <v>激光枪(天神专用)</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>361906</v>
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>222534</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="2">
-        <v>65710</v>
+      <c r="J46" s="1">
+        <v>222534</v>
       </c>
       <c r="K46" s="1" t="str">
         <v>0|0|0</v>
@@ -2584,26 +2601,26 @@
     </row>
     <row customHeight="true" ht="25" r="47">
       <c r="A47" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>邪恶使者</v>
+        <v>10039</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>剑(金刚狼专用)</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="3">
-        <v>357571</v>
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>269895</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="2">
-        <v>64995</v>
+      <c r="J47" s="1">
+        <v>269895</v>
       </c>
       <c r="K47" s="1" t="str">
         <v>0|0|0</v>
@@ -2626,26 +2643,26 @@
     </row>
     <row customHeight="true" ht="25" r="48">
       <c r="A48" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>长款大衣女</v>
+        <v>10040</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>357567</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>122720</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F48" s="5"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="2">
-        <v>142606</v>
+      <c r="J48" s="1">
+        <v>122720</v>
       </c>
       <c r="K48" s="1" t="str">
         <v>0|0|0</v>
@@ -2668,16 +2685,16 @@
     </row>
     <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
-        <v>20004</v>
+        <v>20055</v>
       </c>
       <c r="B49" s="1" t="str">
-        <v>海绵宝宝</v>
+        <v>小舞姐</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="3">
-        <v>357566</v>
+      <c r="D49" s="1">
+        <v>398484</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -2686,22 +2703,22 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="2">
-        <v>63711</v>
-      </c>
-      <c r="K49" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L49" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M49" s="1" t="str">
+      <c r="J49" s="1">
+        <v>398484</v>
+      </c>
+      <c r="K49" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L49" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M49" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2710,16 +2727,16 @@
     </row>
     <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
-        <v>20005</v>
+        <v>20056</v>
       </c>
       <c r="B50" s="1" t="str">
-        <v>钢铁侠</v>
+        <v>制服女孩</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="3">
-        <v>357563</v>
+      <c r="D50" s="1">
+        <v>367076</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -2728,22 +2745,22 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="2">
-        <v>94782</v>
-      </c>
-      <c r="K50" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L50" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M50" s="1" t="str">
+      <c r="J50" s="1">
+        <v>367076</v>
+      </c>
+      <c r="K50" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M50" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2752,16 +2769,16 @@
     </row>
     <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
-        <v>20006</v>
+        <v>20057</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>灭霸</v>
+        <v>唐三</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="3">
-        <v>357556</v>
+      <c r="D51" s="1">
+        <v>343523</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -2770,22 +2787,22 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="2">
-        <v>112568</v>
-      </c>
-      <c r="K51" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L51" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M51" s="1" t="str">
+      <c r="J51" s="1">
+        <v>343523</v>
+      </c>
+      <c r="K51" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M51" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2794,40 +2811,36 @@
     </row>
     <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
-        <v>20007</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>刺猬小子</v>
-      </c>
-      <c r="C52" s="1">
+        <v>20058</v>
+      </c>
+      <c r="B52" t="str">
+        <v>神级魔王</v>
+      </c>
+      <c r="C52" s="13">
         <v>2</v>
       </c>
-      <c r="D52" s="3">
-        <v>357555</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52">
+        <v>141499</v>
+      </c>
+      <c r="E52" s="13">
         <v>3</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2">
-        <v>117681</v>
-      </c>
-      <c r="K52" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L52" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M52" s="1" t="str">
+      <c r="J52">
+        <v>141499</v>
+      </c>
+      <c r="K52" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L52" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M52" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2836,40 +2849,36 @@
     </row>
     <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
-        <v>20008</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>邪恶使者</v>
-      </c>
-      <c r="C53" s="1">
+        <v>20059</v>
+      </c>
+      <c r="B53" t="str">
+        <v>四代火影</v>
+      </c>
+      <c r="C53" s="13">
         <v>2</v>
       </c>
-      <c r="D53" s="3">
-        <v>351891</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53">
+        <v>142921</v>
+      </c>
+      <c r="E53" s="13">
         <v>3</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="2">
-        <v>64995</v>
-      </c>
-      <c r="K53" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L53" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M53" s="1" t="str">
+      <c r="J53">
+        <v>142921</v>
+      </c>
+      <c r="K53" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L53" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M53" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2878,40 +2887,36 @@
     </row>
     <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
-        <v>20009</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>蓝衣男</v>
-      </c>
-      <c r="C54" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B54" t="str">
+        <v>美杜莎女王</v>
+      </c>
+      <c r="C54" s="13">
         <v>2</v>
       </c>
-      <c r="D54" s="5">
-        <v>351680</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54">
+        <v>163289</v>
+      </c>
+      <c r="E54" s="13">
         <v>3</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2">
-        <v>127800</v>
-      </c>
-      <c r="K54" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L54" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M54" s="1" t="str">
+      <c r="J54">
+        <v>163289</v>
+      </c>
+      <c r="K54" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L54" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M54" s="6" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2920,16 +2925,16 @@
     </row>
     <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
-        <v>20010</v>
+        <v>20001</v>
       </c>
       <c r="B55" s="1" t="str">
-        <v>黑衣男</v>
+        <v>狐耳少女</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="5">
-        <v>351598</v>
+      <c r="D55" s="3">
+        <v>361906</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -2939,7 +2944,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="2">
-        <v>224168</v>
+        <v>65710</v>
       </c>
       <c r="K55" s="1" t="str">
         <v>0|0|0</v>
@@ -2962,16 +2967,16 @@
     </row>
     <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
-        <v>20011</v>
+        <v>20002</v>
       </c>
       <c r="B56" s="1" t="str">
-        <v>毁灭战士</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="5">
-        <v>351597</v>
+      <c r="D56" s="3">
+        <v>357571</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -2981,7 +2986,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="2">
-        <v>94782</v>
+        <v>64995</v>
       </c>
       <c r="K56" s="1" t="str">
         <v>0|0|0</v>
@@ -3004,16 +3009,16 @@
     </row>
     <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
-        <v>20012</v>
+        <v>20003</v>
       </c>
       <c r="B57" s="1" t="str">
-        <v>雷神</v>
+        <v>长款大衣女</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="5">
-        <v>357570</v>
+      <c r="D57" s="3">
+        <v>357567</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -3023,7 +3028,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="2">
-        <v>111768</v>
+        <v>142606</v>
       </c>
       <c r="K57" s="1" t="str">
         <v>0|0|0</v>
@@ -3046,26 +3051,26 @@
     </row>
     <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
-        <v>20013</v>
+        <v>20004</v>
       </c>
       <c r="B58" s="1" t="str">
-        <v>黑寡妇</v>
+        <v>海绵宝宝</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="5">
-        <v>357568</v>
+      <c r="D58" s="3">
+        <v>357566</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="2">
-        <v>111240</v>
+        <v>63711</v>
       </c>
       <c r="K58" s="1" t="str">
         <v>0|0|0</v>
@@ -3088,26 +3093,26 @@
     </row>
     <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
-        <v>20014</v>
+        <v>20005</v>
       </c>
       <c r="B59" s="1" t="str">
-        <v>可爱女</v>
+        <v>钢铁侠</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="5">
-        <v>351500</v>
+      <c r="D59" s="3">
+        <v>357563</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="2">
-        <v>269652</v>
+        <v>94782</v>
       </c>
       <c r="K59" s="1" t="str">
         <v>0|0|0</v>
@@ -3130,26 +3135,26 @@
     </row>
     <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
-        <v>20015</v>
+        <v>20006</v>
       </c>
       <c r="B60" s="1" t="str">
-        <v>丸子头女</v>
+        <v>灭霸</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
-        <v>351497</v>
+      <c r="D60" s="3">
+        <v>357556</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="2">
-        <v>60981</v>
+        <v>112568</v>
       </c>
       <c r="K60" s="1" t="str">
         <v>0|0|0</v>
@@ -3172,16 +3177,16 @@
     </row>
     <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
-        <v>20016</v>
+        <v>20007</v>
       </c>
       <c r="B61" s="1" t="str">
-        <v>西方神女</v>
+        <v>刺猬小子</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="5">
-        <v>351405</v>
+      <c r="D61" s="3">
+        <v>357555</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3191,7 +3196,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="2">
-        <v>64410</v>
+        <v>117681</v>
       </c>
       <c r="K61" s="1" t="str">
         <v>0|0|0</v>
@@ -3214,16 +3219,16 @@
     </row>
     <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
-        <v>20017</v>
+        <v>20008</v>
       </c>
       <c r="B62" s="1" t="str">
-        <v>黑裙少女</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="5">
-        <v>351404</v>
+      <c r="D62" s="3">
+        <v>351891</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -3233,7 +3238,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="2">
-        <v>128834</v>
+        <v>64995</v>
       </c>
       <c r="K62" s="1" t="str">
         <v>0|0|0</v>
@@ -3256,26 +3261,26 @@
     </row>
     <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
-        <v>20018</v>
+        <v>20009</v>
       </c>
       <c r="B63" s="1" t="str">
-        <v>短发女</v>
+        <v>蓝衣男</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="5">
-        <v>351026</v>
+      <c r="D63" s="4">
+        <v>351680</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="2">
-        <v>115849</v>
+        <v>127800</v>
       </c>
       <c r="K63" s="1" t="str">
         <v>0|0|0</v>
@@ -3298,26 +3303,26 @@
     </row>
     <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
-        <v>20019</v>
+        <v>20010</v>
       </c>
       <c r="B64" s="1" t="str">
-        <v>旗袍女</v>
+        <v>黑衣男</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="5">
-        <v>351025</v>
+      <c r="D64" s="4">
+        <v>351598</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="2">
-        <v>299082</v>
+        <v>224168</v>
       </c>
       <c r="K64" s="1" t="str">
         <v>0|0|0</v>
@@ -3340,26 +3345,26 @@
     </row>
     <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
-        <v>20020</v>
+        <v>20011</v>
       </c>
       <c r="B65" s="1" t="str">
-        <v>披风男</v>
+        <v>毁灭战士</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="5">
-        <v>351024</v>
+      <c r="D65" s="4">
+        <v>351597</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="2">
-        <v>96576</v>
+        <v>94782</v>
       </c>
       <c r="K65" s="1" t="str">
         <v>0|0|0</v>
@@ -3382,26 +3387,26 @@
     </row>
     <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
-        <v>20021</v>
+        <v>20012</v>
       </c>
       <c r="B66" s="1" t="str">
-        <v>长发女</v>
+        <v>雷神</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="5">
-        <v>351004</v>
+      <c r="D66" s="4">
+        <v>357570</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2">
-        <v>63291</v>
+        <v>111768</v>
       </c>
       <c r="K66" s="1" t="str">
         <v>0|0|0</v>
@@ -3424,26 +3429,26 @@
     </row>
     <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
-        <v>20022</v>
+        <v>20013</v>
       </c>
       <c r="B67" s="1" t="str">
-        <v>双马尾女</v>
+        <v>黑寡妇</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="5">
-        <v>350987</v>
+      <c r="D67" s="4">
+        <v>357568</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="2">
-        <v>59857</v>
+        <v>111240</v>
       </c>
       <c r="K67" s="1" t="str">
         <v>0|0|0</v>
@@ -3466,26 +3471,26 @@
     </row>
     <row customHeight="true" ht="25" r="68">
       <c r="A68" s="1">
-        <v>20023</v>
+        <v>20014</v>
       </c>
       <c r="B68" s="1" t="str">
-        <v>长发短裙女</v>
+        <v>可爱女</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="3">
-        <v>350973</v>
+      <c r="D68" s="4">
+        <v>351500</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="2">
-        <v>63648</v>
+        <v>269652</v>
       </c>
       <c r="K68" s="1" t="str">
         <v>0|0|0</v>
@@ -3508,26 +3513,26 @@
     </row>
     <row customHeight="true" ht="25" r="69">
       <c r="A69" s="1">
-        <v>20024</v>
+        <v>20015</v>
       </c>
       <c r="B69" s="1" t="str">
-        <v>双马尾女</v>
+        <v>丸子头女</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="3">
-        <v>350959</v>
+      <c r="D69" s="4">
+        <v>351497</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="2">
-        <v>248351</v>
+        <v>60981</v>
       </c>
       <c r="K69" s="1" t="str">
         <v>0|0|0</v>
@@ -3550,26 +3555,26 @@
     </row>
     <row customHeight="true" ht="25" r="70">
       <c r="A70" s="1">
-        <v>20025</v>
+        <v>20016</v>
       </c>
       <c r="B70" s="1" t="str">
-        <v>双马尾女</v>
+        <v>西方神女</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="3">
-        <v>350958</v>
+      <c r="D70" s="4">
+        <v>351405</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2">
-        <v>64774</v>
+        <v>64410</v>
       </c>
       <c r="K70" s="1" t="str">
         <v>0|0|0</v>
@@ -3592,26 +3597,26 @@
     </row>
     <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
-        <v>20026</v>
+        <v>20017</v>
       </c>
       <c r="B71" s="1" t="str">
-        <v>百褶裙女孩</v>
+        <v>黑裙少女</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="3">
-        <v>350756</v>
+      <c r="D71" s="4">
+        <v>351404</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="2">
-        <v>63291</v>
+        <v>128834</v>
       </c>
       <c r="K71" s="1" t="str">
         <v>0|0|0</v>
@@ -3634,26 +3639,26 @@
     </row>
     <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
-        <v>20027</v>
+        <v>20018</v>
       </c>
       <c r="B72" s="1" t="str">
-        <v>短发时尚女</v>
+        <v>短发女</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="3">
-        <v>350752</v>
+      <c r="D72" s="4">
+        <v>351026</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="2">
-        <v>111241</v>
+        <v>115849</v>
       </c>
       <c r="K72" s="1" t="str">
         <v>0|0|0</v>
@@ -3676,26 +3681,26 @@
     </row>
     <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
-        <v>20028</v>
+        <v>20019</v>
       </c>
       <c r="B73" s="1" t="str">
-        <v>长马尾女孩</v>
+        <v>旗袍女</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="3">
-        <v>350746</v>
+      <c r="D73" s="4">
+        <v>351025</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="2">
-        <v>121948</v>
+        <v>299082</v>
       </c>
       <c r="K73" s="1" t="str">
         <v>0|0|0</v>
@@ -3718,16 +3723,16 @@
     </row>
     <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
-        <v>20029</v>
+        <v>20020</v>
       </c>
       <c r="B74" s="1" t="str">
-        <v>长耳女</v>
+        <v>披风男</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="3">
-        <v>350744</v>
+      <c r="D74" s="4">
+        <v>351024</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3737,7 +3742,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="2">
-        <v>64458</v>
+        <v>96576</v>
       </c>
       <c r="K74" s="1" t="str">
         <v>0|0|0</v>
@@ -3760,26 +3765,26 @@
     </row>
     <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
-        <v>20030</v>
+        <v>20021</v>
       </c>
       <c r="B75" s="1" t="str">
-        <v>风衣长发女</v>
+        <v>长发女</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="3">
-        <v>350739</v>
+      <c r="D75" s="4">
+        <v>351004</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="2">
-        <v>142606</v>
+        <v>63291</v>
       </c>
       <c r="K75" s="1" t="str">
         <v>0|0|0</v>
@@ -3802,16 +3807,16 @@
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>20031</v>
+        <v>20022</v>
       </c>
       <c r="B76" s="1" t="str">
-        <v>恶魔角女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="3">
-        <v>350738</v>
+      <c r="D76" s="4">
+        <v>350987</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3821,7 +3826,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="2">
-        <v>64305</v>
+        <v>59857</v>
       </c>
       <c r="K76" s="1" t="str">
         <v>0|0|0</v>
@@ -3844,26 +3849,26 @@
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>20032</v>
+        <v>20023</v>
       </c>
       <c r="B77" s="1" t="str">
-        <v>和服女</v>
+        <v>长发短裙女</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" s="3">
-        <v>350568</v>
+        <v>350973</v>
       </c>
       <c r="E77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="2">
-        <v>299082</v>
+        <v>63648</v>
       </c>
       <c r="K77" s="1" t="str">
         <v>0|0|0</v>
@@ -3886,26 +3891,26 @@
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>20033</v>
+        <v>20024</v>
       </c>
       <c r="B78" s="1" t="str">
-        <v>发卡女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>350318</v>
+        <v>350959</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="2">
-        <v>181365</v>
+        <v>248351</v>
       </c>
       <c r="K78" s="1" t="str">
         <v>0|0|0</v>
@@ -3928,26 +3933,26 @@
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>20034</v>
+        <v>20025</v>
       </c>
       <c r="B79" s="1" t="str">
-        <v>女仆套装女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" s="3">
-        <v>350569</v>
+        <v>350958</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="2">
-        <v>63291</v>
+        <v>64774</v>
       </c>
       <c r="K79" s="1" t="str">
         <v>0|0|0</v>
@@ -3970,16 +3975,16 @@
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>20035</v>
+        <v>20026</v>
       </c>
       <c r="B80" s="1" t="str">
-        <v>帽子女</v>
+        <v>百褶裙女孩</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>350314</v>
+        <v>350756</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -3989,7 +3994,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="2">
-        <v>299082</v>
+        <v>63291</v>
       </c>
       <c r="K80" s="1" t="str">
         <v>0|0|0</v>
@@ -4012,26 +4017,26 @@
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>20036</v>
+        <v>20027</v>
       </c>
       <c r="B81" s="1" t="str">
-        <v>魔法女孩</v>
+        <v>短发时尚女</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
       <c r="D81" s="3">
-        <v>350260</v>
+        <v>350752</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="2">
-        <v>111088</v>
+        <v>111241</v>
       </c>
       <c r="K81" s="1" t="str">
         <v>0|0|0</v>
@@ -4054,26 +4059,26 @@
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>20037</v>
+        <v>20028</v>
       </c>
       <c r="B82" s="1" t="str">
-        <v>长裙女</v>
+        <v>长马尾女孩</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
       <c r="D82" s="3">
-        <v>349270</v>
+        <v>350746</v>
       </c>
       <c r="E82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="2">
-        <v>124880</v>
+        <v>121948</v>
       </c>
       <c r="K82" s="1" t="str">
         <v>0|0|0</v>
@@ -4096,26 +4101,26 @@
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>20038</v>
+        <v>20029</v>
       </c>
       <c r="B83" s="1" t="str">
-        <v>杀手女</v>
+        <v>长耳女</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>347528</v>
+        <v>350744</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="2">
-        <v>137518</v>
+        <v>64458</v>
       </c>
       <c r="K83" s="1" t="str">
         <v>0|0|0</v>
@@ -4138,26 +4143,26 @@
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>20039</v>
+        <v>20030</v>
       </c>
       <c r="B84" s="1" t="str">
-        <v>巫医</v>
+        <v>风衣长发女</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="3">
-        <v>145319</v>
+        <v>350739</v>
       </c>
       <c r="E84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="2">
-        <v>119773</v>
+        <v>142606</v>
       </c>
       <c r="K84" s="1" t="str">
         <v>0|0|0</v>
@@ -4180,26 +4185,26 @@
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>20040</v>
+        <v>20031</v>
       </c>
       <c r="B85" s="1" t="str">
-        <v>长腿妈妈</v>
+        <v>恶魔角女</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="3">
-        <v>143403</v>
+        <v>350738</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="2">
-        <v>119229</v>
+        <v>64305</v>
       </c>
       <c r="K85" s="1" t="str">
         <v>0|0|0</v>
@@ -4222,16 +4227,16 @@
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>20041</v>
+        <v>20032</v>
       </c>
       <c r="B86" s="1" t="str">
-        <v>玄魁</v>
+        <v>和服女</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
-      <c r="D86" s="1">
-        <v>143402</v>
+      <c r="D86" s="3">
+        <v>350568</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -4241,7 +4246,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="2">
-        <v>121882</v>
+        <v>299082</v>
       </c>
       <c r="K86" s="1" t="str">
         <v>0|0|0</v>
@@ -4264,26 +4269,26 @@
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>20042</v>
+        <v>20033</v>
       </c>
       <c r="B87" s="1" t="str">
-        <v>邪恶女巫</v>
+        <v>发卡女</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="1">
-        <v>143401</v>
+      <c r="D87" s="3">
+        <v>350318</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="2">
-        <v>119745</v>
+        <v>181365</v>
       </c>
       <c r="K87" s="1" t="str">
         <v>0|0|0</v>
@@ -4306,26 +4311,26 @@
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>20043</v>
+        <v>20034</v>
       </c>
       <c r="B88" s="1" t="str">
-        <v>小丑女</v>
+        <v>女仆套装女</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
       </c>
-      <c r="D88" s="1">
-        <v>143400</v>
+      <c r="D88" s="3">
+        <v>350569</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="2">
-        <v>63539</v>
+        <v>63291</v>
       </c>
       <c r="K88" s="1" t="str">
         <v>0|0|0</v>
@@ -4348,26 +4353,26 @@
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>20044</v>
+        <v>20035</v>
       </c>
       <c r="B89" s="1" t="str">
-        <v>万圣节女</v>
+        <v>帽子女</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="1">
-        <v>143399</v>
+      <c r="D89" s="3">
+        <v>350314</v>
       </c>
       <c r="E89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="2">
-        <v>60981</v>
+        <v>299082</v>
       </c>
       <c r="K89" s="1" t="str">
         <v>0|0|0</v>
@@ -4390,26 +4395,26 @@
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>20045</v>
+        <v>20036</v>
       </c>
       <c r="B90" s="1" t="str">
-        <v>屠夫</v>
+        <v>魔法女孩</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
-      <c r="D90" s="1">
-        <v>143398</v>
+      <c r="D90" s="3">
+        <v>350260</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="2">
-        <v>109144</v>
+        <v>111088</v>
       </c>
       <c r="K90" s="1" t="str">
         <v>0|0|0</v>
@@ -4432,26 +4437,26 @@
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>20046</v>
+        <v>20037</v>
       </c>
       <c r="B91" s="1" t="str">
-        <v>魔莱坞学院院长</v>
+        <v>长裙女</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="1">
-        <v>143396</v>
+      <c r="D91" s="3">
+        <v>349270</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="2">
-        <v>64141</v>
+        <v>124880</v>
       </c>
       <c r="K91" s="1" t="str">
         <v>0|0|0</v>
@@ -4474,26 +4479,26 @@
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>20047</v>
+        <v>20038</v>
       </c>
       <c r="B92" s="1" t="str">
-        <v>迷雾鬼影</v>
+        <v>杀手女</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
-      <c r="D92" s="1">
-        <v>143395</v>
+      <c r="D92" s="3">
+        <v>347528</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="2">
-        <v>109058</v>
+        <v>137518</v>
       </c>
       <c r="K92" s="1" t="str">
         <v>0|0|0</v>
@@ -4516,26 +4521,26 @@
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>20048</v>
+        <v>20039</v>
       </c>
       <c r="B93" s="1" t="str">
-        <v>蓝毛怪</v>
+        <v>巫医</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
-      <c r="D93" s="1">
-        <v>143394</v>
+      <c r="D93" s="3">
+        <v>145319</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="2">
-        <v>109839</v>
+        <v>119773</v>
       </c>
       <c r="K93" s="1" t="str">
         <v>0|0|0</v>
@@ -4558,26 +4563,26 @@
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>20049</v>
+        <v>20040</v>
       </c>
       <c r="B94" s="1" t="str">
-        <v>狗头毛毛虫</v>
+        <v>长腿妈妈</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D94" s="1">
-        <v>143390</v>
+      <c r="D94" s="3">
+        <v>143403</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="2">
-        <v>118079</v>
+        <v>119229</v>
       </c>
       <c r="K94" s="1" t="str">
         <v>0|0|0</v>
@@ -4600,26 +4605,26 @@
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>20050</v>
+        <v>20041</v>
       </c>
       <c r="B95" s="1" t="str">
-        <v>粉毛怪</v>
+        <v>玄魁</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>143389</v>
+        <v>143402</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="2">
-        <v>109839</v>
+        <v>121882</v>
       </c>
       <c r="K95" s="1" t="str">
         <v>0|0|0</v>
@@ -4642,26 +4647,26 @@
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>20051</v>
+        <v>20042</v>
       </c>
       <c r="B96" s="1" t="str">
-        <v>索尼克</v>
+        <v>邪恶女巫</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>143387</v>
+        <v>143401</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="2">
-        <v>117681</v>
+        <v>119745</v>
       </c>
       <c r="K96" s="1" t="str">
         <v>0|0|0</v>
@@ -4684,118 +4689,110 @@
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>20052</v>
-      </c>
-      <c r="B97" s="3" t="str">
-        <v>Rainbow friends</v>
-      </c>
-      <c r="C97" s="3">
+        <v>20043</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <v>小丑女</v>
+      </c>
+      <c r="C97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="3">
-        <v>143385</v>
-      </c>
-      <c r="E97" s="3">
-        <v>3</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="8">
-        <v>119483</v>
-      </c>
-      <c r="K97" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L97" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M97" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
+      <c r="D97" s="1">
+        <v>143400</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="2">
+        <v>63539</v>
+      </c>
+      <c r="K97" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L97" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M97" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
       <c r="P97" s="1">
         <v>1</v>
       </c>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
-        <v>20053</v>
-      </c>
-      <c r="B98" s="3" t="str">
-        <v>海神</v>
-      </c>
-      <c r="C98" s="3">
+        <v>20044</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <v>万圣节女</v>
+      </c>
+      <c r="C98" s="1">
         <v>2</v>
       </c>
-      <c r="D98" s="3">
-        <v>226377</v>
-      </c>
-      <c r="E98" s="3">
-        <v>3</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3">
-        <v>226377</v>
-      </c>
-      <c r="K98" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L98" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M98" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
+      <c r="D98" s="1">
+        <v>143399</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="2">
+        <v>60981</v>
+      </c>
+      <c r="K98" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L98" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M98" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
       <c r="P98" s="1">
         <v>1</v>
       </c>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>30001</v>
+        <v>20045</v>
       </c>
       <c r="B99" s="1" t="str">
-        <v>恶魔翅膀</v>
+        <v>屠夫</v>
       </c>
       <c r="C99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>223877</v>
+        <v>143398</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
-      </c>
-      <c r="F99" s="1">
-        <v>12</v>
-      </c>
-      <c r="G99" s="1" t="str">
-        <v>-10|0|10</v>
-      </c>
-      <c r="H99" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I99" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="J99" s="1">
-        <v>223877</v>
+        <v>0</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="2">
+        <v>109144</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4804,7 +4801,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M99" s="1" t="str">
-        <v>2|2|2</v>
+        <v>1|1|1</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -4818,34 +4815,26 @@
     </row>
     <row customHeight="true" ht="25" r="100">
       <c r="A100" s="1">
-        <v>30002</v>
+        <v>20046</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>恶魔角</v>
+        <v>魔莱坞学院院长</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>266332</v>
+        <v>143396</v>
       </c>
       <c r="E100" s="1">
-        <v>3</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <v>0|5|10</v>
-      </c>
-      <c r="H100" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I100" s="1" t="str">
-        <v>1|1|2</v>
-      </c>
-      <c r="J100" s="1">
-        <v>266332</v>
+        <v>1</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="2">
+        <v>64141</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4854,7 +4843,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M100" s="1" t="str">
-        <v>1|1|2</v>
+        <v>1|1|1</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -4868,34 +4857,26 @@
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>30003</v>
+        <v>20047</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>恶魔尾巴</v>
+        <v>迷雾鬼影</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>136179</v>
+        <v>143395</v>
       </c>
       <c r="E101" s="1">
-        <v>3</v>
-      </c>
-      <c r="F101" s="1">
-        <v>19</v>
-      </c>
-      <c r="G101" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H101" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I101" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>136179</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="2">
+        <v>109058</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4918,34 +4899,26 @@
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>30004</v>
+        <v>20048</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>恶魔头骨</v>
+        <v>蓝毛怪</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>136506</v>
+        <v>143394</v>
       </c>
       <c r="E102" s="1">
-        <v>3</v>
-      </c>
-      <c r="F102" s="1">
-        <v>6</v>
-      </c>
-      <c r="G102" s="1" t="str">
-        <v>-4.8|0|-11</v>
-      </c>
-      <c r="H102" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="I102" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J102" s="1">
-        <v>136506</v>
+        <v>1</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="2">
+        <v>109839</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4968,34 +4941,26 @@
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>30005</v>
+        <v>20049</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>恶魔三头犬</v>
+        <v>狗头毛毛虫</v>
       </c>
       <c r="C103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>192395</v>
+        <v>143390</v>
       </c>
       <c r="E103" s="1">
-        <v>3</v>
-      </c>
-      <c r="F103" s="1">
-        <v>20</v>
-      </c>
-      <c r="G103" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H103" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="I103" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J103" s="1">
-        <v>192395</v>
+        <v>1</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="2">
+        <v>118079</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -5018,34 +4983,26 @@
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>30006</v>
+        <v>20050</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>天使翅膀</v>
+        <v>粉毛怪</v>
       </c>
       <c r="C104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>334814</v>
+        <v>143389</v>
       </c>
       <c r="E104" s="1">
-        <v>3</v>
-      </c>
-      <c r="F104" s="1">
-        <v>12</v>
-      </c>
-      <c r="G104" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H104" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I104" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J104" s="1">
-        <v>334814</v>
+        <v>1</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="2">
+        <v>109839</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -5068,34 +5025,26 @@
     </row>
     <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>30007</v>
+        <v>20051</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>天使蜘蛛</v>
+        <v>索尼克</v>
       </c>
       <c r="C105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>192359</v>
+        <v>143387</v>
       </c>
       <c r="E105" s="1">
-        <v>3</v>
-      </c>
-      <c r="F105" s="1">
-        <v>20</v>
-      </c>
-      <c r="G105" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H105" s="1" t="str">
-        <v>0|0|-90</v>
-      </c>
-      <c r="I105" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J105" s="1">
-        <v>192359</v>
+        <v>1</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="2">
+        <v>117681</v>
       </c>
       <c r="K105" s="1" t="str">
         <v>0|0|0</v>
@@ -5118,134 +5067,118 @@
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>30008</v>
-      </c>
-      <c r="B106" s="1" t="str">
-        <v>狐狸尾巴</v>
-      </c>
-      <c r="C106" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B106" s="3" t="str">
+        <v>Rainbow friends</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>143385</v>
+      </c>
+      <c r="E106" s="3">
         <v>3</v>
       </c>
-      <c r="D106" s="1">
-        <v>226476</v>
-      </c>
-      <c r="E106" s="1">
-        <v>3</v>
-      </c>
-      <c r="F106" s="1">
-        <v>19</v>
-      </c>
-      <c r="G106" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H106" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I106" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J106" s="1">
-        <v>226476</v>
-      </c>
-      <c r="K106" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L106" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M106" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="14">
+        <v>119483</v>
+      </c>
+      <c r="K106" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L106" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M106" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
       <c r="P106" s="1">
         <v>1</v>
       </c>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>30009</v>
-      </c>
-      <c r="B107" s="1" t="str">
-        <v>狐狸耳朵</v>
-      </c>
-      <c r="C107" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B107" s="3" t="str">
+        <v>海神</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>226377</v>
+      </c>
+      <c r="E107" s="3">
         <v>3</v>
       </c>
-      <c r="D107" s="1">
-        <v>226479</v>
-      </c>
-      <c r="E107" s="1">
-        <v>3</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="H107" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I107" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="J107" s="1">
-        <v>226479</v>
-      </c>
-      <c r="K107" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L107" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M107" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
+        <v>226377</v>
+      </c>
+      <c r="K107" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L107" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M107" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
       <c r="P107" s="1">
         <v>1</v>
       </c>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>30010</v>
+        <v>30001</v>
       </c>
       <c r="B108" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>恶魔翅膀</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
       </c>
       <c r="D108" s="1">
-        <v>295506</v>
+        <v>223877</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
       <c r="F108" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H108" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I108" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="J108" s="1">
-        <v>295506</v>
+        <v>223877</v>
       </c>
       <c r="K108" s="1" t="str">
         <v>0|0|0</v>
@@ -5254,7 +5187,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M108" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -5268,34 +5201,34 @@
     </row>
     <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>30011</v>
+        <v>30002</v>
       </c>
       <c r="B109" s="1" t="str">
-        <v>闪电翅膀</v>
+        <v>恶魔角</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>42818</v>
+        <v>266332</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G109" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|5|10</v>
       </c>
       <c r="H109" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I109" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J109" s="1">
-        <v>42818</v>
+        <v>266332</v>
       </c>
       <c r="K109" s="1" t="str">
         <v>0|0|0</v>
@@ -5304,7 +5237,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M109" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -5318,25 +5251,25 @@
     </row>
     <row customHeight="true" ht="25" r="110">
       <c r="A110" s="1">
-        <v>30012</v>
+        <v>30003</v>
       </c>
       <c r="B110" s="1" t="str">
-        <v>眼镜</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
-        <v>324491</v>
+        <v>136179</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G110" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H110" s="1" t="str">
         <v>0|0|0</v>
@@ -5345,7 +5278,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J110" s="1">
-        <v>324491</v>
+        <v>136179</v>
       </c>
       <c r="K110" s="1" t="str">
         <v>0|0|0</v>
@@ -5368,34 +5301,34 @@
     </row>
     <row customHeight="true" ht="25" r="111">
       <c r="A111" s="1">
-        <v>30013</v>
+        <v>30004</v>
       </c>
       <c r="B111" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>292313</v>
+        <v>136506</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
       </c>
       <c r="F111" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H111" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I111" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J111" s="1">
-        <v>292313</v>
+        <v>136506</v>
       </c>
       <c r="K111" s="1" t="str">
         <v>0|0|0</v>
@@ -5404,7 +5337,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M111" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -5418,34 +5351,34 @@
     </row>
     <row customHeight="true" ht="25" r="112">
       <c r="A112" s="1">
-        <v>30014</v>
+        <v>30005</v>
       </c>
       <c r="B112" s="1" t="str">
-        <v>面纱</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>269783</v>
+        <v>192395</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>0|0|0</v>
       </c>
       <c r="H112" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I112" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="J112" s="1">
-        <v>269783</v>
+        <v>192395</v>
       </c>
       <c r="K112" s="1" t="str">
         <v>0|0|0</v>
@@ -5454,7 +5387,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M112" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -5466,36 +5399,36 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="25" r="113">
+    <row customHeight="true" ht="25" r="113">
       <c r="A113" s="1">
-        <v>30015</v>
+        <v>30006</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>226826</v>
+        <v>334814</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G113" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|0|0</v>
       </c>
       <c r="H113" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I113" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="J113" s="1">
-        <v>226826</v>
+        <v>334814</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5504,7 +5437,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M113" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -5518,34 +5451,34 @@
     </row>
     <row customHeight="true" ht="25" r="114">
       <c r="A114" s="1">
-        <v>30016</v>
+        <v>30007</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>318663</v>
+        <v>192359</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G114" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|0|0</v>
       </c>
       <c r="H114" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I114" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="J114" s="1">
-        <v>318663</v>
+        <v>192359</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5554,7 +5487,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M114" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|1|1</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -5568,34 +5501,34 @@
     </row>
     <row customHeight="true" ht="25" r="115">
       <c r="A115" s="1">
-        <v>30017</v>
+        <v>30008</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>152259</v>
+        <v>226476</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F115" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G115" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|0|0</v>
       </c>
       <c r="H115" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I115" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>152259</v>
+        <v>226476</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5618,34 +5551,34 @@
     </row>
     <row customHeight="true" ht="25" r="116">
       <c r="A116" s="1">
-        <v>30018</v>
+        <v>30009</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>龙</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>292574</v>
+        <v>226479</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G116" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|0|0</v>
       </c>
       <c r="H116" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I116" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J116" s="1">
-        <v>292574</v>
+        <v>226479</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5668,34 +5601,34 @@
     </row>
     <row customHeight="true" ht="25" r="117">
       <c r="A117" s="1">
-        <v>30019</v>
+        <v>30010</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>帝王龙</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>192533</v>
+        <v>295506</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
       </c>
       <c r="F117" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G117" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|0|0</v>
       </c>
       <c r="H117" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I117" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J117" s="1">
-        <v>192533</v>
+        <v>295506</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5718,34 +5651,34 @@
     </row>
     <row customHeight="true" ht="25" r="118">
       <c r="A118" s="1">
-        <v>30020</v>
+        <v>30011</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>地狱龙</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>192420</v>
+        <v>42818</v>
       </c>
       <c r="E118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G118" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|0|0</v>
       </c>
       <c r="H118" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I118" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J118" s="1">
-        <v>192420</v>
+        <v>42818</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5768,34 +5701,34 @@
     </row>
     <row customHeight="true" ht="25" r="119">
       <c r="A119" s="1">
-        <v>30021</v>
+        <v>30012</v>
       </c>
       <c r="B119" s="1" t="str">
-        <v>糖果龙</v>
+        <v>眼镜</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>191950</v>
+        <v>324491</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
       </c>
       <c r="F119" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G119" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H119" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I119" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J119" s="1">
-        <v>191950</v>
+        <v>324491</v>
       </c>
       <c r="K119" s="1" t="str">
         <v>0|0|0</v>
@@ -5818,34 +5751,34 @@
     </row>
     <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
-        <v>30022</v>
+        <v>30013</v>
       </c>
       <c r="B120" s="1" t="str">
-        <v>武士龙</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
-        <v>191852</v>
+        <v>292313</v>
       </c>
       <c r="E120" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G120" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H120" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I120" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J120" s="1">
-        <v>191852</v>
+        <v>292313</v>
       </c>
       <c r="K120" s="1" t="str">
         <v>0|0|0</v>
@@ -5854,7 +5787,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M120" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -5868,34 +5801,34 @@
     </row>
     <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
-        <v>30023</v>
+        <v>30014</v>
       </c>
       <c r="B121" s="1" t="str">
-        <v>水晶翅膀</v>
+        <v>面纱</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>375788</v>
+        <v>269783</v>
       </c>
       <c r="E121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H121" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I121" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J121" s="1">
-        <v>375788</v>
+        <v>269783</v>
       </c>
       <c r="K121" s="1" t="str">
         <v>0|0|0</v>
@@ -5904,7 +5837,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M121" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -5916,36 +5849,36 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="122">
+    <row customHeight="true" hidden="true" ht="25" r="122">
       <c r="A122" s="1">
-        <v>30024</v>
+        <v>30015</v>
       </c>
       <c r="B122" s="1" t="str">
-        <v>杀戮翅膀</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
-        <v>136966</v>
+        <v>226826</v>
       </c>
       <c r="E122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F122" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G122" s="1" t="str">
-        <v>0|0|0</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H122" s="1" t="str">
-        <v>0|0|180</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I122" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J122" s="1">
-        <v>136966</v>
+        <v>226826</v>
       </c>
       <c r="K122" s="1" t="str">
         <v>0|0|0</v>
@@ -5954,7 +5887,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M122" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -5968,34 +5901,34 @@
     </row>
     <row customHeight="true" ht="25" r="123">
       <c r="A123" s="1">
-        <v>30025</v>
+        <v>30016</v>
       </c>
       <c r="B123" s="1" t="str">
-        <v>地狱翅膀</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>145912</v>
+        <v>318663</v>
       </c>
       <c r="E123" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G123" s="1" t="str">
-        <v>0|0|0</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H123" s="1" t="str">
-        <v>0|0|90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I123" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J123" s="1">
-        <v>145912</v>
+        <v>318663</v>
       </c>
       <c r="K123" s="1" t="str">
         <v>0|0|0</v>
@@ -6004,7 +5937,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M123" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -6018,34 +5951,34 @@
     </row>
     <row customHeight="true" ht="25" r="124">
       <c r="A124" s="1">
-        <v>30026</v>
+        <v>30017</v>
       </c>
       <c r="B124" s="1" t="str">
-        <v>精灵翅膀</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>393543</v>
+        <v>152259</v>
       </c>
       <c r="E124" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F124" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G124" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H124" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I124" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J124" s="1">
-        <v>393543</v>
+        <v>152259</v>
       </c>
       <c r="K124" s="1" t="str">
         <v>0|0|0</v>
@@ -6068,34 +6001,34 @@
     </row>
     <row customHeight="true" ht="25" r="125">
       <c r="A125" s="1">
-        <v>30027</v>
+        <v>30018</v>
       </c>
       <c r="B125" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>龙</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>211667</v>
+        <v>292574</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
       </c>
       <c r="F125" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G125" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H125" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I125" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J125" s="1">
-        <v>211667</v>
+        <v>292574</v>
       </c>
       <c r="K125" s="1" t="str">
         <v>0|0|0</v>
@@ -6118,34 +6051,34 @@
     </row>
     <row customHeight="true" ht="25" r="126">
       <c r="A126" s="1">
-        <v>30028</v>
+        <v>30019</v>
       </c>
       <c r="B126" s="1" t="str">
-        <v>大剑</v>
+        <v>帝王龙</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
       </c>
       <c r="D126" s="1">
-        <v>186519</v>
+        <v>192533</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
       </c>
       <c r="F126" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H126" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I126" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J126" s="1">
-        <v>186519</v>
+        <v>192533</v>
       </c>
       <c r="K126" s="1" t="str">
         <v>0|0|0</v>
@@ -6168,34 +6101,34 @@
     </row>
     <row customHeight="true" ht="25" r="127">
       <c r="A127" s="1">
-        <v>30029</v>
+        <v>30020</v>
       </c>
       <c r="B127" s="1" t="str">
-        <v>天使剑</v>
+        <v>地狱龙</v>
       </c>
       <c r="C127" s="1">
         <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>20971</v>
+        <v>192420</v>
       </c>
       <c r="E127" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H127" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I127" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J127" s="1">
-        <v>20971</v>
+        <v>192420</v>
       </c>
       <c r="K127" s="1" t="str">
         <v>0|0|0</v>
@@ -6217,43 +6150,47 @@
       <c r="T127" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="128">
-      <c r="A128" s="10">
-        <v>40001</v>
-      </c>
-      <c r="B128" s="10" t="str">
-        <v>蛇女</v>
-      </c>
-      <c r="C128" s="10">
-        <v>4</v>
-      </c>
-      <c r="D128" s="10">
-        <v>328236</v>
-      </c>
-      <c r="E128" s="10">
+      <c r="A128" s="1">
+        <v>30021</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <v>糖果龙</v>
+      </c>
+      <c r="C128" s="1">
         <v>3</v>
       </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10">
-        <v>328236</v>
-      </c>
-      <c r="K128" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L128" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M128" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N128" s="12">
-        <v>318618</v>
-      </c>
-      <c r="O128" s="12">
-        <v>318617</v>
-      </c>
+      <c r="D128" s="1">
+        <v>191950</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3</v>
+      </c>
+      <c r="F128" s="1">
+        <v>21</v>
+      </c>
+      <c r="G128" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I128" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J128" s="1">
+        <v>191950</v>
+      </c>
+      <c r="K128" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M128" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
       <c r="P128" s="1">
         <v>1</v>
       </c>
@@ -6263,43 +6200,47 @@
       <c r="T128" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="129">
-      <c r="A129" s="10">
-        <v>40002</v>
-      </c>
-      <c r="B129" s="10" t="str">
-        <v>络新妇</v>
-      </c>
-      <c r="C129" s="10">
-        <v>4</v>
-      </c>
-      <c r="D129" s="10">
-        <v>338436</v>
-      </c>
-      <c r="E129" s="10">
+      <c r="A129" s="1">
+        <v>30022</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <v>武士龙</v>
+      </c>
+      <c r="C129" s="1">
         <v>3</v>
       </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10">
-        <v>338436</v>
-      </c>
-      <c r="K129" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L129" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M129" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N129" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O129" s="12">
-        <v>338467</v>
-      </c>
+      <c r="D129" s="1">
+        <v>191852</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>21</v>
+      </c>
+      <c r="G129" s="1" t="str">
+        <v>0|50|-80</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <v>0|0|-90</v>
+      </c>
+      <c r="I129" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J129" s="1">
+        <v>191852</v>
+      </c>
+      <c r="K129" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M129" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
       <c r="P129" s="1">
         <v>1</v>
       </c>
@@ -6309,43 +6250,47 @@
       <c r="T129" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="130">
-      <c r="A130" s="10">
-        <v>40003</v>
-      </c>
-      <c r="B130" s="10" t="str">
-        <v>大蜘蛛</v>
-      </c>
-      <c r="C130" s="10">
-        <v>4</v>
-      </c>
-      <c r="D130" s="10">
-        <v>328291</v>
-      </c>
-      <c r="E130" s="10">
+      <c r="A130" s="1">
+        <v>30023</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <v>水晶翅膀</v>
+      </c>
+      <c r="C130" s="1">
         <v>3</v>
       </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10">
-        <v>328291</v>
-      </c>
-      <c r="K130" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L130" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M130" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N130" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O130" s="12">
-        <v>336669</v>
-      </c>
+      <c r="D130" s="1">
+        <v>375788</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>12</v>
+      </c>
+      <c r="G130" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I130" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J130" s="1">
+        <v>375788</v>
+      </c>
+      <c r="K130" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L130" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M130" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
       <c r="P130" s="1">
         <v>1</v>
       </c>
@@ -6355,43 +6300,47 @@
       <c r="T130" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="131">
-      <c r="A131" s="10">
-        <v>40004</v>
-      </c>
-      <c r="B131" s="10" t="str">
-        <v>小型抱脸紫蜘蛛</v>
-      </c>
-      <c r="C131" s="10">
-        <v>4</v>
-      </c>
-      <c r="D131" s="10">
-        <v>340103</v>
-      </c>
-      <c r="E131" s="10">
+      <c r="A131" s="1">
+        <v>30024</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <v>杀戮翅膀</v>
+      </c>
+      <c r="C131" s="1">
         <v>3</v>
       </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10">
-        <v>340103</v>
-      </c>
-      <c r="K131" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L131" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M131" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N131" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O131" s="12">
-        <v>336669</v>
-      </c>
+      <c r="D131" s="1">
+        <v>136966</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2</v>
+      </c>
+      <c r="F131" s="1">
+        <v>12</v>
+      </c>
+      <c r="G131" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H131" s="1" t="str">
+        <v>0|0|180</v>
+      </c>
+      <c r="I131" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J131" s="1">
+        <v>136966</v>
+      </c>
+      <c r="K131" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L131" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M131" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
       <c r="P131" s="1">
         <v>1</v>
       </c>
@@ -6401,43 +6350,47 @@
       <c r="T131" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="132">
-      <c r="A132" s="10">
-        <v>40005</v>
-      </c>
-      <c r="B132" s="10" t="str">
-        <v>小型抱脸红蜘蛛</v>
-      </c>
-      <c r="C132" s="10">
-        <v>4</v>
-      </c>
-      <c r="D132" s="10">
-        <v>340104</v>
-      </c>
-      <c r="E132" s="10">
+      <c r="A132" s="1">
+        <v>30025</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <v>地狱翅膀</v>
+      </c>
+      <c r="C132" s="1">
         <v>3</v>
       </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10">
-        <v>340104</v>
-      </c>
-      <c r="K132" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L132" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M132" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N132" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O132" s="12">
-        <v>336669</v>
-      </c>
+      <c r="D132" s="1">
+        <v>145912</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H132" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I132" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J132" s="1">
+        <v>145912</v>
+      </c>
+      <c r="K132" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L132" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M132" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
       <c r="P132" s="1">
         <v>1</v>
       </c>
@@ -6447,43 +6400,47 @@
       <c r="T132" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="133">
-      <c r="A133" s="10">
-        <v>40006</v>
-      </c>
-      <c r="B133" s="10" t="str">
-        <v>小型抱脸绿蜘蛛</v>
-      </c>
-      <c r="C133" s="10">
-        <v>4</v>
-      </c>
-      <c r="D133" s="10">
-        <v>340105</v>
-      </c>
-      <c r="E133" s="10">
+      <c r="A133" s="1">
+        <v>30026</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <v>精灵翅膀</v>
+      </c>
+      <c r="C133" s="1">
         <v>3</v>
       </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10">
-        <v>340105</v>
-      </c>
-      <c r="K133" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L133" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M133" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N133" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O133" s="12">
-        <v>336669</v>
-      </c>
+      <c r="D133" s="1">
+        <v>393543</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+      <c r="F133" s="1">
+        <v>12</v>
+      </c>
+      <c r="G133" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I133" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J133" s="1">
+        <v>393543</v>
+      </c>
+      <c r="K133" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L133" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M133" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
       <c r="P133" s="1">
         <v>1</v>
       </c>
@@ -6493,43 +6450,47 @@
       <c r="T133" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="134">
-      <c r="A134" s="10">
-        <v>40007</v>
-      </c>
-      <c r="B134" s="10" t="str">
-        <v>小型抱脸蓝蜘蛛</v>
-      </c>
-      <c r="C134" s="10">
-        <v>4</v>
-      </c>
-      <c r="D134" s="10">
-        <v>340106</v>
-      </c>
-      <c r="E134" s="10">
+      <c r="A134" s="1">
+        <v>30027</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <v>火焰翅膀</v>
+      </c>
+      <c r="C134" s="1">
         <v>3</v>
       </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10">
-        <v>340106</v>
-      </c>
-      <c r="K134" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L134" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M134" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N134" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O134" s="12">
-        <v>336669</v>
-      </c>
+      <c r="D134" s="1">
+        <v>211667</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2</v>
+      </c>
+      <c r="F134" s="1">
+        <v>12</v>
+      </c>
+      <c r="G134" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="I134" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J134" s="1">
+        <v>211667</v>
+      </c>
+      <c r="K134" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M134" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
       <c r="P134" s="1">
         <v>1</v>
       </c>
@@ -6539,43 +6500,47 @@
       <c r="T134" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="135">
-      <c r="A135" s="10">
-        <v>40008</v>
-      </c>
-      <c r="B135" s="10" t="str">
-        <v>小龙</v>
-      </c>
-      <c r="C135" s="10">
-        <v>4</v>
-      </c>
-      <c r="D135" s="10">
-        <v>328246</v>
-      </c>
-      <c r="E135" s="10">
-        <v>1</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10">
-        <v>328246</v>
-      </c>
-      <c r="K135" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L135" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M135" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N135" s="11">
-        <v>160627</v>
-      </c>
-      <c r="O135" s="13">
-        <v>160628</v>
-      </c>
+      <c r="A135" s="1">
+        <v>30028</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <v>大剑</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1">
+        <v>186519</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3</v>
+      </c>
+      <c r="F135" s="1">
+        <v>12</v>
+      </c>
+      <c r="G135" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I135" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J135" s="1">
+        <v>186519</v>
+      </c>
+      <c r="K135" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L135" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M135" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
       <c r="P135" s="1">
         <v>1</v>
       </c>
@@ -6585,43 +6550,47 @@
       <c r="T135" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="136">
-      <c r="A136" s="10">
-        <v>40009</v>
-      </c>
-      <c r="B136" s="10" t="str">
-        <v>卡通木龙</v>
-      </c>
-      <c r="C136" s="10">
-        <v>4</v>
-      </c>
-      <c r="D136" s="10">
-        <v>328030</v>
-      </c>
-      <c r="E136" s="10">
-        <v>1</v>
-      </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10">
-        <v>328030</v>
-      </c>
-      <c r="K136" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L136" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M136" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N136" s="11">
-        <v>160627</v>
-      </c>
-      <c r="O136" s="13">
-        <v>160628</v>
-      </c>
+      <c r="A136" s="1">
+        <v>30029</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <v>天使剑</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20971</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>12</v>
+      </c>
+      <c r="G136" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H136" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I136" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J136" s="1">
+        <v>20971</v>
+      </c>
+      <c r="K136" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L136" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M136" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
       <c r="P136" s="1">
         <v>1</v>
       </c>
@@ -6631,42 +6600,42 @@
       <c r="T136" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="10">
-        <v>40010</v>
-      </c>
-      <c r="B137" s="10" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C137" s="10">
+      <c r="A137" s="6">
+        <v>40001</v>
+      </c>
+      <c r="B137" s="6" t="str">
+        <v>蛇女</v>
+      </c>
+      <c r="C137" s="6">
         <v>4</v>
       </c>
-      <c r="D137" s="10">
-        <v>328093</v>
-      </c>
-      <c r="E137" s="10">
-        <v>1</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10">
-        <v>328093</v>
-      </c>
-      <c r="K137" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L137" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M137" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N137" s="11">
-        <v>160627</v>
-      </c>
-      <c r="O137" s="13">
-        <v>160628</v>
+      <c r="D137" s="6">
+        <v>328236</v>
+      </c>
+      <c r="E137" s="6">
+        <v>3</v>
+      </c>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6">
+        <v>328236</v>
+      </c>
+      <c r="K137" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L137" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M137" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N137" s="8">
+        <v>318618</v>
+      </c>
+      <c r="O137" s="8">
+        <v>318617</v>
       </c>
       <c r="P137" s="1">
         <v>1</v>
@@ -6677,42 +6646,42 @@
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="10">
-        <v>40011</v>
-      </c>
-      <c r="B138" s="10" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C138" s="10">
+      <c r="A138" s="6">
+        <v>40002</v>
+      </c>
+      <c r="B138" s="6" t="str">
+        <v>络新妇</v>
+      </c>
+      <c r="C138" s="6">
         <v>4</v>
       </c>
-      <c r="D138" s="10">
-        <v>328083</v>
-      </c>
-      <c r="E138" s="10">
-        <v>1</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10">
-        <v>328083</v>
-      </c>
-      <c r="K138" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L138" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M138" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N138" s="11">
-        <v>160627</v>
-      </c>
-      <c r="O138" s="13">
-        <v>160628</v>
+      <c r="D138" s="6">
+        <v>338436</v>
+      </c>
+      <c r="E138" s="6">
+        <v>3</v>
+      </c>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6">
+        <v>338436</v>
+      </c>
+      <c r="K138" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N138" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O138" s="8">
+        <v>338467</v>
       </c>
       <c r="P138" s="1">
         <v>1</v>
@@ -6723,42 +6692,42 @@
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="10">
-        <v>40012</v>
-      </c>
-      <c r="B139" s="10" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C139" s="10">
+      <c r="A139" s="6">
+        <v>40003</v>
+      </c>
+      <c r="B139" s="6" t="str">
+        <v>大蜘蛛</v>
+      </c>
+      <c r="C139" s="6">
         <v>4</v>
       </c>
-      <c r="D139" s="10">
-        <v>328088</v>
-      </c>
-      <c r="E139" s="10">
-        <v>1</v>
-      </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10">
-        <v>328088</v>
-      </c>
-      <c r="K139" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L139" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M139" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N139" s="11">
-        <v>160627</v>
-      </c>
-      <c r="O139" s="13">
-        <v>160628</v>
+      <c r="D139" s="6">
+        <v>328291</v>
+      </c>
+      <c r="E139" s="6">
+        <v>3</v>
+      </c>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6">
+        <v>328291</v>
+      </c>
+      <c r="K139" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N139" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O139" s="8">
+        <v>336669</v>
       </c>
       <c r="P139" s="1">
         <v>1</v>
@@ -6769,39 +6738,43 @@
       <c r="T139" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="1">
-        <v>20054</v>
-      </c>
-      <c r="B140" s="1" t="str">
-        <v>奥特之神</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1">
-        <v>162938</v>
-      </c>
-      <c r="E140" s="1">
+      <c r="A140" s="6">
+        <v>40004</v>
+      </c>
+      <c r="B140" s="6" t="str">
+        <v>小型抱脸紫蜘蛛</v>
+      </c>
+      <c r="C140" s="6">
+        <v>4</v>
+      </c>
+      <c r="D140" s="6">
+        <v>340103</v>
+      </c>
+      <c r="E140" s="6">
         <v>3</v>
       </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1">
-        <v>162938</v>
-      </c>
-      <c r="K140" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L140" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M140" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6">
+        <v>340103</v>
+      </c>
+      <c r="K140" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N140" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O140" s="8">
+        <v>336669</v>
+      </c>
       <c r="P140" s="1">
         <v>1</v>
       </c>
@@ -6811,41 +6784,45 @@
       <c r="T140" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="1">
-        <v>20055</v>
-      </c>
-      <c r="B141" s="1" t="str">
-        <v>小舞姐</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2</v>
-      </c>
-      <c r="D141" s="1">
-        <v>398484</v>
-      </c>
-      <c r="E141" s="1">
+      <c r="A141" s="6">
+        <v>40005</v>
+      </c>
+      <c r="B141" s="6" t="str">
+        <v>小型抱脸红蜘蛛</v>
+      </c>
+      <c r="C141" s="6">
+        <v>4</v>
+      </c>
+      <c r="D141" s="6">
+        <v>340104</v>
+      </c>
+      <c r="E141" s="6">
         <v>3</v>
       </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1">
-        <v>398484</v>
-      </c>
-      <c r="K141" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L141" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M141" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6">
+        <v>340104</v>
+      </c>
+      <c r="K141" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L141" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M141" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N141" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O141" s="8">
+        <v>336669</v>
+      </c>
       <c r="P141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -6853,41 +6830,45 @@
       <c r="T141" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="142">
-      <c r="A142" s="1">
-        <v>20056</v>
-      </c>
-      <c r="B142" s="1" t="str">
-        <v>制服女孩</v>
-      </c>
-      <c r="C142" s="1">
-        <v>2</v>
-      </c>
-      <c r="D142" s="1">
-        <v>367076</v>
-      </c>
-      <c r="E142" s="1">
+      <c r="A142" s="6">
+        <v>40006</v>
+      </c>
+      <c r="B142" s="6" t="str">
+        <v>小型抱脸绿蜘蛛</v>
+      </c>
+      <c r="C142" s="6">
+        <v>4</v>
+      </c>
+      <c r="D142" s="6">
+        <v>340105</v>
+      </c>
+      <c r="E142" s="6">
         <v>3</v>
       </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1">
-        <v>367076</v>
-      </c>
-      <c r="K142" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L142" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M142" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6">
+        <v>340105</v>
+      </c>
+      <c r="K142" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L142" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M142" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N142" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O142" s="8">
+        <v>336669</v>
+      </c>
       <c r="P142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -6895,41 +6876,45 @@
       <c r="T142" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="143">
-      <c r="A143" s="1">
-        <v>20057</v>
-      </c>
-      <c r="B143" s="1" t="str">
-        <v>唐三</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2</v>
-      </c>
-      <c r="D143" s="1">
-        <v>343523</v>
-      </c>
-      <c r="E143" s="1">
+      <c r="A143" s="6">
+        <v>40007</v>
+      </c>
+      <c r="B143" s="6" t="str">
+        <v>小型抱脸蓝蜘蛛</v>
+      </c>
+      <c r="C143" s="6">
+        <v>4</v>
+      </c>
+      <c r="D143" s="6">
+        <v>340106</v>
+      </c>
+      <c r="E143" s="6">
         <v>3</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1">
-        <v>343523</v>
-      </c>
-      <c r="K143" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L143" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M143" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6">
+        <v>340106</v>
+      </c>
+      <c r="K143" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L143" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M143" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N143" s="7">
+        <v>336668</v>
+      </c>
+      <c r="O143" s="8">
+        <v>336669</v>
+      </c>
       <c r="P143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -6937,41 +6922,45 @@
       <c r="T143" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="144">
-      <c r="A144" s="1">
-        <v>10041</v>
-      </c>
-      <c r="B144" s="1" t="str">
-        <v>金箍棒(粉)</v>
-      </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
-      <c r="D144" s="1">
-        <v>209508</v>
-      </c>
-      <c r="E144" s="1">
-        <v>3</v>
-      </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1">
-        <v>209508</v>
-      </c>
-      <c r="K144" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L144" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M144" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
+      <c r="A144" s="6">
+        <v>40008</v>
+      </c>
+      <c r="B144" s="6" t="str">
+        <v>小龙</v>
+      </c>
+      <c r="C144" s="6">
+        <v>4</v>
+      </c>
+      <c r="D144" s="6">
+        <v>328246</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6">
+        <v>328246</v>
+      </c>
+      <c r="K144" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L144" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M144" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N144" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O144" s="9">
+        <v>160628</v>
+      </c>
       <c r="P144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
@@ -6979,41 +6968,45 @@
       <c r="T144" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="145">
-      <c r="A145" s="1">
-        <v>10042</v>
-      </c>
-      <c r="B145" s="1" t="str">
-        <v>金箍棒(紫)</v>
-      </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-      <c r="D145" s="1">
-        <v>313464</v>
-      </c>
-      <c r="E145" s="1">
-        <v>3</v>
-      </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1">
-        <v>313464</v>
-      </c>
-      <c r="K145" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L145" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M145" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
+      <c r="A145" s="6">
+        <v>40009</v>
+      </c>
+      <c r="B145" s="6" t="str">
+        <v>卡通木龙</v>
+      </c>
+      <c r="C145" s="6">
+        <v>4</v>
+      </c>
+      <c r="D145" s="6">
+        <v>328030</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6">
+        <v>328030</v>
+      </c>
+      <c r="K145" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L145" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M145" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N145" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O145" s="9">
+        <v>160628</v>
+      </c>
       <c r="P145" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
@@ -7021,37 +7014,45 @@
       <c r="T145" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="146">
-      <c r="A146" s="1">
-        <v>10043</v>
-      </c>
-      <c r="B146" s="15" t="str">
-        <v>昊天锤</v>
-      </c>
-      <c r="C146" s="1">
-        <v>1</v>
-      </c>
-      <c r="D146" s="15">
-        <v>318640</v>
-      </c>
-      <c r="E146" s="1">
-        <v>3</v>
-      </c>
-      <c r="J146" s="15">
-        <v>318640</v>
-      </c>
-      <c r="K146" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L146" s="10" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M146" s="10" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
+      <c r="A146" s="6">
+        <v>40010</v>
+      </c>
+      <c r="B146" s="6" t="str">
+        <v>红龙</v>
+      </c>
+      <c r="C146" s="6">
+        <v>4</v>
+      </c>
+      <c r="D146" s="6">
+        <v>328093</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6">
+        <v>328093</v>
+      </c>
+      <c r="K146" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L146" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M146" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N146" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O146" s="9">
+        <v>160628</v>
+      </c>
       <c r="P146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
@@ -7059,30 +7060,134 @@
       <c r="T146" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="147">
-      <c r="A147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
+      <c r="A147" s="6">
+        <v>40011</v>
+      </c>
+      <c r="B147" s="6" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C147" s="6">
+        <v>4</v>
+      </c>
+      <c r="D147" s="6">
+        <v>328083</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1</v>
+      </c>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6">
+        <v>328083</v>
+      </c>
+      <c r="K147" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L147" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M147" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N147" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O147" s="9">
+        <v>160628</v>
+      </c>
+      <c r="P147" s="1">
+        <v>1</v>
+      </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="148">
-      <c r="A148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="A148" s="6">
+        <v>40012</v>
+      </c>
+      <c r="B148" s="6" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C148" s="6">
+        <v>4</v>
+      </c>
+      <c r="D148" s="6">
+        <v>328088</v>
+      </c>
+      <c r="E148" s="6">
+        <v>1</v>
+      </c>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6">
+        <v>328088</v>
+      </c>
+      <c r="K148" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L148" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M148" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N148" s="7">
+        <v>160627</v>
+      </c>
+      <c r="O148" s="9">
+        <v>160628</v>
+      </c>
+      <c r="P148" s="1">
+        <v>1</v>
+      </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="149">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <v>奥特之神</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <v>162938</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1">
+        <v>162938</v>
+      </c>
+      <c r="K149" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L149" s="6" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M149" s="6" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="P149" s="1">
+        <v>1</v>
+      </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -65,7 +65,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,14 +99,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,21 +121,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF270561"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,20 +150,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,13 +301,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -316,34 +316,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +732,10 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="2" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="2" t="str">
         <v>string</v>
       </c>
       <c r="P1" s="1" t="str">
@@ -786,10 +786,10 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="7" t="str">
+      <c r="N2" s="11" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="2" t="str">
         <v>Move</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -826,7 +826,8 @@
       <c r="P3" s="1" t="str">
         <v>1：普通
 2：新手礼包
-3：抽奖</v>
+3：抽奖
+4：完成新手引导就送</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -904,13 +905,13 @@
       <c r="J6" s="1">
         <v>209508</v>
       </c>
-      <c r="K6" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L6" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M6" s="6" t="str">
+      <c r="K6" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N6" s="1"/>
@@ -946,13 +947,13 @@
       <c r="J7" s="1">
         <v>313464</v>
       </c>
-      <c r="K7" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M7" s="6" t="str">
+      <c r="K7" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M7" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N7" s="1"/>
@@ -969,28 +970,28 @@
       <c r="A8" s="1">
         <v>10043</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="15" t="str">
         <v>昊天锤</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>318640</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>318640</v>
       </c>
-      <c r="K8" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M8" s="6" t="str">
+      <c r="K8" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N8" s="1"/>
@@ -1007,23 +1008,23 @@
       <c r="A9" s="1">
         <v>10001</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="5" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>134222</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="11">
+      <c r="J9" s="6">
         <v>134222</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -1049,23 +1050,23 @@
       <c r="A10" s="1">
         <v>10002</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="5" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>122953</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="11">
+      <c r="J10" s="6">
         <v>122953</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1091,23 +1092,23 @@
       <c r="A11" s="1">
         <v>10003</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="5" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>118146</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="11">
+      <c r="J11" s="6">
         <v>118146</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1139,7 +1140,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>152954</v>
       </c>
       <c r="E12" s="1">
@@ -1149,7 +1150,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="11">
+      <c r="J12" s="6">
         <v>152954</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1181,7 +1182,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>118143</v>
       </c>
       <c r="E13" s="1">
@@ -1191,7 +1192,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="11">
+      <c r="J13" s="6">
         <v>118143</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1223,7 +1224,7 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>122960</v>
       </c>
       <c r="E14" s="1">
@@ -1233,7 +1234,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="11">
+      <c r="J14" s="6">
         <v>122960</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1265,7 +1266,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <v>33861</v>
       </c>
       <c r="E15" s="1">
@@ -1275,7 +1276,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="11">
+      <c r="J15" s="6">
         <v>33861</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1343,7 +1344,7 @@
       <c r="A17" s="1">
         <v>10009</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="7" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C17" s="1">
@@ -1355,7 +1356,7 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1385,7 +1386,7 @@
       <c r="A18" s="1">
         <v>10010</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="7" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C18" s="1">
@@ -1397,7 +1398,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1427,7 +1428,7 @@
       <c r="A19" s="1">
         <v>10011</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="7" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1439,7 +1440,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1469,7 +1470,7 @@
       <c r="A20" s="1">
         <v>10012</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="7" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1481,7 +1482,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1511,19 +1512,19 @@
       <c r="A21" s="1">
         <v>10013</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="12" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="12">
         <v>103080</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1553,7 +1554,7 @@
       <c r="A22" s="1">
         <v>10014</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="7" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C22" s="1">
@@ -1565,7 +1566,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1595,7 +1596,7 @@
       <c r="A23" s="1">
         <v>10015</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="7" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1607,7 +1608,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1637,7 +1638,7 @@
       <c r="A24" s="1">
         <v>10016</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="7" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C24" s="1">
@@ -1649,7 +1650,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1679,7 +1680,7 @@
       <c r="A25" s="1">
         <v>10017</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="12" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C25" s="1">
@@ -1691,7 +1692,7 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1721,7 +1722,7 @@
       <c r="A26" s="1">
         <v>10018</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="7" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C26" s="1">
@@ -1733,7 +1734,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2141,7 +2142,7 @@
       <c r="A36" s="1">
         <v>10028</v>
       </c>
-      <c r="B36" s="15" t="str" xml:space="preserve">
+      <c r="B36" s="14" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C36" s="1">
@@ -2153,7 +2154,7 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2183,7 +2184,7 @@
       <c r="A37" s="1">
         <v>10029</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="14" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C37" s="1">
@@ -2195,7 +2196,7 @@
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2225,7 +2226,7 @@
       <c r="A38" s="1">
         <v>10030</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="8" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C38" s="1">
@@ -2237,7 +2238,7 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2267,7 +2268,7 @@
       <c r="A39" s="1">
         <v>10031</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="8" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C39" s="1">
@@ -2279,7 +2280,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2309,7 +2310,7 @@
       <c r="A40" s="1">
         <v>10032</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="8" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C40" s="1">
@@ -2321,7 +2322,7 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2351,7 +2352,7 @@
       <c r="A41" s="1">
         <v>10033</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="8" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2363,7 +2364,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2393,7 +2394,7 @@
       <c r="A42" s="1">
         <v>10034</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="7" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C42" s="1">
@@ -2405,7 +2406,7 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2435,7 +2436,7 @@
       <c r="A43" s="1">
         <v>10035</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="7" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2447,7 +2448,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2477,7 +2478,7 @@
       <c r="A44" s="1">
         <v>10036</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="7" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2489,7 +2490,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2519,23 +2520,23 @@
       <c r="A45" s="1">
         <v>10037</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="7" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="6">
         <v>297029</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="11">
+      <c r="J45" s="6">
         <v>297029</v>
       </c>
       <c r="K45" s="1" t="str">
@@ -2561,7 +2562,7 @@
       <c r="A46" s="1">
         <v>10038</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="7" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C46" s="1">
@@ -2573,7 +2574,7 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2603,7 +2604,7 @@
       <c r="A47" s="1">
         <v>10039</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="8" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C47" s="1">
@@ -2615,7 +2616,7 @@
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2645,7 +2646,7 @@
       <c r="A48" s="1">
         <v>10040</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B48" s="8" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C48" s="1">
@@ -2657,7 +2658,7 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2685,7 +2686,7 @@
     </row>
     <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
-        <v>20055</v>
+        <v>20061</v>
       </c>
       <c r="B49" s="1" t="str">
         <v>小舞姐</v>
@@ -2694,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>398484</v>
+        <v>163292</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -2704,21 +2705,21 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>398484</v>
-      </c>
-      <c r="K49" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L49" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M49" s="6" t="str">
+        <v>163292</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M49" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2727,16 +2728,16 @@
     </row>
     <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
-        <v>20056</v>
+        <v>20055</v>
       </c>
       <c r="B50" s="1" t="str">
-        <v>制服女孩</v>
+        <v>蓝银皇</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>367076</v>
+        <v>398484</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -2746,15 +2747,15 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>367076</v>
-      </c>
-      <c r="K50" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L50" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M50" s="6" t="str">
+        <v>398484</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M50" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N50" s="1"/>
@@ -2769,16 +2770,16 @@
     </row>
     <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
-        <v>20057</v>
+        <v>20056</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>唐三</v>
+        <v>制服女孩</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>343523</v>
+        <v>367076</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -2788,15 +2789,15 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>343523</v>
-      </c>
-      <c r="K51" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L51" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M51" s="6" t="str">
+        <v>367076</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M51" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N51" s="1"/>
@@ -2811,36 +2812,40 @@
     </row>
     <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
-        <v>20058</v>
-      </c>
-      <c r="B52" t="str">
-        <v>神级魔王</v>
-      </c>
-      <c r="C52" s="13">
+        <v>20057</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <v>唐三</v>
+      </c>
+      <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>141499</v>
-      </c>
-      <c r="E52" s="13">
+      <c r="D52" s="1">
+        <v>343523</v>
+      </c>
+      <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="J52">
-        <v>141499</v>
-      </c>
-      <c r="K52" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L52" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M52" s="6" t="str">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1">
+        <v>343523</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M52" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2849,30 +2854,30 @@
     </row>
     <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
-        <v>20059</v>
+        <v>20058</v>
       </c>
       <c r="B53" t="str">
-        <v>四代火影</v>
-      </c>
-      <c r="C53" s="13">
+        <v>神级魔王</v>
+      </c>
+      <c r="C53" s="9">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>142921</v>
-      </c>
-      <c r="E53" s="13">
+        <v>141499</v>
+      </c>
+      <c r="E53" s="9">
         <v>3</v>
       </c>
       <c r="J53">
-        <v>142921</v>
-      </c>
-      <c r="K53" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L53" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M53" s="6" t="str">
+        <v>141499</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L53" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M53" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N53" s="1"/>
@@ -2887,30 +2892,30 @@
     </row>
     <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
-        <v>20060</v>
+        <v>20059</v>
       </c>
       <c r="B54" t="str">
-        <v>美杜莎女王</v>
-      </c>
-      <c r="C54" s="13">
+        <v>四代火影</v>
+      </c>
+      <c r="C54" s="9">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>163289</v>
-      </c>
-      <c r="E54" s="13">
+        <v>142921</v>
+      </c>
+      <c r="E54" s="9">
         <v>3</v>
       </c>
       <c r="J54">
-        <v>163289</v>
-      </c>
-      <c r="K54" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L54" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M54" s="6" t="str">
+        <v>142921</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M54" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N54" s="1"/>
@@ -2925,40 +2930,36 @@
     </row>
     <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>狐耳少女</v>
-      </c>
-      <c r="C55" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B55" t="str">
+        <v>美杜莎女王</v>
+      </c>
+      <c r="C55" s="9">
         <v>2</v>
       </c>
-      <c r="D55" s="3">
-        <v>361906</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55">
+        <v>163289</v>
+      </c>
+      <c r="E55" s="9">
         <v>3</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2">
-        <v>65710</v>
-      </c>
-      <c r="K55" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L55" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M55" s="1" t="str">
+      <c r="J55">
+        <v>163289</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M55" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2967,16 +2968,16 @@
     </row>
     <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B56" s="1" t="str">
-        <v>邪恶使者</v>
+        <v>狐耳少女</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>357571</v>
+        <v>361906</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -2985,8 +2986,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="2">
-        <v>64995</v>
+      <c r="J56" s="4">
+        <v>65710</v>
       </c>
       <c r="K56" s="1" t="str">
         <v>0|0|0</v>
@@ -3009,26 +3010,26 @@
     </row>
     <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B57" s="1" t="str">
-        <v>长款大衣女</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="3">
-        <v>357567</v>
+        <v>357571</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="2">
-        <v>142606</v>
+      <c r="J57" s="4">
+        <v>64995</v>
       </c>
       <c r="K57" s="1" t="str">
         <v>0|0|0</v>
@@ -3051,26 +3052,26 @@
     </row>
     <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B58" s="1" t="str">
-        <v>海绵宝宝</v>
+        <v>长款大衣女</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="3">
-        <v>357566</v>
+        <v>357567</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="2">
-        <v>63711</v>
+      <c r="J58" s="4">
+        <v>142606</v>
       </c>
       <c r="K58" s="1" t="str">
         <v>0|0|0</v>
@@ -3093,16 +3094,16 @@
     </row>
     <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B59" s="1" t="str">
-        <v>钢铁侠</v>
+        <v>海绵宝宝</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="D59" s="3">
-        <v>357563</v>
+        <v>357566</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -3111,8 +3112,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="2">
-        <v>94782</v>
+      <c r="J59" s="4">
+        <v>63711</v>
       </c>
       <c r="K59" s="1" t="str">
         <v>0|0|0</v>
@@ -3135,16 +3136,16 @@
     </row>
     <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="B60" s="1" t="str">
-        <v>灭霸</v>
+        <v>钢铁侠</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="3">
-        <v>357556</v>
+        <v>357563</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -3153,8 +3154,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="2">
-        <v>112568</v>
+      <c r="J60" s="4">
+        <v>94782</v>
       </c>
       <c r="K60" s="1" t="str">
         <v>0|0|0</v>
@@ -3177,16 +3178,16 @@
     </row>
     <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="B61" s="1" t="str">
-        <v>刺猬小子</v>
+        <v>灭霸</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
       <c r="D61" s="3">
-        <v>357555</v>
+        <v>357556</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3195,8 +3196,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="2">
-        <v>117681</v>
+      <c r="J61" s="4">
+        <v>112568</v>
       </c>
       <c r="K61" s="1" t="str">
         <v>0|0|0</v>
@@ -3219,16 +3220,16 @@
     </row>
     <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B62" s="1" t="str">
-        <v>邪恶使者</v>
+        <v>刺猬小子</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62" s="3">
-        <v>351891</v>
+        <v>357555</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -3237,8 +3238,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="2">
-        <v>64995</v>
+      <c r="J62" s="4">
+        <v>117681</v>
       </c>
       <c r="K62" s="1" t="str">
         <v>0|0|0</v>
@@ -3261,16 +3262,16 @@
     </row>
     <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B63" s="1" t="str">
-        <v>蓝衣男</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="4">
-        <v>351680</v>
+      <c r="D63" s="3">
+        <v>351891</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -3279,8 +3280,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="2">
-        <v>127800</v>
+      <c r="J63" s="4">
+        <v>64995</v>
       </c>
       <c r="K63" s="1" t="str">
         <v>0|0|0</v>
@@ -3303,16 +3304,16 @@
     </row>
     <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B64" s="1" t="str">
-        <v>黑衣男</v>
+        <v>蓝衣男</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
-        <v>351598</v>
+      <c r="D64" s="12">
+        <v>351680</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -3321,8 +3322,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="2">
-        <v>224168</v>
+      <c r="J64" s="4">
+        <v>127800</v>
       </c>
       <c r="K64" s="1" t="str">
         <v>0|0|0</v>
@@ -3345,16 +3346,16 @@
     </row>
     <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B65" s="1" t="str">
-        <v>毁灭战士</v>
+        <v>黑衣男</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="4">
-        <v>351597</v>
+      <c r="D65" s="12">
+        <v>351598</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -3363,8 +3364,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="2">
-        <v>94782</v>
+      <c r="J65" s="4">
+        <v>224168</v>
       </c>
       <c r="K65" s="1" t="str">
         <v>0|0|0</v>
@@ -3387,26 +3388,26 @@
     </row>
     <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="B66" s="1" t="str">
-        <v>雷神</v>
+        <v>毁灭战士</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="4">
-        <v>357570</v>
+      <c r="D66" s="12">
+        <v>351597</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="2">
-        <v>111768</v>
+      <c r="J66" s="4">
+        <v>94782</v>
       </c>
       <c r="K66" s="1" t="str">
         <v>0|0|0</v>
@@ -3429,16 +3430,16 @@
     </row>
     <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
-        <v>20013</v>
+        <v>20012</v>
       </c>
       <c r="B67" s="1" t="str">
-        <v>黑寡妇</v>
+        <v>雷神</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="4">
-        <v>357568</v>
+      <c r="D67" s="12">
+        <v>357570</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3447,8 +3448,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="2">
-        <v>111240</v>
+      <c r="J67" s="4">
+        <v>111768</v>
       </c>
       <c r="K67" s="1" t="str">
         <v>0|0|0</v>
@@ -3471,16 +3472,16 @@
     </row>
     <row customHeight="true" ht="25" r="68">
       <c r="A68" s="1">
-        <v>20014</v>
+        <v>20013</v>
       </c>
       <c r="B68" s="1" t="str">
-        <v>可爱女</v>
+        <v>黑寡妇</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="4">
-        <v>351500</v>
+      <c r="D68" s="12">
+        <v>357568</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -3489,8 +3490,8 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="2">
-        <v>269652</v>
+      <c r="J68" s="4">
+        <v>111240</v>
       </c>
       <c r="K68" s="1" t="str">
         <v>0|0|0</v>
@@ -3513,16 +3514,16 @@
     </row>
     <row customHeight="true" ht="25" r="69">
       <c r="A69" s="1">
-        <v>20015</v>
+        <v>20014</v>
       </c>
       <c r="B69" s="1" t="str">
-        <v>丸子头女</v>
+        <v>可爱女</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="4">
-        <v>351497</v>
+      <c r="D69" s="12">
+        <v>351500</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3531,8 +3532,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="2">
-        <v>60981</v>
+      <c r="J69" s="4">
+        <v>269652</v>
       </c>
       <c r="K69" s="1" t="str">
         <v>0|0|0</v>
@@ -3555,26 +3556,26 @@
     </row>
     <row customHeight="true" ht="25" r="70">
       <c r="A70" s="1">
-        <v>20016</v>
+        <v>20015</v>
       </c>
       <c r="B70" s="1" t="str">
-        <v>西方神女</v>
+        <v>丸子头女</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="4">
-        <v>351405</v>
+      <c r="D70" s="12">
+        <v>351497</v>
       </c>
       <c r="E70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="2">
-        <v>64410</v>
+      <c r="J70" s="4">
+        <v>60981</v>
       </c>
       <c r="K70" s="1" t="str">
         <v>0|0|0</v>
@@ -3597,16 +3598,16 @@
     </row>
     <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
-        <v>20017</v>
+        <v>20016</v>
       </c>
       <c r="B71" s="1" t="str">
-        <v>黑裙少女</v>
+        <v>西方神女</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="4">
-        <v>351404</v>
+      <c r="D71" s="12">
+        <v>351405</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
@@ -3615,8 +3616,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="2">
-        <v>128834</v>
+      <c r="J71" s="4">
+        <v>64410</v>
       </c>
       <c r="K71" s="1" t="str">
         <v>0|0|0</v>
@@ -3639,26 +3640,26 @@
     </row>
     <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
-        <v>20018</v>
+        <v>20017</v>
       </c>
       <c r="B72" s="1" t="str">
-        <v>短发女</v>
+        <v>黑裙少女</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="4">
-        <v>351026</v>
+      <c r="D72" s="12">
+        <v>351404</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="2">
-        <v>115849</v>
+      <c r="J72" s="4">
+        <v>128834</v>
       </c>
       <c r="K72" s="1" t="str">
         <v>0|0|0</v>
@@ -3681,16 +3682,16 @@
     </row>
     <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
-        <v>20019</v>
+        <v>20018</v>
       </c>
       <c r="B73" s="1" t="str">
-        <v>旗袍女</v>
+        <v>短发女</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="4">
-        <v>351025</v>
+      <c r="D73" s="12">
+        <v>351026</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
@@ -3699,8 +3700,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="2">
-        <v>299082</v>
+      <c r="J73" s="4">
+        <v>115849</v>
       </c>
       <c r="K73" s="1" t="str">
         <v>0|0|0</v>
@@ -3723,26 +3724,26 @@
     </row>
     <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
-        <v>20020</v>
+        <v>20019</v>
       </c>
       <c r="B74" s="1" t="str">
-        <v>披风男</v>
+        <v>旗袍女</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="4">
-        <v>351024</v>
+      <c r="D74" s="12">
+        <v>351025</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="2">
-        <v>96576</v>
+      <c r="J74" s="4">
+        <v>299082</v>
       </c>
       <c r="K74" s="1" t="str">
         <v>0|0|0</v>
@@ -3765,16 +3766,16 @@
     </row>
     <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
-        <v>20021</v>
+        <v>20020</v>
       </c>
       <c r="B75" s="1" t="str">
-        <v>长发女</v>
+        <v>披风男</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="4">
-        <v>351004</v>
+      <c r="D75" s="12">
+        <v>351024</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3783,8 +3784,8 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="2">
-        <v>63291</v>
+      <c r="J75" s="4">
+        <v>96576</v>
       </c>
       <c r="K75" s="1" t="str">
         <v>0|0|0</v>
@@ -3807,16 +3808,16 @@
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>20022</v>
+        <v>20021</v>
       </c>
       <c r="B76" s="1" t="str">
-        <v>双马尾女</v>
+        <v>长发女</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="4">
-        <v>350987</v>
+      <c r="D76" s="12">
+        <v>351004</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3825,8 +3826,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="2">
-        <v>59857</v>
+      <c r="J76" s="4">
+        <v>63291</v>
       </c>
       <c r="K76" s="1" t="str">
         <v>0|0|0</v>
@@ -3849,16 +3850,16 @@
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>20023</v>
+        <v>20022</v>
       </c>
       <c r="B77" s="1" t="str">
-        <v>长发短裙女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="3">
-        <v>350973</v>
+      <c r="D77" s="12">
+        <v>350987</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3867,8 +3868,8 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="2">
-        <v>63648</v>
+      <c r="J77" s="4">
+        <v>59857</v>
       </c>
       <c r="K77" s="1" t="str">
         <v>0|0|0</v>
@@ -3891,26 +3892,26 @@
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>20024</v>
+        <v>20023</v>
       </c>
       <c r="B78" s="1" t="str">
-        <v>双马尾女</v>
+        <v>长发短裙女</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
       <c r="D78" s="3">
-        <v>350959</v>
+        <v>350973</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="2">
-        <v>248351</v>
+      <c r="J78" s="4">
+        <v>63648</v>
       </c>
       <c r="K78" s="1" t="str">
         <v>0|0|0</v>
@@ -3933,7 +3934,7 @@
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>20025</v>
+        <v>20024</v>
       </c>
       <c r="B79" s="1" t="str">
         <v>双马尾女</v>
@@ -3942,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="3">
-        <v>350958</v>
+        <v>350959</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -3951,8 +3952,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="2">
-        <v>64774</v>
+      <c r="J79" s="4">
+        <v>248351</v>
       </c>
       <c r="K79" s="1" t="str">
         <v>0|0|0</v>
@@ -3975,26 +3976,26 @@
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>20026</v>
+        <v>20025</v>
       </c>
       <c r="B80" s="1" t="str">
-        <v>百褶裙女孩</v>
+        <v>双马尾女</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>350756</v>
+        <v>350958</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="2">
-        <v>63291</v>
+      <c r="J80" s="4">
+        <v>64774</v>
       </c>
       <c r="K80" s="1" t="str">
         <v>0|0|0</v>
@@ -4017,26 +4018,26 @@
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>20027</v>
+        <v>20026</v>
       </c>
       <c r="B81" s="1" t="str">
-        <v>短发时尚女</v>
+        <v>百褶裙女孩</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
       <c r="D81" s="3">
-        <v>350752</v>
+        <v>350756</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="2">
-        <v>111241</v>
+      <c r="J81" s="4">
+        <v>63291</v>
       </c>
       <c r="K81" s="1" t="str">
         <v>0|0|0</v>
@@ -4059,26 +4060,26 @@
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>20028</v>
+        <v>20027</v>
       </c>
       <c r="B82" s="1" t="str">
-        <v>长马尾女孩</v>
+        <v>短发时尚女</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
       <c r="D82" s="3">
-        <v>350746</v>
+        <v>350752</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="2">
-        <v>121948</v>
+      <c r="J82" s="4">
+        <v>111241</v>
       </c>
       <c r="K82" s="1" t="str">
         <v>0|0|0</v>
@@ -4101,16 +4102,16 @@
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>20029</v>
+        <v>20028</v>
       </c>
       <c r="B83" s="1" t="str">
-        <v>长耳女</v>
+        <v>长马尾女孩</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>350744</v>
+        <v>350746</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -4119,8 +4120,8 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="2">
-        <v>64458</v>
+      <c r="J83" s="4">
+        <v>121948</v>
       </c>
       <c r="K83" s="1" t="str">
         <v>0|0|0</v>
@@ -4143,26 +4144,26 @@
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>20030</v>
+        <v>20029</v>
       </c>
       <c r="B84" s="1" t="str">
-        <v>风衣长发女</v>
+        <v>长耳女</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="3">
-        <v>350739</v>
+        <v>350744</v>
       </c>
       <c r="E84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="2">
-        <v>142606</v>
+      <c r="J84" s="4">
+        <v>64458</v>
       </c>
       <c r="K84" s="1" t="str">
         <v>0|0|0</v>
@@ -4185,26 +4186,26 @@
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>20031</v>
+        <v>20030</v>
       </c>
       <c r="B85" s="1" t="str">
-        <v>恶魔角女</v>
+        <v>风衣长发女</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="3">
-        <v>350738</v>
+        <v>350739</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="2">
-        <v>64305</v>
+      <c r="J85" s="4">
+        <v>142606</v>
       </c>
       <c r="K85" s="1" t="str">
         <v>0|0|0</v>
@@ -4227,26 +4228,26 @@
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>20032</v>
+        <v>20031</v>
       </c>
       <c r="B86" s="1" t="str">
-        <v>和服女</v>
+        <v>恶魔角女</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>350568</v>
+        <v>350738</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="2">
-        <v>299082</v>
+      <c r="J86" s="4">
+        <v>64305</v>
       </c>
       <c r="K86" s="1" t="str">
         <v>0|0|0</v>
@@ -4269,26 +4270,26 @@
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>20033</v>
+        <v>20032</v>
       </c>
       <c r="B87" s="1" t="str">
-        <v>发卡女</v>
+        <v>和服女</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
       </c>
       <c r="D87" s="3">
-        <v>350318</v>
+        <v>350568</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="2">
-        <v>181365</v>
+      <c r="J87" s="4">
+        <v>299082</v>
       </c>
       <c r="K87" s="1" t="str">
         <v>0|0|0</v>
@@ -4311,26 +4312,26 @@
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>20034</v>
+        <v>20033</v>
       </c>
       <c r="B88" s="1" t="str">
-        <v>女仆套装女</v>
+        <v>发卡女</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>350569</v>
+        <v>350318</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="2">
-        <v>63291</v>
+      <c r="J88" s="4">
+        <v>181365</v>
       </c>
       <c r="K88" s="1" t="str">
         <v>0|0|0</v>
@@ -4353,26 +4354,26 @@
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>20035</v>
+        <v>20034</v>
       </c>
       <c r="B89" s="1" t="str">
-        <v>帽子女</v>
+        <v>女仆套装女</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
       </c>
       <c r="D89" s="3">
-        <v>350314</v>
+        <v>350569</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="2">
-        <v>299082</v>
+      <c r="J89" s="4">
+        <v>63291</v>
       </c>
       <c r="K89" s="1" t="str">
         <v>0|0|0</v>
@@ -4395,16 +4396,16 @@
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>20036</v>
+        <v>20035</v>
       </c>
       <c r="B90" s="1" t="str">
-        <v>魔法女孩</v>
+        <v>帽子女</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
       <c r="D90" s="3">
-        <v>350260</v>
+        <v>350314</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4413,8 +4414,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="2">
-        <v>111088</v>
+      <c r="J90" s="4">
+        <v>299082</v>
       </c>
       <c r="K90" s="1" t="str">
         <v>0|0|0</v>
@@ -4437,26 +4438,26 @@
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>20037</v>
+        <v>20036</v>
       </c>
       <c r="B91" s="1" t="str">
-        <v>长裙女</v>
+        <v>魔法女孩</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
       </c>
       <c r="D91" s="3">
-        <v>349270</v>
+        <v>350260</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="2">
-        <v>124880</v>
+      <c r="J91" s="4">
+        <v>111088</v>
       </c>
       <c r="K91" s="1" t="str">
         <v>0|0|0</v>
@@ -4479,26 +4480,26 @@
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>20038</v>
+        <v>20037</v>
       </c>
       <c r="B92" s="1" t="str">
-        <v>杀手女</v>
+        <v>长裙女</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
       <c r="D92" s="3">
-        <v>347528</v>
+        <v>349270</v>
       </c>
       <c r="E92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="2">
-        <v>137518</v>
+      <c r="J92" s="4">
+        <v>124880</v>
       </c>
       <c r="K92" s="1" t="str">
         <v>0|0|0</v>
@@ -4521,16 +4522,16 @@
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>20039</v>
+        <v>20038</v>
       </c>
       <c r="B93" s="1" t="str">
-        <v>巫医</v>
+        <v>杀手女</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
       <c r="D93" s="3">
-        <v>145319</v>
+        <v>347528</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -4539,8 +4540,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="2">
-        <v>119773</v>
+      <c r="J93" s="4">
+        <v>137518</v>
       </c>
       <c r="K93" s="1" t="str">
         <v>0|0|0</v>
@@ -4563,26 +4564,26 @@
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>20040</v>
+        <v>20039</v>
       </c>
       <c r="B94" s="1" t="str">
-        <v>长腿妈妈</v>
+        <v>巫医</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>143403</v>
+        <v>145319</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="2">
-        <v>119229</v>
+      <c r="J94" s="4">
+        <v>119773</v>
       </c>
       <c r="K94" s="1" t="str">
         <v>0|0|0</v>
@@ -4605,16 +4606,16 @@
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>20041</v>
+        <v>20040</v>
       </c>
       <c r="B95" s="1" t="str">
-        <v>玄魁</v>
+        <v>长腿妈妈</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
-      <c r="D95" s="1">
-        <v>143402</v>
+      <c r="D95" s="3">
+        <v>143403</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -4623,8 +4624,8 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="2">
-        <v>121882</v>
+      <c r="J95" s="4">
+        <v>119229</v>
       </c>
       <c r="K95" s="1" t="str">
         <v>0|0|0</v>
@@ -4647,16 +4648,16 @@
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>20042</v>
+        <v>20041</v>
       </c>
       <c r="B96" s="1" t="str">
-        <v>邪恶女巫</v>
+        <v>玄魁</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>143401</v>
+        <v>143402</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
@@ -4665,8 +4666,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="2">
-        <v>119745</v>
+      <c r="J96" s="4">
+        <v>121882</v>
       </c>
       <c r="K96" s="1" t="str">
         <v>0|0|0</v>
@@ -4689,26 +4690,26 @@
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>20043</v>
+        <v>20042</v>
       </c>
       <c r="B97" s="1" t="str">
-        <v>小丑女</v>
+        <v>邪恶女巫</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>143400</v>
+        <v>143401</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="2">
-        <v>63539</v>
+      <c r="J97" s="4">
+        <v>119745</v>
       </c>
       <c r="K97" s="1" t="str">
         <v>0|0|0</v>
@@ -4731,26 +4732,26 @@
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
-        <v>20044</v>
+        <v>20043</v>
       </c>
       <c r="B98" s="1" t="str">
-        <v>万圣节女</v>
+        <v>小丑女</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>143399</v>
+        <v>143400</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="2">
-        <v>60981</v>
+      <c r="J98" s="4">
+        <v>63539</v>
       </c>
       <c r="K98" s="1" t="str">
         <v>0|0|0</v>
@@ -4773,26 +4774,26 @@
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>20045</v>
+        <v>20044</v>
       </c>
       <c r="B99" s="1" t="str">
-        <v>屠夫</v>
+        <v>万圣节女</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>143398</v>
+        <v>143399</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="2">
-        <v>109144</v>
+      <c r="J99" s="4">
+        <v>60981</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4815,26 +4816,26 @@
     </row>
     <row customHeight="true" ht="25" r="100">
       <c r="A100" s="1">
-        <v>20046</v>
+        <v>20045</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>魔莱坞学院院长</v>
+        <v>屠夫</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>143396</v>
+        <v>143398</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="2">
-        <v>64141</v>
+      <c r="J100" s="4">
+        <v>109144</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4857,26 +4858,26 @@
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>20047</v>
+        <v>20046</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>迷雾鬼影</v>
+        <v>魔莱坞学院院长</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>143395</v>
+        <v>143396</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="2">
-        <v>109058</v>
+      <c r="J101" s="4">
+        <v>64141</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4899,26 +4900,26 @@
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>20048</v>
+        <v>20047</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>蓝毛怪</v>
+        <v>迷雾鬼影</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>143394</v>
+        <v>143395</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="2">
-        <v>109839</v>
+      <c r="J102" s="4">
+        <v>109058</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4941,16 +4942,16 @@
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>20049</v>
+        <v>20048</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>狗头毛毛虫</v>
+        <v>蓝毛怪</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>143390</v>
+        <v>143394</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -4959,8 +4960,8 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="2">
-        <v>118079</v>
+      <c r="J103" s="4">
+        <v>109839</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -4983,16 +4984,16 @@
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>20050</v>
+        <v>20049</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>粉毛怪</v>
+        <v>狗头毛毛虫</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>143389</v>
+        <v>143390</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -5001,8 +5002,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="2">
-        <v>109839</v>
+      <c r="J104" s="4">
+        <v>118079</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -5025,16 +5026,16 @@
     </row>
     <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>20051</v>
+        <v>20050</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>索尼克</v>
+        <v>粉毛怪</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>143387</v>
+        <v>143389</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -5043,8 +5044,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="2">
-        <v>117681</v>
+      <c r="J105" s="4">
+        <v>109839</v>
       </c>
       <c r="K105" s="1" t="str">
         <v>0|0|0</v>
@@ -5067,58 +5068,58 @@
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>20052</v>
-      </c>
-      <c r="B106" s="3" t="str">
-        <v>Rainbow friends</v>
-      </c>
-      <c r="C106" s="3">
+        <v>20051</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <v>索尼克</v>
+      </c>
+      <c r="C106" s="1">
         <v>2</v>
       </c>
-      <c r="D106" s="3">
-        <v>143385</v>
-      </c>
-      <c r="E106" s="3">
-        <v>3</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="14">
-        <v>119483</v>
-      </c>
-      <c r="K106" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L106" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M106" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
+      <c r="D106" s="1">
+        <v>143387</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="4">
+        <v>117681</v>
+      </c>
+      <c r="K106" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L106" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M106" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
       <c r="P106" s="1">
         <v>1</v>
       </c>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>20053</v>
+        <v>20052</v>
       </c>
       <c r="B107" s="3" t="str">
-        <v>海神</v>
+        <v>Rainbow friends</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
       <c r="D107" s="3">
-        <v>226377</v>
+        <v>143385</v>
       </c>
       <c r="E107" s="3">
         <v>3</v>
@@ -5127,8 +5128,8 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3">
-        <v>226377</v>
+      <c r="J107" s="16">
+        <v>119483</v>
       </c>
       <c r="K107" s="3" t="str">
         <v>0|0|0</v>
@@ -5151,84 +5152,76 @@
     </row>
     <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B108" s="1" t="str">
-        <v>恶魔翅膀</v>
-      </c>
-      <c r="C108" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B108" s="3" t="str">
+        <v>海神</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>226377</v>
+      </c>
+      <c r="E108" s="3">
         <v>3</v>
       </c>
-      <c r="D108" s="1">
-        <v>223877</v>
-      </c>
-      <c r="E108" s="1">
-        <v>3</v>
-      </c>
-      <c r="F108" s="1">
-        <v>12</v>
-      </c>
-      <c r="G108" s="1" t="str">
-        <v>-10|0|10</v>
-      </c>
-      <c r="H108" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I108" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="J108" s="1">
-        <v>223877</v>
-      </c>
-      <c r="K108" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L108" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M108" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <v>226377</v>
+      </c>
+      <c r="K108" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L108" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M108" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
       <c r="P108" s="1">
         <v>1</v>
       </c>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B109" s="1" t="str">
-        <v>恶魔角</v>
+        <v>恶魔翅膀</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
       </c>
       <c r="D109" s="1">
-        <v>266332</v>
+        <v>223877</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G109" s="1" t="str">
-        <v>0|5|10</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H109" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I109" s="1" t="str">
-        <v>1|1|2</v>
+        <v>2|2|2</v>
       </c>
       <c r="J109" s="1">
-        <v>266332</v>
+        <v>223877</v>
       </c>
       <c r="K109" s="1" t="str">
         <v>0|0|0</v>
@@ -5237,7 +5230,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M109" s="1" t="str">
-        <v>1|1|2</v>
+        <v>2|2|2</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -5251,34 +5244,34 @@
     </row>
     <row customHeight="true" ht="25" r="110">
       <c r="A110" s="1">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B110" s="1" t="str">
-        <v>恶魔尾巴</v>
+        <v>恶魔角</v>
       </c>
       <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
-        <v>136179</v>
+        <v>266332</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G110" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|5|10</v>
       </c>
       <c r="H110" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I110" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J110" s="1">
-        <v>136179</v>
+        <v>266332</v>
       </c>
       <c r="K110" s="1" t="str">
         <v>0|0|0</v>
@@ -5287,7 +5280,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M110" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -5301,34 +5294,34 @@
     </row>
     <row customHeight="true" ht="25" r="111">
       <c r="A111" s="1">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B111" s="1" t="str">
-        <v>恶魔头骨</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>136506</v>
+        <v>136179</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
       </c>
       <c r="F111" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>-4.8|0|-11</v>
+        <v>0|0|0</v>
       </c>
       <c r="H111" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I111" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J111" s="1">
-        <v>136506</v>
+        <v>136179</v>
       </c>
       <c r="K111" s="1" t="str">
         <v>0|0|0</v>
@@ -5351,25 +5344,25 @@
     </row>
     <row customHeight="true" ht="25" r="112">
       <c r="A112" s="1">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B112" s="1" t="str">
-        <v>恶魔三头犬</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>192395</v>
+        <v>136506</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H112" s="1" t="str">
         <v>0|0|-90</v>
@@ -5378,7 +5371,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J112" s="1">
-        <v>192395</v>
+        <v>136506</v>
       </c>
       <c r="K112" s="1" t="str">
         <v>0|0|0</v>
@@ -5401,34 +5394,34 @@
     </row>
     <row customHeight="true" ht="25" r="113">
       <c r="A113" s="1">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>天使翅膀</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G113" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H113" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I113" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J113" s="1">
-        <v>334814</v>
+        <v>192395</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5451,34 +5444,34 @@
     </row>
     <row customHeight="true" ht="25" r="114">
       <c r="A114" s="1">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>天使蜘蛛</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>192359</v>
+        <v>334814</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G114" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H114" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I114" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J114" s="1">
-        <v>192359</v>
+        <v>334814</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5501,34 +5494,34 @@
     </row>
     <row customHeight="true" ht="25" r="115">
       <c r="A115" s="1">
-        <v>30008</v>
+        <v>30007</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>狐狸尾巴</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>226476</v>
+        <v>192359</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
       </c>
       <c r="F115" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G115" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H115" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I115" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>226476</v>
+        <v>192359</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5551,22 +5544,22 @@
     </row>
     <row customHeight="true" ht="25" r="116">
       <c r="A116" s="1">
-        <v>30009</v>
+        <v>30008</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>狐狸耳朵</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>226479</v>
+        <v>226476</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G116" s="1" t="str">
         <v>0|0|0</v>
@@ -5578,7 +5571,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J116" s="1">
-        <v>226479</v>
+        <v>226476</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5601,16 +5594,16 @@
     </row>
     <row customHeight="true" ht="25" r="117">
       <c r="A117" s="1">
-        <v>30010</v>
+        <v>30009</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>295506</v>
+        <v>226479</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
@@ -5628,7 +5621,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J117" s="1">
-        <v>295506</v>
+        <v>226479</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5651,34 +5644,34 @@
     </row>
     <row customHeight="true" ht="25" r="118">
       <c r="A118" s="1">
-        <v>30011</v>
+        <v>30010</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>闪电翅膀</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>42818</v>
+        <v>295506</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G118" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H118" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I118" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J118" s="1">
-        <v>42818</v>
+        <v>295506</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5701,34 +5694,34 @@
     </row>
     <row customHeight="true" ht="25" r="119">
       <c r="A119" s="1">
-        <v>30012</v>
+        <v>30011</v>
       </c>
       <c r="B119" s="1" t="str">
-        <v>眼镜</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>324491</v>
+        <v>42818</v>
       </c>
       <c r="E119" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G119" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H119" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I119" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J119" s="1">
-        <v>324491</v>
+        <v>42818</v>
       </c>
       <c r="K119" s="1" t="str">
         <v>0|0|0</v>
@@ -5751,34 +5744,34 @@
     </row>
     <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
-        <v>30013</v>
+        <v>30012</v>
       </c>
       <c r="B120" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>眼镜</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
-        <v>292313</v>
+        <v>324491</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
       </c>
       <c r="F120" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G120" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H120" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|0</v>
       </c>
       <c r="I120" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J120" s="1">
-        <v>292313</v>
+        <v>324491</v>
       </c>
       <c r="K120" s="1" t="str">
         <v>0|0|0</v>
@@ -5787,7 +5780,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M120" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -5801,34 +5794,34 @@
     </row>
     <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
-        <v>30014</v>
+        <v>30013</v>
       </c>
       <c r="B121" s="1" t="str">
-        <v>面纱</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>269783</v>
+        <v>292313</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
       </c>
       <c r="F121" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G121" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H121" s="1" t="str">
-        <v>0|0|0</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I121" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J121" s="1">
-        <v>269783</v>
+        <v>292313</v>
       </c>
       <c r="K121" s="1" t="str">
         <v>0|0|0</v>
@@ -5837,7 +5830,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M121" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -5849,36 +5842,36 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="25" r="122">
+    <row customHeight="true" ht="25" r="122">
       <c r="A122" s="1">
-        <v>30015</v>
+        <v>30014</v>
       </c>
       <c r="B122" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>面纱</v>
       </c>
       <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
-        <v>226826</v>
+        <v>269783</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
       </c>
       <c r="F122" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G122" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H122" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|0</v>
       </c>
       <c r="I122" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J122" s="1">
-        <v>226826</v>
+        <v>269783</v>
       </c>
       <c r="K122" s="1" t="str">
         <v>0|0|0</v>
@@ -5887,7 +5880,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M122" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -5899,18 +5892,18 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="123">
+    <row customHeight="true" hidden="true" ht="25" r="123">
       <c r="A123" s="1">
-        <v>30016</v>
+        <v>30015</v>
       </c>
       <c r="B123" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>318663</v>
+        <v>226826</v>
       </c>
       <c r="E123" s="1">
         <v>3</v>
@@ -5928,7 +5921,7 @@
         <v>0.5|0.5|0.5</v>
       </c>
       <c r="J123" s="1">
-        <v>318663</v>
+        <v>226826</v>
       </c>
       <c r="K123" s="1" t="str">
         <v>0|0|0</v>
@@ -5951,34 +5944,34 @@
     </row>
     <row customHeight="true" ht="25" r="124">
       <c r="A124" s="1">
-        <v>30017</v>
+        <v>30016</v>
       </c>
       <c r="B124" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>152259</v>
+        <v>318663</v>
       </c>
       <c r="E124" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F124" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G124" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H124" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I124" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J124" s="1">
-        <v>152259</v>
+        <v>318663</v>
       </c>
       <c r="K124" s="1" t="str">
         <v>0|0|0</v>
@@ -5987,7 +5980,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M124" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -6001,19 +5994,19 @@
     </row>
     <row customHeight="true" ht="25" r="125">
       <c r="A125" s="1">
-        <v>30018</v>
+        <v>30017</v>
       </c>
       <c r="B125" s="1" t="str">
-        <v>龙</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>292574</v>
+        <v>152259</v>
       </c>
       <c r="E125" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" s="1">
         <v>21</v>
@@ -6028,7 +6021,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J125" s="1">
-        <v>292574</v>
+        <v>152259</v>
       </c>
       <c r="K125" s="1" t="str">
         <v>0|0|0</v>
@@ -6051,19 +6044,19 @@
     </row>
     <row customHeight="true" ht="25" r="126">
       <c r="A126" s="1">
-        <v>30019</v>
+        <v>30018</v>
       </c>
       <c r="B126" s="1" t="str">
-        <v>帝王龙</v>
+        <v>龙</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
       </c>
       <c r="D126" s="1">
-        <v>192533</v>
+        <v>292574</v>
       </c>
       <c r="E126" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F126" s="1">
         <v>21</v>
@@ -6078,7 +6071,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J126" s="1">
-        <v>192533</v>
+        <v>292574</v>
       </c>
       <c r="K126" s="1" t="str">
         <v>0|0|0</v>
@@ -6101,19 +6094,19 @@
     </row>
     <row customHeight="true" ht="25" r="127">
       <c r="A127" s="1">
-        <v>30020</v>
+        <v>30019</v>
       </c>
       <c r="B127" s="1" t="str">
-        <v>地狱龙</v>
+        <v>帝王龙</v>
       </c>
       <c r="C127" s="1">
         <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>192420</v>
+        <v>192533</v>
       </c>
       <c r="E127" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F127" s="1">
         <v>21</v>
@@ -6128,7 +6121,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J127" s="1">
-        <v>192420</v>
+        <v>192533</v>
       </c>
       <c r="K127" s="1" t="str">
         <v>0|0|0</v>
@@ -6151,19 +6144,19 @@
     </row>
     <row customHeight="true" ht="25" r="128">
       <c r="A128" s="1">
-        <v>30021</v>
+        <v>30020</v>
       </c>
       <c r="B128" s="1" t="str">
-        <v>糖果龙</v>
+        <v>地狱龙</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
       </c>
       <c r="D128" s="1">
-        <v>191950</v>
+        <v>192420</v>
       </c>
       <c r="E128" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" s="1">
         <v>21</v>
@@ -6178,7 +6171,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J128" s="1">
-        <v>191950</v>
+        <v>192420</v>
       </c>
       <c r="K128" s="1" t="str">
         <v>0|0|0</v>
@@ -6201,19 +6194,19 @@
     </row>
     <row customHeight="true" ht="25" r="129">
       <c r="A129" s="1">
-        <v>30022</v>
+        <v>30021</v>
       </c>
       <c r="B129" s="1" t="str">
-        <v>武士龙</v>
+        <v>糖果龙</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1">
-        <v>191852</v>
+        <v>191950</v>
       </c>
       <c r="E129" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129" s="1">
         <v>21</v>
@@ -6228,7 +6221,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J129" s="1">
-        <v>191852</v>
+        <v>191950</v>
       </c>
       <c r="K129" s="1" t="str">
         <v>0|0|0</v>
@@ -6251,34 +6244,34 @@
     </row>
     <row customHeight="true" ht="25" r="130">
       <c r="A130" s="1">
-        <v>30023</v>
+        <v>30022</v>
       </c>
       <c r="B130" s="1" t="str">
-        <v>水晶翅膀</v>
+        <v>武士龙</v>
       </c>
       <c r="C130" s="1">
         <v>3</v>
       </c>
       <c r="D130" s="1">
-        <v>375788</v>
+        <v>191852</v>
       </c>
       <c r="E130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G130" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H130" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I130" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J130" s="1">
-        <v>375788</v>
+        <v>191852</v>
       </c>
       <c r="K130" s="1" t="str">
         <v>0|0|0</v>
@@ -6301,16 +6294,16 @@
     </row>
     <row customHeight="true" ht="25" r="131">
       <c r="A131" s="1">
-        <v>30024</v>
+        <v>30023</v>
       </c>
       <c r="B131" s="1" t="str">
-        <v>杀戮翅膀</v>
+        <v>水晶翅膀</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
       </c>
       <c r="D131" s="1">
-        <v>136966</v>
+        <v>375788</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -6322,13 +6315,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H131" s="1" t="str">
-        <v>0|0|180</v>
+        <v>0|0|90</v>
       </c>
       <c r="I131" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J131" s="1">
-        <v>136966</v>
+        <v>375788</v>
       </c>
       <c r="K131" s="1" t="str">
         <v>0|0|0</v>
@@ -6351,16 +6344,16 @@
     </row>
     <row customHeight="true" ht="25" r="132">
       <c r="A132" s="1">
-        <v>30025</v>
+        <v>30024</v>
       </c>
       <c r="B132" s="1" t="str">
-        <v>地狱翅膀</v>
+        <v>杀戮翅膀</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
       </c>
       <c r="D132" s="1">
-        <v>145912</v>
+        <v>136966</v>
       </c>
       <c r="E132" s="1">
         <v>2</v>
@@ -6372,13 +6365,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H132" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|180</v>
       </c>
       <c r="I132" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J132" s="1">
-        <v>145912</v>
+        <v>136966</v>
       </c>
       <c r="K132" s="1" t="str">
         <v>0|0|0</v>
@@ -6401,16 +6394,16 @@
     </row>
     <row customHeight="true" ht="25" r="133">
       <c r="A133" s="1">
-        <v>30026</v>
+        <v>30025</v>
       </c>
       <c r="B133" s="1" t="str">
-        <v>精灵翅膀</v>
+        <v>地狱翅膀</v>
       </c>
       <c r="C133" s="1">
         <v>3</v>
       </c>
       <c r="D133" s="1">
-        <v>393543</v>
+        <v>145912</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -6428,7 +6421,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J133" s="1">
-        <v>393543</v>
+        <v>145912</v>
       </c>
       <c r="K133" s="1" t="str">
         <v>0|0|0</v>
@@ -6451,16 +6444,16 @@
     </row>
     <row customHeight="true" ht="25" r="134">
       <c r="A134" s="1">
-        <v>30027</v>
+        <v>30026</v>
       </c>
       <c r="B134" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>精灵翅膀</v>
       </c>
       <c r="C134" s="1">
         <v>3</v>
       </c>
       <c r="D134" s="1">
-        <v>211667</v>
+        <v>393543</v>
       </c>
       <c r="E134" s="1">
         <v>2</v>
@@ -6478,7 +6471,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J134" s="1">
-        <v>211667</v>
+        <v>393543</v>
       </c>
       <c r="K134" s="1" t="str">
         <v>0|0|0</v>
@@ -6501,34 +6494,34 @@
     </row>
     <row customHeight="true" ht="25" r="135">
       <c r="A135" s="1">
-        <v>30028</v>
+        <v>30027</v>
       </c>
       <c r="B135" s="1" t="str">
-        <v>大剑</v>
+        <v>火焰翅膀</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
       </c>
       <c r="D135" s="1">
-        <v>186519</v>
+        <v>211667</v>
       </c>
       <c r="E135" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" s="1">
         <v>12</v>
       </c>
       <c r="G135" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H135" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I135" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J135" s="1">
-        <v>186519</v>
+        <v>211667</v>
       </c>
       <c r="K135" s="1" t="str">
         <v>0|0|0</v>
@@ -6551,16 +6544,16 @@
     </row>
     <row customHeight="true" ht="25" r="136">
       <c r="A136" s="1">
-        <v>30029</v>
+        <v>30028</v>
       </c>
       <c r="B136" s="1" t="str">
-        <v>天使剑</v>
+        <v>大剑</v>
       </c>
       <c r="C136" s="1">
         <v>3</v>
       </c>
       <c r="D136" s="1">
-        <v>20971</v>
+        <v>186519</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
@@ -6578,7 +6571,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J136" s="1">
-        <v>20971</v>
+        <v>186519</v>
       </c>
       <c r="K136" s="1" t="str">
         <v>0|0|0</v>
@@ -6600,43 +6593,47 @@
       <c r="T136" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="137">
-      <c r="A137" s="6">
-        <v>40001</v>
-      </c>
-      <c r="B137" s="6" t="str">
-        <v>蛇女</v>
-      </c>
-      <c r="C137" s="6">
-        <v>4</v>
-      </c>
-      <c r="D137" s="6">
-        <v>328236</v>
-      </c>
-      <c r="E137" s="6">
+      <c r="A137" s="1">
+        <v>30029</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <v>天使剑</v>
+      </c>
+      <c r="C137" s="1">
         <v>3</v>
       </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6">
-        <v>328236</v>
-      </c>
-      <c r="K137" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L137" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M137" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N137" s="8">
-        <v>318618</v>
-      </c>
-      <c r="O137" s="8">
-        <v>318617</v>
-      </c>
+      <c r="D137" s="1">
+        <v>20971</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1">
+        <v>12</v>
+      </c>
+      <c r="G137" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H137" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I137" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>20971</v>
+      </c>
+      <c r="K137" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L137" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M137" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
       <c r="P137" s="1">
         <v>1</v>
       </c>
@@ -6646,42 +6643,42 @@
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="6">
-        <v>40002</v>
-      </c>
-      <c r="B138" s="6" t="str">
-        <v>络新妇</v>
-      </c>
-      <c r="C138" s="6">
+      <c r="A138" s="2">
+        <v>40001</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <v>蛇女</v>
+      </c>
+      <c r="C138" s="2">
         <v>4</v>
       </c>
-      <c r="D138" s="6">
-        <v>338436</v>
-      </c>
-      <c r="E138" s="6">
+      <c r="D138" s="2">
+        <v>328236</v>
+      </c>
+      <c r="E138" s="2">
         <v>3</v>
       </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6">
-        <v>338436</v>
-      </c>
-      <c r="K138" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L138" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M138" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N138" s="7">
-        <v>336668</v>
-      </c>
-      <c r="O138" s="8">
-        <v>338467</v>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2">
+        <v>328236</v>
+      </c>
+      <c r="K138" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N138" s="10">
+        <v>318618</v>
+      </c>
+      <c r="O138" s="10">
+        <v>318617</v>
       </c>
       <c r="P138" s="1">
         <v>1</v>
@@ -6692,42 +6689,42 @@
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="6">
-        <v>40003</v>
-      </c>
-      <c r="B139" s="6" t="str">
-        <v>大蜘蛛</v>
-      </c>
-      <c r="C139" s="6">
+      <c r="A139" s="2">
+        <v>40002</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <v>络新妇</v>
+      </c>
+      <c r="C139" s="2">
         <v>4</v>
       </c>
-      <c r="D139" s="6">
-        <v>328291</v>
-      </c>
-      <c r="E139" s="6">
+      <c r="D139" s="2">
+        <v>338436</v>
+      </c>
+      <c r="E139" s="2">
         <v>3</v>
       </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6">
-        <v>328291</v>
-      </c>
-      <c r="K139" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L139" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M139" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N139" s="7">
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2">
+        <v>338436</v>
+      </c>
+      <c r="K139" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N139" s="11">
         <v>336668</v>
       </c>
-      <c r="O139" s="8">
-        <v>336669</v>
+      <c r="O139" s="10">
+        <v>338467</v>
       </c>
       <c r="P139" s="1">
         <v>1</v>
@@ -6738,41 +6735,41 @@
       <c r="T139" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="6">
-        <v>40004</v>
-      </c>
-      <c r="B140" s="6" t="str">
-        <v>小型抱脸紫蜘蛛</v>
-      </c>
-      <c r="C140" s="6">
+      <c r="A140" s="2">
+        <v>40003</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <v>大蜘蛛</v>
+      </c>
+      <c r="C140" s="2">
         <v>4</v>
       </c>
-      <c r="D140" s="6">
-        <v>340103</v>
-      </c>
-      <c r="E140" s="6">
+      <c r="D140" s="2">
+        <v>328291</v>
+      </c>
+      <c r="E140" s="2">
         <v>3</v>
       </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6">
-        <v>340103</v>
-      </c>
-      <c r="K140" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L140" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M140" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N140" s="7">
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2">
+        <v>328291</v>
+      </c>
+      <c r="K140" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N140" s="11">
         <v>336668</v>
       </c>
-      <c r="O140" s="8">
+      <c r="O140" s="10">
         <v>336669</v>
       </c>
       <c r="P140" s="1">
@@ -6784,41 +6781,41 @@
       <c r="T140" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="6">
-        <v>40005</v>
-      </c>
-      <c r="B141" s="6" t="str">
-        <v>小型抱脸红蜘蛛</v>
-      </c>
-      <c r="C141" s="6">
+      <c r="A141" s="2">
+        <v>40004</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <v>小型抱脸紫蜘蛛</v>
+      </c>
+      <c r="C141" s="2">
         <v>4</v>
       </c>
-      <c r="D141" s="6">
-        <v>340104</v>
-      </c>
-      <c r="E141" s="6">
+      <c r="D141" s="2">
+        <v>340103</v>
+      </c>
+      <c r="E141" s="2">
         <v>3</v>
       </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6">
-        <v>340104</v>
-      </c>
-      <c r="K141" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L141" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M141" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N141" s="7">
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2">
+        <v>340103</v>
+      </c>
+      <c r="K141" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L141" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M141" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N141" s="11">
         <v>336668</v>
       </c>
-      <c r="O141" s="8">
+      <c r="O141" s="10">
         <v>336669</v>
       </c>
       <c r="P141" s="1">
@@ -6830,41 +6827,41 @@
       <c r="T141" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="142">
-      <c r="A142" s="6">
-        <v>40006</v>
-      </c>
-      <c r="B142" s="6" t="str">
-        <v>小型抱脸绿蜘蛛</v>
-      </c>
-      <c r="C142" s="6">
+      <c r="A142" s="2">
+        <v>40005</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <v>小型抱脸红蜘蛛</v>
+      </c>
+      <c r="C142" s="2">
         <v>4</v>
       </c>
-      <c r="D142" s="6">
-        <v>340105</v>
-      </c>
-      <c r="E142" s="6">
+      <c r="D142" s="2">
+        <v>340104</v>
+      </c>
+      <c r="E142" s="2">
         <v>3</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6">
-        <v>340105</v>
-      </c>
-      <c r="K142" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L142" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M142" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N142" s="7">
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2">
+        <v>340104</v>
+      </c>
+      <c r="K142" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L142" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M142" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N142" s="11">
         <v>336668</v>
       </c>
-      <c r="O142" s="8">
+      <c r="O142" s="10">
         <v>336669</v>
       </c>
       <c r="P142" s="1">
@@ -6876,41 +6873,41 @@
       <c r="T142" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="143">
-      <c r="A143" s="6">
-        <v>40007</v>
-      </c>
-      <c r="B143" s="6" t="str">
-        <v>小型抱脸蓝蜘蛛</v>
-      </c>
-      <c r="C143" s="6">
+      <c r="A143" s="2">
+        <v>40006</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <v>小型抱脸绿蜘蛛</v>
+      </c>
+      <c r="C143" s="2">
         <v>4</v>
       </c>
-      <c r="D143" s="6">
-        <v>340106</v>
-      </c>
-      <c r="E143" s="6">
+      <c r="D143" s="2">
+        <v>340105</v>
+      </c>
+      <c r="E143" s="2">
         <v>3</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6">
-        <v>340106</v>
-      </c>
-      <c r="K143" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L143" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M143" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N143" s="7">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2">
+        <v>340105</v>
+      </c>
+      <c r="K143" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L143" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M143" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N143" s="11">
         <v>336668</v>
       </c>
-      <c r="O143" s="8">
+      <c r="O143" s="10">
         <v>336669</v>
       </c>
       <c r="P143" s="1">
@@ -6922,42 +6919,42 @@
       <c r="T143" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="144">
-      <c r="A144" s="6">
-        <v>40008</v>
-      </c>
-      <c r="B144" s="6" t="str">
-        <v>小龙</v>
-      </c>
-      <c r="C144" s="6">
+      <c r="A144" s="2">
+        <v>40007</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <v>小型抱脸蓝蜘蛛</v>
+      </c>
+      <c r="C144" s="2">
         <v>4</v>
       </c>
-      <c r="D144" s="6">
-        <v>328246</v>
-      </c>
-      <c r="E144" s="6">
-        <v>1</v>
-      </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6">
-        <v>328246</v>
-      </c>
-      <c r="K144" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L144" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M144" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N144" s="7">
-        <v>160627</v>
-      </c>
-      <c r="O144" s="9">
-        <v>160628</v>
+      <c r="D144" s="2">
+        <v>340106</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2">
+        <v>340106</v>
+      </c>
+      <c r="K144" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L144" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M144" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N144" s="11">
+        <v>336668</v>
+      </c>
+      <c r="O144" s="10">
+        <v>336669</v>
       </c>
       <c r="P144" s="1">
         <v>1</v>
@@ -6968,41 +6965,41 @@
       <c r="T144" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="145">
-      <c r="A145" s="6">
-        <v>40009</v>
-      </c>
-      <c r="B145" s="6" t="str">
-        <v>卡通木龙</v>
-      </c>
-      <c r="C145" s="6">
+      <c r="A145" s="2">
+        <v>40008</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <v>小龙</v>
+      </c>
+      <c r="C145" s="2">
         <v>4</v>
       </c>
-      <c r="D145" s="6">
-        <v>328030</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6">
-        <v>328030</v>
-      </c>
-      <c r="K145" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L145" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M145" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N145" s="7">
+      <c r="D145" s="2">
+        <v>328246</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2">
+        <v>328246</v>
+      </c>
+      <c r="K145" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L145" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M145" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N145" s="11">
         <v>160627</v>
       </c>
-      <c r="O145" s="9">
+      <c r="O145" s="13">
         <v>160628</v>
       </c>
       <c r="P145" s="1">
@@ -7014,41 +7011,41 @@
       <c r="T145" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="146">
-      <c r="A146" s="6">
-        <v>40010</v>
-      </c>
-      <c r="B146" s="6" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C146" s="6">
+      <c r="A146" s="2">
+        <v>40009</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <v>卡通木龙</v>
+      </c>
+      <c r="C146" s="2">
         <v>4</v>
       </c>
-      <c r="D146" s="6">
-        <v>328093</v>
-      </c>
-      <c r="E146" s="6">
-        <v>1</v>
-      </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6">
-        <v>328093</v>
-      </c>
-      <c r="K146" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L146" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M146" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N146" s="7">
+      <c r="D146" s="2">
+        <v>328030</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2">
+        <v>328030</v>
+      </c>
+      <c r="K146" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L146" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M146" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N146" s="11">
         <v>160627</v>
       </c>
-      <c r="O146" s="9">
+      <c r="O146" s="13">
         <v>160628</v>
       </c>
       <c r="P146" s="1">
@@ -7060,41 +7057,41 @@
       <c r="T146" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="147">
-      <c r="A147" s="6">
-        <v>40011</v>
-      </c>
-      <c r="B147" s="6" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C147" s="6">
+      <c r="A147" s="2">
+        <v>40010</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <v>红龙</v>
+      </c>
+      <c r="C147" s="2">
         <v>4</v>
       </c>
-      <c r="D147" s="6">
-        <v>328083</v>
-      </c>
-      <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6">
-        <v>328083</v>
-      </c>
-      <c r="K147" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L147" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M147" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N147" s="7">
+      <c r="D147" s="2">
+        <v>328093</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2">
+        <v>328093</v>
+      </c>
+      <c r="K147" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L147" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M147" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N147" s="11">
         <v>160627</v>
       </c>
-      <c r="O147" s="9">
+      <c r="O147" s="13">
         <v>160628</v>
       </c>
       <c r="P147" s="1">
@@ -7106,41 +7103,41 @@
       <c r="T147" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="148">
-      <c r="A148" s="6">
-        <v>40012</v>
-      </c>
-      <c r="B148" s="6" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C148" s="6">
+      <c r="A148" s="2">
+        <v>40011</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C148" s="2">
         <v>4</v>
       </c>
-      <c r="D148" s="6">
-        <v>328088</v>
-      </c>
-      <c r="E148" s="6">
-        <v>1</v>
-      </c>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6">
-        <v>328088</v>
-      </c>
-      <c r="K148" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L148" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M148" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N148" s="7">
+      <c r="D148" s="2">
+        <v>328083</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2">
+        <v>328083</v>
+      </c>
+      <c r="K148" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L148" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M148" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N148" s="11">
         <v>160627</v>
       </c>
-      <c r="O148" s="9">
+      <c r="O148" s="13">
         <v>160628</v>
       </c>
       <c r="P148" s="1">
@@ -7152,39 +7149,43 @@
       <c r="T148" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="149">
-      <c r="A149" s="1">
-        <v>20054</v>
-      </c>
-      <c r="B149" s="1" t="str">
-        <v>奥特之神</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1">
-        <v>162938</v>
-      </c>
-      <c r="E149" s="1">
-        <v>3</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1">
-        <v>162938</v>
-      </c>
-      <c r="K149" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L149" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M149" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
+      <c r="A149" s="2">
+        <v>40012</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C149" s="2">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2">
+        <v>328088</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2">
+        <v>328088</v>
+      </c>
+      <c r="K149" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L149" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M149" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N149" s="11">
+        <v>160627</v>
+      </c>
+      <c r="O149" s="13">
+        <v>160628</v>
+      </c>
       <c r="P149" s="1">
         <v>1</v>
       </c>
@@ -7194,10 +7195,42 @@
       <c r="T149" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="150">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <v>奥特之神</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
+        <v>162938</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1">
+        <v>162938</v>
+      </c>
+      <c r="K150" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L150" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M150" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="P150" s="1">
+        <v>1</v>
+      </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -7235,18 +7268,6 @@
     </row>
     <row customHeight="true" ht="25" r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -7455,34 +7476,18 @@
     </row>
     <row customHeight="true" ht="25" r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="1" t="str">
-        <v>小鸟模型</v>
-      </c>
-      <c r="C164" s="1">
-        <v>4</v>
-      </c>
-      <c r="D164" s="1">
-        <v>336884</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0</v>
-      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1">
-        <v>336884</v>
-      </c>
-      <c r="K164" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L164" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M164" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -7494,23 +7499,23 @@
     <row customHeight="true" ht="25" r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="str">
-        <v>野狼</v>
+        <v>小鸟模型</v>
       </c>
       <c r="C165" s="1">
         <v>4</v>
       </c>
       <c r="D165" s="1">
-        <v>328238</v>
+        <v>336884</v>
       </c>
       <c r="E165" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1">
-        <v>328238</v>
+        <v>336884</v>
       </c>
       <c r="K165" s="1" t="str">
         <v>0|0|0</v>
@@ -7532,13 +7537,13 @@
     <row customHeight="true" ht="25" r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="str">
-        <v>棕野狼</v>
+        <v>野狼</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
       </c>
       <c r="D166" s="1">
-        <v>328219</v>
+        <v>328238</v>
       </c>
       <c r="E166" s="1">
         <v>2</v>
@@ -7548,7 +7553,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1">
-        <v>328219</v>
+        <v>328238</v>
       </c>
       <c r="K166" s="1" t="str">
         <v>0|0|0</v>
@@ -7570,13 +7575,13 @@
     <row customHeight="true" ht="25" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="str">
-        <v>小兔子</v>
+        <v>棕野狼</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
       </c>
       <c r="D167" s="1">
-        <v>328216</v>
+        <v>328219</v>
       </c>
       <c r="E167" s="1">
         <v>2</v>
@@ -7586,7 +7591,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1">
-        <v>328216</v>
+        <v>328219</v>
       </c>
       <c r="K167" s="1" t="str">
         <v>0|0|0</v>
@@ -7608,13 +7613,13 @@
     <row customHeight="true" ht="25" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="str">
-        <v>登山猫</v>
+        <v>小兔子</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <v>328187</v>
+        <v>328216</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -7624,7 +7629,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1">
-        <v>328187</v>
+        <v>328216</v>
       </c>
       <c r="K168" s="1" t="str">
         <v>0|0|0</v>
@@ -7646,13 +7651,13 @@
     <row customHeight="true" ht="25" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="str">
-        <v>水手猫</v>
+        <v>登山猫</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
       </c>
       <c r="D169" s="1">
-        <v>328197</v>
+        <v>328187</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
@@ -7662,7 +7667,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1">
-        <v>328197</v>
+        <v>328187</v>
       </c>
       <c r="K169" s="1" t="str">
         <v>0|0|0</v>
@@ -7684,13 +7689,13 @@
     <row customHeight="true" ht="25" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="str">
-        <v>舞狮头猫</v>
+        <v>水手猫</v>
       </c>
       <c r="C170" s="1">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <v>328144</v>
+        <v>328197</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -7700,7 +7705,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1">
-        <v>328144</v>
+        <v>328197</v>
       </c>
       <c r="K170" s="1" t="str">
         <v>0|0|0</v>
@@ -7722,13 +7727,13 @@
     <row customHeight="true" ht="25" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="str">
-        <v>祥云能量猫</v>
+        <v>舞狮头猫</v>
       </c>
       <c r="C171" s="1">
         <v>4</v>
       </c>
       <c r="D171" s="1">
-        <v>328137</v>
+        <v>328144</v>
       </c>
       <c r="E171" s="1">
         <v>2</v>
@@ -7738,7 +7743,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1">
-        <v>328137</v>
+        <v>328144</v>
       </c>
       <c r="K171" s="1" t="str">
         <v>0|0|0</v>
@@ -7760,13 +7765,13 @@
     <row customHeight="true" ht="25" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="str">
-        <v>喜庆棉服猫</v>
+        <v>祥云能量猫</v>
       </c>
       <c r="C172" s="1">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <v>328135</v>
+        <v>328137</v>
       </c>
       <c r="E172" s="1">
         <v>2</v>
@@ -7776,7 +7781,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1">
-        <v>328135</v>
+        <v>328137</v>
       </c>
       <c r="K172" s="1" t="str">
         <v>0|0|0</v>
@@ -7798,13 +7803,13 @@
     <row customHeight="true" ht="25" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="str">
-        <v>冰雪狐</v>
+        <v>喜庆棉服猫</v>
       </c>
       <c r="C173" s="1">
         <v>4</v>
       </c>
       <c r="D173" s="1">
-        <v>328081</v>
+        <v>328135</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -7814,7 +7819,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1">
-        <v>328081</v>
+        <v>328135</v>
       </c>
       <c r="K173" s="1" t="str">
         <v>0|0|0</v>
@@ -7836,13 +7841,13 @@
     <row customHeight="true" ht="25" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>冰雪狐</v>
       </c>
       <c r="C174" s="1">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <v>328030</v>
+        <v>328081</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -7852,7 +7857,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1">
-        <v>328030</v>
+        <v>328081</v>
       </c>
       <c r="K174" s="1" t="str">
         <v>0|0|0</v>
@@ -7874,13 +7879,13 @@
     <row customHeight="true" ht="25" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="str">
-        <v>红龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
       </c>
       <c r="D175" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -7890,7 +7895,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="K175" s="1" t="str">
         <v>0|0|0</v>
@@ -7912,13 +7917,13 @@
     <row customHeight="true" ht="25" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="str">
-        <v>黄龙</v>
+        <v>红龙</v>
       </c>
       <c r="C176" s="1">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
@@ -7928,7 +7933,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="K176" s="1" t="str">
         <v>0|0|0</v>
@@ -7950,13 +7955,13 @@
     <row customHeight="true" ht="25" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="str">
-        <v>蓝龙</v>
+        <v>黄龙</v>
       </c>
       <c r="C177" s="1">
         <v>4</v>
       </c>
       <c r="D177" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
@@ -7966,7 +7971,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="K177" s="1" t="str">
         <v>0|0|0</v>
@@ -7988,23 +7993,23 @@
     <row customHeight="true" ht="25" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="str">
-        <v>唐装坐骑熊猫</v>
+        <v>蓝龙</v>
       </c>
       <c r="C178" s="1">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <v>327940</v>
+        <v>328088</v>
       </c>
       <c r="E178" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1">
-        <v>327940</v>
+        <v>328088</v>
       </c>
       <c r="K178" s="1" t="str">
         <v>0|0|0</v>
@@ -8026,23 +8031,23 @@
     <row customHeight="true" ht="25" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="str">
-        <v>唐装熊猫</v>
+        <v>唐装坐骑熊猫</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="1">
-        <v>327934</v>
+        <v>327940</v>
       </c>
       <c r="E179" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1">
-        <v>327934</v>
+        <v>327940</v>
       </c>
       <c r="K179" s="1" t="str">
         <v>0|0|0</v>
@@ -8064,23 +8069,23 @@
     <row customHeight="true" ht="25" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="str">
-        <v>小金毛</v>
+        <v>唐装熊猫</v>
       </c>
       <c r="C180" s="1">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <v>327936</v>
+        <v>327934</v>
       </c>
       <c r="E180" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1">
-        <v>327936</v>
+        <v>327934</v>
       </c>
       <c r="K180" s="1" t="str">
         <v>0|0|0</v>
@@ -8102,23 +8107,23 @@
     <row customHeight="true" ht="25" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="str">
-        <v>垂耳兔</v>
+        <v>小金毛</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
       </c>
       <c r="D181" s="1">
-        <v>327907</v>
+        <v>327936</v>
       </c>
       <c r="E181" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1">
-        <v>327907</v>
+        <v>327936</v>
       </c>
       <c r="K181" s="1" t="str">
         <v>0|0|0</v>
@@ -8140,23 +8145,23 @@
     <row customHeight="true" ht="25" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="str">
-        <v>无毛猫</v>
+        <v>垂耳兔</v>
       </c>
       <c r="C182" s="1">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>327894</v>
+        <v>327907</v>
       </c>
       <c r="E182" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1">
-        <v>327894</v>
+        <v>327907</v>
       </c>
       <c r="K182" s="1" t="str">
         <v>0|0|0</v>
@@ -8178,23 +8183,23 @@
     <row customHeight="true" ht="25" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="str">
-        <v>蓝白帽子猫</v>
+        <v>无毛猫</v>
       </c>
       <c r="C183" s="1">
         <v>4</v>
       </c>
       <c r="D183" s="1">
-        <v>327891</v>
+        <v>327894</v>
       </c>
       <c r="E183" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1">
-        <v>327891</v>
+        <v>327894</v>
       </c>
       <c r="K183" s="1" t="str">
         <v>0|0|0</v>
@@ -8216,23 +8221,23 @@
     <row customHeight="true" ht="25" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="str">
-        <v>礼帽暹罗猫</v>
+        <v>蓝白帽子猫</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <v>327889</v>
+        <v>327891</v>
       </c>
       <c r="E184" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1">
-        <v>327889</v>
+        <v>327891</v>
       </c>
       <c r="K184" s="1" t="str">
         <v>0|0|0</v>
@@ -8254,23 +8259,23 @@
     <row customHeight="true" ht="25" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
-        <v>熊猫</v>
+        <v>礼帽暹罗猫</v>
       </c>
       <c r="C185" s="1">
         <v>4</v>
       </c>
       <c r="D185" s="1">
-        <v>327881</v>
+        <v>327889</v>
       </c>
       <c r="E185" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1">
-        <v>327881</v>
+        <v>327889</v>
       </c>
       <c r="K185" s="1" t="str">
         <v>0|0|0</v>
@@ -8292,23 +8297,23 @@
     <row customHeight="true" ht="25" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
-        <v>兔子帽猫</v>
+        <v>熊猫</v>
       </c>
       <c r="C186" s="1">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>327874</v>
+        <v>327881</v>
       </c>
       <c r="E186" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1">
-        <v>327874</v>
+        <v>327881</v>
       </c>
       <c r="K186" s="1" t="str">
         <v>0|0|0</v>
@@ -8330,13 +8335,13 @@
     <row customHeight="true" ht="25" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
-        <v>三花铃铛猫</v>
+        <v>兔子帽猫</v>
       </c>
       <c r="C187" s="1">
         <v>4</v>
       </c>
       <c r="D187" s="1">
-        <v>327868</v>
+        <v>327874</v>
       </c>
       <c r="E187" s="1">
         <v>2</v>
@@ -8346,7 +8351,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1">
-        <v>327868</v>
+        <v>327874</v>
       </c>
       <c r="K187" s="1" t="str">
         <v>0|0|0</v>
@@ -8368,13 +8373,13 @@
     <row customHeight="true" ht="25" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
-        <v>黑色蝴蝶猫</v>
+        <v>三花铃铛猫</v>
       </c>
       <c r="C188" s="1">
         <v>4</v>
       </c>
       <c r="D188" s="1">
-        <v>327837</v>
+        <v>327868</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
@@ -8384,7 +8389,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1">
-        <v>327837</v>
+        <v>327868</v>
       </c>
       <c r="K188" s="1" t="str">
         <v>0|0|0</v>
@@ -8406,13 +8411,13 @@
     <row customHeight="true" ht="25" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
-        <v>美短圣诞猫</v>
+        <v>黑色蝴蝶猫</v>
       </c>
       <c r="C189" s="1">
         <v>4</v>
       </c>
       <c r="D189" s="1">
-        <v>327774</v>
+        <v>327837</v>
       </c>
       <c r="E189" s="1">
         <v>2</v>
@@ -8422,7 +8427,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1">
-        <v>327774</v>
+        <v>327837</v>
       </c>
       <c r="K189" s="1" t="str">
         <v>0|0|0</v>
@@ -8444,23 +8449,23 @@
     <row customHeight="true" ht="25" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
-        <v>蓝白垂耳兔</v>
+        <v>美短圣诞猫</v>
       </c>
       <c r="C190" s="1">
         <v>4</v>
       </c>
       <c r="D190" s="1">
-        <v>160051</v>
+        <v>327774</v>
       </c>
       <c r="E190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1">
-        <v>160051</v>
+        <v>327774</v>
       </c>
       <c r="K190" s="1" t="str">
         <v>0|0|0</v>
@@ -8482,23 +8487,23 @@
     <row customHeight="true" ht="25" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
-        <v>粉猪</v>
+        <v>蓝白垂耳兔</v>
       </c>
       <c r="C191" s="1">
         <v>4</v>
       </c>
       <c r="D191" s="1">
-        <v>327745</v>
+        <v>160051</v>
       </c>
       <c r="E191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1">
-        <v>327745</v>
+        <v>160051</v>
       </c>
       <c r="K191" s="1" t="str">
         <v>0|0|0</v>
@@ -8520,23 +8525,23 @@
     <row customHeight="true" ht="25" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
-        <v>虎斑猫</v>
+        <v>粉猪</v>
       </c>
       <c r="C192" s="1">
         <v>4</v>
       </c>
       <c r="D192" s="1">
-        <v>327747</v>
+        <v>327745</v>
       </c>
       <c r="E192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1">
-        <v>327747</v>
+        <v>327745</v>
       </c>
       <c r="K192" s="1" t="str">
         <v>0|0|0</v>
@@ -8558,13 +8563,13 @@
     <row customHeight="true" ht="25" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
-        <v>天使猫</v>
+        <v>虎斑猫</v>
       </c>
       <c r="C193" s="1">
         <v>4</v>
       </c>
       <c r="D193" s="1">
-        <v>327748</v>
+        <v>327747</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -8574,7 +8579,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1">
-        <v>327748</v>
+        <v>327747</v>
       </c>
       <c r="K193" s="1" t="str">
         <v>0|0|0</v>
@@ -8596,23 +8601,23 @@
     <row customHeight="true" ht="25" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
-        <v>小恶魔猫</v>
+        <v>天使猫</v>
       </c>
       <c r="C194" s="1">
         <v>4</v>
       </c>
       <c r="D194" s="1">
-        <v>327754</v>
+        <v>327748</v>
       </c>
       <c r="E194" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1">
-        <v>327754</v>
+        <v>327748</v>
       </c>
       <c r="K194" s="1" t="str">
         <v>0|0|0</v>
@@ -8634,23 +8639,23 @@
     <row customHeight="true" ht="25" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
-        <v>独眼布偶猫</v>
+        <v>小恶魔猫</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>327758</v>
+        <v>327754</v>
       </c>
       <c r="E195" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1">
-        <v>327758</v>
+        <v>327754</v>
       </c>
       <c r="K195" s="1" t="str">
         <v>0|0|0</v>
@@ -8672,23 +8677,23 @@
     <row customHeight="true" ht="25" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
-        <v>花猪</v>
+        <v>独眼布偶猫</v>
       </c>
       <c r="C196" s="1">
         <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>327761</v>
+        <v>327758</v>
       </c>
       <c r="E196" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1">
-        <v>327761</v>
+        <v>327758</v>
       </c>
       <c r="K196" s="1" t="str">
         <v>0|0|0</v>
@@ -8710,23 +8715,23 @@
     <row customHeight="true" ht="25" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
-        <v>太阳帽猫</v>
+        <v>花猪</v>
       </c>
       <c r="C197" s="1">
         <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>327762</v>
+        <v>327761</v>
       </c>
       <c r="E197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1">
-        <v>327762</v>
+        <v>327761</v>
       </c>
       <c r="K197" s="1" t="str">
         <v>0|0|0</v>
@@ -8748,23 +8753,23 @@
     <row customHeight="true" ht="25" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
-        <v>斑点垂耳狗</v>
+        <v>太阳帽猫</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
       </c>
       <c r="D198" s="1">
-        <v>327770</v>
+        <v>327762</v>
       </c>
       <c r="E198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1">
-        <v>327770</v>
+        <v>327762</v>
       </c>
       <c r="K198" s="1" t="str">
         <v>0|0|0</v>
@@ -8786,13 +8791,13 @@
     <row customHeight="true" ht="25" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
-        <v>黑白色直耳兔</v>
+        <v>斑点垂耳狗</v>
       </c>
       <c r="C199" s="1">
         <v>4</v>
       </c>
       <c r="D199" s="1">
-        <v>327773</v>
+        <v>327770</v>
       </c>
       <c r="E199" s="1">
         <v>0</v>
@@ -8802,7 +8807,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1">
-        <v>327773</v>
+        <v>327770</v>
       </c>
       <c r="K199" s="1" t="str">
         <v>0|0|0</v>
@@ -8824,13 +8829,13 @@
     <row customHeight="true" ht="25" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
-        <v>橘猫</v>
+        <v>黑白色直耳兔</v>
       </c>
       <c r="C200" s="1">
         <v>4</v>
       </c>
       <c r="D200" s="1">
-        <v>327786</v>
+        <v>327773</v>
       </c>
       <c r="E200" s="1">
         <v>0</v>
@@ -8840,7 +8845,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1">
-        <v>327786</v>
+        <v>327773</v>
       </c>
       <c r="K200" s="1" t="str">
         <v>0|0|0</v>
@@ -8862,13 +8867,13 @@
     <row customHeight="true" ht="25" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
-        <v>条纹外套白猫</v>
+        <v>橘猫</v>
       </c>
       <c r="C201" s="1">
         <v>4</v>
       </c>
       <c r="D201" s="1">
-        <v>327791</v>
+        <v>327786</v>
       </c>
       <c r="E201" s="1">
         <v>0</v>
@@ -8878,7 +8883,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1">
-        <v>327791</v>
+        <v>327786</v>
       </c>
       <c r="K201" s="1" t="str">
         <v>0|0|0</v>
@@ -8900,23 +8905,23 @@
     <row customHeight="true" ht="25" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="str">
-        <v>墨镜花猫</v>
+        <v>条纹外套白猫</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
       </c>
       <c r="D202" s="1">
-        <v>327860</v>
+        <v>327791</v>
       </c>
       <c r="E202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1">
-        <v>327860</v>
+        <v>327791</v>
       </c>
       <c r="K202" s="1" t="str">
         <v>0|0|0</v>
@@ -8938,13 +8943,13 @@
     <row customHeight="true" ht="25" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="str">
-        <v>眼镜蓝猫</v>
+        <v>墨镜花猫</v>
       </c>
       <c r="C203" s="1">
         <v>4</v>
       </c>
       <c r="D203" s="1">
-        <v>327849</v>
+        <v>327860</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -8954,7 +8959,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1">
-        <v>327849</v>
+        <v>327860</v>
       </c>
       <c r="K203" s="1" t="str">
         <v>0|0|0</v>
@@ -8976,13 +8981,13 @@
     <row customHeight="true" ht="25" r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="str">
-        <v>巫师帽猫</v>
+        <v>眼镜蓝猫</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
       </c>
       <c r="D204" s="1">
-        <v>327861</v>
+        <v>327849</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -8992,7 +8997,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1">
-        <v>327861</v>
+        <v>327849</v>
       </c>
       <c r="K204" s="1" t="str">
         <v>0|0|0</v>
@@ -9014,13 +9019,13 @@
     <row customHeight="true" ht="25" r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="str">
-        <v>白色萨摩耶</v>
+        <v>巫师帽猫</v>
       </c>
       <c r="C205" s="1">
         <v>4</v>
       </c>
       <c r="D205" s="1">
-        <v>327937</v>
+        <v>327861</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -9030,7 +9035,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1">
-        <v>327937</v>
+        <v>327861</v>
       </c>
       <c r="K205" s="1" t="str">
         <v>0|0|0</v>
@@ -9052,13 +9057,13 @@
     <row customHeight="true" ht="25" r="206">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="str">
-        <v>矮脚马</v>
+        <v>白色萨摩耶</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
       </c>
       <c r="D206" s="1">
-        <v>327960</v>
+        <v>327937</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -9068,7 +9073,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1">
-        <v>327960</v>
+        <v>327937</v>
       </c>
       <c r="K206" s="1" t="str">
         <v>0|0|0</v>
@@ -9090,13 +9095,13 @@
     <row customHeight="true" ht="25" r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="str">
-        <v>美短方帽猫</v>
+        <v>矮脚马</v>
       </c>
       <c r="C207" s="1">
         <v>4</v>
       </c>
       <c r="D207" s="1">
-        <v>327973</v>
+        <v>327960</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -9106,7 +9111,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1">
-        <v>327973</v>
+        <v>327960</v>
       </c>
       <c r="K207" s="1" t="str">
         <v>0|0|0</v>
@@ -9128,23 +9133,23 @@
     <row customHeight="true" ht="25" r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="str">
-        <v>黑猫</v>
+        <v>美短方帽猫</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
       </c>
       <c r="D208" s="1">
-        <v>327963</v>
+        <v>327973</v>
       </c>
       <c r="E208" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1">
-        <v>327963</v>
+        <v>327973</v>
       </c>
       <c r="K208" s="1" t="str">
         <v>0|0|0</v>
@@ -9166,13 +9171,13 @@
     <row customHeight="true" ht="25" r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="str">
-        <v>小黄狗</v>
+        <v>黑猫</v>
       </c>
       <c r="C209" s="1">
         <v>4</v>
       </c>
       <c r="D209" s="1">
-        <v>327990</v>
+        <v>327963</v>
       </c>
       <c r="E209" s="1">
         <v>0</v>
@@ -9182,7 +9187,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1">
-        <v>327990</v>
+        <v>327963</v>
       </c>
       <c r="K209" s="1" t="str">
         <v>0|0|0</v>
@@ -9204,23 +9209,23 @@
     <row customHeight="true" ht="25" r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="str">
-        <v>黄色猫咪团子</v>
+        <v>小黄狗</v>
       </c>
       <c r="C210" s="1">
         <v>4</v>
       </c>
       <c r="D210" s="1">
-        <v>338994</v>
+        <v>327990</v>
       </c>
       <c r="E210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1">
-        <v>338994</v>
+        <v>327990</v>
       </c>
       <c r="K210" s="1" t="str">
         <v>0|0|0</v>
@@ -9242,13 +9247,13 @@
     <row customHeight="true" ht="25" r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="str">
-        <v>鹦鹉</v>
+        <v>黄色猫咪团子</v>
       </c>
       <c r="C211" s="1">
         <v>4</v>
       </c>
       <c r="D211" s="1">
-        <v>326463</v>
+        <v>338994</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -9258,7 +9263,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1">
-        <v>326463</v>
+        <v>338994</v>
       </c>
       <c r="K211" s="1" t="str">
         <v>0|0|0</v>
@@ -9280,13 +9285,13 @@
     <row customHeight="true" ht="25" r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="str">
-        <v>暹罗樱花猫</v>
+        <v>鹦鹉</v>
       </c>
       <c r="C212" s="1">
         <v>4</v>
       </c>
       <c r="D212" s="1">
-        <v>327764</v>
+        <v>326463</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -9296,7 +9301,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1">
-        <v>327764</v>
+        <v>326463</v>
       </c>
       <c r="K212" s="1" t="str">
         <v>0|0|0</v>
@@ -9318,13 +9323,13 @@
     <row customHeight="true" ht="25" r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="str">
-        <v>蓝白飞行斗技猫</v>
+        <v>暹罗樱花猫</v>
       </c>
       <c r="C213" s="1">
         <v>4</v>
       </c>
       <c r="D213" s="1">
-        <v>327814</v>
+        <v>327764</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -9334,7 +9339,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1">
-        <v>327814</v>
+        <v>327764</v>
       </c>
       <c r="K213" s="1" t="str">
         <v>0|0|0</v>
@@ -9353,20 +9358,36 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
-    <row r="214">
+    <row customHeight="true" ht="25" r="214">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+      <c r="B214" s="1" t="str">
+        <v>蓝白飞行斗技猫</v>
+      </c>
+      <c r="C214" s="1">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1">
+        <v>327814</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
+      <c r="J214" s="1">
+        <v>327814</v>
+      </c>
+      <c r="K214" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L214" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M214" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -9641,34 +9662,18 @@
     </row>
     <row r="227">
       <c r="A227" s="1"/>
-      <c r="B227" s="1" t="str">
-        <v>变异沙漠三头狗</v>
-      </c>
-      <c r="C227" s="1">
-        <v>4</v>
-      </c>
-      <c r="D227" s="1">
-        <v>327996</v>
-      </c>
-      <c r="E227" s="1">
-        <v>3</v>
-      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K227" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L227" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M227" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
@@ -9680,13 +9685,13 @@
     <row r="228">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="str">
-        <v>三头狗</v>
+        <v>变异沙漠三头狗</v>
       </c>
       <c r="C228" s="1">
         <v>4</v>
       </c>
       <c r="D228" s="1">
-        <v>327801</v>
+        <v>327996</v>
       </c>
       <c r="E228" s="1">
         <v>3</v>
@@ -9696,7 +9701,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1">
-        <v>327801</v>
+        <v>327996</v>
       </c>
       <c r="K228" s="1" t="str">
         <v>0|0|0</v>
@@ -9718,23 +9723,23 @@
     <row r="229">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="str">
-        <v>小龙</v>
+        <v>三头狗</v>
       </c>
       <c r="C229" s="1">
         <v>4</v>
       </c>
       <c r="D229" s="1">
-        <v>328246</v>
+        <v>327801</v>
       </c>
       <c r="E229" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1">
-        <v>328246</v>
+        <v>327801</v>
       </c>
       <c r="K229" s="1" t="str">
         <v>0|0|0</v>
@@ -9756,13 +9761,13 @@
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>小龙</v>
       </c>
       <c r="C230" s="1">
         <v>4</v>
       </c>
       <c r="D230" s="1">
-        <v>328030</v>
+        <v>328246</v>
       </c>
       <c r="E230" s="1">
         <v>2</v>
@@ -9772,7 +9777,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1">
-        <v>328030</v>
+        <v>328246</v>
       </c>
       <c r="K230" s="1" t="str">
         <v>0|0|0</v>
@@ -9794,13 +9799,13 @@
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="str">
-        <v>红龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C231" s="1">
         <v>4</v>
       </c>
       <c r="D231" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="E231" s="1">
         <v>2</v>
@@ -9810,7 +9815,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1">
-        <v>328093</v>
+        <v>328030</v>
       </c>
       <c r="K231" s="1" t="str">
         <v>0|0|0</v>
@@ -9832,13 +9837,13 @@
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="str">
-        <v>黄龙</v>
+        <v>红龙</v>
       </c>
       <c r="C232" s="1">
         <v>4</v>
       </c>
       <c r="D232" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="E232" s="1">
         <v>2</v>
@@ -9848,7 +9853,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1">
-        <v>328083</v>
+        <v>328093</v>
       </c>
       <c r="K232" s="1" t="str">
         <v>0|0|0</v>
@@ -9870,13 +9875,13 @@
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="str">
-        <v>蓝龙</v>
+        <v>黄龙</v>
       </c>
       <c r="C233" s="1">
         <v>4</v>
       </c>
       <c r="D233" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="E233" s="1">
         <v>2</v>
@@ -9886,7 +9891,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1">
-        <v>328088</v>
+        <v>328083</v>
       </c>
       <c r="K233" s="1" t="str">
         <v>0|0|0</v>
@@ -9907,18 +9912,34 @@
     </row>
     <row r="234">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
+      <c r="B234" s="1" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C234" s="1">
+        <v>4</v>
+      </c>
+      <c r="D234" s="1">
+        <v>328088</v>
+      </c>
+      <c r="E234" s="1">
+        <v>2</v>
+      </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
+      <c r="J234" s="1">
+        <v>328088</v>
+      </c>
+      <c r="K234" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L234" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M234" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
@@ -13865,6 +13886,28 @@
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
     </row>
+    <row r="414">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1"/>
+      <c r="N414" s="1"/>
+      <c r="O414" s="1"/>
+      <c r="P414" s="1"/>
+      <c r="Q414" s="1"/>
+      <c r="R414" s="1"/>
+      <c r="S414" s="1"/>
+      <c r="T414" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,35 +51,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,20 +59,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,6 +79,34 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFF01D94"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +121,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +135,28 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF34C724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +176,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -293,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,7 +321,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -322,16 +336,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -340,10 +354,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +749,10 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="5" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="5" t="str">
         <v>string</v>
       </c>
       <c r="P1" s="1" t="str">
@@ -786,10 +803,10 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="11" t="str">
+      <c r="N2" s="12" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="O2" s="5" t="str">
         <v>Move</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -827,7 +844,8 @@
         <v>1：普通
 2：新手礼包
 3：抽奖
-4：完成新手引导就送</v>
+4：完成新手引导就送
+5：看广告获得</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -905,13 +923,13 @@
       <c r="J6" s="1">
         <v>209508</v>
       </c>
-      <c r="K6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M6" s="2" t="str">
+      <c r="K6" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M6" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N6" s="1"/>
@@ -947,13 +965,13 @@
       <c r="J7" s="1">
         <v>313464</v>
       </c>
-      <c r="K7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M7" s="2" t="str">
+      <c r="K7" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M7" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N7" s="1"/>
@@ -970,28 +988,28 @@
       <c r="A8" s="1">
         <v>10043</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="16" t="str">
         <v>昊天锤</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <v>318640</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>318640</v>
       </c>
-      <c r="K8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M8" s="2" t="str">
+      <c r="K8" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M8" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N8" s="1"/>
@@ -1008,7 +1026,7 @@
       <c r="A9" s="1">
         <v>10001</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="7" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C9" s="1">
@@ -1020,7 +1038,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1050,7 +1068,7 @@
       <c r="A10" s="1">
         <v>10002</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="7" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C10" s="1">
@@ -1062,7 +1080,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1092,7 +1110,7 @@
       <c r="A11" s="1">
         <v>10003</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="7" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C11" s="1">
@@ -1104,7 +1122,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1134,7 +1152,7 @@
       <c r="A12" s="1">
         <v>10004</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="8" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C12" s="1">
@@ -1146,7 +1164,7 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1176,7 +1194,7 @@
       <c r="A13" s="1">
         <v>10005</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="8" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C13" s="1">
@@ -1188,7 +1206,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1218,7 +1236,7 @@
       <c r="A14" s="1">
         <v>10006</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="8" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C14" s="1">
@@ -1230,7 +1248,7 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1260,7 +1278,7 @@
       <c r="A15" s="1">
         <v>10007</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="8" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C15" s="1">
@@ -1272,7 +1290,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1302,7 +1320,7 @@
       <c r="A16" s="1">
         <v>10008</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="8" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C16" s="1">
@@ -1314,7 +1332,7 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1344,7 +1362,7 @@
       <c r="A17" s="1">
         <v>10009</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="3" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C17" s="1">
@@ -1356,7 +1374,7 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1386,7 +1404,7 @@
       <c r="A18" s="1">
         <v>10010</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="3" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C18" s="1">
@@ -1398,7 +1416,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1428,7 +1446,7 @@
       <c r="A19" s="1">
         <v>10011</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="3" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C19" s="1">
@@ -1440,7 +1458,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1470,7 +1488,7 @@
       <c r="A20" s="1">
         <v>10012</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="3" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C20" s="1">
@@ -1482,7 +1500,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1512,19 +1530,19 @@
       <c r="A21" s="1">
         <v>10013</v>
       </c>
-      <c r="B21" s="12" t="str">
+      <c r="B21" s="10" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>103080</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1554,7 +1572,7 @@
       <c r="A22" s="1">
         <v>10014</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="3" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C22" s="1">
@@ -1566,7 +1584,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1596,7 +1614,7 @@
       <c r="A23" s="1">
         <v>10015</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="3" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1608,7 +1626,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1638,7 +1656,7 @@
       <c r="A24" s="1">
         <v>10016</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="3" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C24" s="1">
@@ -1650,7 +1668,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1680,7 +1698,7 @@
       <c r="A25" s="1">
         <v>10017</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="B25" s="10" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C25" s="1">
@@ -1692,7 +1710,7 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1722,7 +1740,7 @@
       <c r="A26" s="1">
         <v>10018</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="3" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C26" s="1">
@@ -1734,7 +1752,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1932,7 +1950,7 @@
       <c r="A31" s="1">
         <v>10023</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B31" s="8" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C31" s="1">
@@ -1944,7 +1962,7 @@
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1974,7 +1992,7 @@
       <c r="A32" s="1">
         <v>10024</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" s="8" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C32" s="1">
@@ -1986,7 +2004,7 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2016,7 +2034,7 @@
       <c r="A33" s="1">
         <v>10025</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" s="8" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C33" s="1">
@@ -2028,7 +2046,7 @@
       <c r="E33" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2058,7 +2076,7 @@
       <c r="A34" s="1">
         <v>10026</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="8" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C34" s="1">
@@ -2070,7 +2088,7 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2100,7 +2118,7 @@
       <c r="A35" s="1">
         <v>10027</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B35" s="8" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C35" s="1">
@@ -2112,7 +2130,7 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2142,7 +2160,7 @@
       <c r="A36" s="1">
         <v>10028</v>
       </c>
-      <c r="B36" s="14" t="str" xml:space="preserve">
+      <c r="B36" s="2" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C36" s="1">
@@ -2154,7 +2172,7 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2184,7 +2202,7 @@
       <c r="A37" s="1">
         <v>10029</v>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B37" s="2" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C37" s="1">
@@ -2196,7 +2214,7 @@
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2226,7 +2244,7 @@
       <c r="A38" s="1">
         <v>10030</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="14" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C38" s="1">
@@ -2238,7 +2256,7 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2268,7 +2286,7 @@
       <c r="A39" s="1">
         <v>10031</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="14" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C39" s="1">
@@ -2280,7 +2298,7 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2310,7 +2328,7 @@
       <c r="A40" s="1">
         <v>10032</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="14" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C40" s="1">
@@ -2322,7 +2340,7 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2352,7 +2370,7 @@
       <c r="A41" s="1">
         <v>10033</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="14" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2364,7 +2382,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2394,7 +2412,7 @@
       <c r="A42" s="1">
         <v>10034</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="3" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C42" s="1">
@@ -2406,7 +2424,7 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2436,7 +2454,7 @@
       <c r="A43" s="1">
         <v>10035</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="3" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2448,7 +2466,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2478,7 +2496,7 @@
       <c r="A44" s="1">
         <v>10036</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="3" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C44" s="1">
@@ -2490,7 +2508,7 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2520,7 +2538,7 @@
       <c r="A45" s="1">
         <v>10037</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="3" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2532,7 +2550,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2562,7 +2580,7 @@
       <c r="A46" s="1">
         <v>10038</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="3" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C46" s="1">
@@ -2574,7 +2592,7 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2604,7 +2622,7 @@
       <c r="A47" s="1">
         <v>10039</v>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="14" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C47" s="1">
@@ -2616,7 +2634,7 @@
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2646,7 +2664,7 @@
       <c r="A48" s="1">
         <v>10040</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="14" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C48" s="1">
@@ -2658,7 +2676,7 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2686,40 +2704,40 @@
     </row>
     <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
-        <v>20061</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>小舞姐</v>
+        <v>20063</v>
+      </c>
+      <c r="B49" s="14" t="str">
+        <v>情侣机甲套装(女)</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>163292</v>
+        <v>163553</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>163292</v>
-      </c>
-      <c r="K49" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M49" s="2" t="str">
+        <v>163553</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M49" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2728,40 +2746,40 @@
     </row>
     <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
-        <v>20055</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>蓝银皇</v>
+        <v>20062</v>
+      </c>
+      <c r="B50" s="17" t="str">
+        <v>情侣机甲套装(男)</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>398484</v>
+        <v>164428</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>398484</v>
-      </c>
-      <c r="K50" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M50" s="2" t="str">
+        <v>164428</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M50" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2770,16 +2788,16 @@
     </row>
     <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
-        <v>20056</v>
+        <v>20061</v>
       </c>
       <c r="B51" s="1" t="str">
-        <v>制服女孩</v>
+        <v>小舞姐</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>367076</v>
+        <v>163292</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -2789,21 +2807,21 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>367076</v>
-      </c>
-      <c r="K51" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M51" s="2" t="str">
+        <v>163292</v>
+      </c>
+      <c r="K51" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L51" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M51" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2812,16 +2830,16 @@
     </row>
     <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B52" s="1" t="str">
-        <v>唐三</v>
+        <v>蓝银皇</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>343523</v>
+        <v>398484</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -2831,15 +2849,15 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <v>343523</v>
-      </c>
-      <c r="K52" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M52" s="2" t="str">
+        <v>398484</v>
+      </c>
+      <c r="K52" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L52" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M52" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N52" s="1"/>
@@ -2854,36 +2872,40 @@
     </row>
     <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
-        <v>20058</v>
-      </c>
-      <c r="B53" t="str">
-        <v>神级魔王</v>
-      </c>
-      <c r="C53" s="9">
+        <v>20056</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <v>制服女孩</v>
+      </c>
+      <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D53">
-        <v>141499</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="D53" s="1">
+        <v>367076</v>
+      </c>
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="J53">
-        <v>141499</v>
-      </c>
-      <c r="K53" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M53" s="2" t="str">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1">
+        <v>367076</v>
+      </c>
+      <c r="K53" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L53" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M53" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2892,36 +2914,40 @@
     </row>
     <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
-        <v>20059</v>
-      </c>
-      <c r="B54" t="str">
-        <v>四代火影</v>
-      </c>
-      <c r="C54" s="9">
+        <v>20057</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <v>唐三</v>
+      </c>
+      <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>142921</v>
-      </c>
-      <c r="E54" s="9">
+      <c r="D54" s="1">
+        <v>343523</v>
+      </c>
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="J54">
-        <v>142921</v>
-      </c>
-      <c r="K54" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M54" s="2" t="str">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1">
+        <v>343523</v>
+      </c>
+      <c r="K54" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L54" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M54" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2930,30 +2956,30 @@
     </row>
     <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B55" t="str">
-        <v>美杜莎女王</v>
-      </c>
-      <c r="C55" s="9">
+        <v>神级魔王</v>
+      </c>
+      <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>163289</v>
-      </c>
-      <c r="E55" s="9">
+        <v>141499</v>
+      </c>
+      <c r="E55" s="4">
         <v>3</v>
       </c>
       <c r="J55">
-        <v>163289</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M55" s="2" t="str">
+        <v>141499</v>
+      </c>
+      <c r="K55" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L55" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M55" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N55" s="1"/>
@@ -2968,40 +2994,36 @@
     </row>
     <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>狐耳少女</v>
-      </c>
-      <c r="C56" s="1">
+        <v>20059</v>
+      </c>
+      <c r="B56" t="str">
+        <v>四代火影</v>
+      </c>
+      <c r="C56" s="4">
         <v>2</v>
       </c>
-      <c r="D56" s="3">
-        <v>361906</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D56">
+        <v>142921</v>
+      </c>
+      <c r="E56" s="4">
         <v>3</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="4">
-        <v>65710</v>
-      </c>
-      <c r="K56" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L56" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M56" s="1" t="str">
+      <c r="J56">
+        <v>142921</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M56" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3010,40 +3032,36 @@
     </row>
     <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>邪恶使者</v>
-      </c>
-      <c r="C57" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B57" t="str">
+        <v>美杜莎女王</v>
+      </c>
+      <c r="C57" s="4">
         <v>2</v>
       </c>
-      <c r="D57" s="3">
-        <v>357571</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D57">
+        <v>163289</v>
+      </c>
+      <c r="E57" s="4">
         <v>3</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="4">
-        <v>64995</v>
-      </c>
-      <c r="K57" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L57" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M57" s="1" t="str">
+      <c r="J57">
+        <v>163289</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M57" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -3052,26 +3070,26 @@
     </row>
     <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B58" s="1" t="str">
-        <v>长款大衣女</v>
+        <v>狐耳少女</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="3">
-        <v>357567</v>
+      <c r="D58" s="8">
+        <v>361906</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="4">
-        <v>142606</v>
+      <c r="J58" s="11">
+        <v>65710</v>
       </c>
       <c r="K58" s="1" t="str">
         <v>0|0|0</v>
@@ -3094,16 +3112,16 @@
     </row>
     <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B59" s="1" t="str">
-        <v>海绵宝宝</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="3">
-        <v>357566</v>
+      <c r="D59" s="8">
+        <v>357571</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -3112,8 +3130,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="4">
-        <v>63711</v>
+      <c r="J59" s="11">
+        <v>64995</v>
       </c>
       <c r="K59" s="1" t="str">
         <v>0|0|0</v>
@@ -3136,26 +3154,26 @@
     </row>
     <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B60" s="1" t="str">
-        <v>钢铁侠</v>
+        <v>长款大衣女</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="3">
-        <v>357563</v>
+      <c r="D60" s="8">
+        <v>357567</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="4">
-        <v>94782</v>
+      <c r="J60" s="11">
+        <v>142606</v>
       </c>
       <c r="K60" s="1" t="str">
         <v>0|0|0</v>
@@ -3178,16 +3196,16 @@
     </row>
     <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
-        <v>20006</v>
+        <v>20004</v>
       </c>
       <c r="B61" s="1" t="str">
-        <v>灭霸</v>
+        <v>海绵宝宝</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="3">
-        <v>357556</v>
+      <c r="D61" s="8">
+        <v>357566</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3196,8 +3214,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="4">
-        <v>112568</v>
+      <c r="J61" s="11">
+        <v>63711</v>
       </c>
       <c r="K61" s="1" t="str">
         <v>0|0|0</v>
@@ -3220,16 +3238,16 @@
     </row>
     <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="B62" s="1" t="str">
-        <v>刺猬小子</v>
+        <v>钢铁侠</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="3">
-        <v>357555</v>
+      <c r="D62" s="8">
+        <v>357563</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -3238,8 +3256,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="4">
-        <v>117681</v>
+      <c r="J62" s="11">
+        <v>94782</v>
       </c>
       <c r="K62" s="1" t="str">
         <v>0|0|0</v>
@@ -3262,16 +3280,16 @@
     </row>
     <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
-        <v>20008</v>
+        <v>20006</v>
       </c>
       <c r="B63" s="1" t="str">
-        <v>邪恶使者</v>
+        <v>灭霸</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="3">
-        <v>351891</v>
+      <c r="D63" s="8">
+        <v>357556</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -3280,8 +3298,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="4">
-        <v>64995</v>
+      <c r="J63" s="11">
+        <v>112568</v>
       </c>
       <c r="K63" s="1" t="str">
         <v>0|0|0</v>
@@ -3304,16 +3322,16 @@
     </row>
     <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
-        <v>20009</v>
+        <v>20007</v>
       </c>
       <c r="B64" s="1" t="str">
-        <v>蓝衣男</v>
+        <v>刺猬小子</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="12">
-        <v>351680</v>
+      <c r="D64" s="8">
+        <v>357555</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -3322,8 +3340,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="4">
-        <v>127800</v>
+      <c r="J64" s="11">
+        <v>117681</v>
       </c>
       <c r="K64" s="1" t="str">
         <v>0|0|0</v>
@@ -3346,16 +3364,16 @@
     </row>
     <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
-        <v>20010</v>
+        <v>20008</v>
       </c>
       <c r="B65" s="1" t="str">
-        <v>黑衣男</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="12">
-        <v>351598</v>
+      <c r="D65" s="8">
+        <v>351891</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -3364,8 +3382,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="4">
-        <v>224168</v>
+      <c r="J65" s="11">
+        <v>64995</v>
       </c>
       <c r="K65" s="1" t="str">
         <v>0|0|0</v>
@@ -3388,16 +3406,16 @@
     </row>
     <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
-        <v>20011</v>
+        <v>20009</v>
       </c>
       <c r="B66" s="1" t="str">
-        <v>毁灭战士</v>
+        <v>蓝衣男</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="12">
-        <v>351597</v>
+      <c r="D66" s="10">
+        <v>351680</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3406,8 +3424,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="4">
-        <v>94782</v>
+      <c r="J66" s="11">
+        <v>127800</v>
       </c>
       <c r="K66" s="1" t="str">
         <v>0|0|0</v>
@@ -3430,26 +3448,26 @@
     </row>
     <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
-        <v>20012</v>
+        <v>20010</v>
       </c>
       <c r="B67" s="1" t="str">
-        <v>雷神</v>
+        <v>黑衣男</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="12">
-        <v>357570</v>
+      <c r="D67" s="10">
+        <v>351598</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="4">
-        <v>111768</v>
+      <c r="J67" s="11">
+        <v>224168</v>
       </c>
       <c r="K67" s="1" t="str">
         <v>0|0|0</v>
@@ -3472,26 +3490,26 @@
     </row>
     <row customHeight="true" ht="25" r="68">
       <c r="A68" s="1">
-        <v>20013</v>
+        <v>20011</v>
       </c>
       <c r="B68" s="1" t="str">
-        <v>黑寡妇</v>
+        <v>毁灭战士</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="12">
-        <v>357568</v>
+      <c r="D68" s="10">
+        <v>351597</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="4">
-        <v>111240</v>
+      <c r="J68" s="11">
+        <v>94782</v>
       </c>
       <c r="K68" s="1" t="str">
         <v>0|0|0</v>
@@ -3514,16 +3532,16 @@
     </row>
     <row customHeight="true" ht="25" r="69">
       <c r="A69" s="1">
-        <v>20014</v>
+        <v>20012</v>
       </c>
       <c r="B69" s="1" t="str">
-        <v>可爱女</v>
+        <v>雷神</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="12">
-        <v>351500</v>
+      <c r="D69" s="10">
+        <v>357570</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
@@ -3532,8 +3550,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="4">
-        <v>269652</v>
+      <c r="J69" s="11">
+        <v>111768</v>
       </c>
       <c r="K69" s="1" t="str">
         <v>0|0|0</v>
@@ -3556,16 +3574,16 @@
     </row>
     <row customHeight="true" ht="25" r="70">
       <c r="A70" s="1">
-        <v>20015</v>
+        <v>20013</v>
       </c>
       <c r="B70" s="1" t="str">
-        <v>丸子头女</v>
+        <v>黑寡妇</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="12">
-        <v>351497</v>
+      <c r="D70" s="10">
+        <v>357568</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -3574,8 +3592,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="4">
-        <v>60981</v>
+      <c r="J70" s="11">
+        <v>111240</v>
       </c>
       <c r="K70" s="1" t="str">
         <v>0|0|0</v>
@@ -3598,26 +3616,26 @@
     </row>
     <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
-        <v>20016</v>
+        <v>20014</v>
       </c>
       <c r="B71" s="1" t="str">
-        <v>西方神女</v>
+        <v>可爱女</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="12">
-        <v>351405</v>
+      <c r="D71" s="10">
+        <v>351500</v>
       </c>
       <c r="E71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="4">
-        <v>64410</v>
+      <c r="J71" s="11">
+        <v>269652</v>
       </c>
       <c r="K71" s="1" t="str">
         <v>0|0|0</v>
@@ -3640,26 +3658,26 @@
     </row>
     <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
-        <v>20017</v>
+        <v>20015</v>
       </c>
       <c r="B72" s="1" t="str">
-        <v>黑裙少女</v>
+        <v>丸子头女</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="12">
-        <v>351404</v>
+      <c r="D72" s="10">
+        <v>351497</v>
       </c>
       <c r="E72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="4">
-        <v>128834</v>
+      <c r="J72" s="11">
+        <v>60981</v>
       </c>
       <c r="K72" s="1" t="str">
         <v>0|0|0</v>
@@ -3682,26 +3700,26 @@
     </row>
     <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
-        <v>20018</v>
+        <v>20016</v>
       </c>
       <c r="B73" s="1" t="str">
-        <v>短发女</v>
+        <v>西方神女</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="12">
-        <v>351026</v>
+      <c r="D73" s="10">
+        <v>351405</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="4">
-        <v>115849</v>
+      <c r="J73" s="11">
+        <v>64410</v>
       </c>
       <c r="K73" s="1" t="str">
         <v>0|0|0</v>
@@ -3724,26 +3742,26 @@
     </row>
     <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
-        <v>20019</v>
+        <v>20017</v>
       </c>
       <c r="B74" s="1" t="str">
-        <v>旗袍女</v>
+        <v>黑裙少女</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="12">
-        <v>351025</v>
+      <c r="D74" s="10">
+        <v>351404</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="4">
-        <v>299082</v>
+      <c r="J74" s="11">
+        <v>128834</v>
       </c>
       <c r="K74" s="1" t="str">
         <v>0|0|0</v>
@@ -3766,26 +3784,26 @@
     </row>
     <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
-        <v>20020</v>
+        <v>20018</v>
       </c>
       <c r="B75" s="1" t="str">
-        <v>披风男</v>
+        <v>短发女</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="12">
-        <v>351024</v>
+      <c r="D75" s="10">
+        <v>351026</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="4">
-        <v>96576</v>
+      <c r="J75" s="11">
+        <v>115849</v>
       </c>
       <c r="K75" s="1" t="str">
         <v>0|0|0</v>
@@ -3808,26 +3826,26 @@
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>20021</v>
+        <v>20019</v>
       </c>
       <c r="B76" s="1" t="str">
-        <v>长发女</v>
+        <v>旗袍女</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="12">
-        <v>351004</v>
+      <c r="D76" s="10">
+        <v>351025</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="4">
-        <v>63291</v>
+      <c r="J76" s="11">
+        <v>299082</v>
       </c>
       <c r="K76" s="1" t="str">
         <v>0|0|0</v>
@@ -3850,16 +3868,16 @@
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>20022</v>
+        <v>20020</v>
       </c>
       <c r="B77" s="1" t="str">
-        <v>双马尾女</v>
+        <v>披风男</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="12">
-        <v>350987</v>
+      <c r="D77" s="10">
+        <v>351024</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3868,8 +3886,8 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="4">
-        <v>59857</v>
+      <c r="J77" s="11">
+        <v>96576</v>
       </c>
       <c r="K77" s="1" t="str">
         <v>0|0|0</v>
@@ -3892,16 +3910,16 @@
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>20023</v>
+        <v>20021</v>
       </c>
       <c r="B78" s="1" t="str">
-        <v>长发短裙女</v>
+        <v>长发女</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="3">
-        <v>350973</v>
+      <c r="D78" s="10">
+        <v>351004</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3910,8 +3928,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="4">
-        <v>63648</v>
+      <c r="J78" s="11">
+        <v>63291</v>
       </c>
       <c r="K78" s="1" t="str">
         <v>0|0|0</v>
@@ -3934,7 +3952,7 @@
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>20024</v>
+        <v>20022</v>
       </c>
       <c r="B79" s="1" t="str">
         <v>双马尾女</v>
@@ -3942,18 +3960,18 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="3">
-        <v>350959</v>
+      <c r="D79" s="10">
+        <v>350987</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="4">
-        <v>248351</v>
+      <c r="J79" s="11">
+        <v>59857</v>
       </c>
       <c r="K79" s="1" t="str">
         <v>0|0|0</v>
@@ -3976,26 +3994,26 @@
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>20025</v>
+        <v>20023</v>
       </c>
       <c r="B80" s="1" t="str">
-        <v>双马尾女</v>
+        <v>长发短裙女</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="3">
-        <v>350958</v>
+      <c r="D80" s="8">
+        <v>350973</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="4">
-        <v>64774</v>
+      <c r="J80" s="11">
+        <v>63648</v>
       </c>
       <c r="K80" s="1" t="str">
         <v>0|0|0</v>
@@ -4018,26 +4036,26 @@
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>20026</v>
+        <v>20024</v>
       </c>
       <c r="B81" s="1" t="str">
-        <v>百褶裙女孩</v>
+        <v>双马尾女</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="3">
-        <v>350756</v>
+      <c r="D81" s="8">
+        <v>350959</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="4">
-        <v>63291</v>
+      <c r="J81" s="11">
+        <v>248351</v>
       </c>
       <c r="K81" s="1" t="str">
         <v>0|0|0</v>
@@ -4060,16 +4078,16 @@
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>20027</v>
+        <v>20025</v>
       </c>
       <c r="B82" s="1" t="str">
-        <v>短发时尚女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="3">
-        <v>350752</v>
+      <c r="D82" s="8">
+        <v>350958</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -4078,8 +4096,8 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="4">
-        <v>111241</v>
+      <c r="J82" s="11">
+        <v>64774</v>
       </c>
       <c r="K82" s="1" t="str">
         <v>0|0|0</v>
@@ -4102,16 +4120,16 @@
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>20028</v>
+        <v>20026</v>
       </c>
       <c r="B83" s="1" t="str">
-        <v>长马尾女孩</v>
+        <v>百褶裙女孩</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="3">
-        <v>350746</v>
+      <c r="D83" s="8">
+        <v>350756</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -4120,8 +4138,8 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="4">
-        <v>121948</v>
+      <c r="J83" s="11">
+        <v>63291</v>
       </c>
       <c r="K83" s="1" t="str">
         <v>0|0|0</v>
@@ -4144,26 +4162,26 @@
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>20029</v>
+        <v>20027</v>
       </c>
       <c r="B84" s="1" t="str">
-        <v>长耳女</v>
+        <v>短发时尚女</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="3">
-        <v>350744</v>
+      <c r="D84" s="8">
+        <v>350752</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="4">
-        <v>64458</v>
+      <c r="J84" s="11">
+        <v>111241</v>
       </c>
       <c r="K84" s="1" t="str">
         <v>0|0|0</v>
@@ -4186,26 +4204,26 @@
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>20030</v>
+        <v>20028</v>
       </c>
       <c r="B85" s="1" t="str">
-        <v>风衣长发女</v>
+        <v>长马尾女孩</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="3">
-        <v>350739</v>
+      <c r="D85" s="8">
+        <v>350746</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="4">
-        <v>142606</v>
+      <c r="J85" s="11">
+        <v>121948</v>
       </c>
       <c r="K85" s="1" t="str">
         <v>0|0|0</v>
@@ -4228,16 +4246,16 @@
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>20031</v>
+        <v>20029</v>
       </c>
       <c r="B86" s="1" t="str">
-        <v>恶魔角女</v>
+        <v>长耳女</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
-      <c r="D86" s="3">
-        <v>350738</v>
+      <c r="D86" s="8">
+        <v>350744</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -4246,8 +4264,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="4">
-        <v>64305</v>
+      <c r="J86" s="11">
+        <v>64458</v>
       </c>
       <c r="K86" s="1" t="str">
         <v>0|0|0</v>
@@ -4270,16 +4288,16 @@
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>20032</v>
+        <v>20030</v>
       </c>
       <c r="B87" s="1" t="str">
-        <v>和服女</v>
+        <v>风衣长发女</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="3">
-        <v>350568</v>
+      <c r="D87" s="8">
+        <v>350739</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
@@ -4288,8 +4306,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="4">
-        <v>299082</v>
+      <c r="J87" s="11">
+        <v>142606</v>
       </c>
       <c r="K87" s="1" t="str">
         <v>0|0|0</v>
@@ -4312,16 +4330,16 @@
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>20033</v>
+        <v>20031</v>
       </c>
       <c r="B88" s="1" t="str">
-        <v>发卡女</v>
+        <v>恶魔角女</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
       </c>
-      <c r="D88" s="3">
-        <v>350318</v>
+      <c r="D88" s="8">
+        <v>350738</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -4330,8 +4348,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="4">
-        <v>181365</v>
+      <c r="J88" s="11">
+        <v>64305</v>
       </c>
       <c r="K88" s="1" t="str">
         <v>0|0|0</v>
@@ -4354,16 +4372,16 @@
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>20034</v>
+        <v>20032</v>
       </c>
       <c r="B89" s="1" t="str">
-        <v>女仆套装女</v>
+        <v>和服女</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="3">
-        <v>350569</v>
+      <c r="D89" s="8">
+        <v>350568</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
@@ -4372,8 +4390,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="4">
-        <v>63291</v>
+      <c r="J89" s="11">
+        <v>299082</v>
       </c>
       <c r="K89" s="1" t="str">
         <v>0|0|0</v>
@@ -4396,16 +4414,16 @@
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>20035</v>
+        <v>20033</v>
       </c>
       <c r="B90" s="1" t="str">
-        <v>帽子女</v>
+        <v>发卡女</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
-      <c r="D90" s="3">
-        <v>350314</v>
+      <c r="D90" s="8">
+        <v>350318</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4414,8 +4432,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="4">
-        <v>299082</v>
+      <c r="J90" s="11">
+        <v>181365</v>
       </c>
       <c r="K90" s="1" t="str">
         <v>0|0|0</v>
@@ -4438,26 +4456,26 @@
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>20036</v>
+        <v>20034</v>
       </c>
       <c r="B91" s="1" t="str">
-        <v>魔法女孩</v>
+        <v>女仆套装女</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="3">
-        <v>350260</v>
+      <c r="D91" s="8">
+        <v>350569</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="4">
-        <v>111088</v>
+      <c r="J91" s="11">
+        <v>63291</v>
       </c>
       <c r="K91" s="1" t="str">
         <v>0|0|0</v>
@@ -4480,26 +4498,26 @@
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>20037</v>
+        <v>20035</v>
       </c>
       <c r="B92" s="1" t="str">
-        <v>长裙女</v>
+        <v>帽子女</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
-      <c r="D92" s="3">
-        <v>349270</v>
+      <c r="D92" s="8">
+        <v>350314</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="4">
-        <v>124880</v>
+      <c r="J92" s="11">
+        <v>299082</v>
       </c>
       <c r="K92" s="1" t="str">
         <v>0|0|0</v>
@@ -4522,26 +4540,26 @@
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>20038</v>
+        <v>20036</v>
       </c>
       <c r="B93" s="1" t="str">
-        <v>杀手女</v>
+        <v>魔法女孩</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
-      <c r="D93" s="3">
-        <v>347528</v>
+      <c r="D93" s="8">
+        <v>350260</v>
       </c>
       <c r="E93" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="4">
-        <v>137518</v>
+      <c r="J93" s="11">
+        <v>111088</v>
       </c>
       <c r="K93" s="1" t="str">
         <v>0|0|0</v>
@@ -4564,26 +4582,26 @@
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>20039</v>
+        <v>20037</v>
       </c>
       <c r="B94" s="1" t="str">
-        <v>巫医</v>
+        <v>长裙女</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D94" s="3">
-        <v>145319</v>
+      <c r="D94" s="8">
+        <v>349270</v>
       </c>
       <c r="E94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="4">
-        <v>119773</v>
+      <c r="J94" s="11">
+        <v>124880</v>
       </c>
       <c r="K94" s="1" t="str">
         <v>0|0|0</v>
@@ -4606,26 +4624,26 @@
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>20040</v>
+        <v>20038</v>
       </c>
       <c r="B95" s="1" t="str">
-        <v>长腿妈妈</v>
+        <v>杀手女</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
-      <c r="D95" s="3">
-        <v>143403</v>
+      <c r="D95" s="8">
+        <v>347528</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="4">
-        <v>119229</v>
+      <c r="J95" s="11">
+        <v>137518</v>
       </c>
       <c r="K95" s="1" t="str">
         <v>0|0|0</v>
@@ -4648,26 +4666,26 @@
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>20041</v>
+        <v>20039</v>
       </c>
       <c r="B96" s="1" t="str">
-        <v>玄魁</v>
+        <v>巫医</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
-      <c r="D96" s="1">
-        <v>143402</v>
+      <c r="D96" s="8">
+        <v>145319</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="4">
-        <v>121882</v>
+      <c r="J96" s="11">
+        <v>119773</v>
       </c>
       <c r="K96" s="1" t="str">
         <v>0|0|0</v>
@@ -4690,16 +4708,16 @@
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>20042</v>
+        <v>20040</v>
       </c>
       <c r="B97" s="1" t="str">
-        <v>邪恶女巫</v>
+        <v>长腿妈妈</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="1">
-        <v>143401</v>
+      <c r="D97" s="8">
+        <v>143403</v>
       </c>
       <c r="E97" s="1">
         <v>2</v>
@@ -4708,8 +4726,8 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="4">
-        <v>119745</v>
+      <c r="J97" s="11">
+        <v>119229</v>
       </c>
       <c r="K97" s="1" t="str">
         <v>0|0|0</v>
@@ -4732,26 +4750,26 @@
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
-        <v>20043</v>
+        <v>20041</v>
       </c>
       <c r="B98" s="1" t="str">
-        <v>小丑女</v>
+        <v>玄魁</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>143400</v>
+        <v>143402</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="4">
-        <v>63539</v>
+      <c r="J98" s="11">
+        <v>121882</v>
       </c>
       <c r="K98" s="1" t="str">
         <v>0|0|0</v>
@@ -4774,16 +4792,16 @@
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>20044</v>
+        <v>20042</v>
       </c>
       <c r="B99" s="1" t="str">
-        <v>万圣节女</v>
+        <v>邪恶女巫</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>143399</v>
+        <v>143401</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -4792,8 +4810,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="4">
-        <v>60981</v>
+      <c r="J99" s="11">
+        <v>119745</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4816,26 +4834,26 @@
     </row>
     <row customHeight="true" ht="25" r="100">
       <c r="A100" s="1">
-        <v>20045</v>
+        <v>20043</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>屠夫</v>
+        <v>小丑女</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>143398</v>
+        <v>143400</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="4">
-        <v>109144</v>
+      <c r="J100" s="11">
+        <v>63539</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4858,26 +4876,26 @@
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>20046</v>
+        <v>20044</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>魔莱坞学院院长</v>
+        <v>万圣节女</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>143396</v>
+        <v>143399</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="4">
-        <v>64141</v>
+      <c r="J101" s="11">
+        <v>60981</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4900,16 +4918,16 @@
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>20047</v>
+        <v>20045</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>迷雾鬼影</v>
+        <v>屠夫</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>143395</v>
+        <v>143398</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4918,8 +4936,8 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="4">
-        <v>109058</v>
+      <c r="J102" s="11">
+        <v>109144</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4942,16 +4960,16 @@
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>20048</v>
+        <v>20046</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>蓝毛怪</v>
+        <v>魔莱坞学院院长</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>143394</v>
+        <v>143396</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -4960,8 +4978,8 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="4">
-        <v>109839</v>
+      <c r="J103" s="11">
+        <v>64141</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -4984,26 +5002,26 @@
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>20049</v>
+        <v>20047</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>狗头毛毛虫</v>
+        <v>迷雾鬼影</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>143390</v>
+        <v>143395</v>
       </c>
       <c r="E104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="4">
-        <v>118079</v>
+      <c r="J104" s="11">
+        <v>109058</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -5026,16 +5044,16 @@
     </row>
     <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>20050</v>
+        <v>20048</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>粉毛怪</v>
+        <v>蓝毛怪</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>143389</v>
+        <v>143394</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -5044,7 +5062,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="4">
+      <c r="J105" s="11">
         <v>109839</v>
       </c>
       <c r="K105" s="1" t="str">
@@ -5068,16 +5086,16 @@
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>20051</v>
+        <v>20049</v>
       </c>
       <c r="B106" s="1" t="str">
-        <v>索尼克</v>
+        <v>狗头毛毛虫</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>143387</v>
+        <v>143390</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -5086,8 +5104,8 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="4">
-        <v>117681</v>
+      <c r="J106" s="11">
+        <v>118079</v>
       </c>
       <c r="K106" s="1" t="str">
         <v>0|0|0</v>
@@ -5110,218 +5128,202 @@
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>20052</v>
-      </c>
-      <c r="B107" s="3" t="str">
-        <v>Rainbow friends</v>
-      </c>
-      <c r="C107" s="3">
+        <v>20050</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <v>粉毛怪</v>
+      </c>
+      <c r="C107" s="1">
         <v>2</v>
       </c>
-      <c r="D107" s="3">
-        <v>143385</v>
-      </c>
-      <c r="E107" s="3">
-        <v>3</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="16">
-        <v>119483</v>
-      </c>
-      <c r="K107" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L107" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M107" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="D107" s="1">
+        <v>143389</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="11">
+        <v>109839</v>
+      </c>
+      <c r="K107" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M107" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
       <c r="P107" s="1">
         <v>1</v>
       </c>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>20053</v>
-      </c>
-      <c r="B108" s="3" t="str">
-        <v>海神</v>
-      </c>
-      <c r="C108" s="3">
+        <v>20051</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <v>索尼克</v>
+      </c>
+      <c r="C108" s="1">
         <v>2</v>
       </c>
-      <c r="D108" s="3">
-        <v>226377</v>
-      </c>
-      <c r="E108" s="3">
-        <v>3</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3">
-        <v>226377</v>
-      </c>
-      <c r="K108" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L108" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M108" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
+      <c r="D108" s="1">
+        <v>143387</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="11">
+        <v>117681</v>
+      </c>
+      <c r="K108" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L108" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M108" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
       <c r="P108" s="1">
         <v>1</v>
       </c>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <v>恶魔翅膀</v>
-      </c>
-      <c r="C109" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B109" s="8" t="str">
+        <v>Rainbow friends</v>
+      </c>
+      <c r="C109" s="8">
+        <v>2</v>
+      </c>
+      <c r="D109" s="8">
+        <v>143385</v>
+      </c>
+      <c r="E109" s="8">
         <v>3</v>
       </c>
-      <c r="D109" s="1">
-        <v>223877</v>
-      </c>
-      <c r="E109" s="1">
-        <v>3</v>
-      </c>
-      <c r="F109" s="1">
-        <v>12</v>
-      </c>
-      <c r="G109" s="1" t="str">
-        <v>-10|0|10</v>
-      </c>
-      <c r="H109" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I109" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="J109" s="1">
-        <v>223877</v>
-      </c>
-      <c r="K109" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L109" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M109" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="9">
+        <v>119483</v>
+      </c>
+      <c r="K109" s="8" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L109" s="8" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M109" s="8" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
       <c r="P109" s="1">
         <v>1</v>
       </c>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="110">
       <c r="A110" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B110" s="1" t="str">
-        <v>恶魔角</v>
-      </c>
-      <c r="C110" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B110" s="8" t="str">
+        <v>海神</v>
+      </c>
+      <c r="C110" s="8">
+        <v>2</v>
+      </c>
+      <c r="D110" s="8">
+        <v>226377</v>
+      </c>
+      <c r="E110" s="8">
         <v>3</v>
       </c>
-      <c r="D110" s="1">
-        <v>266332</v>
-      </c>
-      <c r="E110" s="1">
-        <v>3</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1" t="str">
-        <v>0|5|10</v>
-      </c>
-      <c r="H110" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I110" s="1" t="str">
-        <v>1|1|2</v>
-      </c>
-      <c r="J110" s="1">
-        <v>266332</v>
-      </c>
-      <c r="K110" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L110" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M110" s="1" t="str">
-        <v>1|1|2</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8">
+        <v>226377</v>
+      </c>
+      <c r="K110" s="8" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L110" s="8" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M110" s="8" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
       <c r="P110" s="1">
         <v>1</v>
       </c>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="111">
       <c r="A111" s="1">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B111" s="1" t="str">
-        <v>恶魔尾巴</v>
+        <v>恶魔翅膀</v>
       </c>
       <c r="C111" s="1">
         <v>3</v>
       </c>
       <c r="D111" s="1">
-        <v>136179</v>
+        <v>223877</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
       </c>
       <c r="F111" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H111" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I111" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="J111" s="1">
-        <v>136179</v>
+        <v>223877</v>
       </c>
       <c r="K111" s="1" t="str">
         <v>0|0|0</v>
@@ -5330,7 +5332,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M111" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -5344,34 +5346,34 @@
     </row>
     <row customHeight="true" ht="25" r="112">
       <c r="A112" s="1">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B112" s="1" t="str">
-        <v>恶魔头骨</v>
+        <v>恶魔角</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
       </c>
       <c r="D112" s="1">
-        <v>136506</v>
+        <v>266332</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>-4.8|0|-11</v>
+        <v>0|5|10</v>
       </c>
       <c r="H112" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I112" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J112" s="1">
-        <v>136506</v>
+        <v>266332</v>
       </c>
       <c r="K112" s="1" t="str">
         <v>0|0|0</v>
@@ -5380,7 +5382,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M112" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -5394,34 +5396,34 @@
     </row>
     <row customHeight="true" ht="25" r="113">
       <c r="A113" s="1">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>恶魔三头犬</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>192395</v>
+        <v>136179</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H113" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I113" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J113" s="1">
-        <v>192395</v>
+        <v>136179</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5444,34 +5446,34 @@
     </row>
     <row customHeight="true" ht="25" r="114">
       <c r="A114" s="1">
-        <v>30006</v>
+        <v>30004</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>天使翅膀</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>334814</v>
+        <v>136506</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G114" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H114" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I114" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J114" s="1">
-        <v>334814</v>
+        <v>136506</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5494,16 +5496,16 @@
     </row>
     <row customHeight="true" ht="25" r="115">
       <c r="A115" s="1">
-        <v>30007</v>
+        <v>30005</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>天使蜘蛛</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>192359</v>
+        <v>192395</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
@@ -5521,7 +5523,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>192359</v>
+        <v>192395</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5544,34 +5546,34 @@
     </row>
     <row customHeight="true" ht="25" r="116">
       <c r="A116" s="1">
-        <v>30008</v>
+        <v>30006</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>狐狸尾巴</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>226476</v>
+        <v>334814</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G116" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H116" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I116" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J116" s="1">
-        <v>226476</v>
+        <v>334814</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5594,34 +5596,34 @@
     </row>
     <row customHeight="true" ht="25" r="117">
       <c r="A117" s="1">
-        <v>30009</v>
+        <v>30007</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>狐狸耳朵</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>226479</v>
+        <v>192359</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
       </c>
       <c r="F117" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G117" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H117" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I117" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J117" s="1">
-        <v>226479</v>
+        <v>192359</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5644,22 +5646,22 @@
     </row>
     <row customHeight="true" ht="25" r="118">
       <c r="A118" s="1">
-        <v>30010</v>
+        <v>30008</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>295506</v>
+        <v>226476</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
       </c>
       <c r="F118" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G118" s="1" t="str">
         <v>0|0|0</v>
@@ -5671,7 +5673,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J118" s="1">
-        <v>295506</v>
+        <v>226476</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5694,34 +5696,34 @@
     </row>
     <row customHeight="true" ht="25" r="119">
       <c r="A119" s="1">
-        <v>30011</v>
+        <v>30009</v>
       </c>
       <c r="B119" s="1" t="str">
-        <v>闪电翅膀</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>42818</v>
+        <v>226479</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G119" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H119" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I119" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J119" s="1">
-        <v>42818</v>
+        <v>226479</v>
       </c>
       <c r="K119" s="1" t="str">
         <v>0|0|0</v>
@@ -5744,16 +5746,16 @@
     </row>
     <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
-        <v>30012</v>
+        <v>30010</v>
       </c>
       <c r="B120" s="1" t="str">
-        <v>眼镜</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
-        <v>324491</v>
+        <v>295506</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
@@ -5762,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H120" s="1" t="str">
         <v>0|0|0</v>
@@ -5771,7 +5773,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J120" s="1">
-        <v>324491</v>
+        <v>295506</v>
       </c>
       <c r="K120" s="1" t="str">
         <v>0|0|0</v>
@@ -5794,34 +5796,34 @@
     </row>
     <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
-        <v>30013</v>
+        <v>30011</v>
       </c>
       <c r="B121" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>292313</v>
+        <v>42818</v>
       </c>
       <c r="E121" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F121" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G121" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>0|0|0</v>
       </c>
       <c r="H121" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|90</v>
       </c>
       <c r="I121" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J121" s="1">
-        <v>292313</v>
+        <v>42818</v>
       </c>
       <c r="K121" s="1" t="str">
         <v>0|0|0</v>
@@ -5830,7 +5832,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M121" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -5844,16 +5846,16 @@
     </row>
     <row customHeight="true" ht="25" r="122">
       <c r="A122" s="1">
-        <v>30014</v>
+        <v>30012</v>
       </c>
       <c r="B122" s="1" t="str">
-        <v>面纱</v>
+        <v>眼镜</v>
       </c>
       <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
-        <v>269783</v>
+        <v>324491</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
@@ -5862,16 +5864,16 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H122" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I122" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="J122" s="1">
-        <v>269783</v>
+        <v>324491</v>
       </c>
       <c r="K122" s="1" t="str">
         <v>0|0|0</v>
@@ -5880,7 +5882,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M122" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -5892,18 +5894,18 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="25" r="123">
+    <row customHeight="true" ht="25" r="123">
       <c r="A123" s="1">
-        <v>30015</v>
+        <v>30013</v>
       </c>
       <c r="B123" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>226826</v>
+        <v>292313</v>
       </c>
       <c r="E123" s="1">
         <v>3</v>
@@ -5912,16 +5914,16 @@
         <v>26</v>
       </c>
       <c r="G123" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H123" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I123" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J123" s="1">
-        <v>226826</v>
+        <v>292313</v>
       </c>
       <c r="K123" s="1" t="str">
         <v>0|0|0</v>
@@ -5930,7 +5932,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M123" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -5944,34 +5946,34 @@
     </row>
     <row customHeight="true" ht="25" r="124">
       <c r="A124" s="1">
-        <v>30016</v>
+        <v>30014</v>
       </c>
       <c r="B124" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>面纱</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>318663</v>
+        <v>269783</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
       </c>
       <c r="F124" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G124" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H124" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|0</v>
       </c>
       <c r="I124" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J124" s="1">
-        <v>318663</v>
+        <v>269783</v>
       </c>
       <c r="K124" s="1" t="str">
         <v>0|0|0</v>
@@ -5980,7 +5982,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M124" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -5992,36 +5994,36 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="125">
+    <row customHeight="true" hidden="true" ht="25" r="125">
       <c r="A125" s="1">
-        <v>30017</v>
+        <v>30015</v>
       </c>
       <c r="B125" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>152259</v>
+        <v>226826</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F125" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G125" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H125" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I125" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J125" s="1">
-        <v>152259</v>
+        <v>226826</v>
       </c>
       <c r="K125" s="1" t="str">
         <v>0|0|0</v>
@@ -6030,7 +6032,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M125" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -6044,34 +6046,34 @@
     </row>
     <row customHeight="true" ht="25" r="126">
       <c r="A126" s="1">
-        <v>30018</v>
+        <v>30016</v>
       </c>
       <c r="B126" s="1" t="str">
-        <v>龙</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
       </c>
       <c r="D126" s="1">
-        <v>292574</v>
+        <v>318663</v>
       </c>
       <c r="E126" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G126" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H126" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I126" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J126" s="1">
-        <v>292574</v>
+        <v>318663</v>
       </c>
       <c r="K126" s="1" t="str">
         <v>0|0|0</v>
@@ -6080,7 +6082,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M126" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -6094,19 +6096,19 @@
     </row>
     <row customHeight="true" ht="25" r="127">
       <c r="A127" s="1">
-        <v>30019</v>
+        <v>30017</v>
       </c>
       <c r="B127" s="1" t="str">
-        <v>帝王龙</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C127" s="1">
         <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>192533</v>
+        <v>152259</v>
       </c>
       <c r="E127" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F127" s="1">
         <v>21</v>
@@ -6121,7 +6123,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J127" s="1">
-        <v>192533</v>
+        <v>152259</v>
       </c>
       <c r="K127" s="1" t="str">
         <v>0|0|0</v>
@@ -6144,19 +6146,19 @@
     </row>
     <row customHeight="true" ht="25" r="128">
       <c r="A128" s="1">
-        <v>30020</v>
+        <v>30018</v>
       </c>
       <c r="B128" s="1" t="str">
-        <v>地狱龙</v>
+        <v>龙</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
       </c>
       <c r="D128" s="1">
-        <v>192420</v>
+        <v>292574</v>
       </c>
       <c r="E128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="1">
         <v>21</v>
@@ -6171,7 +6173,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J128" s="1">
-        <v>192420</v>
+        <v>292574</v>
       </c>
       <c r="K128" s="1" t="str">
         <v>0|0|0</v>
@@ -6194,16 +6196,16 @@
     </row>
     <row customHeight="true" ht="25" r="129">
       <c r="A129" s="1">
-        <v>30021</v>
+        <v>30019</v>
       </c>
       <c r="B129" s="1" t="str">
-        <v>糖果龙</v>
+        <v>帝王龙</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1">
-        <v>191950</v>
+        <v>192533</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -6221,7 +6223,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J129" s="1">
-        <v>191950</v>
+        <v>192533</v>
       </c>
       <c r="K129" s="1" t="str">
         <v>0|0|0</v>
@@ -6244,16 +6246,16 @@
     </row>
     <row customHeight="true" ht="25" r="130">
       <c r="A130" s="1">
-        <v>30022</v>
+        <v>30020</v>
       </c>
       <c r="B130" s="1" t="str">
-        <v>武士龙</v>
+        <v>地狱龙</v>
       </c>
       <c r="C130" s="1">
         <v>3</v>
       </c>
       <c r="D130" s="1">
-        <v>191852</v>
+        <v>192420</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -6271,7 +6273,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J130" s="1">
-        <v>191852</v>
+        <v>192420</v>
       </c>
       <c r="K130" s="1" t="str">
         <v>0|0|0</v>
@@ -6294,34 +6296,34 @@
     </row>
     <row customHeight="true" ht="25" r="131">
       <c r="A131" s="1">
-        <v>30023</v>
+        <v>30021</v>
       </c>
       <c r="B131" s="1" t="str">
-        <v>水晶翅膀</v>
+        <v>糖果龙</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
       </c>
       <c r="D131" s="1">
-        <v>375788</v>
+        <v>191950</v>
       </c>
       <c r="E131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G131" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H131" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I131" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J131" s="1">
-        <v>375788</v>
+        <v>191950</v>
       </c>
       <c r="K131" s="1" t="str">
         <v>0|0|0</v>
@@ -6344,34 +6346,34 @@
     </row>
     <row customHeight="true" ht="25" r="132">
       <c r="A132" s="1">
-        <v>30024</v>
+        <v>30022</v>
       </c>
       <c r="B132" s="1" t="str">
-        <v>杀戮翅膀</v>
+        <v>武士龙</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
       </c>
       <c r="D132" s="1">
-        <v>136966</v>
+        <v>191852</v>
       </c>
       <c r="E132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G132" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H132" s="1" t="str">
-        <v>0|0|180</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I132" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J132" s="1">
-        <v>136966</v>
+        <v>191852</v>
       </c>
       <c r="K132" s="1" t="str">
         <v>0|0|0</v>
@@ -6394,16 +6396,16 @@
     </row>
     <row customHeight="true" ht="25" r="133">
       <c r="A133" s="1">
-        <v>30025</v>
+        <v>30023</v>
       </c>
       <c r="B133" s="1" t="str">
-        <v>地狱翅膀</v>
+        <v>水晶翅膀</v>
       </c>
       <c r="C133" s="1">
         <v>3</v>
       </c>
       <c r="D133" s="1">
-        <v>145912</v>
+        <v>375788</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -6421,7 +6423,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J133" s="1">
-        <v>145912</v>
+        <v>375788</v>
       </c>
       <c r="K133" s="1" t="str">
         <v>0|0|0</v>
@@ -6444,16 +6446,16 @@
     </row>
     <row customHeight="true" ht="25" r="134">
       <c r="A134" s="1">
-        <v>30026</v>
+        <v>30024</v>
       </c>
       <c r="B134" s="1" t="str">
-        <v>精灵翅膀</v>
+        <v>杀戮翅膀</v>
       </c>
       <c r="C134" s="1">
         <v>3</v>
       </c>
       <c r="D134" s="1">
-        <v>393543</v>
+        <v>136966</v>
       </c>
       <c r="E134" s="1">
         <v>2</v>
@@ -6465,13 +6467,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H134" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|180</v>
       </c>
       <c r="I134" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J134" s="1">
-        <v>393543</v>
+        <v>136966</v>
       </c>
       <c r="K134" s="1" t="str">
         <v>0|0|0</v>
@@ -6494,16 +6496,16 @@
     </row>
     <row customHeight="true" ht="25" r="135">
       <c r="A135" s="1">
-        <v>30027</v>
+        <v>30025</v>
       </c>
       <c r="B135" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>地狱翅膀</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
       </c>
       <c r="D135" s="1">
-        <v>211667</v>
+        <v>145912</v>
       </c>
       <c r="E135" s="1">
         <v>2</v>
@@ -6521,7 +6523,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J135" s="1">
-        <v>211667</v>
+        <v>145912</v>
       </c>
       <c r="K135" s="1" t="str">
         <v>0|0|0</v>
@@ -6544,34 +6546,34 @@
     </row>
     <row customHeight="true" ht="25" r="136">
       <c r="A136" s="1">
-        <v>30028</v>
+        <v>30026</v>
       </c>
       <c r="B136" s="1" t="str">
-        <v>大剑</v>
+        <v>精灵翅膀</v>
       </c>
       <c r="C136" s="1">
         <v>3</v>
       </c>
       <c r="D136" s="1">
-        <v>186519</v>
+        <v>393543</v>
       </c>
       <c r="E136" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" s="1">
         <v>12</v>
       </c>
       <c r="G136" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H136" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I136" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J136" s="1">
-        <v>186519</v>
+        <v>393543</v>
       </c>
       <c r="K136" s="1" t="str">
         <v>0|0|0</v>
@@ -6594,34 +6596,34 @@
     </row>
     <row customHeight="true" ht="25" r="137">
       <c r="A137" s="1">
-        <v>30029</v>
+        <v>30027</v>
       </c>
       <c r="B137" s="1" t="str">
-        <v>天使剑</v>
+        <v>火焰翅膀</v>
       </c>
       <c r="C137" s="1">
         <v>3</v>
       </c>
       <c r="D137" s="1">
-        <v>20971</v>
+        <v>211667</v>
       </c>
       <c r="E137" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F137" s="1">
         <v>12</v>
       </c>
       <c r="G137" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H137" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I137" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J137" s="1">
-        <v>20971</v>
+        <v>211667</v>
       </c>
       <c r="K137" s="1" t="str">
         <v>0|0|0</v>
@@ -6643,43 +6645,47 @@
       <c r="T137" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="138">
-      <c r="A138" s="2">
-        <v>40001</v>
-      </c>
-      <c r="B138" s="2" t="str">
-        <v>蛇女</v>
-      </c>
-      <c r="C138" s="2">
-        <v>4</v>
-      </c>
-      <c r="D138" s="2">
-        <v>328236</v>
-      </c>
-      <c r="E138" s="2">
+      <c r="A138" s="1">
+        <v>30028</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <v>大剑</v>
+      </c>
+      <c r="C138" s="1">
         <v>3</v>
       </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2">
-        <v>328236</v>
-      </c>
-      <c r="K138" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L138" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M138" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N138" s="10">
-        <v>318618</v>
-      </c>
-      <c r="O138" s="10">
-        <v>318617</v>
-      </c>
+      <c r="D138" s="1">
+        <v>186519</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <v>12</v>
+      </c>
+      <c r="G138" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I138" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J138" s="1">
+        <v>186519</v>
+      </c>
+      <c r="K138" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L138" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M138" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
       <c r="P138" s="1">
         <v>1</v>
       </c>
@@ -6689,43 +6695,47 @@
       <c r="T138" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="139">
-      <c r="A139" s="2">
-        <v>40002</v>
-      </c>
-      <c r="B139" s="2" t="str">
-        <v>络新妇</v>
-      </c>
-      <c r="C139" s="2">
-        <v>4</v>
-      </c>
-      <c r="D139" s="2">
-        <v>338436</v>
-      </c>
-      <c r="E139" s="2">
+      <c r="A139" s="1">
+        <v>30029</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <v>天使剑</v>
+      </c>
+      <c r="C139" s="1">
         <v>3</v>
       </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2">
-        <v>338436</v>
-      </c>
-      <c r="K139" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L139" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M139" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N139" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O139" s="10">
-        <v>338467</v>
-      </c>
+      <c r="D139" s="1">
+        <v>20971</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1">
+        <v>12</v>
+      </c>
+      <c r="G139" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I139" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>20971</v>
+      </c>
+      <c r="K139" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L139" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M139" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
       <c r="P139" s="1">
         <v>1</v>
       </c>
@@ -6735,42 +6745,42 @@
       <c r="T139" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="2">
-        <v>40003</v>
-      </c>
-      <c r="B140" s="2" t="str">
-        <v>大蜘蛛</v>
-      </c>
-      <c r="C140" s="2">
+      <c r="A140" s="5">
+        <v>40001</v>
+      </c>
+      <c r="B140" s="5" t="str">
+        <v>蛇女</v>
+      </c>
+      <c r="C140" s="5">
         <v>4</v>
       </c>
-      <c r="D140" s="2">
-        <v>328291</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="D140" s="5">
+        <v>328236</v>
+      </c>
+      <c r="E140" s="5">
         <v>3</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2">
-        <v>328291</v>
-      </c>
-      <c r="K140" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L140" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M140" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N140" s="11">
-        <v>336668</v>
-      </c>
-      <c r="O140" s="10">
-        <v>336669</v>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5">
+        <v>328236</v>
+      </c>
+      <c r="K140" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N140" s="13">
+        <v>318618</v>
+      </c>
+      <c r="O140" s="13">
+        <v>318617</v>
       </c>
       <c r="P140" s="1">
         <v>1</v>
@@ -6781,42 +6791,42 @@
       <c r="T140" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="2">
-        <v>40004</v>
-      </c>
-      <c r="B141" s="2" t="str">
-        <v>小型抱脸紫蜘蛛</v>
-      </c>
-      <c r="C141" s="2">
+      <c r="A141" s="5">
+        <v>40002</v>
+      </c>
+      <c r="B141" s="5" t="str">
+        <v>络新妇</v>
+      </c>
+      <c r="C141" s="5">
         <v>4</v>
       </c>
-      <c r="D141" s="2">
-        <v>340103</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="D141" s="5">
+        <v>338436</v>
+      </c>
+      <c r="E141" s="5">
         <v>3</v>
       </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2">
-        <v>340103</v>
-      </c>
-      <c r="K141" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L141" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M141" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N141" s="11">
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5">
+        <v>338436</v>
+      </c>
+      <c r="K141" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L141" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M141" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N141" s="12">
         <v>336668</v>
       </c>
-      <c r="O141" s="10">
-        <v>336669</v>
+      <c r="O141" s="13">
+        <v>338467</v>
       </c>
       <c r="P141" s="1">
         <v>1</v>
@@ -6827,41 +6837,41 @@
       <c r="T141" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="142">
-      <c r="A142" s="2">
-        <v>40005</v>
-      </c>
-      <c r="B142" s="2" t="str">
-        <v>小型抱脸红蜘蛛</v>
-      </c>
-      <c r="C142" s="2">
+      <c r="A142" s="5">
+        <v>40003</v>
+      </c>
+      <c r="B142" s="5" t="str">
+        <v>大蜘蛛</v>
+      </c>
+      <c r="C142" s="5">
         <v>4</v>
       </c>
-      <c r="D142" s="2">
-        <v>340104</v>
-      </c>
-      <c r="E142" s="2">
+      <c r="D142" s="5">
+        <v>328291</v>
+      </c>
+      <c r="E142" s="5">
         <v>3</v>
       </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2">
-        <v>340104</v>
-      </c>
-      <c r="K142" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L142" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M142" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N142" s="11">
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5">
+        <v>328291</v>
+      </c>
+      <c r="K142" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L142" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M142" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N142" s="12">
         <v>336668</v>
       </c>
-      <c r="O142" s="10">
+      <c r="O142" s="13">
         <v>336669</v>
       </c>
       <c r="P142" s="1">
@@ -6873,41 +6883,41 @@
       <c r="T142" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="143">
-      <c r="A143" s="2">
-        <v>40006</v>
-      </c>
-      <c r="B143" s="2" t="str">
-        <v>小型抱脸绿蜘蛛</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="A143" s="5">
+        <v>40004</v>
+      </c>
+      <c r="B143" s="5" t="str">
+        <v>小型抱脸紫蜘蛛</v>
+      </c>
+      <c r="C143" s="5">
         <v>4</v>
       </c>
-      <c r="D143" s="2">
-        <v>340105</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="D143" s="5">
+        <v>340103</v>
+      </c>
+      <c r="E143" s="5">
         <v>3</v>
       </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2">
-        <v>340105</v>
-      </c>
-      <c r="K143" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L143" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M143" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N143" s="11">
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5">
+        <v>340103</v>
+      </c>
+      <c r="K143" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L143" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M143" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N143" s="12">
         <v>336668</v>
       </c>
-      <c r="O143" s="10">
+      <c r="O143" s="13">
         <v>336669</v>
       </c>
       <c r="P143" s="1">
@@ -6919,41 +6929,41 @@
       <c r="T143" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="144">
-      <c r="A144" s="2">
-        <v>40007</v>
-      </c>
-      <c r="B144" s="2" t="str">
-        <v>小型抱脸蓝蜘蛛</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="A144" s="5">
+        <v>40005</v>
+      </c>
+      <c r="B144" s="5" t="str">
+        <v>小型抱脸红蜘蛛</v>
+      </c>
+      <c r="C144" s="5">
         <v>4</v>
       </c>
-      <c r="D144" s="2">
-        <v>340106</v>
-      </c>
-      <c r="E144" s="2">
+      <c r="D144" s="5">
+        <v>340104</v>
+      </c>
+      <c r="E144" s="5">
         <v>3</v>
       </c>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2">
-        <v>340106</v>
-      </c>
-      <c r="K144" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L144" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M144" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N144" s="11">
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5">
+        <v>340104</v>
+      </c>
+      <c r="K144" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L144" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M144" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N144" s="12">
         <v>336668</v>
       </c>
-      <c r="O144" s="10">
+      <c r="O144" s="13">
         <v>336669</v>
       </c>
       <c r="P144" s="1">
@@ -6965,42 +6975,42 @@
       <c r="T144" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="145">
-      <c r="A145" s="2">
-        <v>40008</v>
-      </c>
-      <c r="B145" s="2" t="str">
-        <v>小龙</v>
-      </c>
-      <c r="C145" s="2">
+      <c r="A145" s="5">
+        <v>40006</v>
+      </c>
+      <c r="B145" s="5" t="str">
+        <v>小型抱脸绿蜘蛛</v>
+      </c>
+      <c r="C145" s="5">
         <v>4</v>
       </c>
-      <c r="D145" s="2">
-        <v>328246</v>
-      </c>
-      <c r="E145" s="2">
-        <v>1</v>
-      </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2">
-        <v>328246</v>
-      </c>
-      <c r="K145" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L145" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M145" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N145" s="11">
-        <v>160627</v>
+      <c r="D145" s="5">
+        <v>340105</v>
+      </c>
+      <c r="E145" s="5">
+        <v>3</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5">
+        <v>340105</v>
+      </c>
+      <c r="K145" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L145" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M145" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N145" s="12">
+        <v>336668</v>
       </c>
       <c r="O145" s="13">
-        <v>160628</v>
+        <v>336669</v>
       </c>
       <c r="P145" s="1">
         <v>1</v>
@@ -7011,42 +7021,42 @@
       <c r="T145" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="146">
-      <c r="A146" s="2">
-        <v>40009</v>
-      </c>
-      <c r="B146" s="2" t="str">
-        <v>卡通木龙</v>
-      </c>
-      <c r="C146" s="2">
+      <c r="A146" s="5">
+        <v>40007</v>
+      </c>
+      <c r="B146" s="5" t="str">
+        <v>小型抱脸蓝蜘蛛</v>
+      </c>
+      <c r="C146" s="5">
         <v>4</v>
       </c>
-      <c r="D146" s="2">
-        <v>328030</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2">
-        <v>328030</v>
-      </c>
-      <c r="K146" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L146" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M146" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N146" s="11">
-        <v>160627</v>
+      <c r="D146" s="5">
+        <v>340106</v>
+      </c>
+      <c r="E146" s="5">
+        <v>3</v>
+      </c>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5">
+        <v>340106</v>
+      </c>
+      <c r="K146" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L146" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M146" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N146" s="12">
+        <v>336668</v>
       </c>
       <c r="O146" s="13">
-        <v>160628</v>
+        <v>336669</v>
       </c>
       <c r="P146" s="1">
         <v>1</v>
@@ -7057,41 +7067,41 @@
       <c r="T146" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="147">
-      <c r="A147" s="2">
-        <v>40010</v>
-      </c>
-      <c r="B147" s="2" t="str">
-        <v>红龙</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="A147" s="5">
+        <v>40008</v>
+      </c>
+      <c r="B147" s="5" t="str">
+        <v>小龙</v>
+      </c>
+      <c r="C147" s="5">
         <v>4</v>
       </c>
-      <c r="D147" s="2">
-        <v>328093</v>
-      </c>
-      <c r="E147" s="2">
-        <v>1</v>
-      </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2">
-        <v>328093</v>
-      </c>
-      <c r="K147" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L147" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M147" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N147" s="11">
+      <c r="D147" s="5">
+        <v>328246</v>
+      </c>
+      <c r="E147" s="5">
+        <v>1</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5">
+        <v>328246</v>
+      </c>
+      <c r="K147" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L147" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M147" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N147" s="12">
         <v>160627</v>
       </c>
-      <c r="O147" s="13">
+      <c r="O147" s="15">
         <v>160628</v>
       </c>
       <c r="P147" s="1">
@@ -7103,41 +7113,41 @@
       <c r="T147" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="148">
-      <c r="A148" s="2">
-        <v>40011</v>
-      </c>
-      <c r="B148" s="2" t="str">
-        <v>黄龙</v>
-      </c>
-      <c r="C148" s="2">
+      <c r="A148" s="5">
+        <v>40009</v>
+      </c>
+      <c r="B148" s="5" t="str">
+        <v>卡通木龙</v>
+      </c>
+      <c r="C148" s="5">
         <v>4</v>
       </c>
-      <c r="D148" s="2">
-        <v>328083</v>
-      </c>
-      <c r="E148" s="2">
-        <v>1</v>
-      </c>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2">
-        <v>328083</v>
-      </c>
-      <c r="K148" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L148" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M148" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N148" s="11">
+      <c r="D148" s="5">
+        <v>328030</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5">
+        <v>328030</v>
+      </c>
+      <c r="K148" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L148" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M148" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N148" s="12">
         <v>160627</v>
       </c>
-      <c r="O148" s="13">
+      <c r="O148" s="15">
         <v>160628</v>
       </c>
       <c r="P148" s="1">
@@ -7149,41 +7159,41 @@
       <c r="T148" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="149">
-      <c r="A149" s="2">
-        <v>40012</v>
-      </c>
-      <c r="B149" s="2" t="str">
-        <v>蓝龙</v>
-      </c>
-      <c r="C149" s="2">
+      <c r="A149" s="5">
+        <v>40010</v>
+      </c>
+      <c r="B149" s="5" t="str">
+        <v>红龙</v>
+      </c>
+      <c r="C149" s="5">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
-        <v>328088</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2">
-        <v>328088</v>
-      </c>
-      <c r="K149" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L149" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M149" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N149" s="11">
+      <c r="D149" s="5">
+        <v>328093</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5">
+        <v>328093</v>
+      </c>
+      <c r="K149" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L149" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M149" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N149" s="12">
         <v>160627</v>
       </c>
-      <c r="O149" s="13">
+      <c r="O149" s="15">
         <v>160628</v>
       </c>
       <c r="P149" s="1">
@@ -7195,39 +7205,43 @@
       <c r="T149" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="150">
-      <c r="A150" s="1">
-        <v>20054</v>
-      </c>
-      <c r="B150" s="1" t="str">
-        <v>奥特之神</v>
-      </c>
-      <c r="C150" s="1">
-        <v>2</v>
-      </c>
-      <c r="D150" s="1">
-        <v>162938</v>
-      </c>
-      <c r="E150" s="1">
-        <v>3</v>
-      </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1">
-        <v>162938</v>
-      </c>
-      <c r="K150" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L150" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M150" s="2" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
+      <c r="A150" s="5">
+        <v>40011</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4</v>
+      </c>
+      <c r="D150" s="5">
+        <v>328083</v>
+      </c>
+      <c r="E150" s="5">
+        <v>1</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5">
+        <v>328083</v>
+      </c>
+      <c r="K150" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L150" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M150" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N150" s="12">
+        <v>160627</v>
+      </c>
+      <c r="O150" s="15">
+        <v>160628</v>
+      </c>
       <c r="P150" s="1">
         <v>1</v>
       </c>
@@ -7237,20 +7251,88 @@
       <c r="T150" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="151">
-      <c r="A151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="A151" s="5">
+        <v>40012</v>
+      </c>
+      <c r="B151" s="5" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C151" s="5">
+        <v>4</v>
+      </c>
+      <c r="D151" s="5">
+        <v>328088</v>
+      </c>
+      <c r="E151" s="5">
+        <v>1</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5">
+        <v>328088</v>
+      </c>
+      <c r="K151" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L151" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M151" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N151" s="12">
+        <v>160627</v>
+      </c>
+      <c r="O151" s="15">
+        <v>160628</v>
+      </c>
+      <c r="P151" s="1">
+        <v>1</v>
+      </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="152">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <v>奥特之神</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
+        <v>162938</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1">
+        <v>162938</v>
+      </c>
+      <c r="K152" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L152" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M152" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="P152" s="1">
+        <v>1</v>
+      </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -7278,18 +7360,6 @@
     </row>
     <row customHeight="true" ht="25" r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -7300,18 +7370,6 @@
     </row>
     <row customHeight="true" ht="25" r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -7498,34 +7556,18 @@
     </row>
     <row customHeight="true" ht="25" r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="1" t="str">
-        <v>小鸟模型</v>
-      </c>
-      <c r="C165" s="1">
-        <v>4</v>
-      </c>
-      <c r="D165" s="1">
-        <v>336884</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="1">
-        <v>336884</v>
-      </c>
-      <c r="K165" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L165" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M165" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
@@ -7536,34 +7578,18 @@
     </row>
     <row customHeight="true" ht="25" r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="1" t="str">
-        <v>野狼</v>
-      </c>
-      <c r="C166" s="1">
-        <v>4</v>
-      </c>
-      <c r="D166" s="1">
-        <v>328238</v>
-      </c>
-      <c r="E166" s="1">
-        <v>2</v>
-      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="1">
-        <v>328238</v>
-      </c>
-      <c r="K166" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L166" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M166" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -7575,23 +7601,23 @@
     <row customHeight="true" ht="25" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="str">
-        <v>棕野狼</v>
+        <v>小鸟模型</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
       </c>
       <c r="D167" s="1">
-        <v>328219</v>
+        <v>336884</v>
       </c>
       <c r="E167" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1">
-        <v>328219</v>
+        <v>336884</v>
       </c>
       <c r="K167" s="1" t="str">
         <v>0|0|0</v>
@@ -7613,13 +7639,13 @@
     <row customHeight="true" ht="25" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="str">
-        <v>小兔子</v>
+        <v>野狼</v>
       </c>
       <c r="C168" s="1">
         <v>4</v>
       </c>
       <c r="D168" s="1">
-        <v>328216</v>
+        <v>328238</v>
       </c>
       <c r="E168" s="1">
         <v>2</v>
@@ -7629,7 +7655,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1">
-        <v>328216</v>
+        <v>328238</v>
       </c>
       <c r="K168" s="1" t="str">
         <v>0|0|0</v>
@@ -7651,13 +7677,13 @@
     <row customHeight="true" ht="25" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="str">
-        <v>登山猫</v>
+        <v>棕野狼</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
       </c>
       <c r="D169" s="1">
-        <v>328187</v>
+        <v>328219</v>
       </c>
       <c r="E169" s="1">
         <v>2</v>
@@ -7667,7 +7693,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1">
-        <v>328187</v>
+        <v>328219</v>
       </c>
       <c r="K169" s="1" t="str">
         <v>0|0|0</v>
@@ -7689,13 +7715,13 @@
     <row customHeight="true" ht="25" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="str">
-        <v>水手猫</v>
+        <v>小兔子</v>
       </c>
       <c r="C170" s="1">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <v>328197</v>
+        <v>328216</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -7705,7 +7731,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1">
-        <v>328197</v>
+        <v>328216</v>
       </c>
       <c r="K170" s="1" t="str">
         <v>0|0|0</v>
@@ -7727,13 +7753,13 @@
     <row customHeight="true" ht="25" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="str">
-        <v>舞狮头猫</v>
+        <v>登山猫</v>
       </c>
       <c r="C171" s="1">
         <v>4</v>
       </c>
       <c r="D171" s="1">
-        <v>328144</v>
+        <v>328187</v>
       </c>
       <c r="E171" s="1">
         <v>2</v>
@@ -7743,7 +7769,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1">
-        <v>328144</v>
+        <v>328187</v>
       </c>
       <c r="K171" s="1" t="str">
         <v>0|0|0</v>
@@ -7765,13 +7791,13 @@
     <row customHeight="true" ht="25" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="str">
-        <v>祥云能量猫</v>
+        <v>水手猫</v>
       </c>
       <c r="C172" s="1">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <v>328137</v>
+        <v>328197</v>
       </c>
       <c r="E172" s="1">
         <v>2</v>
@@ -7781,7 +7807,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1">
-        <v>328137</v>
+        <v>328197</v>
       </c>
       <c r="K172" s="1" t="str">
         <v>0|0|0</v>
@@ -7803,13 +7829,13 @@
     <row customHeight="true" ht="25" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="str">
-        <v>喜庆棉服猫</v>
+        <v>舞狮头猫</v>
       </c>
       <c r="C173" s="1">
         <v>4</v>
       </c>
       <c r="D173" s="1">
-        <v>328135</v>
+        <v>328144</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -7819,7 +7845,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1">
-        <v>328135</v>
+        <v>328144</v>
       </c>
       <c r="K173" s="1" t="str">
         <v>0|0|0</v>
@@ -7841,13 +7867,13 @@
     <row customHeight="true" ht="25" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="str">
-        <v>冰雪狐</v>
+        <v>祥云能量猫</v>
       </c>
       <c r="C174" s="1">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <v>328081</v>
+        <v>328137</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -7857,7 +7883,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1">
-        <v>328081</v>
+        <v>328137</v>
       </c>
       <c r="K174" s="1" t="str">
         <v>0|0|0</v>
@@ -7879,13 +7905,13 @@
     <row customHeight="true" ht="25" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>喜庆棉服猫</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
       </c>
       <c r="D175" s="1">
-        <v>328030</v>
+        <v>328135</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -7895,7 +7921,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1">
-        <v>328030</v>
+        <v>328135</v>
       </c>
       <c r="K175" s="1" t="str">
         <v>0|0|0</v>
@@ -7917,13 +7943,13 @@
     <row customHeight="true" ht="25" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="str">
-        <v>红龙</v>
+        <v>冰雪狐</v>
       </c>
       <c r="C176" s="1">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>328093</v>
+        <v>328081</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
@@ -7933,7 +7959,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1">
-        <v>328093</v>
+        <v>328081</v>
       </c>
       <c r="K176" s="1" t="str">
         <v>0|0|0</v>
@@ -7955,13 +7981,13 @@
     <row customHeight="true" ht="25" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="str">
-        <v>黄龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C177" s="1">
         <v>4</v>
       </c>
       <c r="D177" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
@@ -7971,7 +7997,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="K177" s="1" t="str">
         <v>0|0|0</v>
@@ -7993,13 +8019,13 @@
     <row customHeight="true" ht="25" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="str">
-        <v>蓝龙</v>
+        <v>红龙</v>
       </c>
       <c r="C178" s="1">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
@@ -8009,7 +8035,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="K178" s="1" t="str">
         <v>0|0|0</v>
@@ -8031,23 +8057,23 @@
     <row customHeight="true" ht="25" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="str">
-        <v>唐装坐骑熊猫</v>
+        <v>黄龙</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="1">
-        <v>327940</v>
+        <v>328083</v>
       </c>
       <c r="E179" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1">
-        <v>327940</v>
+        <v>328083</v>
       </c>
       <c r="K179" s="1" t="str">
         <v>0|0|0</v>
@@ -8069,13 +8095,13 @@
     <row customHeight="true" ht="25" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="str">
-        <v>唐装熊猫</v>
+        <v>蓝龙</v>
       </c>
       <c r="C180" s="1">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <v>327934</v>
+        <v>328088</v>
       </c>
       <c r="E180" s="1">
         <v>2</v>
@@ -8085,7 +8111,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1">
-        <v>327934</v>
+        <v>328088</v>
       </c>
       <c r="K180" s="1" t="str">
         <v>0|0|0</v>
@@ -8107,23 +8133,23 @@
     <row customHeight="true" ht="25" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="str">
-        <v>小金毛</v>
+        <v>唐装坐骑熊猫</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
       </c>
       <c r="D181" s="1">
-        <v>327936</v>
+        <v>327940</v>
       </c>
       <c r="E181" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1">
-        <v>327936</v>
+        <v>327940</v>
       </c>
       <c r="K181" s="1" t="str">
         <v>0|0|0</v>
@@ -8145,13 +8171,13 @@
     <row customHeight="true" ht="25" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="str">
-        <v>垂耳兔</v>
+        <v>唐装熊猫</v>
       </c>
       <c r="C182" s="1">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>327907</v>
+        <v>327934</v>
       </c>
       <c r="E182" s="1">
         <v>2</v>
@@ -8161,7 +8187,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1">
-        <v>327907</v>
+        <v>327934</v>
       </c>
       <c r="K182" s="1" t="str">
         <v>0|0|0</v>
@@ -8183,13 +8209,13 @@
     <row customHeight="true" ht="25" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="str">
-        <v>无毛猫</v>
+        <v>小金毛</v>
       </c>
       <c r="C183" s="1">
         <v>4</v>
       </c>
       <c r="D183" s="1">
-        <v>327894</v>
+        <v>327936</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
@@ -8199,7 +8225,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1">
-        <v>327894</v>
+        <v>327936</v>
       </c>
       <c r="K183" s="1" t="str">
         <v>0|0|0</v>
@@ -8221,13 +8247,13 @@
     <row customHeight="true" ht="25" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="str">
-        <v>蓝白帽子猫</v>
+        <v>垂耳兔</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <v>327891</v>
+        <v>327907</v>
       </c>
       <c r="E184" s="1">
         <v>2</v>
@@ -8237,7 +8263,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1">
-        <v>327891</v>
+        <v>327907</v>
       </c>
       <c r="K184" s="1" t="str">
         <v>0|0|0</v>
@@ -8259,23 +8285,23 @@
     <row customHeight="true" ht="25" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
-        <v>礼帽暹罗猫</v>
+        <v>无毛猫</v>
       </c>
       <c r="C185" s="1">
         <v>4</v>
       </c>
       <c r="D185" s="1">
-        <v>327889</v>
+        <v>327894</v>
       </c>
       <c r="E185" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1">
-        <v>327889</v>
+        <v>327894</v>
       </c>
       <c r="K185" s="1" t="str">
         <v>0|0|0</v>
@@ -8297,23 +8323,23 @@
     <row customHeight="true" ht="25" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
-        <v>熊猫</v>
+        <v>蓝白帽子猫</v>
       </c>
       <c r="C186" s="1">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>327881</v>
+        <v>327891</v>
       </c>
       <c r="E186" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1">
-        <v>327881</v>
+        <v>327891</v>
       </c>
       <c r="K186" s="1" t="str">
         <v>0|0|0</v>
@@ -8335,23 +8361,23 @@
     <row customHeight="true" ht="25" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
-        <v>兔子帽猫</v>
+        <v>礼帽暹罗猫</v>
       </c>
       <c r="C187" s="1">
         <v>4</v>
       </c>
       <c r="D187" s="1">
-        <v>327874</v>
+        <v>327889</v>
       </c>
       <c r="E187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1">
-        <v>327874</v>
+        <v>327889</v>
       </c>
       <c r="K187" s="1" t="str">
         <v>0|0|0</v>
@@ -8373,23 +8399,23 @@
     <row customHeight="true" ht="25" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
-        <v>三花铃铛猫</v>
+        <v>熊猫</v>
       </c>
       <c r="C188" s="1">
         <v>4</v>
       </c>
       <c r="D188" s="1">
-        <v>327868</v>
+        <v>327881</v>
       </c>
       <c r="E188" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1">
-        <v>327868</v>
+        <v>327881</v>
       </c>
       <c r="K188" s="1" t="str">
         <v>0|0|0</v>
@@ -8411,13 +8437,13 @@
     <row customHeight="true" ht="25" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
-        <v>黑色蝴蝶猫</v>
+        <v>兔子帽猫</v>
       </c>
       <c r="C189" s="1">
         <v>4</v>
       </c>
       <c r="D189" s="1">
-        <v>327837</v>
+        <v>327874</v>
       </c>
       <c r="E189" s="1">
         <v>2</v>
@@ -8427,7 +8453,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1">
-        <v>327837</v>
+        <v>327874</v>
       </c>
       <c r="K189" s="1" t="str">
         <v>0|0|0</v>
@@ -8449,13 +8475,13 @@
     <row customHeight="true" ht="25" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
-        <v>美短圣诞猫</v>
+        <v>三花铃铛猫</v>
       </c>
       <c r="C190" s="1">
         <v>4</v>
       </c>
       <c r="D190" s="1">
-        <v>327774</v>
+        <v>327868</v>
       </c>
       <c r="E190" s="1">
         <v>2</v>
@@ -8465,7 +8491,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1">
-        <v>327774</v>
+        <v>327868</v>
       </c>
       <c r="K190" s="1" t="str">
         <v>0|0|0</v>
@@ -8487,23 +8513,23 @@
     <row customHeight="true" ht="25" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
-        <v>蓝白垂耳兔</v>
+        <v>黑色蝴蝶猫</v>
       </c>
       <c r="C191" s="1">
         <v>4</v>
       </c>
       <c r="D191" s="1">
-        <v>160051</v>
+        <v>327837</v>
       </c>
       <c r="E191" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1">
-        <v>160051</v>
+        <v>327837</v>
       </c>
       <c r="K191" s="1" t="str">
         <v>0|0|0</v>
@@ -8525,23 +8551,23 @@
     <row customHeight="true" ht="25" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
-        <v>粉猪</v>
+        <v>美短圣诞猫</v>
       </c>
       <c r="C192" s="1">
         <v>4</v>
       </c>
       <c r="D192" s="1">
-        <v>327745</v>
+        <v>327774</v>
       </c>
       <c r="E192" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1">
-        <v>327745</v>
+        <v>327774</v>
       </c>
       <c r="K192" s="1" t="str">
         <v>0|0|0</v>
@@ -8563,13 +8589,13 @@
     <row customHeight="true" ht="25" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
-        <v>虎斑猫</v>
+        <v>蓝白垂耳兔</v>
       </c>
       <c r="C193" s="1">
         <v>4</v>
       </c>
       <c r="D193" s="1">
-        <v>327747</v>
+        <v>160051</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -8579,7 +8605,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1">
-        <v>327747</v>
+        <v>160051</v>
       </c>
       <c r="K193" s="1" t="str">
         <v>0|0|0</v>
@@ -8601,23 +8627,23 @@
     <row customHeight="true" ht="25" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
-        <v>天使猫</v>
+        <v>粉猪</v>
       </c>
       <c r="C194" s="1">
         <v>4</v>
       </c>
       <c r="D194" s="1">
-        <v>327748</v>
+        <v>327745</v>
       </c>
       <c r="E194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1">
-        <v>327748</v>
+        <v>327745</v>
       </c>
       <c r="K194" s="1" t="str">
         <v>0|0|0</v>
@@ -8639,23 +8665,23 @@
     <row customHeight="true" ht="25" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
-        <v>小恶魔猫</v>
+        <v>虎斑猫</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>327754</v>
+        <v>327747</v>
       </c>
       <c r="E195" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1">
-        <v>327754</v>
+        <v>327747</v>
       </c>
       <c r="K195" s="1" t="str">
         <v>0|0|0</v>
@@ -8677,13 +8703,13 @@
     <row customHeight="true" ht="25" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
-        <v>独眼布偶猫</v>
+        <v>天使猫</v>
       </c>
       <c r="C196" s="1">
         <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>327758</v>
+        <v>327748</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -8693,7 +8719,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1">
-        <v>327758</v>
+        <v>327748</v>
       </c>
       <c r="K196" s="1" t="str">
         <v>0|0|0</v>
@@ -8715,23 +8741,23 @@
     <row customHeight="true" ht="25" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
-        <v>花猪</v>
+        <v>小恶魔猫</v>
       </c>
       <c r="C197" s="1">
         <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>327761</v>
+        <v>327754</v>
       </c>
       <c r="E197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1">
-        <v>327761</v>
+        <v>327754</v>
       </c>
       <c r="K197" s="1" t="str">
         <v>0|0|0</v>
@@ -8753,13 +8779,13 @@
     <row customHeight="true" ht="25" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
-        <v>太阳帽猫</v>
+        <v>独眼布偶猫</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
       </c>
       <c r="D198" s="1">
-        <v>327762</v>
+        <v>327758</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -8769,7 +8795,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1">
-        <v>327762</v>
+        <v>327758</v>
       </c>
       <c r="K198" s="1" t="str">
         <v>0|0|0</v>
@@ -8791,13 +8817,13 @@
     <row customHeight="true" ht="25" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
-        <v>斑点垂耳狗</v>
+        <v>花猪</v>
       </c>
       <c r="C199" s="1">
         <v>4</v>
       </c>
       <c r="D199" s="1">
-        <v>327770</v>
+        <v>327761</v>
       </c>
       <c r="E199" s="1">
         <v>0</v>
@@ -8807,7 +8833,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1">
-        <v>327770</v>
+        <v>327761</v>
       </c>
       <c r="K199" s="1" t="str">
         <v>0|0|0</v>
@@ -8829,23 +8855,23 @@
     <row customHeight="true" ht="25" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
-        <v>黑白色直耳兔</v>
+        <v>太阳帽猫</v>
       </c>
       <c r="C200" s="1">
         <v>4</v>
       </c>
       <c r="D200" s="1">
-        <v>327773</v>
+        <v>327762</v>
       </c>
       <c r="E200" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1">
-        <v>327773</v>
+        <v>327762</v>
       </c>
       <c r="K200" s="1" t="str">
         <v>0|0|0</v>
@@ -8867,13 +8893,13 @@
     <row customHeight="true" ht="25" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
-        <v>橘猫</v>
+        <v>斑点垂耳狗</v>
       </c>
       <c r="C201" s="1">
         <v>4</v>
       </c>
       <c r="D201" s="1">
-        <v>327786</v>
+        <v>327770</v>
       </c>
       <c r="E201" s="1">
         <v>0</v>
@@ -8883,7 +8909,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1">
-        <v>327786</v>
+        <v>327770</v>
       </c>
       <c r="K201" s="1" t="str">
         <v>0|0|0</v>
@@ -8905,13 +8931,13 @@
     <row customHeight="true" ht="25" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="str">
-        <v>条纹外套白猫</v>
+        <v>黑白色直耳兔</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
       </c>
       <c r="D202" s="1">
-        <v>327791</v>
+        <v>327773</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
@@ -8921,7 +8947,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1">
-        <v>327791</v>
+        <v>327773</v>
       </c>
       <c r="K202" s="1" t="str">
         <v>0|0|0</v>
@@ -8943,23 +8969,23 @@
     <row customHeight="true" ht="25" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="str">
-        <v>墨镜花猫</v>
+        <v>橘猫</v>
       </c>
       <c r="C203" s="1">
         <v>4</v>
       </c>
       <c r="D203" s="1">
-        <v>327860</v>
+        <v>327786</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1">
-        <v>327860</v>
+        <v>327786</v>
       </c>
       <c r="K203" s="1" t="str">
         <v>0|0|0</v>
@@ -8981,23 +9007,23 @@
     <row customHeight="true" ht="25" r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="str">
-        <v>眼镜蓝猫</v>
+        <v>条纹外套白猫</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
       </c>
       <c r="D204" s="1">
-        <v>327849</v>
+        <v>327791</v>
       </c>
       <c r="E204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1">
-        <v>327849</v>
+        <v>327791</v>
       </c>
       <c r="K204" s="1" t="str">
         <v>0|0|0</v>
@@ -9019,13 +9045,13 @@
     <row customHeight="true" ht="25" r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="str">
-        <v>巫师帽猫</v>
+        <v>墨镜花猫</v>
       </c>
       <c r="C205" s="1">
         <v>4</v>
       </c>
       <c r="D205" s="1">
-        <v>327861</v>
+        <v>327860</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -9035,7 +9061,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1">
-        <v>327861</v>
+        <v>327860</v>
       </c>
       <c r="K205" s="1" t="str">
         <v>0|0|0</v>
@@ -9057,13 +9083,13 @@
     <row customHeight="true" ht="25" r="206">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="str">
-        <v>白色萨摩耶</v>
+        <v>眼镜蓝猫</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
       </c>
       <c r="D206" s="1">
-        <v>327937</v>
+        <v>327849</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -9073,7 +9099,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1">
-        <v>327937</v>
+        <v>327849</v>
       </c>
       <c r="K206" s="1" t="str">
         <v>0|0|0</v>
@@ -9095,13 +9121,13 @@
     <row customHeight="true" ht="25" r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="str">
-        <v>矮脚马</v>
+        <v>巫师帽猫</v>
       </c>
       <c r="C207" s="1">
         <v>4</v>
       </c>
       <c r="D207" s="1">
-        <v>327960</v>
+        <v>327861</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -9111,7 +9137,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1">
-        <v>327960</v>
+        <v>327861</v>
       </c>
       <c r="K207" s="1" t="str">
         <v>0|0|0</v>
@@ -9133,13 +9159,13 @@
     <row customHeight="true" ht="25" r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="str">
-        <v>美短方帽猫</v>
+        <v>白色萨摩耶</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
       </c>
       <c r="D208" s="1">
-        <v>327973</v>
+        <v>327937</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -9149,7 +9175,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1">
-        <v>327973</v>
+        <v>327937</v>
       </c>
       <c r="K208" s="1" t="str">
         <v>0|0|0</v>
@@ -9171,23 +9197,23 @@
     <row customHeight="true" ht="25" r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="str">
-        <v>黑猫</v>
+        <v>矮脚马</v>
       </c>
       <c r="C209" s="1">
         <v>4</v>
       </c>
       <c r="D209" s="1">
-        <v>327963</v>
+        <v>327960</v>
       </c>
       <c r="E209" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1">
-        <v>327963</v>
+        <v>327960</v>
       </c>
       <c r="K209" s="1" t="str">
         <v>0|0|0</v>
@@ -9209,23 +9235,23 @@
     <row customHeight="true" ht="25" r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="str">
-        <v>小黄狗</v>
+        <v>美短方帽猫</v>
       </c>
       <c r="C210" s="1">
         <v>4</v>
       </c>
       <c r="D210" s="1">
-        <v>327990</v>
+        <v>327973</v>
       </c>
       <c r="E210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1">
-        <v>327990</v>
+        <v>327973</v>
       </c>
       <c r="K210" s="1" t="str">
         <v>0|0|0</v>
@@ -9247,23 +9273,23 @@
     <row customHeight="true" ht="25" r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="str">
-        <v>黄色猫咪团子</v>
+        <v>黑猫</v>
       </c>
       <c r="C211" s="1">
         <v>4</v>
       </c>
       <c r="D211" s="1">
-        <v>338994</v>
+        <v>327963</v>
       </c>
       <c r="E211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1">
-        <v>338994</v>
+        <v>327963</v>
       </c>
       <c r="K211" s="1" t="str">
         <v>0|0|0</v>
@@ -9285,23 +9311,23 @@
     <row customHeight="true" ht="25" r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="str">
-        <v>鹦鹉</v>
+        <v>小黄狗</v>
       </c>
       <c r="C212" s="1">
         <v>4</v>
       </c>
       <c r="D212" s="1">
-        <v>326463</v>
+        <v>327990</v>
       </c>
       <c r="E212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1">
-        <v>326463</v>
+        <v>327990</v>
       </c>
       <c r="K212" s="1" t="str">
         <v>0|0|0</v>
@@ -9323,13 +9349,13 @@
     <row customHeight="true" ht="25" r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="str">
-        <v>暹罗樱花猫</v>
+        <v>黄色猫咪团子</v>
       </c>
       <c r="C213" s="1">
         <v>4</v>
       </c>
       <c r="D213" s="1">
-        <v>327764</v>
+        <v>338994</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -9339,7 +9365,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1">
-        <v>327764</v>
+        <v>338994</v>
       </c>
       <c r="K213" s="1" t="str">
         <v>0|0|0</v>
@@ -9361,13 +9387,13 @@
     <row customHeight="true" ht="25" r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="str">
-        <v>蓝白飞行斗技猫</v>
+        <v>鹦鹉</v>
       </c>
       <c r="C214" s="1">
         <v>4</v>
       </c>
       <c r="D214" s="1">
-        <v>327814</v>
+        <v>326463</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -9377,7 +9403,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1">
-        <v>327814</v>
+        <v>326463</v>
       </c>
       <c r="K214" s="1" t="str">
         <v>0|0|0</v>
@@ -9396,20 +9422,36 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215">
+    <row customHeight="true" ht="25" r="215">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+      <c r="B215" s="1" t="str">
+        <v>暹罗樱花猫</v>
+      </c>
+      <c r="C215" s="1">
+        <v>4</v>
+      </c>
+      <c r="D215" s="1">
+        <v>327764</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
+      <c r="J215" s="1">
+        <v>327764</v>
+      </c>
+      <c r="K215" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L215" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M215" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -9418,20 +9460,36 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216">
+    <row customHeight="true" ht="25" r="216">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+      <c r="B216" s="1" t="str">
+        <v>蓝白飞行斗技猫</v>
+      </c>
+      <c r="C216" s="1">
+        <v>4</v>
+      </c>
+      <c r="D216" s="1">
+        <v>327814</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
+      <c r="J216" s="1">
+        <v>327814</v>
+      </c>
+      <c r="K216" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L216" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M216" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -9684,34 +9742,18 @@
     </row>
     <row r="228">
       <c r="A228" s="1"/>
-      <c r="B228" s="1" t="str">
-        <v>变异沙漠三头狗</v>
-      </c>
-      <c r="C228" s="1">
-        <v>4</v>
-      </c>
-      <c r="D228" s="1">
-        <v>327996</v>
-      </c>
-      <c r="E228" s="1">
-        <v>3</v>
-      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K228" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L228" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M228" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
@@ -9722,34 +9764,18 @@
     </row>
     <row r="229">
       <c r="A229" s="1"/>
-      <c r="B229" s="1" t="str">
-        <v>三头狗</v>
-      </c>
-      <c r="C229" s="1">
-        <v>4</v>
-      </c>
-      <c r="D229" s="1">
-        <v>327801</v>
-      </c>
-      <c r="E229" s="1">
-        <v>3</v>
-      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="1">
-        <v>327801</v>
-      </c>
-      <c r="K229" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L229" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M229" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
@@ -9761,23 +9787,23 @@
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="str">
-        <v>小龙</v>
+        <v>变异沙漠三头狗</v>
       </c>
       <c r="C230" s="1">
         <v>4</v>
       </c>
       <c r="D230" s="1">
-        <v>328246</v>
+        <v>327996</v>
       </c>
       <c r="E230" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1">
-        <v>328246</v>
+        <v>327996</v>
       </c>
       <c r="K230" s="1" t="str">
         <v>0|0|0</v>
@@ -9799,23 +9825,23 @@
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>三头狗</v>
       </c>
       <c r="C231" s="1">
         <v>4</v>
       </c>
       <c r="D231" s="1">
-        <v>328030</v>
+        <v>327801</v>
       </c>
       <c r="E231" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1">
-        <v>328030</v>
+        <v>327801</v>
       </c>
       <c r="K231" s="1" t="str">
         <v>0|0|0</v>
@@ -9837,13 +9863,13 @@
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="str">
-        <v>红龙</v>
+        <v>小龙</v>
       </c>
       <c r="C232" s="1">
         <v>4</v>
       </c>
       <c r="D232" s="1">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="E232" s="1">
         <v>2</v>
@@ -9853,7 +9879,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="K232" s="1" t="str">
         <v>0|0|0</v>
@@ -9875,13 +9901,13 @@
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="str">
-        <v>黄龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C233" s="1">
         <v>4</v>
       </c>
       <c r="D233" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="E233" s="1">
         <v>2</v>
@@ -9891,7 +9917,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="K233" s="1" t="str">
         <v>0|0|0</v>
@@ -9913,13 +9939,13 @@
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="str">
-        <v>蓝龙</v>
+        <v>红龙</v>
       </c>
       <c r="C234" s="1">
         <v>4</v>
       </c>
       <c r="D234" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="E234" s="1">
         <v>2</v>
@@ -9929,7 +9955,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="K234" s="1" t="str">
         <v>0|0|0</v>
@@ -9950,18 +9976,34 @@
     </row>
     <row r="235">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
+      <c r="B235" s="1" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C235" s="1">
+        <v>4</v>
+      </c>
+      <c r="D235" s="1">
+        <v>328083</v>
+      </c>
+      <c r="E235" s="1">
+        <v>2</v>
+      </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
+      <c r="J235" s="1">
+        <v>328083</v>
+      </c>
+      <c r="K235" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L235" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M235" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
@@ -9972,18 +10014,34 @@
     </row>
     <row r="236">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
+      <c r="B236" s="1" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C236" s="1">
+        <v>4</v>
+      </c>
+      <c r="D236" s="1">
+        <v>328088</v>
+      </c>
+      <c r="E236" s="1">
+        <v>2</v>
+      </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
+      <c r="J236" s="1">
+        <v>328088</v>
+      </c>
+      <c r="K236" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L236" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M236" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
@@ -13908,6 +13966,50 @@
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
     </row>
+    <row r="415">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="P415" s="1"/>
+      <c r="Q415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="S415" s="1"/>
+      <c r="T415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
+      <c r="Q416" s="1"/>
+      <c r="R416" s="1"/>
+      <c r="S416" s="1"/>
+      <c r="T416" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -51,42 +51,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF14BA9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF667901"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF270561"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F3BF5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +65,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +93,35 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF34C724"/>
+      <color rgb="FF270561"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F3BF5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,6 +129,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,46 +315,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -803,7 +803,7 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="12" t="str">
+      <c r="N2" s="6" t="str">
         <v>Idle</v>
       </c>
       <c r="O2" s="5" t="str">
@@ -902,16 +902,16 @@
     </row>
     <row customHeight="true" ht="25" r="6">
       <c r="A6" s="1">
-        <v>10041</v>
+        <v>10044</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>金箍棒(粉)</v>
+        <v>机甲斩狂风斩(男)</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>209508</v>
+        <v>151245</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -921,7 +921,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>209508</v>
+        <v>151245</v>
       </c>
       <c r="K6" s="5" t="str">
         <v>0|0|0</v>
@@ -935,7 +935,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -944,16 +944,16 @@
     </row>
     <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
-        <v>10042</v>
+        <v>10045</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>金箍棒(紫)</v>
+        <v>机甲斩狂风斩(女)</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>313464</v>
+        <v>151897</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -963,7 +963,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <v>313464</v>
+        <v>151897</v>
       </c>
       <c r="K7" s="5" t="str">
         <v>0|0|0</v>
@@ -977,7 +977,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -986,22 +986,26 @@
     </row>
     <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
-        <v>10043</v>
-      </c>
-      <c r="B8" s="16" t="str">
-        <v>昊天锤</v>
+        <v>10041</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>金箍棒(粉)</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
-        <v>318640</v>
+      <c r="D8" s="1">
+        <v>209508</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="16">
-        <v>318640</v>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>209508</v>
       </c>
       <c r="K8" s="5" t="str">
         <v>0|0|0</v>
@@ -1024,40 +1028,40 @@
     </row>
     <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <v>海神三叉戟</v>
+        <v>10042</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>金箍棒(紫)</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>134222</v>
+      <c r="D9" s="1">
+        <v>313464</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="6">
-        <v>134222</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M9" s="1" t="str">
+      <c r="J9" s="1">
+        <v>313464</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M9" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1066,40 +1070,36 @@
     </row>
     <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <v>赛博自来也长枪</v>
+        <v>10043</v>
+      </c>
+      <c r="B10" s="16" t="str">
+        <v>昊天锤</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
-        <v>122953</v>
+      <c r="D10" s="16">
+        <v>318640</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6">
-        <v>122953</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M10" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <v>318640</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M10" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1108,26 +1108,26 @@
     </row>
     <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <v>海王双头刀</v>
+        <v>10001</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <v>海神三叉戟</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>118146</v>
+      <c r="D11" s="8">
+        <v>134222</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="6">
-        <v>118146</v>
+      <c r="J11" s="8">
+        <v>134222</v>
       </c>
       <c r="K11" s="1" t="str">
         <v>0|0|0</v>
@@ -1150,26 +1150,26 @@
     </row>
     <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <v>美国队长神锤</v>
+        <v>10002</v>
+      </c>
+      <c r="B12" s="9" t="str">
+        <v>赛博自来也长枪</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
-        <v>152954</v>
+      <c r="D12" s="8">
+        <v>122953</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="6">
-        <v>152954</v>
+      <c r="J12" s="8">
+        <v>122953</v>
       </c>
       <c r="K12" s="1" t="str">
         <v>0|0|0</v>
@@ -1192,26 +1192,26 @@
     </row>
     <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <v>毒液斧头</v>
+        <v>10003</v>
+      </c>
+      <c r="B13" s="9" t="str">
+        <v>海王双头刀</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
-        <v>118143</v>
+      <c r="D13" s="8">
+        <v>118146</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="6">
-        <v>118143</v>
+      <c r="J13" s="8">
+        <v>118146</v>
       </c>
       <c r="K13" s="1" t="str">
         <v>0|0|0</v>
@@ -1234,26 +1234,26 @@
     </row>
     <row customHeight="true" ht="25" r="14">
       <c r="A14" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <v>灭霸斧</v>
+        <v>10004</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <v>美国队长神锤</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
-        <v>122960</v>
+      <c r="D14" s="8">
+        <v>152954</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="6">
-        <v>122960</v>
+      <c r="J14" s="8">
+        <v>152954</v>
       </c>
       <c r="K14" s="1" t="str">
         <v>0|0|0</v>
@@ -1276,26 +1276,26 @@
     </row>
     <row customHeight="true" ht="25" r="15">
       <c r="A15" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <v>鸣人手里剑</v>
+        <v>10005</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <v>毒液斧头</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
-        <v>33861</v>
+      <c r="D15" s="8">
+        <v>118143</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="6">
-        <v>33861</v>
+      <c r="J15" s="8">
+        <v>118143</v>
       </c>
       <c r="K15" s="1" t="str">
         <v>0|0|0</v>
@@ -1318,26 +1318,26 @@
     </row>
     <row customHeight="true" ht="25" r="16">
       <c r="A16" s="1">
-        <v>10008</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <v>未来战士黄金剑</v>
+        <v>10006</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <v>灭霸斧</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>218730</v>
+      <c r="D16" s="8">
+        <v>122960</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>218730</v>
+      <c r="J16" s="8">
+        <v>122960</v>
       </c>
       <c r="K16" s="1" t="str">
         <v>0|0|0</v>
@@ -1360,26 +1360,26 @@
     </row>
     <row customHeight="true" ht="25" r="17">
       <c r="A17" s="1">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="B17" s="3" t="str">
-        <v>森林哨兵魔法仗</v>
+        <v>鸣人手里剑</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>210791</v>
+      <c r="D17" s="8">
+        <v>33861</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <v>210791</v>
+      <c r="J17" s="8">
+        <v>33861</v>
       </c>
       <c r="K17" s="1" t="str">
         <v>0|0|0</v>
@@ -1402,26 +1402,26 @@
     </row>
     <row customHeight="true" ht="25" r="18">
       <c r="A18" s="1">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="B18" s="3" t="str">
-        <v>手枪(索尼克专用)</v>
+        <v>未来战士黄金剑</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>221099</v>
+        <v>218730</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <v>221099</v>
+        <v>218730</v>
       </c>
       <c r="K18" s="1" t="str">
         <v>0|0|0</v>
@@ -1444,26 +1444,26 @@
     </row>
     <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <v>信号枪(粉毛怪专用)</v>
+        <v>10009</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <v>森林哨兵魔法仗</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>43702</v>
+        <v>210791</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>43702</v>
+        <v>210791</v>
       </c>
       <c r="K19" s="1" t="str">
         <v>0|0|0</v>
@@ -1486,26 +1486,26 @@
     </row>
     <row customHeight="true" ht="25" r="20">
       <c r="A20" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <v>刀(纲手专用)</v>
+        <v>10010</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>手枪(索尼克专用)</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>103067</v>
+        <v>221099</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>103067</v>
+        <v>221099</v>
       </c>
       <c r="K20" s="1" t="str">
         <v>0|0|0</v>
@@ -1528,26 +1528,26 @@
     </row>
     <row customHeight="true" ht="25" r="21">
       <c r="A21" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B21" s="10" t="str">
-        <v>刀(李洛克专用)</v>
+        <v>10011</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="10">
-        <v>103080</v>
+      <c r="D21" s="1">
+        <v>43702</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>103080</v>
+        <v>43702</v>
       </c>
       <c r="K21" s="1" t="str">
         <v>0|0|0</v>
@@ -1570,26 +1570,26 @@
     </row>
     <row customHeight="true" ht="25" r="22">
       <c r="A22" s="1">
-        <v>10014</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <v>镰刀(干柿鬼鲛专用)</v>
+        <v>10012</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>刀(纲手专用)</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>103075</v>
+        <v>103067</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>103075</v>
+        <v>103067</v>
       </c>
       <c r="K22" s="1" t="str">
         <v>0|0|0</v>
@@ -1612,26 +1612,26 @@
     </row>
     <row customHeight="true" ht="25" r="23">
       <c r="A23" s="1">
-        <v>10015</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <v>镰刀(赛博女孩专用)</v>
+        <v>10013</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <v>刀(李洛克专用)</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>122946</v>
+      <c r="D23" s="10">
+        <v>103080</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>122946</v>
+        <v>103080</v>
       </c>
       <c r="K23" s="1" t="str">
         <v>0|0|0</v>
@@ -1654,26 +1654,26 @@
     </row>
     <row customHeight="true" ht="25" r="24">
       <c r="A24" s="1">
-        <v>10016</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <v>冰封剑(黑寡妇专用)</v>
+        <v>10014</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>31710</v>
+        <v>103075</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>31710</v>
+        <v>103075</v>
       </c>
       <c r="K24" s="1" t="str">
         <v>0|0|0</v>
@@ -1696,26 +1696,26 @@
     </row>
     <row customHeight="true" ht="25" r="25">
       <c r="A25" s="1">
-        <v>10017</v>
-      </c>
-      <c r="B25" s="10" t="str">
-        <v>怪物爪刀</v>
+        <v>10015</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>103069</v>
+        <v>122946</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>103069</v>
+        <v>122946</v>
       </c>
       <c r="K25" s="1" t="str">
         <v>0|0|0</v>
@@ -1738,26 +1738,26 @@
     </row>
     <row customHeight="true" ht="25" r="26">
       <c r="A26" s="1">
-        <v>10018</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <v>大砍刀(卡卡西专用)</v>
+        <v>10016</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>122961</v>
+        <v>31710</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <v>122961</v>
+        <v>31710</v>
       </c>
       <c r="K26" s="1" t="str">
         <v>0|0|0</v>
@@ -1780,26 +1780,26 @@
     </row>
     <row customHeight="true" ht="25" r="27">
       <c r="A27" s="1">
-        <v>10019</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>法杖(宇智波鼬专用)</v>
+        <v>10017</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <v>怪物爪刀</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>272767</v>
+        <v>103069</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>272767</v>
+        <v>103069</v>
       </c>
       <c r="K27" s="1" t="str">
         <v>0|0|0</v>
@@ -1822,26 +1822,26 @@
     </row>
     <row customHeight="true" ht="25" r="28">
       <c r="A28" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>水枪</v>
+        <v>10018</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>166941</v>
+        <v>122961</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>166941</v>
+        <v>122961</v>
       </c>
       <c r="K28" s="1" t="str">
         <v>0|0|0</v>
@@ -1864,26 +1864,26 @@
     </row>
     <row customHeight="true" ht="25" r="29">
       <c r="A29" s="1">
-        <v>10021</v>
+        <v>10019</v>
       </c>
       <c r="B29" s="1" t="str">
-        <v>冰钻剑</v>
+        <v>法杖(宇智波鼬专用)</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>31712</v>
+        <v>272767</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>31712</v>
+        <v>272767</v>
       </c>
       <c r="K29" s="1" t="str">
         <v>0|0|0</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row customHeight="true" ht="25" r="30">
       <c r="A30" s="1">
-        <v>10022</v>
+        <v>10020</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>屠刀</v>
+        <v>水枪</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>118142</v>
+        <v>166941</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1925,7 +1925,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <v>118142</v>
+        <v>166941</v>
       </c>
       <c r="K30" s="1" t="str">
         <v>0|0|0</v>
@@ -1948,26 +1948,26 @@
     </row>
     <row customHeight="true" ht="25" r="31">
       <c r="A31" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B31" s="8" t="str">
-        <v>蓝色法杖(洛基专用)</v>
+        <v>10021</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>冰钻剑</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>210651</v>
+        <v>31712</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>210651</v>
+        <v>31712</v>
       </c>
       <c r="K31" s="1" t="str">
         <v>0|0|0</v>
@@ -1990,26 +1990,26 @@
     </row>
     <row customHeight="true" ht="25" r="32">
       <c r="A32" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B32" s="8" t="str">
-        <v>镰刀(太阳神专用)</v>
+        <v>10022</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <v>屠刀</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>121672</v>
+        <v>118142</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>121672</v>
+        <v>118142</v>
       </c>
       <c r="K32" s="1" t="str">
         <v>0|0|0</v>
@@ -2032,26 +2032,26 @@
     </row>
     <row customHeight="true" ht="25" r="33">
       <c r="A33" s="1">
-        <v>10025</v>
-      </c>
-      <c r="B33" s="8" t="str">
-        <v>恶魔剑(宇智波斑爷专用)</v>
+        <v>10023</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>122956</v>
+        <v>210651</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>122956</v>
+        <v>210651</v>
       </c>
       <c r="K33" s="1" t="str">
         <v>0|0|0</v>
@@ -2074,26 +2074,26 @@
     </row>
     <row customHeight="true" ht="25" r="34">
       <c r="A34" s="1">
-        <v>10026</v>
-      </c>
-      <c r="B34" s="8" t="str">
-        <v>剑(纳米机器人专用)</v>
+        <v>10024</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>103068</v>
+        <v>121672</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>103068</v>
+        <v>121672</v>
       </c>
       <c r="K34" s="1" t="str">
         <v>0|0|0</v>
@@ -2116,26 +2116,26 @@
     </row>
     <row customHeight="true" ht="25" r="35">
       <c r="A35" s="1">
-        <v>10027</v>
-      </c>
-      <c r="B35" s="8" t="str">
-        <v>镰刀(死侍专用)</v>
+        <v>10025</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>103083</v>
+        <v>122956</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>103083</v>
+        <v>122956</v>
       </c>
       <c r="K35" s="1" t="str">
         <v>0|0|0</v>
@@ -2158,26 +2158,26 @@
     </row>
     <row customHeight="true" ht="25" r="36">
       <c r="A36" s="1">
-        <v>10028</v>
-      </c>
-      <c r="B36" s="2" t="str" xml:space="preserve">
-        <v>  荧光剑(火山哨兵专用)</v>
+        <v>10026</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>198698</v>
+        <v>103068</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <v>198698</v>
+        <v>103068</v>
       </c>
       <c r="K36" s="1" t="str">
         <v>0|0|0</v>
@@ -2200,26 +2200,26 @@
     </row>
     <row customHeight="true" ht="25" r="37">
       <c r="A37" s="1">
-        <v>10029</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <v>狂热剑(绯红女巫专用)</v>
+        <v>10027</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <v>镰刀(死侍专用)</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>29057</v>
+        <v>103083</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>29057</v>
+        <v>103083</v>
       </c>
       <c r="K37" s="1" t="str">
         <v>0|0|0</v>
@@ -2242,26 +2242,26 @@
     </row>
     <row customHeight="true" ht="25" r="38">
       <c r="A38" s="1">
-        <v>10030</v>
-      </c>
-      <c r="B38" s="14" t="str">
-        <v>充气锤子</v>
+        <v>10028</v>
+      </c>
+      <c r="B38" s="12" t="str" xml:space="preserve">
+        <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>272130</v>
+        <v>198698</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
-        <v>272130</v>
+        <v>198698</v>
       </c>
       <c r="K38" s="1" t="str">
         <v>0|0|0</v>
@@ -2284,26 +2284,26 @@
     </row>
     <row customHeight="true" ht="25" r="39">
       <c r="A39" s="1">
-        <v>10031</v>
-      </c>
-      <c r="B39" s="14" t="str">
-        <v>木法杖(毒液蜘蛛侠专用)</v>
+        <v>10029</v>
+      </c>
+      <c r="B39" s="12" t="str">
+        <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>300436</v>
+        <v>29057</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1">
-        <v>300436</v>
+        <v>29057</v>
       </c>
       <c r="K39" s="1" t="str">
         <v>0|0|0</v>
@@ -2326,26 +2326,26 @@
     </row>
     <row customHeight="true" ht="25" r="40">
       <c r="A40" s="1">
-        <v>10032</v>
-      </c>
-      <c r="B40" s="14" t="str">
-        <v>瓜子盾</v>
+        <v>10030</v>
+      </c>
+      <c r="B40" s="15" t="str">
+        <v>充气锤子</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>121541</v>
+        <v>272130</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="15"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1">
-        <v>121541</v>
+        <v>272130</v>
       </c>
       <c r="K40" s="1" t="str">
         <v>0|0|0</v>
@@ -2368,26 +2368,26 @@
     </row>
     <row customHeight="true" ht="25" r="41">
       <c r="A41" s="1">
-        <v>10033</v>
-      </c>
-      <c r="B41" s="14" t="str">
-        <v>盾(浩克专用)</v>
+        <v>10031</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>122950</v>
+        <v>300436</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1">
-        <v>122950</v>
+        <v>300436</v>
       </c>
       <c r="K41" s="1" t="str">
         <v>0|0|0</v>
@@ -2410,26 +2410,26 @@
     </row>
     <row customHeight="true" ht="25" r="42">
       <c r="A42" s="1">
-        <v>10034</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <v>终极冰环剑</v>
+        <v>10032</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <v>瓜子盾</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>31734</v>
+        <v>121541</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1">
-        <v>31734</v>
+        <v>121541</v>
       </c>
       <c r="K42" s="1" t="str">
         <v>0|0|0</v>
@@ -2452,26 +2452,26 @@
     </row>
     <row customHeight="true" ht="25" r="43">
       <c r="A43" s="1">
-        <v>10035</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <v>散弹喷枪(雏田专用)</v>
+        <v>10033</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <v>盾(浩克专用)</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>155702</v>
+        <v>122950</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1">
-        <v>155702</v>
+        <v>122950</v>
       </c>
       <c r="K43" s="1" t="str">
         <v>0|0|0</v>
@@ -2494,26 +2494,26 @@
     </row>
     <row customHeight="true" ht="25" r="44">
       <c r="A44" s="1">
-        <v>10036</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <v>火枪(路飞专用)</v>
+        <v>10034</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>终极冰环剑</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>122726</v>
+        <v>31734</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1">
-        <v>122726</v>
+        <v>31734</v>
       </c>
       <c r="K44" s="1" t="str">
         <v>0|0|0</v>
@@ -2536,26 +2536,26 @@
     </row>
     <row customHeight="true" ht="25" r="45">
       <c r="A45" s="1">
-        <v>10037</v>
-      </c>
-      <c r="B45" s="3" t="str">
-        <v>紫光剑(佐助专用)</v>
+        <v>10035</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="6">
-        <v>297029</v>
+      <c r="D45" s="1">
+        <v>155702</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="6">
-        <v>297029</v>
+      <c r="J45" s="1">
+        <v>155702</v>
       </c>
       <c r="K45" s="1" t="str">
         <v>0|0|0</v>
@@ -2578,26 +2578,26 @@
     </row>
     <row customHeight="true" ht="25" r="46">
       <c r="A46" s="1">
-        <v>10038</v>
-      </c>
-      <c r="B46" s="3" t="str">
-        <v>激光枪(天神专用)</v>
+        <v>10036</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>火枪(路飞专用)</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>222534</v>
+        <v>122726</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <v>222534</v>
+        <v>122726</v>
       </c>
       <c r="K46" s="1" t="str">
         <v>0|0|0</v>
@@ -2620,26 +2620,26 @@
     </row>
     <row customHeight="true" ht="25" r="47">
       <c r="A47" s="1">
-        <v>10039</v>
-      </c>
-      <c r="B47" s="14" t="str">
-        <v>剑(金刚狼专用)</v>
+        <v>10037</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="1">
-        <v>269895</v>
+      <c r="D47" s="8">
+        <v>297029</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1">
-        <v>269895</v>
+      <c r="J47" s="8">
+        <v>297029</v>
       </c>
       <c r="K47" s="1" t="str">
         <v>0|0|0</v>
@@ -2662,26 +2662,26 @@
     </row>
     <row customHeight="true" ht="25" r="48">
       <c r="A48" s="1">
-        <v>10040</v>
-      </c>
-      <c r="B48" s="14" t="str">
-        <v>激光枪(钢铁侠专用)</v>
+        <v>10038</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>激光枪(天神专用)</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>122720</v>
+        <v>222534</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <v>122720</v>
+        <v>222534</v>
       </c>
       <c r="K48" s="1" t="str">
         <v>0|0|0</v>
@@ -2704,26 +2704,26 @@
     </row>
     <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
-        <v>20063</v>
-      </c>
-      <c r="B49" s="14" t="str">
-        <v>情侣机甲套装(女)</v>
+        <v>10039</v>
+      </c>
+      <c r="B49" s="15" t="str">
+        <v>剑(金刚狼专用)</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>163553</v>
+        <v>269895</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>163553</v>
+        <v>269895</v>
       </c>
       <c r="K49" s="1" t="str">
         <v>0|0|0</v>
@@ -2737,7 +2737,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2746,26 +2746,26 @@
     </row>
     <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
-        <v>20062</v>
-      </c>
-      <c r="B50" s="17" t="str">
-        <v>情侣机甲套装(男)</v>
+        <v>10040</v>
+      </c>
+      <c r="B50" s="15" t="str">
+        <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>164428</v>
+        <v>122720</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>164428</v>
+        <v>122720</v>
       </c>
       <c r="K50" s="1" t="str">
         <v>0|0|0</v>
@@ -2779,7 +2779,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2788,40 +2788,40 @@
     </row>
     <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
-        <v>20061</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>小舞姐</v>
+        <v>20063</v>
+      </c>
+      <c r="B51" s="15" t="str">
+        <v>情侣机甲套装(女)</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>163292</v>
+        <v>163553</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>163292</v>
-      </c>
-      <c r="K51" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L51" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M51" s="5" t="str">
+        <v>163553</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M51" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2830,40 +2830,40 @@
     </row>
     <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
-        <v>20055</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>蓝银皇</v>
+        <v>20062</v>
+      </c>
+      <c r="B52" s="17" t="str">
+        <v>情侣机甲套装(男)</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>398484</v>
+        <v>164428</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <v>398484</v>
-      </c>
-      <c r="K52" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L52" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M52" s="5" t="str">
+        <v>164428</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M52" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2872,16 +2872,16 @@
     </row>
     <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
-        <v>20056</v>
+        <v>20061</v>
       </c>
       <c r="B53" s="1" t="str">
-        <v>制服女孩</v>
+        <v>小舞姐</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>367076</v>
+        <v>163292</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -2891,7 +2891,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1">
-        <v>367076</v>
+        <v>163292</v>
       </c>
       <c r="K53" s="5" t="str">
         <v>0|0|0</v>
@@ -2905,7 +2905,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2914,16 +2914,16 @@
     </row>
     <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
-        <v>20057</v>
+        <v>20055</v>
       </c>
       <c r="B54" s="1" t="str">
-        <v>唐三</v>
+        <v>蓝银皇</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>343523</v>
+        <v>398484</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -2933,7 +2933,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1">
-        <v>343523</v>
+        <v>398484</v>
       </c>
       <c r="K54" s="5" t="str">
         <v>0|0|0</v>
@@ -2956,22 +2956,26 @@
     </row>
     <row customHeight="true" ht="25" r="55">
       <c r="A55" s="1">
-        <v>20058</v>
-      </c>
-      <c r="B55" t="str">
-        <v>神级魔王</v>
-      </c>
-      <c r="C55" s="4">
+        <v>20056</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <v>制服女孩</v>
+      </c>
+      <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55">
-        <v>141499</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="1">
+        <v>367076</v>
+      </c>
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="J55">
-        <v>141499</v>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1">
+        <v>367076</v>
       </c>
       <c r="K55" s="5" t="str">
         <v>0|0|0</v>
@@ -2985,7 +2989,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2994,22 +2998,26 @@
     </row>
     <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
-        <v>20059</v>
-      </c>
-      <c r="B56" t="str">
-        <v>四代火影</v>
-      </c>
-      <c r="C56" s="4">
+        <v>20057</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <v>唐三</v>
+      </c>
+      <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>142921</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="1">
+        <v>343523</v>
+      </c>
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="J56">
-        <v>142921</v>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1">
+        <v>343523</v>
       </c>
       <c r="K56" s="5" t="str">
         <v>0|0|0</v>
@@ -3023,7 +3031,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3032,22 +3040,22 @@
     </row>
     <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
-        <v>20060</v>
+        <v>20058</v>
       </c>
       <c r="B57" t="str">
-        <v>美杜莎女王</v>
-      </c>
-      <c r="C57" s="4">
+        <v>神级魔王</v>
+      </c>
+      <c r="C57" s="11">
         <v>2</v>
       </c>
       <c r="D57">
-        <v>163289</v>
-      </c>
-      <c r="E57" s="4">
+        <v>141499</v>
+      </c>
+      <c r="E57" s="11">
         <v>3</v>
       </c>
       <c r="J57">
-        <v>163289</v>
+        <v>141499</v>
       </c>
       <c r="K57" s="5" t="str">
         <v>0|0|0</v>
@@ -3070,40 +3078,36 @@
     </row>
     <row customHeight="true" ht="25" r="58">
       <c r="A58" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>狐耳少女</v>
-      </c>
-      <c r="C58" s="1">
+        <v>20059</v>
+      </c>
+      <c r="B58" t="str">
+        <v>四代火影</v>
+      </c>
+      <c r="C58" s="11">
         <v>2</v>
       </c>
-      <c r="D58" s="8">
-        <v>361906</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58">
+        <v>142921</v>
+      </c>
+      <c r="E58" s="11">
         <v>3</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="11">
-        <v>65710</v>
-      </c>
-      <c r="K58" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L58" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M58" s="1" t="str">
+      <c r="J58">
+        <v>142921</v>
+      </c>
+      <c r="K58" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M58" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -3112,40 +3116,36 @@
     </row>
     <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <v>邪恶使者</v>
-      </c>
-      <c r="C59" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B59" t="str">
+        <v>美杜莎女王</v>
+      </c>
+      <c r="C59" s="11">
         <v>2</v>
       </c>
-      <c r="D59" s="8">
-        <v>357571</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59">
+        <v>163289</v>
+      </c>
+      <c r="E59" s="11">
         <v>3</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="11">
-        <v>64995</v>
-      </c>
-      <c r="K59" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L59" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M59" s="1" t="str">
+      <c r="J59">
+        <v>163289</v>
+      </c>
+      <c r="K59" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M59" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3154,26 +3154,26 @@
     </row>
     <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B60" s="1" t="str">
-        <v>长款大衣女</v>
+        <v>狐耳少女</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="8">
-        <v>357567</v>
+      <c r="D60" s="3">
+        <v>361906</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="11">
-        <v>142606</v>
+      <c r="J60" s="2">
+        <v>65710</v>
       </c>
       <c r="K60" s="1" t="str">
         <v>0|0|0</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B61" s="1" t="str">
-        <v>海绵宝宝</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="8">
-        <v>357566</v>
+      <c r="D61" s="3">
+        <v>357571</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3214,8 +3214,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="11">
-        <v>63711</v>
+      <c r="J61" s="2">
+        <v>64995</v>
       </c>
       <c r="K61" s="1" t="str">
         <v>0|0|0</v>
@@ -3238,26 +3238,26 @@
     </row>
     <row customHeight="true" ht="25" r="62">
       <c r="A62" s="1">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B62" s="1" t="str">
-        <v>钢铁侠</v>
+        <v>长款大衣女</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="8">
-        <v>357563</v>
+      <c r="D62" s="3">
+        <v>357567</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="11">
-        <v>94782</v>
+      <c r="J62" s="2">
+        <v>142606</v>
       </c>
       <c r="K62" s="1" t="str">
         <v>0|0|0</v>
@@ -3280,16 +3280,16 @@
     </row>
     <row customHeight="true" ht="25" r="63">
       <c r="A63" s="1">
-        <v>20006</v>
+        <v>20004</v>
       </c>
       <c r="B63" s="1" t="str">
-        <v>灭霸</v>
+        <v>海绵宝宝</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="8">
-        <v>357556</v>
+      <c r="D63" s="3">
+        <v>357566</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -3298,8 +3298,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="11">
-        <v>112568</v>
+      <c r="J63" s="2">
+        <v>63711</v>
       </c>
       <c r="K63" s="1" t="str">
         <v>0|0|0</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row customHeight="true" ht="25" r="64">
       <c r="A64" s="1">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="B64" s="1" t="str">
-        <v>刺猬小子</v>
+        <v>钢铁侠</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="8">
-        <v>357555</v>
+      <c r="D64" s="3">
+        <v>357563</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -3340,8 +3340,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="11">
-        <v>117681</v>
+      <c r="J64" s="2">
+        <v>94782</v>
       </c>
       <c r="K64" s="1" t="str">
         <v>0|0|0</v>
@@ -3364,16 +3364,16 @@
     </row>
     <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
-        <v>20008</v>
+        <v>20006</v>
       </c>
       <c r="B65" s="1" t="str">
-        <v>邪恶使者</v>
+        <v>灭霸</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="8">
-        <v>351891</v>
+      <c r="D65" s="3">
+        <v>357556</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -3382,8 +3382,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="11">
-        <v>64995</v>
+      <c r="J65" s="2">
+        <v>112568</v>
       </c>
       <c r="K65" s="1" t="str">
         <v>0|0|0</v>
@@ -3406,16 +3406,16 @@
     </row>
     <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
-        <v>20009</v>
+        <v>20007</v>
       </c>
       <c r="B66" s="1" t="str">
-        <v>蓝衣男</v>
+        <v>刺猬小子</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="10">
-        <v>351680</v>
+      <c r="D66" s="3">
+        <v>357555</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3424,8 +3424,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="11">
-        <v>127800</v>
+      <c r="J66" s="2">
+        <v>117681</v>
       </c>
       <c r="K66" s="1" t="str">
         <v>0|0|0</v>
@@ -3448,16 +3448,16 @@
     </row>
     <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
-        <v>20010</v>
+        <v>20008</v>
       </c>
       <c r="B67" s="1" t="str">
-        <v>黑衣男</v>
+        <v>邪恶使者</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="10">
-        <v>351598</v>
+      <c r="D67" s="3">
+        <v>351891</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -3466,8 +3466,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="11">
-        <v>224168</v>
+      <c r="J67" s="2">
+        <v>64995</v>
       </c>
       <c r="K67" s="1" t="str">
         <v>0|0|0</v>
@@ -3490,16 +3490,16 @@
     </row>
     <row customHeight="true" ht="25" r="68">
       <c r="A68" s="1">
-        <v>20011</v>
+        <v>20009</v>
       </c>
       <c r="B68" s="1" t="str">
-        <v>毁灭战士</v>
+        <v>蓝衣男</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" s="10">
-        <v>351597</v>
+        <v>351680</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -3508,8 +3508,8 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="11">
-        <v>94782</v>
+      <c r="J68" s="2">
+        <v>127800</v>
       </c>
       <c r="K68" s="1" t="str">
         <v>0|0|0</v>
@@ -3532,26 +3532,26 @@
     </row>
     <row customHeight="true" ht="25" r="69">
       <c r="A69" s="1">
-        <v>20012</v>
+        <v>20010</v>
       </c>
       <c r="B69" s="1" t="str">
-        <v>雷神</v>
+        <v>黑衣男</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
       <c r="D69" s="10">
-        <v>357570</v>
+        <v>351598</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="11">
-        <v>111768</v>
+      <c r="J69" s="2">
+        <v>224168</v>
       </c>
       <c r="K69" s="1" t="str">
         <v>0|0|0</v>
@@ -3574,26 +3574,26 @@
     </row>
     <row customHeight="true" ht="25" r="70">
       <c r="A70" s="1">
-        <v>20013</v>
+        <v>20011</v>
       </c>
       <c r="B70" s="1" t="str">
-        <v>黑寡妇</v>
+        <v>毁灭战士</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
       <c r="D70" s="10">
-        <v>357568</v>
+        <v>351597</v>
       </c>
       <c r="E70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="11">
-        <v>111240</v>
+      <c r="J70" s="2">
+        <v>94782</v>
       </c>
       <c r="K70" s="1" t="str">
         <v>0|0|0</v>
@@ -3616,16 +3616,16 @@
     </row>
     <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
-        <v>20014</v>
+        <v>20012</v>
       </c>
       <c r="B71" s="1" t="str">
-        <v>可爱女</v>
+        <v>雷神</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" s="10">
-        <v>351500</v>
+        <v>357570</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -3634,8 +3634,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="11">
-        <v>269652</v>
+      <c r="J71" s="2">
+        <v>111768</v>
       </c>
       <c r="K71" s="1" t="str">
         <v>0|0|0</v>
@@ -3658,16 +3658,16 @@
     </row>
     <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
-        <v>20015</v>
+        <v>20013</v>
       </c>
       <c r="B72" s="1" t="str">
-        <v>丸子头女</v>
+        <v>黑寡妇</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="D72" s="10">
-        <v>351497</v>
+        <v>357568</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
@@ -3676,8 +3676,8 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="11">
-        <v>60981</v>
+      <c r="J72" s="2">
+        <v>111240</v>
       </c>
       <c r="K72" s="1" t="str">
         <v>0|0|0</v>
@@ -3700,26 +3700,26 @@
     </row>
     <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
-        <v>20016</v>
+        <v>20014</v>
       </c>
       <c r="B73" s="1" t="str">
-        <v>西方神女</v>
+        <v>可爱女</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" s="10">
-        <v>351405</v>
+        <v>351500</v>
       </c>
       <c r="E73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="11">
-        <v>64410</v>
+      <c r="J73" s="2">
+        <v>269652</v>
       </c>
       <c r="K73" s="1" t="str">
         <v>0|0|0</v>
@@ -3742,26 +3742,26 @@
     </row>
     <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
-        <v>20017</v>
+        <v>20015</v>
       </c>
       <c r="B74" s="1" t="str">
-        <v>黑裙少女</v>
+        <v>丸子头女</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
       <c r="D74" s="10">
-        <v>351404</v>
+        <v>351497</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="11">
-        <v>128834</v>
+      <c r="J74" s="2">
+        <v>60981</v>
       </c>
       <c r="K74" s="1" t="str">
         <v>0|0|0</v>
@@ -3784,26 +3784,26 @@
     </row>
     <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
-        <v>20018</v>
+        <v>20016</v>
       </c>
       <c r="B75" s="1" t="str">
-        <v>短发女</v>
+        <v>西方神女</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
       <c r="D75" s="10">
-        <v>351026</v>
+        <v>351405</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="11">
-        <v>115849</v>
+      <c r="J75" s="2">
+        <v>64410</v>
       </c>
       <c r="K75" s="1" t="str">
         <v>0|0|0</v>
@@ -3826,26 +3826,26 @@
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>20019</v>
+        <v>20017</v>
       </c>
       <c r="B76" s="1" t="str">
-        <v>旗袍女</v>
+        <v>黑裙少女</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
       <c r="D76" s="10">
-        <v>351025</v>
+        <v>351404</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="11">
-        <v>299082</v>
+      <c r="J76" s="2">
+        <v>128834</v>
       </c>
       <c r="K76" s="1" t="str">
         <v>0|0|0</v>
@@ -3868,26 +3868,26 @@
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>20020</v>
+        <v>20018</v>
       </c>
       <c r="B77" s="1" t="str">
-        <v>披风男</v>
+        <v>短发女</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" s="10">
-        <v>351024</v>
+        <v>351026</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="11">
-        <v>96576</v>
+      <c r="J77" s="2">
+        <v>115849</v>
       </c>
       <c r="K77" s="1" t="str">
         <v>0|0|0</v>
@@ -3910,26 +3910,26 @@
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>20021</v>
+        <v>20019</v>
       </c>
       <c r="B78" s="1" t="str">
-        <v>长发女</v>
+        <v>旗袍女</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
       <c r="D78" s="10">
-        <v>351004</v>
+        <v>351025</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="11">
-        <v>63291</v>
+      <c r="J78" s="2">
+        <v>299082</v>
       </c>
       <c r="K78" s="1" t="str">
         <v>0|0|0</v>
@@ -3952,16 +3952,16 @@
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>20022</v>
+        <v>20020</v>
       </c>
       <c r="B79" s="1" t="str">
-        <v>双马尾女</v>
+        <v>披风男</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" s="10">
-        <v>350987</v>
+        <v>351024</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -3970,8 +3970,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="11">
-        <v>59857</v>
+      <c r="J79" s="2">
+        <v>96576</v>
       </c>
       <c r="K79" s="1" t="str">
         <v>0|0|0</v>
@@ -3994,16 +3994,16 @@
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>20023</v>
+        <v>20021</v>
       </c>
       <c r="B80" s="1" t="str">
-        <v>长发短裙女</v>
+        <v>长发女</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="8">
-        <v>350973</v>
+      <c r="D80" s="10">
+        <v>351004</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -4012,8 +4012,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="11">
-        <v>63648</v>
+      <c r="J80" s="2">
+        <v>63291</v>
       </c>
       <c r="K80" s="1" t="str">
         <v>0|0|0</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>20024</v>
+        <v>20022</v>
       </c>
       <c r="B81" s="1" t="str">
         <v>双马尾女</v>
@@ -4044,18 +4044,18 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="8">
-        <v>350959</v>
+      <c r="D81" s="10">
+        <v>350987</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="11">
-        <v>248351</v>
+      <c r="J81" s="2">
+        <v>59857</v>
       </c>
       <c r="K81" s="1" t="str">
         <v>0|0|0</v>
@@ -4078,26 +4078,26 @@
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>20025</v>
+        <v>20023</v>
       </c>
       <c r="B82" s="1" t="str">
-        <v>双马尾女</v>
+        <v>长发短裙女</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="8">
-        <v>350958</v>
+      <c r="D82" s="3">
+        <v>350973</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="11">
-        <v>64774</v>
+      <c r="J82" s="2">
+        <v>63648</v>
       </c>
       <c r="K82" s="1" t="str">
         <v>0|0|0</v>
@@ -4120,26 +4120,26 @@
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>20026</v>
+        <v>20024</v>
       </c>
       <c r="B83" s="1" t="str">
-        <v>百褶裙女孩</v>
+        <v>双马尾女</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="8">
-        <v>350756</v>
+      <c r="D83" s="3">
+        <v>350959</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="11">
-        <v>63291</v>
+      <c r="J83" s="2">
+        <v>248351</v>
       </c>
       <c r="K83" s="1" t="str">
         <v>0|0|0</v>
@@ -4162,16 +4162,16 @@
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>20027</v>
+        <v>20025</v>
       </c>
       <c r="B84" s="1" t="str">
-        <v>短发时尚女</v>
+        <v>双马尾女</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="8">
-        <v>350752</v>
+      <c r="D84" s="3">
+        <v>350958</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -4180,8 +4180,8 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="11">
-        <v>111241</v>
+      <c r="J84" s="2">
+        <v>64774</v>
       </c>
       <c r="K84" s="1" t="str">
         <v>0|0|0</v>
@@ -4204,16 +4204,16 @@
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>20028</v>
+        <v>20026</v>
       </c>
       <c r="B85" s="1" t="str">
-        <v>长马尾女孩</v>
+        <v>百褶裙女孩</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="8">
-        <v>350746</v>
+      <c r="D85" s="3">
+        <v>350756</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -4222,8 +4222,8 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="11">
-        <v>121948</v>
+      <c r="J85" s="2">
+        <v>63291</v>
       </c>
       <c r="K85" s="1" t="str">
         <v>0|0|0</v>
@@ -4246,26 +4246,26 @@
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>20029</v>
+        <v>20027</v>
       </c>
       <c r="B86" s="1" t="str">
-        <v>长耳女</v>
+        <v>短发时尚女</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
       </c>
-      <c r="D86" s="8">
-        <v>350744</v>
+      <c r="D86" s="3">
+        <v>350752</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="11">
-        <v>64458</v>
+      <c r="J86" s="2">
+        <v>111241</v>
       </c>
       <c r="K86" s="1" t="str">
         <v>0|0|0</v>
@@ -4288,26 +4288,26 @@
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>20030</v>
+        <v>20028</v>
       </c>
       <c r="B87" s="1" t="str">
-        <v>风衣长发女</v>
+        <v>长马尾女孩</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="8">
-        <v>350739</v>
+      <c r="D87" s="3">
+        <v>350746</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="11">
-        <v>142606</v>
+      <c r="J87" s="2">
+        <v>121948</v>
       </c>
       <c r="K87" s="1" t="str">
         <v>0|0|0</v>
@@ -4330,16 +4330,16 @@
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>20031</v>
+        <v>20029</v>
       </c>
       <c r="B88" s="1" t="str">
-        <v>恶魔角女</v>
+        <v>长耳女</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
       </c>
-      <c r="D88" s="8">
-        <v>350738</v>
+      <c r="D88" s="3">
+        <v>350744</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -4348,8 +4348,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="11">
-        <v>64305</v>
+      <c r="J88" s="2">
+        <v>64458</v>
       </c>
       <c r="K88" s="1" t="str">
         <v>0|0|0</v>
@@ -4372,16 +4372,16 @@
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>20032</v>
+        <v>20030</v>
       </c>
       <c r="B89" s="1" t="str">
-        <v>和服女</v>
+        <v>风衣长发女</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="8">
-        <v>350568</v>
+      <c r="D89" s="3">
+        <v>350739</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
@@ -4390,8 +4390,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="11">
-        <v>299082</v>
+      <c r="J89" s="2">
+        <v>142606</v>
       </c>
       <c r="K89" s="1" t="str">
         <v>0|0|0</v>
@@ -4414,16 +4414,16 @@
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>20033</v>
+        <v>20031</v>
       </c>
       <c r="B90" s="1" t="str">
-        <v>发卡女</v>
+        <v>恶魔角女</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
       </c>
-      <c r="D90" s="8">
-        <v>350318</v>
+      <c r="D90" s="3">
+        <v>350738</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4432,8 +4432,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="11">
-        <v>181365</v>
+      <c r="J90" s="2">
+        <v>64305</v>
       </c>
       <c r="K90" s="1" t="str">
         <v>0|0|0</v>
@@ -4456,16 +4456,16 @@
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>20034</v>
+        <v>20032</v>
       </c>
       <c r="B91" s="1" t="str">
-        <v>女仆套装女</v>
+        <v>和服女</v>
       </c>
       <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="8">
-        <v>350569</v>
+      <c r="D91" s="3">
+        <v>350568</v>
       </c>
       <c r="E91" s="1">
         <v>2</v>
@@ -4474,8 +4474,8 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="11">
-        <v>63291</v>
+      <c r="J91" s="2">
+        <v>299082</v>
       </c>
       <c r="K91" s="1" t="str">
         <v>0|0|0</v>
@@ -4498,16 +4498,16 @@
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>20035</v>
+        <v>20033</v>
       </c>
       <c r="B92" s="1" t="str">
-        <v>帽子女</v>
+        <v>发卡女</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
       </c>
-      <c r="D92" s="8">
-        <v>350314</v>
+      <c r="D92" s="3">
+        <v>350318</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -4516,8 +4516,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="11">
-        <v>299082</v>
+      <c r="J92" s="2">
+        <v>181365</v>
       </c>
       <c r="K92" s="1" t="str">
         <v>0|0|0</v>
@@ -4540,26 +4540,26 @@
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>20036</v>
+        <v>20034</v>
       </c>
       <c r="B93" s="1" t="str">
-        <v>魔法女孩</v>
+        <v>女仆套装女</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
-      <c r="D93" s="8">
-        <v>350260</v>
+      <c r="D93" s="3">
+        <v>350569</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="11">
-        <v>111088</v>
+      <c r="J93" s="2">
+        <v>63291</v>
       </c>
       <c r="K93" s="1" t="str">
         <v>0|0|0</v>
@@ -4582,26 +4582,26 @@
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>20037</v>
+        <v>20035</v>
       </c>
       <c r="B94" s="1" t="str">
-        <v>长裙女</v>
+        <v>帽子女</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D94" s="8">
-        <v>349270</v>
+      <c r="D94" s="3">
+        <v>350314</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="11">
-        <v>124880</v>
+      <c r="J94" s="2">
+        <v>299082</v>
       </c>
       <c r="K94" s="1" t="str">
         <v>0|0|0</v>
@@ -4624,26 +4624,26 @@
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>20038</v>
+        <v>20036</v>
       </c>
       <c r="B95" s="1" t="str">
-        <v>杀手女</v>
+        <v>魔法女孩</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
-      <c r="D95" s="8">
-        <v>347528</v>
+      <c r="D95" s="3">
+        <v>350260</v>
       </c>
       <c r="E95" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="11">
-        <v>137518</v>
+      <c r="J95" s="2">
+        <v>111088</v>
       </c>
       <c r="K95" s="1" t="str">
         <v>0|0|0</v>
@@ -4666,26 +4666,26 @@
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>20039</v>
+        <v>20037</v>
       </c>
       <c r="B96" s="1" t="str">
-        <v>巫医</v>
+        <v>长裙女</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
-      <c r="D96" s="8">
-        <v>145319</v>
+      <c r="D96" s="3">
+        <v>349270</v>
       </c>
       <c r="E96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="11">
-        <v>119773</v>
+      <c r="J96" s="2">
+        <v>124880</v>
       </c>
       <c r="K96" s="1" t="str">
         <v>0|0|0</v>
@@ -4708,26 +4708,26 @@
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>20040</v>
+        <v>20038</v>
       </c>
       <c r="B97" s="1" t="str">
-        <v>长腿妈妈</v>
+        <v>杀手女</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="8">
-        <v>143403</v>
+      <c r="D97" s="3">
+        <v>347528</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="11">
-        <v>119229</v>
+      <c r="J97" s="2">
+        <v>137518</v>
       </c>
       <c r="K97" s="1" t="str">
         <v>0|0|0</v>
@@ -4750,26 +4750,26 @@
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
-        <v>20041</v>
+        <v>20039</v>
       </c>
       <c r="B98" s="1" t="str">
-        <v>玄魁</v>
+        <v>巫医</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
       </c>
-      <c r="D98" s="1">
-        <v>143402</v>
+      <c r="D98" s="3">
+        <v>145319</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="11">
-        <v>121882</v>
+      <c r="J98" s="2">
+        <v>119773</v>
       </c>
       <c r="K98" s="1" t="str">
         <v>0|0|0</v>
@@ -4792,16 +4792,16 @@
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>20042</v>
+        <v>20040</v>
       </c>
       <c r="B99" s="1" t="str">
-        <v>邪恶女巫</v>
+        <v>长腿妈妈</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D99" s="1">
-        <v>143401</v>
+      <c r="D99" s="3">
+        <v>143403</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
@@ -4810,8 +4810,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="11">
-        <v>119745</v>
+      <c r="J99" s="2">
+        <v>119229</v>
       </c>
       <c r="K99" s="1" t="str">
         <v>0|0|0</v>
@@ -4834,26 +4834,26 @@
     </row>
     <row customHeight="true" ht="25" r="100">
       <c r="A100" s="1">
-        <v>20043</v>
+        <v>20041</v>
       </c>
       <c r="B100" s="1" t="str">
-        <v>小丑女</v>
+        <v>玄魁</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>143400</v>
+        <v>143402</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="11">
-        <v>63539</v>
+      <c r="J100" s="2">
+        <v>121882</v>
       </c>
       <c r="K100" s="1" t="str">
         <v>0|0|0</v>
@@ -4876,16 +4876,16 @@
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>20044</v>
+        <v>20042</v>
       </c>
       <c r="B101" s="1" t="str">
-        <v>万圣节女</v>
+        <v>邪恶女巫</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>143399</v>
+        <v>143401</v>
       </c>
       <c r="E101" s="1">
         <v>2</v>
@@ -4894,8 +4894,8 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="11">
-        <v>60981</v>
+      <c r="J101" s="2">
+        <v>119745</v>
       </c>
       <c r="K101" s="1" t="str">
         <v>0|0|0</v>
@@ -4918,26 +4918,26 @@
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>20045</v>
+        <v>20043</v>
       </c>
       <c r="B102" s="1" t="str">
-        <v>屠夫</v>
+        <v>小丑女</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>143398</v>
+        <v>143400</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="11">
-        <v>109144</v>
+      <c r="J102" s="2">
+        <v>63539</v>
       </c>
       <c r="K102" s="1" t="str">
         <v>0|0|0</v>
@@ -4960,26 +4960,26 @@
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>20046</v>
+        <v>20044</v>
       </c>
       <c r="B103" s="1" t="str">
-        <v>魔莱坞学院院长</v>
+        <v>万圣节女</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>143396</v>
+        <v>143399</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="11">
-        <v>64141</v>
+      <c r="J103" s="2">
+        <v>60981</v>
       </c>
       <c r="K103" s="1" t="str">
         <v>0|0|0</v>
@@ -5002,16 +5002,16 @@
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>20047</v>
+        <v>20045</v>
       </c>
       <c r="B104" s="1" t="str">
-        <v>迷雾鬼影</v>
+        <v>屠夫</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
       </c>
       <c r="D104" s="1">
-        <v>143395</v>
+        <v>143398</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -5020,8 +5020,8 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="11">
-        <v>109058</v>
+      <c r="J104" s="2">
+        <v>109144</v>
       </c>
       <c r="K104" s="1" t="str">
         <v>0|0|0</v>
@@ -5044,16 +5044,16 @@
     </row>
     <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>20048</v>
+        <v>20046</v>
       </c>
       <c r="B105" s="1" t="str">
-        <v>蓝毛怪</v>
+        <v>魔莱坞学院院长</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
       </c>
       <c r="D105" s="1">
-        <v>143394</v>
+        <v>143396</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -5062,8 +5062,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="11">
-        <v>109839</v>
+      <c r="J105" s="2">
+        <v>64141</v>
       </c>
       <c r="K105" s="1" t="str">
         <v>0|0|0</v>
@@ -5086,26 +5086,26 @@
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>20049</v>
+        <v>20047</v>
       </c>
       <c r="B106" s="1" t="str">
-        <v>狗头毛毛虫</v>
+        <v>迷雾鬼影</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>
       </c>
       <c r="D106" s="1">
-        <v>143390</v>
+        <v>143395</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="11">
-        <v>118079</v>
+      <c r="J106" s="2">
+        <v>109058</v>
       </c>
       <c r="K106" s="1" t="str">
         <v>0|0|0</v>
@@ -5128,16 +5128,16 @@
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>20050</v>
+        <v>20048</v>
       </c>
       <c r="B107" s="1" t="str">
-        <v>粉毛怪</v>
+        <v>蓝毛怪</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>143389</v>
+        <v>143394</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -5146,7 +5146,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="11">
+      <c r="J107" s="2">
         <v>109839</v>
       </c>
       <c r="K107" s="1" t="str">
@@ -5170,16 +5170,16 @@
     </row>
     <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>20051</v>
+        <v>20049</v>
       </c>
       <c r="B108" s="1" t="str">
-        <v>索尼克</v>
+        <v>狗头毛毛虫</v>
       </c>
       <c r="C108" s="1">
         <v>2</v>
       </c>
       <c r="D108" s="1">
-        <v>143387</v>
+        <v>143390</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -5188,8 +5188,8 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="11">
-        <v>117681</v>
+      <c r="J108" s="2">
+        <v>118079</v>
       </c>
       <c r="K108" s="1" t="str">
         <v>0|0|0</v>
@@ -5212,218 +5212,202 @@
     </row>
     <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>20052</v>
-      </c>
-      <c r="B109" s="8" t="str">
-        <v>Rainbow friends</v>
-      </c>
-      <c r="C109" s="8">
+        <v>20050</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <v>粉毛怪</v>
+      </c>
+      <c r="C109" s="1">
         <v>2</v>
       </c>
-      <c r="D109" s="8">
-        <v>143385</v>
-      </c>
-      <c r="E109" s="8">
-        <v>3</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="9">
-        <v>119483</v>
-      </c>
-      <c r="K109" s="8" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L109" s="8" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M109" s="8" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
+      <c r="D109" s="1">
+        <v>143389</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="2">
+        <v>109839</v>
+      </c>
+      <c r="K109" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L109" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M109" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
       <c r="P109" s="1">
         <v>1</v>
       </c>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="110">
       <c r="A110" s="1">
-        <v>20053</v>
-      </c>
-      <c r="B110" s="8" t="str">
-        <v>海神</v>
-      </c>
-      <c r="C110" s="8">
+        <v>20051</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <v>索尼克</v>
+      </c>
+      <c r="C110" s="1">
         <v>2</v>
       </c>
-      <c r="D110" s="8">
-        <v>226377</v>
-      </c>
-      <c r="E110" s="8">
-        <v>3</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8">
-        <v>226377</v>
-      </c>
-      <c r="K110" s="8" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L110" s="8" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M110" s="8" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
+      <c r="D110" s="1">
+        <v>143387</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="2">
+        <v>117681</v>
+      </c>
+      <c r="K110" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L110" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M110" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
       <c r="P110" s="1">
         <v>1</v>
       </c>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="111">
       <c r="A111" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B111" s="1" t="str">
-        <v>恶魔翅膀</v>
-      </c>
-      <c r="C111" s="1">
+        <v>20052</v>
+      </c>
+      <c r="B111" s="3" t="str">
+        <v>Rainbow friends</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>143385</v>
+      </c>
+      <c r="E111" s="3">
         <v>3</v>
       </c>
-      <c r="D111" s="1">
-        <v>223877</v>
-      </c>
-      <c r="E111" s="1">
-        <v>3</v>
-      </c>
-      <c r="F111" s="1">
-        <v>12</v>
-      </c>
-      <c r="G111" s="1" t="str">
-        <v>-10|0|10</v>
-      </c>
-      <c r="H111" s="1" t="str">
-        <v>0|0|90</v>
-      </c>
-      <c r="I111" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="J111" s="1">
-        <v>223877</v>
-      </c>
-      <c r="K111" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L111" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M111" s="1" t="str">
-        <v>2|2|2</v>
-      </c>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="14">
+        <v>119483</v>
+      </c>
+      <c r="K111" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L111" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M111" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
       <c r="P111" s="1">
         <v>1</v>
       </c>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="112">
       <c r="A112" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <v>恶魔角</v>
-      </c>
-      <c r="C112" s="1">
+        <v>20053</v>
+      </c>
+      <c r="B112" s="3" t="str">
+        <v>海神</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>226377</v>
+      </c>
+      <c r="E112" s="3">
         <v>3</v>
       </c>
-      <c r="D112" s="1">
-        <v>266332</v>
-      </c>
-      <c r="E112" s="1">
-        <v>3</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="G112" s="1" t="str">
-        <v>0|5|10</v>
-      </c>
-      <c r="H112" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="I112" s="1" t="str">
-        <v>1|1|2</v>
-      </c>
-      <c r="J112" s="1">
-        <v>266332</v>
-      </c>
-      <c r="K112" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L112" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M112" s="1" t="str">
-        <v>1|1|2</v>
-      </c>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3">
+        <v>226377</v>
+      </c>
+      <c r="K112" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L112" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M112" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
       <c r="P112" s="1">
         <v>1</v>
       </c>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="113">
       <c r="A113" s="1">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B113" s="1" t="str">
-        <v>恶魔尾巴</v>
+        <v>恶魔翅膀</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
       </c>
       <c r="D113" s="1">
-        <v>136179</v>
+        <v>223877</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
       </c>
       <c r="F113" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G113" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-10|0|10</v>
       </c>
       <c r="H113" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I113" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="J113" s="1">
-        <v>136179</v>
+        <v>223877</v>
       </c>
       <c r="K113" s="1" t="str">
         <v>0|0|0</v>
@@ -5432,7 +5416,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M113" s="1" t="str">
-        <v>1|1|1</v>
+        <v>2|2|2</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -5446,34 +5430,34 @@
     </row>
     <row customHeight="true" ht="25" r="114">
       <c r="A114" s="1">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B114" s="1" t="str">
-        <v>恶魔头骨</v>
+        <v>恶魔角</v>
       </c>
       <c r="C114" s="1">
         <v>3</v>
       </c>
       <c r="D114" s="1">
-        <v>136506</v>
+        <v>266332</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
       </c>
       <c r="F114" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G114" s="1" t="str">
-        <v>-4.8|0|-11</v>
+        <v>0|5|10</v>
       </c>
       <c r="H114" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I114" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="J114" s="1">
-        <v>136506</v>
+        <v>266332</v>
       </c>
       <c r="K114" s="1" t="str">
         <v>0|0|0</v>
@@ -5482,7 +5466,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M114" s="1" t="str">
-        <v>1|1|1</v>
+        <v>1|1|2</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -5496,34 +5480,34 @@
     </row>
     <row customHeight="true" ht="25" r="115">
       <c r="A115" s="1">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B115" s="1" t="str">
-        <v>恶魔三头犬</v>
+        <v>恶魔尾巴</v>
       </c>
       <c r="C115" s="1">
         <v>3</v>
       </c>
       <c r="D115" s="1">
-        <v>192395</v>
+        <v>136179</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
       </c>
       <c r="F115" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H115" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I115" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J115" s="1">
-        <v>192395</v>
+        <v>136179</v>
       </c>
       <c r="K115" s="1" t="str">
         <v>0|0|0</v>
@@ -5546,34 +5530,34 @@
     </row>
     <row customHeight="true" ht="25" r="116">
       <c r="A116" s="1">
-        <v>30006</v>
+        <v>30004</v>
       </c>
       <c r="B116" s="1" t="str">
-        <v>天使翅膀</v>
+        <v>恶魔头骨</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>334814</v>
+        <v>136506</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
       <c r="F116" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G116" s="1" t="str">
-        <v>0|0|0</v>
+        <v>-4.8|0|-11</v>
       </c>
       <c r="H116" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I116" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J116" s="1">
-        <v>334814</v>
+        <v>136506</v>
       </c>
       <c r="K116" s="1" t="str">
         <v>0|0|0</v>
@@ -5596,16 +5580,16 @@
     </row>
     <row customHeight="true" ht="25" r="117">
       <c r="A117" s="1">
-        <v>30007</v>
+        <v>30005</v>
       </c>
       <c r="B117" s="1" t="str">
-        <v>天使蜘蛛</v>
+        <v>恶魔三头犬</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>192359</v>
+        <v>192395</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
@@ -5623,7 +5607,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J117" s="1">
-        <v>192359</v>
+        <v>192395</v>
       </c>
       <c r="K117" s="1" t="str">
         <v>0|0|0</v>
@@ -5646,34 +5630,34 @@
     </row>
     <row customHeight="true" ht="25" r="118">
       <c r="A118" s="1">
-        <v>30008</v>
+        <v>30006</v>
       </c>
       <c r="B118" s="1" t="str">
-        <v>狐狸尾巴</v>
+        <v>天使翅膀</v>
       </c>
       <c r="C118" s="1">
         <v>3</v>
       </c>
       <c r="D118" s="1">
-        <v>226476</v>
+        <v>334814</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
       </c>
       <c r="F118" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G118" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H118" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|90</v>
       </c>
       <c r="I118" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J118" s="1">
-        <v>226476</v>
+        <v>334814</v>
       </c>
       <c r="K118" s="1" t="str">
         <v>0|0|0</v>
@@ -5696,34 +5680,34 @@
     </row>
     <row customHeight="true" ht="25" r="119">
       <c r="A119" s="1">
-        <v>30009</v>
+        <v>30007</v>
       </c>
       <c r="B119" s="1" t="str">
-        <v>狐狸耳朵</v>
+        <v>天使蜘蛛</v>
       </c>
       <c r="C119" s="1">
         <v>3</v>
       </c>
       <c r="D119" s="1">
-        <v>226479</v>
+        <v>192359</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
       </c>
       <c r="F119" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G119" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H119" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I119" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J119" s="1">
-        <v>226479</v>
+        <v>192359</v>
       </c>
       <c r="K119" s="1" t="str">
         <v>0|0|0</v>
@@ -5746,22 +5730,22 @@
     </row>
     <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
-        <v>30010</v>
+        <v>30008</v>
       </c>
       <c r="B120" s="1" t="str">
-        <v>挥动的围巾</v>
+        <v>狐狸尾巴</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
       <c r="D120" s="1">
-        <v>295506</v>
+        <v>226476</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
       </c>
       <c r="F120" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G120" s="1" t="str">
         <v>0|0|0</v>
@@ -5773,7 +5757,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J120" s="1">
-        <v>295506</v>
+        <v>226476</v>
       </c>
       <c r="K120" s="1" t="str">
         <v>0|0|0</v>
@@ -5796,34 +5780,34 @@
     </row>
     <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
-        <v>30011</v>
+        <v>30009</v>
       </c>
       <c r="B121" s="1" t="str">
-        <v>闪电翅膀</v>
+        <v>狐狸耳朵</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
       </c>
       <c r="D121" s="1">
-        <v>42818</v>
+        <v>226479</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F121" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G121" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="H121" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|0</v>
       </c>
       <c r="I121" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J121" s="1">
-        <v>42818</v>
+        <v>226479</v>
       </c>
       <c r="K121" s="1" t="str">
         <v>0|0|0</v>
@@ -5846,16 +5830,16 @@
     </row>
     <row customHeight="true" ht="25" r="122">
       <c r="A122" s="1">
-        <v>30012</v>
+        <v>30010</v>
       </c>
       <c r="B122" s="1" t="str">
-        <v>眼镜</v>
+        <v>挥动的围巾</v>
       </c>
       <c r="C122" s="1">
         <v>3</v>
       </c>
       <c r="D122" s="1">
-        <v>324491</v>
+        <v>295506</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
@@ -5864,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="1" t="str">
-        <v>0|-1|2</v>
+        <v>0|0|0</v>
       </c>
       <c r="H122" s="1" t="str">
         <v>0|0|0</v>
@@ -5873,7 +5857,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J122" s="1">
-        <v>324491</v>
+        <v>295506</v>
       </c>
       <c r="K122" s="1" t="str">
         <v>0|0|0</v>
@@ -5896,34 +5880,34 @@
     </row>
     <row customHeight="true" ht="25" r="123">
       <c r="A123" s="1">
-        <v>30013</v>
+        <v>30011</v>
       </c>
       <c r="B123" s="1" t="str">
-        <v>拍照机器人</v>
+        <v>闪电翅膀</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>292313</v>
+        <v>42818</v>
       </c>
       <c r="E123" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F123" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G123" s="1" t="str">
-        <v>1|-10|-1</v>
+        <v>0|0|0</v>
       </c>
       <c r="H123" s="1" t="str">
-        <v>110|-45|55</v>
+        <v>0|0|90</v>
       </c>
       <c r="I123" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="J123" s="1">
-        <v>292313</v>
+        <v>42818</v>
       </c>
       <c r="K123" s="1" t="str">
         <v>0|0|0</v>
@@ -5932,7 +5916,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M123" s="1" t="str">
-        <v>0.4|0.4|0.4</v>
+        <v>1|1|1</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -5946,16 +5930,16 @@
     </row>
     <row customHeight="true" ht="25" r="124">
       <c r="A124" s="1">
-        <v>30014</v>
+        <v>30012</v>
       </c>
       <c r="B124" s="1" t="str">
-        <v>面纱</v>
+        <v>眼镜</v>
       </c>
       <c r="C124" s="1">
         <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>269783</v>
+        <v>324491</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -5964,16 +5948,16 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="str">
-        <v>0|14|-4</v>
+        <v>0|-1|2</v>
       </c>
       <c r="H124" s="1" t="str">
         <v>0|0|0</v>
       </c>
       <c r="I124" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="J124" s="1">
-        <v>269783</v>
+        <v>324491</v>
       </c>
       <c r="K124" s="1" t="str">
         <v>0|0|0</v>
@@ -5982,7 +5966,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M124" s="1" t="str">
-        <v>1|0.8|0.8</v>
+        <v>1|1|1</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -5994,18 +5978,18 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" hidden="true" ht="25" r="125">
+    <row customHeight="true" ht="25" r="125">
       <c r="A125" s="1">
-        <v>30015</v>
+        <v>30013</v>
       </c>
       <c r="B125" s="1" t="str">
-        <v>火箭发射器</v>
+        <v>拍照机器人</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
       </c>
       <c r="D125" s="1">
-        <v>226826</v>
+        <v>292313</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
@@ -6014,16 +5998,16 @@
         <v>26</v>
       </c>
       <c r="G125" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>1|-10|-1</v>
       </c>
       <c r="H125" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>110|-45|55</v>
       </c>
       <c r="I125" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="J125" s="1">
-        <v>226826</v>
+        <v>292313</v>
       </c>
       <c r="K125" s="1" t="str">
         <v>0|0|0</v>
@@ -6032,7 +6016,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M125" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>0.4|0.4|0.4</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -6046,34 +6030,34 @@
     </row>
     <row customHeight="true" ht="25" r="126">
       <c r="A126" s="1">
-        <v>30016</v>
+        <v>30014</v>
       </c>
       <c r="B126" s="1" t="str">
-        <v>狙击枪枪身</v>
+        <v>面纱</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
       </c>
       <c r="D126" s="1">
-        <v>318663</v>
+        <v>269783</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
       </c>
       <c r="F126" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G126" s="1" t="str">
-        <v>20|8|-10</v>
+        <v>0|14|-4</v>
       </c>
       <c r="H126" s="1" t="str">
-        <v>-90|0|0</v>
+        <v>0|0|0</v>
       </c>
       <c r="I126" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="J126" s="1">
-        <v>318663</v>
+        <v>269783</v>
       </c>
       <c r="K126" s="1" t="str">
         <v>0|0|0</v>
@@ -6082,7 +6066,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M126" s="1" t="str">
-        <v>0.5|0.5|0.5</v>
+        <v>1|0.8|0.8</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -6094,36 +6078,36 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row customHeight="true" ht="25" r="127">
+    <row customHeight="true" hidden="true" ht="25" r="127">
       <c r="A127" s="1">
-        <v>30017</v>
+        <v>30015</v>
       </c>
       <c r="B127" s="1" t="str">
-        <v>可爱西方龙</v>
+        <v>火箭发射器</v>
       </c>
       <c r="C127" s="1">
         <v>3</v>
       </c>
       <c r="D127" s="1">
-        <v>152259</v>
+        <v>226826</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F127" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G127" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H127" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I127" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J127" s="1">
-        <v>152259</v>
+        <v>226826</v>
       </c>
       <c r="K127" s="1" t="str">
         <v>0|0|0</v>
@@ -6132,7 +6116,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M127" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -6146,34 +6130,34 @@
     </row>
     <row customHeight="true" ht="25" r="128">
       <c r="A128" s="1">
-        <v>30018</v>
+        <v>30016</v>
       </c>
       <c r="B128" s="1" t="str">
-        <v>龙</v>
+        <v>狙击枪枪身</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
       </c>
       <c r="D128" s="1">
-        <v>292574</v>
+        <v>318663</v>
       </c>
       <c r="E128" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G128" s="1" t="str">
-        <v>0|50|-80</v>
+        <v>20|8|-10</v>
       </c>
       <c r="H128" s="1" t="str">
-        <v>0|0|-90</v>
+        <v>-90|0|0</v>
       </c>
       <c r="I128" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="J128" s="1">
-        <v>292574</v>
+        <v>318663</v>
       </c>
       <c r="K128" s="1" t="str">
         <v>0|0|0</v>
@@ -6182,7 +6166,7 @@
         <v>0|0|0</v>
       </c>
       <c r="M128" s="1" t="str">
-        <v>1|1|1</v>
+        <v>0.5|0.5|0.5</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -6196,19 +6180,19 @@
     </row>
     <row customHeight="true" ht="25" r="129">
       <c r="A129" s="1">
-        <v>30019</v>
+        <v>30017</v>
       </c>
       <c r="B129" s="1" t="str">
-        <v>帝王龙</v>
+        <v>可爱西方龙</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="1">
-        <v>192533</v>
+        <v>152259</v>
       </c>
       <c r="E129" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129" s="1">
         <v>21</v>
@@ -6223,7 +6207,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J129" s="1">
-        <v>192533</v>
+        <v>152259</v>
       </c>
       <c r="K129" s="1" t="str">
         <v>0|0|0</v>
@@ -6246,19 +6230,19 @@
     </row>
     <row customHeight="true" ht="25" r="130">
       <c r="A130" s="1">
-        <v>30020</v>
+        <v>30018</v>
       </c>
       <c r="B130" s="1" t="str">
-        <v>地狱龙</v>
+        <v>龙</v>
       </c>
       <c r="C130" s="1">
         <v>3</v>
       </c>
       <c r="D130" s="1">
-        <v>192420</v>
+        <v>292574</v>
       </c>
       <c r="E130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" s="1">
         <v>21</v>
@@ -6273,7 +6257,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J130" s="1">
-        <v>192420</v>
+        <v>292574</v>
       </c>
       <c r="K130" s="1" t="str">
         <v>0|0|0</v>
@@ -6296,16 +6280,16 @@
     </row>
     <row customHeight="true" ht="25" r="131">
       <c r="A131" s="1">
-        <v>30021</v>
+        <v>30019</v>
       </c>
       <c r="B131" s="1" t="str">
-        <v>糖果龙</v>
+        <v>帝王龙</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
       </c>
       <c r="D131" s="1">
-        <v>191950</v>
+        <v>192533</v>
       </c>
       <c r="E131" s="1">
         <v>3</v>
@@ -6323,7 +6307,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J131" s="1">
-        <v>191950</v>
+        <v>192533</v>
       </c>
       <c r="K131" s="1" t="str">
         <v>0|0|0</v>
@@ -6346,16 +6330,16 @@
     </row>
     <row customHeight="true" ht="25" r="132">
       <c r="A132" s="1">
-        <v>30022</v>
+        <v>30020</v>
       </c>
       <c r="B132" s="1" t="str">
-        <v>武士龙</v>
+        <v>地狱龙</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
       </c>
       <c r="D132" s="1">
-        <v>191852</v>
+        <v>192420</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -6373,7 +6357,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J132" s="1">
-        <v>191852</v>
+        <v>192420</v>
       </c>
       <c r="K132" s="1" t="str">
         <v>0|0|0</v>
@@ -6396,34 +6380,34 @@
     </row>
     <row customHeight="true" ht="25" r="133">
       <c r="A133" s="1">
-        <v>30023</v>
+        <v>30021</v>
       </c>
       <c r="B133" s="1" t="str">
-        <v>水晶翅膀</v>
+        <v>糖果龙</v>
       </c>
       <c r="C133" s="1">
         <v>3</v>
       </c>
       <c r="D133" s="1">
-        <v>375788</v>
+        <v>191950</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F133" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G133" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H133" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I133" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J133" s="1">
-        <v>375788</v>
+        <v>191950</v>
       </c>
       <c r="K133" s="1" t="str">
         <v>0|0|0</v>
@@ -6446,34 +6430,34 @@
     </row>
     <row customHeight="true" ht="25" r="134">
       <c r="A134" s="1">
-        <v>30024</v>
+        <v>30022</v>
       </c>
       <c r="B134" s="1" t="str">
-        <v>杀戮翅膀</v>
+        <v>武士龙</v>
       </c>
       <c r="C134" s="1">
         <v>3</v>
       </c>
       <c r="D134" s="1">
-        <v>136966</v>
+        <v>191852</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1" t="str">
-        <v>0|0|0</v>
+        <v>0|50|-80</v>
       </c>
       <c r="H134" s="1" t="str">
-        <v>0|0|180</v>
+        <v>0|0|-90</v>
       </c>
       <c r="I134" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J134" s="1">
-        <v>136966</v>
+        <v>191852</v>
       </c>
       <c r="K134" s="1" t="str">
         <v>0|0|0</v>
@@ -6496,16 +6480,16 @@
     </row>
     <row customHeight="true" ht="25" r="135">
       <c r="A135" s="1">
-        <v>30025</v>
+        <v>30023</v>
       </c>
       <c r="B135" s="1" t="str">
-        <v>地狱翅膀</v>
+        <v>水晶翅膀</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
       </c>
       <c r="D135" s="1">
-        <v>145912</v>
+        <v>375788</v>
       </c>
       <c r="E135" s="1">
         <v>2</v>
@@ -6523,7 +6507,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J135" s="1">
-        <v>145912</v>
+        <v>375788</v>
       </c>
       <c r="K135" s="1" t="str">
         <v>0|0|0</v>
@@ -6546,16 +6530,16 @@
     </row>
     <row customHeight="true" ht="25" r="136">
       <c r="A136" s="1">
-        <v>30026</v>
+        <v>30024</v>
       </c>
       <c r="B136" s="1" t="str">
-        <v>精灵翅膀</v>
+        <v>杀戮翅膀</v>
       </c>
       <c r="C136" s="1">
         <v>3</v>
       </c>
       <c r="D136" s="1">
-        <v>393543</v>
+        <v>136966</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
@@ -6567,13 +6551,13 @@
         <v>0|0|0</v>
       </c>
       <c r="H136" s="1" t="str">
-        <v>0|0|90</v>
+        <v>0|0|180</v>
       </c>
       <c r="I136" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J136" s="1">
-        <v>393543</v>
+        <v>136966</v>
       </c>
       <c r="K136" s="1" t="str">
         <v>0|0|0</v>
@@ -6596,16 +6580,16 @@
     </row>
     <row customHeight="true" ht="25" r="137">
       <c r="A137" s="1">
-        <v>30027</v>
+        <v>30025</v>
       </c>
       <c r="B137" s="1" t="str">
-        <v>火焰翅膀</v>
+        <v>地狱翅膀</v>
       </c>
       <c r="C137" s="1">
         <v>3</v>
       </c>
       <c r="D137" s="1">
-        <v>211667</v>
+        <v>145912</v>
       </c>
       <c r="E137" s="1">
         <v>2</v>
@@ -6623,7 +6607,7 @@
         <v>1|1|1</v>
       </c>
       <c r="J137" s="1">
-        <v>211667</v>
+        <v>145912</v>
       </c>
       <c r="K137" s="1" t="str">
         <v>0|0|0</v>
@@ -6646,34 +6630,34 @@
     </row>
     <row customHeight="true" ht="25" r="138">
       <c r="A138" s="1">
-        <v>30028</v>
+        <v>30026</v>
       </c>
       <c r="B138" s="1" t="str">
-        <v>大剑</v>
+        <v>精灵翅膀</v>
       </c>
       <c r="C138" s="1">
         <v>3</v>
       </c>
       <c r="D138" s="1">
-        <v>186519</v>
+        <v>393543</v>
       </c>
       <c r="E138" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" s="1">
         <v>12</v>
       </c>
       <c r="G138" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H138" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I138" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J138" s="1">
-        <v>186519</v>
+        <v>393543</v>
       </c>
       <c r="K138" s="1" t="str">
         <v>0|0|0</v>
@@ -6696,34 +6680,34 @@
     </row>
     <row customHeight="true" ht="25" r="139">
       <c r="A139" s="1">
-        <v>30029</v>
+        <v>30027</v>
       </c>
       <c r="B139" s="1" t="str">
-        <v>天使剑</v>
+        <v>火焰翅膀</v>
       </c>
       <c r="C139" s="1">
         <v>3</v>
       </c>
       <c r="D139" s="1">
-        <v>20971</v>
+        <v>211667</v>
       </c>
       <c r="E139" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" s="1">
         <v>12</v>
       </c>
       <c r="G139" s="1" t="str">
-        <v>7|0|20</v>
+        <v>0|0|0</v>
       </c>
       <c r="H139" s="1" t="str">
-        <v>-170|0|90</v>
+        <v>0|0|90</v>
       </c>
       <c r="I139" s="1" t="str">
         <v>1|1|1</v>
       </c>
       <c r="J139" s="1">
-        <v>20971</v>
+        <v>211667</v>
       </c>
       <c r="K139" s="1" t="str">
         <v>0|0|0</v>
@@ -6745,43 +6729,47 @@
       <c r="T139" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="140">
-      <c r="A140" s="5">
-        <v>40001</v>
-      </c>
-      <c r="B140" s="5" t="str">
-        <v>蛇女</v>
-      </c>
-      <c r="C140" s="5">
-        <v>4</v>
-      </c>
-      <c r="D140" s="5">
-        <v>328236</v>
-      </c>
-      <c r="E140" s="5">
+      <c r="A140" s="1">
+        <v>30028</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <v>大剑</v>
+      </c>
+      <c r="C140" s="1">
         <v>3</v>
       </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5">
-        <v>328236</v>
-      </c>
-      <c r="K140" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L140" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M140" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N140" s="13">
-        <v>318618</v>
-      </c>
-      <c r="O140" s="13">
-        <v>318617</v>
-      </c>
+      <c r="D140" s="1">
+        <v>186519</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="1">
+        <v>12</v>
+      </c>
+      <c r="G140" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I140" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J140" s="1">
+        <v>186519</v>
+      </c>
+      <c r="K140" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L140" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M140" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
       <c r="P140" s="1">
         <v>1</v>
       </c>
@@ -6791,43 +6779,47 @@
       <c r="T140" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="141">
-      <c r="A141" s="5">
-        <v>40002</v>
-      </c>
-      <c r="B141" s="5" t="str">
-        <v>络新妇</v>
-      </c>
-      <c r="C141" s="5">
-        <v>4</v>
-      </c>
-      <c r="D141" s="5">
-        <v>338436</v>
-      </c>
-      <c r="E141" s="5">
+      <c r="A141" s="1">
+        <v>30029</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <v>天使剑</v>
+      </c>
+      <c r="C141" s="1">
         <v>3</v>
       </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5">
-        <v>338436</v>
-      </c>
-      <c r="K141" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L141" s="5" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M141" s="5" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N141" s="12">
-        <v>336668</v>
-      </c>
-      <c r="O141" s="13">
-        <v>338467</v>
-      </c>
+      <c r="D141" s="1">
+        <v>20971</v>
+      </c>
+      <c r="E141" s="1">
+        <v>3</v>
+      </c>
+      <c r="F141" s="1">
+        <v>12</v>
+      </c>
+      <c r="G141" s="1" t="str">
+        <v>7|0|20</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <v>-170|0|90</v>
+      </c>
+      <c r="I141" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>20971</v>
+      </c>
+      <c r="K141" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L141" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M141" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
       <c r="P141" s="1">
         <v>1</v>
       </c>
@@ -6838,16 +6830,16 @@
     </row>
     <row customHeight="true" ht="25" r="142">
       <c r="A142" s="5">
-        <v>40003</v>
+        <v>40001</v>
       </c>
       <c r="B142" s="5" t="str">
-        <v>大蜘蛛</v>
+        <v>蛇女</v>
       </c>
       <c r="C142" s="5">
         <v>4</v>
       </c>
       <c r="D142" s="5">
-        <v>328291</v>
+        <v>328236</v>
       </c>
       <c r="E142" s="5">
         <v>3</v>
@@ -6857,7 +6849,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
-        <v>328291</v>
+        <v>328236</v>
       </c>
       <c r="K142" s="5" t="str">
         <v>0|0|0</v>
@@ -6868,11 +6860,11 @@
       <c r="M142" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N142" s="12">
-        <v>336668</v>
-      </c>
-      <c r="O142" s="13">
-        <v>336669</v>
+      <c r="N142" s="7">
+        <v>318618</v>
+      </c>
+      <c r="O142" s="7">
+        <v>318617</v>
       </c>
       <c r="P142" s="1">
         <v>1</v>
@@ -6884,16 +6876,16 @@
     </row>
     <row customHeight="true" ht="25" r="143">
       <c r="A143" s="5">
-        <v>40004</v>
+        <v>40002</v>
       </c>
       <c r="B143" s="5" t="str">
-        <v>小型抱脸紫蜘蛛</v>
+        <v>络新妇</v>
       </c>
       <c r="C143" s="5">
         <v>4</v>
       </c>
       <c r="D143" s="5">
-        <v>340103</v>
+        <v>338436</v>
       </c>
       <c r="E143" s="5">
         <v>3</v>
@@ -6903,7 +6895,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5">
-        <v>340103</v>
+        <v>338436</v>
       </c>
       <c r="K143" s="5" t="str">
         <v>0|0|0</v>
@@ -6914,11 +6906,11 @@
       <c r="M143" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N143" s="12">
+      <c r="N143" s="6">
         <v>336668</v>
       </c>
-      <c r="O143" s="13">
-        <v>336669</v>
+      <c r="O143" s="7">
+        <v>338467</v>
       </c>
       <c r="P143" s="1">
         <v>1</v>
@@ -6930,16 +6922,16 @@
     </row>
     <row customHeight="true" ht="25" r="144">
       <c r="A144" s="5">
-        <v>40005</v>
+        <v>40003</v>
       </c>
       <c r="B144" s="5" t="str">
-        <v>小型抱脸红蜘蛛</v>
+        <v>大蜘蛛</v>
       </c>
       <c r="C144" s="5">
         <v>4</v>
       </c>
       <c r="D144" s="5">
-        <v>340104</v>
+        <v>328291</v>
       </c>
       <c r="E144" s="5">
         <v>3</v>
@@ -6949,7 +6941,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
-        <v>340104</v>
+        <v>328291</v>
       </c>
       <c r="K144" s="5" t="str">
         <v>0|0|0</v>
@@ -6960,10 +6952,10 @@
       <c r="M144" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N144" s="12">
+      <c r="N144" s="6">
         <v>336668</v>
       </c>
-      <c r="O144" s="13">
+      <c r="O144" s="7">
         <v>336669</v>
       </c>
       <c r="P144" s="1">
@@ -6976,16 +6968,16 @@
     </row>
     <row customHeight="true" ht="25" r="145">
       <c r="A145" s="5">
-        <v>40006</v>
+        <v>40004</v>
       </c>
       <c r="B145" s="5" t="str">
-        <v>小型抱脸绿蜘蛛</v>
+        <v>小型抱脸紫蜘蛛</v>
       </c>
       <c r="C145" s="5">
         <v>4</v>
       </c>
       <c r="D145" s="5">
-        <v>340105</v>
+        <v>340103</v>
       </c>
       <c r="E145" s="5">
         <v>3</v>
@@ -6995,7 +6987,7 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5">
-        <v>340105</v>
+        <v>340103</v>
       </c>
       <c r="K145" s="5" t="str">
         <v>0|0|0</v>
@@ -7006,10 +6998,10 @@
       <c r="M145" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N145" s="12">
+      <c r="N145" s="6">
         <v>336668</v>
       </c>
-      <c r="O145" s="13">
+      <c r="O145" s="7">
         <v>336669</v>
       </c>
       <c r="P145" s="1">
@@ -7022,16 +7014,16 @@
     </row>
     <row customHeight="true" ht="25" r="146">
       <c r="A146" s="5">
-        <v>40007</v>
+        <v>40005</v>
       </c>
       <c r="B146" s="5" t="str">
-        <v>小型抱脸蓝蜘蛛</v>
+        <v>小型抱脸红蜘蛛</v>
       </c>
       <c r="C146" s="5">
         <v>4</v>
       </c>
       <c r="D146" s="5">
-        <v>340106</v>
+        <v>340104</v>
       </c>
       <c r="E146" s="5">
         <v>3</v>
@@ -7041,7 +7033,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5">
-        <v>340106</v>
+        <v>340104</v>
       </c>
       <c r="K146" s="5" t="str">
         <v>0|0|0</v>
@@ -7052,10 +7044,10 @@
       <c r="M146" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N146" s="12">
+      <c r="N146" s="6">
         <v>336668</v>
       </c>
-      <c r="O146" s="13">
+      <c r="O146" s="7">
         <v>336669</v>
       </c>
       <c r="P146" s="1">
@@ -7068,26 +7060,26 @@
     </row>
     <row customHeight="true" ht="25" r="147">
       <c r="A147" s="5">
-        <v>40008</v>
+        <v>40006</v>
       </c>
       <c r="B147" s="5" t="str">
-        <v>小龙</v>
+        <v>小型抱脸绿蜘蛛</v>
       </c>
       <c r="C147" s="5">
         <v>4</v>
       </c>
       <c r="D147" s="5">
-        <v>328246</v>
+        <v>340105</v>
       </c>
       <c r="E147" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5">
-        <v>328246</v>
+        <v>340105</v>
       </c>
       <c r="K147" s="5" t="str">
         <v>0|0|0</v>
@@ -7098,11 +7090,11 @@
       <c r="M147" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N147" s="12">
-        <v>160627</v>
-      </c>
-      <c r="O147" s="15">
-        <v>160628</v>
+      <c r="N147" s="6">
+        <v>336668</v>
+      </c>
+      <c r="O147" s="7">
+        <v>336669</v>
       </c>
       <c r="P147" s="1">
         <v>1</v>
@@ -7114,26 +7106,26 @@
     </row>
     <row customHeight="true" ht="25" r="148">
       <c r="A148" s="5">
-        <v>40009</v>
+        <v>40007</v>
       </c>
       <c r="B148" s="5" t="str">
-        <v>卡通木龙</v>
+        <v>小型抱脸蓝蜘蛛</v>
       </c>
       <c r="C148" s="5">
         <v>4</v>
       </c>
       <c r="D148" s="5">
-        <v>328030</v>
+        <v>340106</v>
       </c>
       <c r="E148" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
-        <v>328030</v>
+        <v>340106</v>
       </c>
       <c r="K148" s="5" t="str">
         <v>0|0|0</v>
@@ -7144,11 +7136,11 @@
       <c r="M148" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N148" s="12">
-        <v>160627</v>
-      </c>
-      <c r="O148" s="15">
-        <v>160628</v>
+      <c r="N148" s="6">
+        <v>336668</v>
+      </c>
+      <c r="O148" s="7">
+        <v>336669</v>
       </c>
       <c r="P148" s="1">
         <v>1</v>
@@ -7160,16 +7152,16 @@
     </row>
     <row customHeight="true" ht="25" r="149">
       <c r="A149" s="5">
-        <v>40010</v>
+        <v>40008</v>
       </c>
       <c r="B149" s="5" t="str">
-        <v>红龙</v>
+        <v>小龙</v>
       </c>
       <c r="C149" s="5">
         <v>4</v>
       </c>
       <c r="D149" s="5">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -7179,7 +7171,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="K149" s="5" t="str">
         <v>0|0|0</v>
@@ -7190,10 +7182,10 @@
       <c r="M149" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N149" s="12">
+      <c r="N149" s="6">
         <v>160627</v>
       </c>
-      <c r="O149" s="15">
+      <c r="O149" s="13">
         <v>160628</v>
       </c>
       <c r="P149" s="1">
@@ -7206,16 +7198,16 @@
     </row>
     <row customHeight="true" ht="25" r="150">
       <c r="A150" s="5">
-        <v>40011</v>
+        <v>40009</v>
       </c>
       <c r="B150" s="5" t="str">
-        <v>黄龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C150" s="5">
         <v>4</v>
       </c>
       <c r="D150" s="5">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="E150" s="5">
         <v>1</v>
@@ -7225,7 +7217,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="K150" s="5" t="str">
         <v>0|0|0</v>
@@ -7236,10 +7228,10 @@
       <c r="M150" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N150" s="12">
+      <c r="N150" s="6">
         <v>160627</v>
       </c>
-      <c r="O150" s="15">
+      <c r="O150" s="13">
         <v>160628</v>
       </c>
       <c r="P150" s="1">
@@ -7252,16 +7244,16 @@
     </row>
     <row customHeight="true" ht="25" r="151">
       <c r="A151" s="5">
-        <v>40012</v>
+        <v>40010</v>
       </c>
       <c r="B151" s="5" t="str">
-        <v>蓝龙</v>
+        <v>红龙</v>
       </c>
       <c r="C151" s="5">
         <v>4</v>
       </c>
       <c r="D151" s="5">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="E151" s="5">
         <v>1</v>
@@ -7271,7 +7263,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="K151" s="5" t="str">
         <v>0|0|0</v>
@@ -7282,10 +7274,10 @@
       <c r="M151" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N151" s="12">
+      <c r="N151" s="6">
         <v>160627</v>
       </c>
-      <c r="O151" s="15">
+      <c r="O151" s="13">
         <v>160628</v>
       </c>
       <c r="P151" s="1">
@@ -7297,27 +7289,27 @@
       <c r="T151" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="152">
-      <c r="A152" s="1">
-        <v>20054</v>
-      </c>
-      <c r="B152" s="1" t="str">
-        <v>奥特之神</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1">
-        <v>162938</v>
-      </c>
-      <c r="E152" s="1">
-        <v>3</v>
-      </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1">
-        <v>162938</v>
+      <c r="A152" s="5">
+        <v>40011</v>
+      </c>
+      <c r="B152" s="5" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C152" s="5">
+        <v>4</v>
+      </c>
+      <c r="D152" s="5">
+        <v>328083</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5">
+        <v>328083</v>
       </c>
       <c r="K152" s="5" t="str">
         <v>0|0|0</v>
@@ -7328,8 +7320,12 @@
       <c r="M152" s="5" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
+      <c r="N152" s="6">
+        <v>160627</v>
+      </c>
+      <c r="O152" s="13">
+        <v>160628</v>
+      </c>
       <c r="P152" s="1">
         <v>1</v>
       </c>
@@ -7339,20 +7335,88 @@
       <c r="T152" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="153">
-      <c r="A153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="A153" s="5">
+        <v>40012</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C153" s="5">
+        <v>4</v>
+      </c>
+      <c r="D153" s="5">
+        <v>328088</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5">
+        <v>328088</v>
+      </c>
+      <c r="K153" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L153" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M153" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N153" s="6">
+        <v>160627</v>
+      </c>
+      <c r="O153" s="13">
+        <v>160628</v>
+      </c>
+      <c r="P153" s="1">
+        <v>1</v>
+      </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="154">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>20054</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <v>奥特之神</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>162938</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1">
+        <v>162938</v>
+      </c>
+      <c r="K154" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L154" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M154" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="P154" s="1">
+        <v>1</v>
+      </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -7380,18 +7444,6 @@
     </row>
     <row customHeight="true" ht="25" r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -7402,18 +7454,6 @@
     </row>
     <row customHeight="true" ht="25" r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -7600,34 +7640,18 @@
     </row>
     <row customHeight="true" ht="25" r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="1" t="str">
-        <v>小鸟模型</v>
-      </c>
-      <c r="C167" s="1">
-        <v>4</v>
-      </c>
-      <c r="D167" s="1">
-        <v>336884</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0</v>
-      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1">
-        <v>336884</v>
-      </c>
-      <c r="K167" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L167" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M167" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
@@ -7638,34 +7662,18 @@
     </row>
     <row customHeight="true" ht="25" r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="1" t="str">
-        <v>野狼</v>
-      </c>
-      <c r="C168" s="1">
-        <v>4</v>
-      </c>
-      <c r="D168" s="1">
-        <v>328238</v>
-      </c>
-      <c r="E168" s="1">
-        <v>2</v>
-      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="1">
-        <v>328238</v>
-      </c>
-      <c r="K168" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L168" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M168" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
@@ -7677,23 +7685,23 @@
     <row customHeight="true" ht="25" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1" t="str">
-        <v>棕野狼</v>
+        <v>小鸟模型</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
       </c>
       <c r="D169" s="1">
-        <v>328219</v>
+        <v>336884</v>
       </c>
       <c r="E169" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1">
-        <v>328219</v>
+        <v>336884</v>
       </c>
       <c r="K169" s="1" t="str">
         <v>0|0|0</v>
@@ -7715,13 +7723,13 @@
     <row customHeight="true" ht="25" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="str">
-        <v>小兔子</v>
+        <v>野狼</v>
       </c>
       <c r="C170" s="1">
         <v>4</v>
       </c>
       <c r="D170" s="1">
-        <v>328216</v>
+        <v>328238</v>
       </c>
       <c r="E170" s="1">
         <v>2</v>
@@ -7731,7 +7739,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1">
-        <v>328216</v>
+        <v>328238</v>
       </c>
       <c r="K170" s="1" t="str">
         <v>0|0|0</v>
@@ -7753,13 +7761,13 @@
     <row customHeight="true" ht="25" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="str">
-        <v>登山猫</v>
+        <v>棕野狼</v>
       </c>
       <c r="C171" s="1">
         <v>4</v>
       </c>
       <c r="D171" s="1">
-        <v>328187</v>
+        <v>328219</v>
       </c>
       <c r="E171" s="1">
         <v>2</v>
@@ -7769,7 +7777,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1">
-        <v>328187</v>
+        <v>328219</v>
       </c>
       <c r="K171" s="1" t="str">
         <v>0|0|0</v>
@@ -7791,13 +7799,13 @@
     <row customHeight="true" ht="25" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="str">
-        <v>水手猫</v>
+        <v>小兔子</v>
       </c>
       <c r="C172" s="1">
         <v>4</v>
       </c>
       <c r="D172" s="1">
-        <v>328197</v>
+        <v>328216</v>
       </c>
       <c r="E172" s="1">
         <v>2</v>
@@ -7807,7 +7815,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1">
-        <v>328197</v>
+        <v>328216</v>
       </c>
       <c r="K172" s="1" t="str">
         <v>0|0|0</v>
@@ -7829,13 +7837,13 @@
     <row customHeight="true" ht="25" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="str">
-        <v>舞狮头猫</v>
+        <v>登山猫</v>
       </c>
       <c r="C173" s="1">
         <v>4</v>
       </c>
       <c r="D173" s="1">
-        <v>328144</v>
+        <v>328187</v>
       </c>
       <c r="E173" s="1">
         <v>2</v>
@@ -7845,7 +7853,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1">
-        <v>328144</v>
+        <v>328187</v>
       </c>
       <c r="K173" s="1" t="str">
         <v>0|0|0</v>
@@ -7867,13 +7875,13 @@
     <row customHeight="true" ht="25" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="str">
-        <v>祥云能量猫</v>
+        <v>水手猫</v>
       </c>
       <c r="C174" s="1">
         <v>4</v>
       </c>
       <c r="D174" s="1">
-        <v>328137</v>
+        <v>328197</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -7883,7 +7891,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1">
-        <v>328137</v>
+        <v>328197</v>
       </c>
       <c r="K174" s="1" t="str">
         <v>0|0|0</v>
@@ -7905,13 +7913,13 @@
     <row customHeight="true" ht="25" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="str">
-        <v>喜庆棉服猫</v>
+        <v>舞狮头猫</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
       </c>
       <c r="D175" s="1">
-        <v>328135</v>
+        <v>328144</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
@@ -7921,7 +7929,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1">
-        <v>328135</v>
+        <v>328144</v>
       </c>
       <c r="K175" s="1" t="str">
         <v>0|0|0</v>
@@ -7943,13 +7951,13 @@
     <row customHeight="true" ht="25" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="str">
-        <v>冰雪狐</v>
+        <v>祥云能量猫</v>
       </c>
       <c r="C176" s="1">
         <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>328081</v>
+        <v>328137</v>
       </c>
       <c r="E176" s="1">
         <v>2</v>
@@ -7959,7 +7967,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1">
-        <v>328081</v>
+        <v>328137</v>
       </c>
       <c r="K176" s="1" t="str">
         <v>0|0|0</v>
@@ -7981,13 +7989,13 @@
     <row customHeight="true" ht="25" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>喜庆棉服猫</v>
       </c>
       <c r="C177" s="1">
         <v>4</v>
       </c>
       <c r="D177" s="1">
-        <v>328030</v>
+        <v>328135</v>
       </c>
       <c r="E177" s="1">
         <v>2</v>
@@ -7997,7 +8005,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1">
-        <v>328030</v>
+        <v>328135</v>
       </c>
       <c r="K177" s="1" t="str">
         <v>0|0|0</v>
@@ -8019,13 +8027,13 @@
     <row customHeight="true" ht="25" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="str">
-        <v>红龙</v>
+        <v>冰雪狐</v>
       </c>
       <c r="C178" s="1">
         <v>4</v>
       </c>
       <c r="D178" s="1">
-        <v>328093</v>
+        <v>328081</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
@@ -8035,7 +8043,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1">
-        <v>328093</v>
+        <v>328081</v>
       </c>
       <c r="K178" s="1" t="str">
         <v>0|0|0</v>
@@ -8057,13 +8065,13 @@
     <row customHeight="true" ht="25" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="str">
-        <v>黄龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="E179" s="1">
         <v>2</v>
@@ -8073,7 +8081,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="K179" s="1" t="str">
         <v>0|0|0</v>
@@ -8095,13 +8103,13 @@
     <row customHeight="true" ht="25" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="str">
-        <v>蓝龙</v>
+        <v>红龙</v>
       </c>
       <c r="C180" s="1">
         <v>4</v>
       </c>
       <c r="D180" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="E180" s="1">
         <v>2</v>
@@ -8111,7 +8119,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="K180" s="1" t="str">
         <v>0|0|0</v>
@@ -8133,23 +8141,23 @@
     <row customHeight="true" ht="25" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="str">
-        <v>唐装坐骑熊猫</v>
+        <v>黄龙</v>
       </c>
       <c r="C181" s="1">
         <v>4</v>
       </c>
       <c r="D181" s="1">
-        <v>327940</v>
+        <v>328083</v>
       </c>
       <c r="E181" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1">
-        <v>327940</v>
+        <v>328083</v>
       </c>
       <c r="K181" s="1" t="str">
         <v>0|0|0</v>
@@ -8171,13 +8179,13 @@
     <row customHeight="true" ht="25" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="str">
-        <v>唐装熊猫</v>
+        <v>蓝龙</v>
       </c>
       <c r="C182" s="1">
         <v>4</v>
       </c>
       <c r="D182" s="1">
-        <v>327934</v>
+        <v>328088</v>
       </c>
       <c r="E182" s="1">
         <v>2</v>
@@ -8187,7 +8195,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1">
-        <v>327934</v>
+        <v>328088</v>
       </c>
       <c r="K182" s="1" t="str">
         <v>0|0|0</v>
@@ -8209,23 +8217,23 @@
     <row customHeight="true" ht="25" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="str">
-        <v>小金毛</v>
+        <v>唐装坐骑熊猫</v>
       </c>
       <c r="C183" s="1">
         <v>4</v>
       </c>
       <c r="D183" s="1">
-        <v>327936</v>
+        <v>327940</v>
       </c>
       <c r="E183" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1">
-        <v>327936</v>
+        <v>327940</v>
       </c>
       <c r="K183" s="1" t="str">
         <v>0|0|0</v>
@@ -8247,13 +8255,13 @@
     <row customHeight="true" ht="25" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="str">
-        <v>垂耳兔</v>
+        <v>唐装熊猫</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
       </c>
       <c r="D184" s="1">
-        <v>327907</v>
+        <v>327934</v>
       </c>
       <c r="E184" s="1">
         <v>2</v>
@@ -8263,7 +8271,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1">
-        <v>327907</v>
+        <v>327934</v>
       </c>
       <c r="K184" s="1" t="str">
         <v>0|0|0</v>
@@ -8285,13 +8293,13 @@
     <row customHeight="true" ht="25" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
-        <v>无毛猫</v>
+        <v>小金毛</v>
       </c>
       <c r="C185" s="1">
         <v>4</v>
       </c>
       <c r="D185" s="1">
-        <v>327894</v>
+        <v>327936</v>
       </c>
       <c r="E185" s="1">
         <v>0</v>
@@ -8301,7 +8309,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1">
-        <v>327894</v>
+        <v>327936</v>
       </c>
       <c r="K185" s="1" t="str">
         <v>0|0|0</v>
@@ -8323,13 +8331,13 @@
     <row customHeight="true" ht="25" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
-        <v>蓝白帽子猫</v>
+        <v>垂耳兔</v>
       </c>
       <c r="C186" s="1">
         <v>4</v>
       </c>
       <c r="D186" s="1">
-        <v>327891</v>
+        <v>327907</v>
       </c>
       <c r="E186" s="1">
         <v>2</v>
@@ -8339,7 +8347,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1">
-        <v>327891</v>
+        <v>327907</v>
       </c>
       <c r="K186" s="1" t="str">
         <v>0|0|0</v>
@@ -8361,23 +8369,23 @@
     <row customHeight="true" ht="25" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
-        <v>礼帽暹罗猫</v>
+        <v>无毛猫</v>
       </c>
       <c r="C187" s="1">
         <v>4</v>
       </c>
       <c r="D187" s="1">
-        <v>327889</v>
+        <v>327894</v>
       </c>
       <c r="E187" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1">
-        <v>327889</v>
+        <v>327894</v>
       </c>
       <c r="K187" s="1" t="str">
         <v>0|0|0</v>
@@ -8399,23 +8407,23 @@
     <row customHeight="true" ht="25" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
-        <v>熊猫</v>
+        <v>蓝白帽子猫</v>
       </c>
       <c r="C188" s="1">
         <v>4</v>
       </c>
       <c r="D188" s="1">
-        <v>327881</v>
+        <v>327891</v>
       </c>
       <c r="E188" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1">
-        <v>327881</v>
+        <v>327891</v>
       </c>
       <c r="K188" s="1" t="str">
         <v>0|0|0</v>
@@ -8437,23 +8445,23 @@
     <row customHeight="true" ht="25" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
-        <v>兔子帽猫</v>
+        <v>礼帽暹罗猫</v>
       </c>
       <c r="C189" s="1">
         <v>4</v>
       </c>
       <c r="D189" s="1">
-        <v>327874</v>
+        <v>327889</v>
       </c>
       <c r="E189" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1">
-        <v>327874</v>
+        <v>327889</v>
       </c>
       <c r="K189" s="1" t="str">
         <v>0|0|0</v>
@@ -8475,23 +8483,23 @@
     <row customHeight="true" ht="25" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
-        <v>三花铃铛猫</v>
+        <v>熊猫</v>
       </c>
       <c r="C190" s="1">
         <v>4</v>
       </c>
       <c r="D190" s="1">
-        <v>327868</v>
+        <v>327881</v>
       </c>
       <c r="E190" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1">
-        <v>327868</v>
+        <v>327881</v>
       </c>
       <c r="K190" s="1" t="str">
         <v>0|0|0</v>
@@ -8513,13 +8521,13 @@
     <row customHeight="true" ht="25" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
-        <v>黑色蝴蝶猫</v>
+        <v>兔子帽猫</v>
       </c>
       <c r="C191" s="1">
         <v>4</v>
       </c>
       <c r="D191" s="1">
-        <v>327837</v>
+        <v>327874</v>
       </c>
       <c r="E191" s="1">
         <v>2</v>
@@ -8529,7 +8537,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1">
-        <v>327837</v>
+        <v>327874</v>
       </c>
       <c r="K191" s="1" t="str">
         <v>0|0|0</v>
@@ -8551,13 +8559,13 @@
     <row customHeight="true" ht="25" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
-        <v>美短圣诞猫</v>
+        <v>三花铃铛猫</v>
       </c>
       <c r="C192" s="1">
         <v>4</v>
       </c>
       <c r="D192" s="1">
-        <v>327774</v>
+        <v>327868</v>
       </c>
       <c r="E192" s="1">
         <v>2</v>
@@ -8567,7 +8575,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1">
-        <v>327774</v>
+        <v>327868</v>
       </c>
       <c r="K192" s="1" t="str">
         <v>0|0|0</v>
@@ -8589,23 +8597,23 @@
     <row customHeight="true" ht="25" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
-        <v>蓝白垂耳兔</v>
+        <v>黑色蝴蝶猫</v>
       </c>
       <c r="C193" s="1">
         <v>4</v>
       </c>
       <c r="D193" s="1">
-        <v>160051</v>
+        <v>327837</v>
       </c>
       <c r="E193" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1">
-        <v>160051</v>
+        <v>327837</v>
       </c>
       <c r="K193" s="1" t="str">
         <v>0|0|0</v>
@@ -8627,23 +8635,23 @@
     <row customHeight="true" ht="25" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
-        <v>粉猪</v>
+        <v>美短圣诞猫</v>
       </c>
       <c r="C194" s="1">
         <v>4</v>
       </c>
       <c r="D194" s="1">
-        <v>327745</v>
+        <v>327774</v>
       </c>
       <c r="E194" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1">
-        <v>327745</v>
+        <v>327774</v>
       </c>
       <c r="K194" s="1" t="str">
         <v>0|0|0</v>
@@ -8665,13 +8673,13 @@
     <row customHeight="true" ht="25" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
-        <v>虎斑猫</v>
+        <v>蓝白垂耳兔</v>
       </c>
       <c r="C195" s="1">
         <v>4</v>
       </c>
       <c r="D195" s="1">
-        <v>327747</v>
+        <v>160051</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -8681,7 +8689,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1">
-        <v>327747</v>
+        <v>160051</v>
       </c>
       <c r="K195" s="1" t="str">
         <v>0|0|0</v>
@@ -8703,23 +8711,23 @@
     <row customHeight="true" ht="25" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
-        <v>天使猫</v>
+        <v>粉猪</v>
       </c>
       <c r="C196" s="1">
         <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>327748</v>
+        <v>327745</v>
       </c>
       <c r="E196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1">
-        <v>327748</v>
+        <v>327745</v>
       </c>
       <c r="K196" s="1" t="str">
         <v>0|0|0</v>
@@ -8741,23 +8749,23 @@
     <row customHeight="true" ht="25" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
-        <v>小恶魔猫</v>
+        <v>虎斑猫</v>
       </c>
       <c r="C197" s="1">
         <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>327754</v>
+        <v>327747</v>
       </c>
       <c r="E197" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1">
-        <v>327754</v>
+        <v>327747</v>
       </c>
       <c r="K197" s="1" t="str">
         <v>0|0|0</v>
@@ -8779,13 +8787,13 @@
     <row customHeight="true" ht="25" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
-        <v>独眼布偶猫</v>
+        <v>天使猫</v>
       </c>
       <c r="C198" s="1">
         <v>4</v>
       </c>
       <c r="D198" s="1">
-        <v>327758</v>
+        <v>327748</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -8795,7 +8803,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1">
-        <v>327758</v>
+        <v>327748</v>
       </c>
       <c r="K198" s="1" t="str">
         <v>0|0|0</v>
@@ -8817,23 +8825,23 @@
     <row customHeight="true" ht="25" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
-        <v>花猪</v>
+        <v>小恶魔猫</v>
       </c>
       <c r="C199" s="1">
         <v>4</v>
       </c>
       <c r="D199" s="1">
-        <v>327761</v>
+        <v>327754</v>
       </c>
       <c r="E199" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1">
-        <v>327761</v>
+        <v>327754</v>
       </c>
       <c r="K199" s="1" t="str">
         <v>0|0|0</v>
@@ -8855,13 +8863,13 @@
     <row customHeight="true" ht="25" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
-        <v>太阳帽猫</v>
+        <v>独眼布偶猫</v>
       </c>
       <c r="C200" s="1">
         <v>4</v>
       </c>
       <c r="D200" s="1">
-        <v>327762</v>
+        <v>327758</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
@@ -8871,7 +8879,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1">
-        <v>327762</v>
+        <v>327758</v>
       </c>
       <c r="K200" s="1" t="str">
         <v>0|0|0</v>
@@ -8893,13 +8901,13 @@
     <row customHeight="true" ht="25" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
-        <v>斑点垂耳狗</v>
+        <v>花猪</v>
       </c>
       <c r="C201" s="1">
         <v>4</v>
       </c>
       <c r="D201" s="1">
-        <v>327770</v>
+        <v>327761</v>
       </c>
       <c r="E201" s="1">
         <v>0</v>
@@ -8909,7 +8917,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1">
-        <v>327770</v>
+        <v>327761</v>
       </c>
       <c r="K201" s="1" t="str">
         <v>0|0|0</v>
@@ -8931,23 +8939,23 @@
     <row customHeight="true" ht="25" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="str">
-        <v>黑白色直耳兔</v>
+        <v>太阳帽猫</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
       </c>
       <c r="D202" s="1">
-        <v>327773</v>
+        <v>327762</v>
       </c>
       <c r="E202" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1">
-        <v>327773</v>
+        <v>327762</v>
       </c>
       <c r="K202" s="1" t="str">
         <v>0|0|0</v>
@@ -8969,13 +8977,13 @@
     <row customHeight="true" ht="25" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="str">
-        <v>橘猫</v>
+        <v>斑点垂耳狗</v>
       </c>
       <c r="C203" s="1">
         <v>4</v>
       </c>
       <c r="D203" s="1">
-        <v>327786</v>
+        <v>327770</v>
       </c>
       <c r="E203" s="1">
         <v>0</v>
@@ -8985,7 +8993,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1">
-        <v>327786</v>
+        <v>327770</v>
       </c>
       <c r="K203" s="1" t="str">
         <v>0|0|0</v>
@@ -9007,13 +9015,13 @@
     <row customHeight="true" ht="25" r="204">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="str">
-        <v>条纹外套白猫</v>
+        <v>黑白色直耳兔</v>
       </c>
       <c r="C204" s="1">
         <v>4</v>
       </c>
       <c r="D204" s="1">
-        <v>327791</v>
+        <v>327773</v>
       </c>
       <c r="E204" s="1">
         <v>0</v>
@@ -9023,7 +9031,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1">
-        <v>327791</v>
+        <v>327773</v>
       </c>
       <c r="K204" s="1" t="str">
         <v>0|0|0</v>
@@ -9045,23 +9053,23 @@
     <row customHeight="true" ht="25" r="205">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="str">
-        <v>墨镜花猫</v>
+        <v>橘猫</v>
       </c>
       <c r="C205" s="1">
         <v>4</v>
       </c>
       <c r="D205" s="1">
-        <v>327860</v>
+        <v>327786</v>
       </c>
       <c r="E205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1">
-        <v>327860</v>
+        <v>327786</v>
       </c>
       <c r="K205" s="1" t="str">
         <v>0|0|0</v>
@@ -9083,23 +9091,23 @@
     <row customHeight="true" ht="25" r="206">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="str">
-        <v>眼镜蓝猫</v>
+        <v>条纹外套白猫</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
       </c>
       <c r="D206" s="1">
-        <v>327849</v>
+        <v>327791</v>
       </c>
       <c r="E206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1">
-        <v>327849</v>
+        <v>327791</v>
       </c>
       <c r="K206" s="1" t="str">
         <v>0|0|0</v>
@@ -9121,13 +9129,13 @@
     <row customHeight="true" ht="25" r="207">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="str">
-        <v>巫师帽猫</v>
+        <v>墨镜花猫</v>
       </c>
       <c r="C207" s="1">
         <v>4</v>
       </c>
       <c r="D207" s="1">
-        <v>327861</v>
+        <v>327860</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -9137,7 +9145,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1">
-        <v>327861</v>
+        <v>327860</v>
       </c>
       <c r="K207" s="1" t="str">
         <v>0|0|0</v>
@@ -9159,13 +9167,13 @@
     <row customHeight="true" ht="25" r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="str">
-        <v>白色萨摩耶</v>
+        <v>眼镜蓝猫</v>
       </c>
       <c r="C208" s="1">
         <v>4</v>
       </c>
       <c r="D208" s="1">
-        <v>327937</v>
+        <v>327849</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -9175,7 +9183,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1">
-        <v>327937</v>
+        <v>327849</v>
       </c>
       <c r="K208" s="1" t="str">
         <v>0|0|0</v>
@@ -9197,13 +9205,13 @@
     <row customHeight="true" ht="25" r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="str">
-        <v>矮脚马</v>
+        <v>巫师帽猫</v>
       </c>
       <c r="C209" s="1">
         <v>4</v>
       </c>
       <c r="D209" s="1">
-        <v>327960</v>
+        <v>327861</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -9213,7 +9221,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1">
-        <v>327960</v>
+        <v>327861</v>
       </c>
       <c r="K209" s="1" t="str">
         <v>0|0|0</v>
@@ -9235,13 +9243,13 @@
     <row customHeight="true" ht="25" r="210">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="str">
-        <v>美短方帽猫</v>
+        <v>白色萨摩耶</v>
       </c>
       <c r="C210" s="1">
         <v>4</v>
       </c>
       <c r="D210" s="1">
-        <v>327973</v>
+        <v>327937</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -9251,7 +9259,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1">
-        <v>327973</v>
+        <v>327937</v>
       </c>
       <c r="K210" s="1" t="str">
         <v>0|0|0</v>
@@ -9273,23 +9281,23 @@
     <row customHeight="true" ht="25" r="211">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="str">
-        <v>黑猫</v>
+        <v>矮脚马</v>
       </c>
       <c r="C211" s="1">
         <v>4</v>
       </c>
       <c r="D211" s="1">
-        <v>327963</v>
+        <v>327960</v>
       </c>
       <c r="E211" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1">
-        <v>327963</v>
+        <v>327960</v>
       </c>
       <c r="K211" s="1" t="str">
         <v>0|0|0</v>
@@ -9311,23 +9319,23 @@
     <row customHeight="true" ht="25" r="212">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="str">
-        <v>小黄狗</v>
+        <v>美短方帽猫</v>
       </c>
       <c r="C212" s="1">
         <v>4</v>
       </c>
       <c r="D212" s="1">
-        <v>327990</v>
+        <v>327973</v>
       </c>
       <c r="E212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1">
-        <v>327990</v>
+        <v>327973</v>
       </c>
       <c r="K212" s="1" t="str">
         <v>0|0|0</v>
@@ -9349,23 +9357,23 @@
     <row customHeight="true" ht="25" r="213">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="str">
-        <v>黄色猫咪团子</v>
+        <v>黑猫</v>
       </c>
       <c r="C213" s="1">
         <v>4</v>
       </c>
       <c r="D213" s="1">
-        <v>338994</v>
+        <v>327963</v>
       </c>
       <c r="E213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1">
-        <v>338994</v>
+        <v>327963</v>
       </c>
       <c r="K213" s="1" t="str">
         <v>0|0|0</v>
@@ -9387,23 +9395,23 @@
     <row customHeight="true" ht="25" r="214">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="str">
-        <v>鹦鹉</v>
+        <v>小黄狗</v>
       </c>
       <c r="C214" s="1">
         <v>4</v>
       </c>
       <c r="D214" s="1">
-        <v>326463</v>
+        <v>327990</v>
       </c>
       <c r="E214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1">
-        <v>326463</v>
+        <v>327990</v>
       </c>
       <c r="K214" s="1" t="str">
         <v>0|0|0</v>
@@ -9425,13 +9433,13 @@
     <row customHeight="true" ht="25" r="215">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="str">
-        <v>暹罗樱花猫</v>
+        <v>黄色猫咪团子</v>
       </c>
       <c r="C215" s="1">
         <v>4</v>
       </c>
       <c r="D215" s="1">
-        <v>327764</v>
+        <v>338994</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -9441,7 +9449,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1">
-        <v>327764</v>
+        <v>338994</v>
       </c>
       <c r="K215" s="1" t="str">
         <v>0|0|0</v>
@@ -9463,13 +9471,13 @@
     <row customHeight="true" ht="25" r="216">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="str">
-        <v>蓝白飞行斗技猫</v>
+        <v>鹦鹉</v>
       </c>
       <c r="C216" s="1">
         <v>4</v>
       </c>
       <c r="D216" s="1">
-        <v>327814</v>
+        <v>326463</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -9479,7 +9487,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1">
-        <v>327814</v>
+        <v>326463</v>
       </c>
       <c r="K216" s="1" t="str">
         <v>0|0|0</v>
@@ -9498,20 +9506,36 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217">
+    <row customHeight="true" ht="25" r="217">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="B217" s="1" t="str">
+        <v>暹罗樱花猫</v>
+      </c>
+      <c r="C217" s="1">
+        <v>4</v>
+      </c>
+      <c r="D217" s="1">
+        <v>327764</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
+      <c r="J217" s="1">
+        <v>327764</v>
+      </c>
+      <c r="K217" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L217" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M217" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
@@ -9520,20 +9544,36 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
     </row>
-    <row r="218">
+    <row customHeight="true" ht="25" r="218">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="B218" s="1" t="str">
+        <v>蓝白飞行斗技猫</v>
+      </c>
+      <c r="C218" s="1">
+        <v>4</v>
+      </c>
+      <c r="D218" s="1">
+        <v>327814</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
+      <c r="J218" s="1">
+        <v>327814</v>
+      </c>
+      <c r="K218" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L218" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M218" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
@@ -9786,34 +9826,18 @@
     </row>
     <row r="230">
       <c r="A230" s="1"/>
-      <c r="B230" s="1" t="str">
-        <v>变异沙漠三头狗</v>
-      </c>
-      <c r="C230" s="1">
-        <v>4</v>
-      </c>
-      <c r="D230" s="1">
-        <v>327996</v>
-      </c>
-      <c r="E230" s="1">
-        <v>3</v>
-      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="1">
-        <v>327996</v>
-      </c>
-      <c r="K230" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L230" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M230" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
@@ -9824,34 +9848,18 @@
     </row>
     <row r="231">
       <c r="A231" s="1"/>
-      <c r="B231" s="1" t="str">
-        <v>三头狗</v>
-      </c>
-      <c r="C231" s="1">
-        <v>4</v>
-      </c>
-      <c r="D231" s="1">
-        <v>327801</v>
-      </c>
-      <c r="E231" s="1">
-        <v>3</v>
-      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="1">
-        <v>327801</v>
-      </c>
-      <c r="K231" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L231" s="1" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M231" s="1" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
@@ -9863,23 +9871,23 @@
     <row r="232">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="str">
-        <v>小龙</v>
+        <v>变异沙漠三头狗</v>
       </c>
       <c r="C232" s="1">
         <v>4</v>
       </c>
       <c r="D232" s="1">
-        <v>328246</v>
+        <v>327996</v>
       </c>
       <c r="E232" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1">
-        <v>328246</v>
+        <v>327996</v>
       </c>
       <c r="K232" s="1" t="str">
         <v>0|0|0</v>
@@ -9901,23 +9909,23 @@
     <row r="233">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="str">
-        <v>卡通木龙</v>
+        <v>三头狗</v>
       </c>
       <c r="C233" s="1">
         <v>4</v>
       </c>
       <c r="D233" s="1">
-        <v>328030</v>
+        <v>327801</v>
       </c>
       <c r="E233" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1">
-        <v>328030</v>
+        <v>327801</v>
       </c>
       <c r="K233" s="1" t="str">
         <v>0|0|0</v>
@@ -9939,13 +9947,13 @@
     <row r="234">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="str">
-        <v>红龙</v>
+        <v>小龙</v>
       </c>
       <c r="C234" s="1">
         <v>4</v>
       </c>
       <c r="D234" s="1">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="E234" s="1">
         <v>2</v>
@@ -9955,7 +9963,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1">
-        <v>328093</v>
+        <v>328246</v>
       </c>
       <c r="K234" s="1" t="str">
         <v>0|0|0</v>
@@ -9977,13 +9985,13 @@
     <row r="235">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="str">
-        <v>黄龙</v>
+        <v>卡通木龙</v>
       </c>
       <c r="C235" s="1">
         <v>4</v>
       </c>
       <c r="D235" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="E235" s="1">
         <v>2</v>
@@ -9993,7 +10001,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1">
-        <v>328083</v>
+        <v>328030</v>
       </c>
       <c r="K235" s="1" t="str">
         <v>0|0|0</v>
@@ -10015,13 +10023,13 @@
     <row r="236">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="str">
-        <v>蓝龙</v>
+        <v>红龙</v>
       </c>
       <c r="C236" s="1">
         <v>4</v>
       </c>
       <c r="D236" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="E236" s="1">
         <v>2</v>
@@ -10031,7 +10039,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1">
-        <v>328088</v>
+        <v>328093</v>
       </c>
       <c r="K236" s="1" t="str">
         <v>0|0|0</v>
@@ -10052,18 +10060,34 @@
     </row>
     <row r="237">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
+      <c r="B237" s="1" t="str">
+        <v>黄龙</v>
+      </c>
+      <c r="C237" s="1">
+        <v>4</v>
+      </c>
+      <c r="D237" s="1">
+        <v>328083</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2</v>
+      </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
+      <c r="J237" s="1">
+        <v>328083</v>
+      </c>
+      <c r="K237" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L237" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M237" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
@@ -10074,18 +10098,34 @@
     </row>
     <row r="238">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
+      <c r="B238" s="1" t="str">
+        <v>蓝龙</v>
+      </c>
+      <c r="C238" s="1">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1">
+        <v>328088</v>
+      </c>
+      <c r="E238" s="1">
+        <v>2</v>
+      </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
+      <c r="J238" s="1">
+        <v>328088</v>
+      </c>
+      <c r="K238" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L238" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M238" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
@@ -14010,6 +14050,50 @@
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
     </row>
+    <row r="417">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1"/>
+      <c r="N417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="P417" s="1"/>
+      <c r="Q417" s="1"/>
+      <c r="R417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="T417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+      <c r="Q418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="S418" s="1"/>
+      <c r="T418" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/infinite/Excel/BagInfo_背包表.xlsx
+++ b/infinite/Excel/BagInfo_背包表.xlsx
@@ -51,7 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF667901"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,6 +66,20 @@
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,35 +100,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF34C724"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF667901"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,22 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF14BA9"/>
+      <color rgb="FF34C724"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,6 +136,27 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF34C724"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF14BA9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,22 +332,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -356,7 +356,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -365,13 +365,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -766,10 +766,10 @@
       <c r="M1" s="1" t="str">
         <v>vector3</v>
       </c>
-      <c r="N1" s="6" t="str">
+      <c r="N1" s="5" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="6" t="str">
+      <c r="O1" s="5" t="str">
         <v>string</v>
       </c>
       <c r="P1" s="1" t="str">
@@ -820,10 +820,10 @@
       <c r="M2" s="1" t="str">
         <v>AssetOffsetSca</v>
       </c>
-      <c r="N2" s="11" t="str">
+      <c r="N2" s="7" t="str">
         <v>Idle</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O2" s="5" t="str">
         <v>Move</v>
       </c>
       <c r="P2" s="1" t="str">
@@ -862,7 +862,8 @@
 2：新手礼包
 3：抽奖
 4：完成新手引导就送
-5：看广告获得</v>
+5：看广告获得
+6：老玩家回归礼包</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -918,16 +919,16 @@
       <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>10046</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="8" t="str">
         <v>自动攻击拳(男)</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>92821</v>
       </c>
       <c r="E6" s="1">
@@ -937,16 +938,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>92821</v>
       </c>
-      <c r="K6" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L6" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M6" s="6" t="str">
+      <c r="K6" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M6" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N6" s="1"/>
@@ -960,10 +961,10 @@
       <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>10047</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="8" t="str">
         <v>自动攻击拳(女)</v>
       </c>
       <c r="C7" s="1">
@@ -982,13 +983,13 @@
       <c r="J7" s="1">
         <v>168946</v>
       </c>
-      <c r="K7" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M7" s="6" t="str">
+      <c r="K7" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M7" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N7" s="1"/>
@@ -1024,13 +1025,13 @@
       <c r="J8" s="1">
         <v>151245</v>
       </c>
-      <c r="K8" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L8" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M8" s="6" t="str">
+      <c r="K8" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M8" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N8" s="1"/>
@@ -1066,13 +1067,13 @@
       <c r="J9" s="1">
         <v>151897</v>
       </c>
-      <c r="K9" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M9" s="6" t="str">
+      <c r="K9" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M9" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N9" s="1"/>
@@ -1108,13 +1109,13 @@
       <c r="J10" s="1">
         <v>209508</v>
       </c>
-      <c r="K10" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M10" s="6" t="str">
+      <c r="K10" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M10" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N10" s="1"/>
@@ -1150,13 +1151,13 @@
       <c r="J11" s="1">
         <v>313464</v>
       </c>
-      <c r="K11" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L11" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M11" s="6" t="str">
+      <c r="K11" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M11" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N11" s="1"/>
@@ -1173,28 +1174,28 @@
       <c r="A12" s="1">
         <v>10043</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="16" t="str">
         <v>昊天锤</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>318640</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>318640</v>
       </c>
-      <c r="K12" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M12" s="6" t="str">
+      <c r="K12" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M12" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N12" s="1"/>
@@ -1211,23 +1212,23 @@
       <c r="A13" s="1">
         <v>10001</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="11" t="str">
         <v>海神三叉戟</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>134222</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="5">
+      <c r="J13" s="8">
         <v>134222</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1253,23 +1254,23 @@
       <c r="A14" s="1">
         <v>10002</v>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="11" t="str">
         <v>赛博自来也长枪</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>122953</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5">
+      <c r="J14" s="8">
         <v>122953</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1295,23 +1296,23 @@
       <c r="A15" s="1">
         <v>10003</v>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="11" t="str">
         <v>海王双头刀</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>118146</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>118146</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1337,23 +1338,23 @@
       <c r="A16" s="1">
         <v>10004</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="4" t="str">
         <v>美国队长神锤</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>152954</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5">
+      <c r="J16" s="8">
         <v>152954</v>
       </c>
       <c r="K16" s="1" t="str">
@@ -1379,23 +1380,23 @@
       <c r="A17" s="1">
         <v>10005</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="4" t="str">
         <v>毒液斧头</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>118143</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="5">
+      <c r="J17" s="8">
         <v>118143</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1421,23 +1422,23 @@
       <c r="A18" s="1">
         <v>10006</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="4" t="str">
         <v>灭霸斧</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>122960</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5">
+      <c r="J18" s="8">
         <v>122960</v>
       </c>
       <c r="K18" s="1" t="str">
@@ -1463,23 +1464,23 @@
       <c r="A19" s="1">
         <v>10007</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="4" t="str">
         <v>鸣人手里剑</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>33861</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="5">
+      <c r="J19" s="8">
         <v>33861</v>
       </c>
       <c r="K19" s="1" t="str">
@@ -1505,7 +1506,7 @@
       <c r="A20" s="1">
         <v>10008</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="4" t="str">
         <v>未来战士黄金剑</v>
       </c>
       <c r="C20" s="1">
@@ -1517,7 +1518,7 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1547,7 +1548,7 @@
       <c r="A21" s="1">
         <v>10009</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="9" t="str">
         <v>森林哨兵魔法仗</v>
       </c>
       <c r="C21" s="1">
@@ -1559,7 +1560,7 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1589,7 +1590,7 @@
       <c r="A22" s="1">
         <v>10010</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="9" t="str">
         <v>手枪(索尼克专用)</v>
       </c>
       <c r="C22" s="1">
@@ -1601,7 +1602,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1631,7 +1632,7 @@
       <c r="A23" s="1">
         <v>10011</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="9" t="str">
         <v>信号枪(粉毛怪专用)</v>
       </c>
       <c r="C23" s="1">
@@ -1643,7 +1644,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1673,7 +1674,7 @@
       <c r="A24" s="1">
         <v>10012</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="9" t="str">
         <v>刀(纲手专用)</v>
       </c>
       <c r="C24" s="1">
@@ -1685,7 +1686,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1715,19 +1716,19 @@
       <c r="A25" s="1">
         <v>10013</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="2" t="str">
         <v>刀(李洛克专用)</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="2">
         <v>103080</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1757,7 +1758,7 @@
       <c r="A26" s="1">
         <v>10014</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="9" t="str">
         <v>镰刀(干柿鬼鲛专用)</v>
       </c>
       <c r="C26" s="1">
@@ -1769,7 +1770,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1799,7 +1800,7 @@
       <c r="A27" s="1">
         <v>10015</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="9" t="str">
         <v>镰刀(赛博女孩专用)</v>
       </c>
       <c r="C27" s="1">
@@ -1811,7 +1812,7 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1841,7 +1842,7 @@
       <c r="A28" s="1">
         <v>10016</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="9" t="str">
         <v>冰封剑(黑寡妇专用)</v>
       </c>
       <c r="C28" s="1">
@@ -1853,7 +1854,7 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1883,7 +1884,7 @@
       <c r="A29" s="1">
         <v>10017</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="2" t="str">
         <v>怪物爪刀</v>
       </c>
       <c r="C29" s="1">
@@ -1895,7 +1896,7 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1925,7 +1926,7 @@
       <c r="A30" s="1">
         <v>10018</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="9" t="str">
         <v>大砍刀(卡卡西专用)</v>
       </c>
       <c r="C30" s="1">
@@ -1937,7 +1938,7 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2135,7 +2136,7 @@
       <c r="A35" s="1">
         <v>10023</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B35" s="4" t="str">
         <v>蓝色法杖(洛基专用)</v>
       </c>
       <c r="C35" s="1">
@@ -2147,7 +2148,7 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2177,7 +2178,7 @@
       <c r="A36" s="1">
         <v>10024</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B36" s="4" t="str">
         <v>镰刀(太阳神专用)</v>
       </c>
       <c r="C36" s="1">
@@ -2189,7 +2190,7 @@
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2219,7 +2220,7 @@
       <c r="A37" s="1">
         <v>10025</v>
       </c>
-      <c r="B37" s="3" t="str">
+      <c r="B37" s="4" t="str">
         <v>恶魔剑(宇智波斑爷专用)</v>
       </c>
       <c r="C37" s="1">
@@ -2231,7 +2232,7 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2261,7 +2262,7 @@
       <c r="A38" s="1">
         <v>10026</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B38" s="4" t="str">
         <v>剑(纳米机器人专用)</v>
       </c>
       <c r="C38" s="1">
@@ -2273,7 +2274,7 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2303,7 +2304,7 @@
       <c r="A39" s="1">
         <v>10027</v>
       </c>
-      <c r="B39" s="3" t="str">
+      <c r="B39" s="4" t="str">
         <v>镰刀(死侍专用)</v>
       </c>
       <c r="C39" s="1">
@@ -2315,7 +2316,7 @@
       <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2345,7 +2346,7 @@
       <c r="A40" s="1">
         <v>10028</v>
       </c>
-      <c r="B40" s="15" t="str" xml:space="preserve">
+      <c r="B40" s="17" t="str" xml:space="preserve">
         <v>  荧光剑(火山哨兵专用)</v>
       </c>
       <c r="C40" s="1">
@@ -2357,7 +2358,7 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2387,7 +2388,7 @@
       <c r="A41" s="1">
         <v>10029</v>
       </c>
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="17" t="str">
         <v>狂热剑(绯红女巫专用)</v>
       </c>
       <c r="C41" s="1">
@@ -2399,7 +2400,7 @@
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2429,7 +2430,7 @@
       <c r="A42" s="1">
         <v>10030</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="12" t="str">
         <v>充气锤子</v>
       </c>
       <c r="C42" s="1">
@@ -2441,7 +2442,7 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2471,7 +2472,7 @@
       <c r="A43" s="1">
         <v>10031</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="12" t="str">
         <v>木法杖(毒液蜘蛛侠专用)</v>
       </c>
       <c r="C43" s="1">
@@ -2483,7 +2484,7 @@
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2513,7 +2514,7 @@
       <c r="A44" s="1">
         <v>10032</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="12" t="str">
         <v>瓜子盾</v>
       </c>
       <c r="C44" s="1">
@@ -2525,7 +2526,7 @@
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2555,7 +2556,7 @@
       <c r="A45" s="1">
         <v>10033</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="12" t="str">
         <v>盾(浩克专用)</v>
       </c>
       <c r="C45" s="1">
@@ -2567,7 +2568,7 @@
       <c r="E45" s="1">
         <v>3</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2597,7 +2598,7 @@
       <c r="A46" s="1">
         <v>10034</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="9" t="str">
         <v>终极冰环剑</v>
       </c>
       <c r="C46" s="1">
@@ -2609,7 +2610,7 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2639,7 +2640,7 @@
       <c r="A47" s="1">
         <v>10035</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="9" t="str">
         <v>散弹喷枪(雏田专用)</v>
       </c>
       <c r="C47" s="1">
@@ -2651,7 +2652,7 @@
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2681,7 +2682,7 @@
       <c r="A48" s="1">
         <v>10036</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" s="9" t="str">
         <v>火枪(路飞专用)</v>
       </c>
       <c r="C48" s="1">
@@ -2693,7 +2694,7 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2723,23 +2724,23 @@
       <c r="A49" s="1">
         <v>10037</v>
       </c>
-      <c r="B49" s="2" t="str">
+      <c r="B49" s="9" t="str">
         <v>紫光剑(佐助专用)</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="8">
         <v>297029</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="5">
+      <c r="J49" s="8">
         <v>297029</v>
       </c>
       <c r="K49" s="1" t="str">
@@ -2765,7 +2766,7 @@
       <c r="A50" s="1">
         <v>10038</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="9" t="str">
         <v>激光枪(天神专用)</v>
       </c>
       <c r="C50" s="1">
@@ -2777,7 +2778,7 @@
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2807,7 +2808,7 @@
       <c r="A51" s="1">
         <v>10039</v>
       </c>
-      <c r="B51" s="7" t="str">
+      <c r="B51" s="12" t="str">
         <v>剑(金刚狼专用)</v>
       </c>
       <c r="C51" s="1">
@@ -2819,7 +2820,7 @@
       <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2849,7 +2850,7 @@
       <c r="A52" s="1">
         <v>10040</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="12" t="str">
         <v>激光枪(钢铁侠专用)</v>
       </c>
       <c r="C52" s="1">
@@ -2861,7 +2862,7 @@
       <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2891,7 +2892,7 @@
       <c r="A53" s="1">
         <v>20063</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="12" t="str">
         <v>情侣机甲套装(女)</v>
       </c>
       <c r="C53" s="1">
@@ -2903,7 +2904,7 @@
       <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2933,7 +2934,7 @@
       <c r="A54" s="1">
         <v>20062</v>
       </c>
-      <c r="B54" s="8" t="str">
+      <c r="B54" s="15" t="str">
         <v>情侣机甲套装(男)</v>
       </c>
       <c r="C54" s="1">
@@ -2945,7 +2946,7 @@
       <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2994,13 +2995,13 @@
       <c r="J55" s="1">
         <v>163292</v>
       </c>
-      <c r="K55" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L55" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M55" s="6" t="str">
+      <c r="K55" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L55" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M55" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N55" s="1"/>
@@ -3036,13 +3037,13 @@
       <c r="J56" s="1">
         <v>398484</v>
       </c>
-      <c r="K56" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L56" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M56" s="6" t="str">
+      <c r="K56" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L56" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M56" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N56" s="1"/>
@@ -3078,13 +3079,13 @@
       <c r="J57" s="1">
         <v>367076</v>
       </c>
-      <c r="K57" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L57" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M57" s="6" t="str">
+      <c r="K57" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L57" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M57" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N57" s="1"/>
@@ -3120,13 +3121,13 @@
       <c r="J58" s="1">
         <v>343523</v>
       </c>
-      <c r="K58" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L58" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M58" s="6" t="str">
+      <c r="K58" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L58" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M58" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N58" s="1"/>
@@ -3162,19 +3163,19 @@
       <c r="J59" s="1">
         <v>142399</v>
       </c>
-      <c r="K59" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L59" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M59" s="6" t="str">
+      <c r="K59" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L59" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M59" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -3204,19 +3205,19 @@
       <c r="J60" s="1">
         <v>320751</v>
       </c>
-      <c r="K60" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L60" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M60" s="6" t="str">
+      <c r="K60" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L60" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M60" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -3246,19 +3247,19 @@
       <c r="J61" s="1">
         <v>216268</v>
       </c>
-      <c r="K61" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L61" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M61" s="6" t="str">
+      <c r="K61" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L61" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M61" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -3288,19 +3289,19 @@
       <c r="J62" s="1">
         <v>216269</v>
       </c>
-      <c r="K62" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L62" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M62" s="6" t="str">
+      <c r="K62" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L62" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M62" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -3330,19 +3331,19 @@
       <c r="J63" s="1">
         <v>216270</v>
       </c>
-      <c r="K63" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L63" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M63" s="6" t="str">
+      <c r="K63" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L63" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M63" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3372,19 +3373,19 @@
       <c r="J64" s="1">
         <v>212971</v>
       </c>
-      <c r="K64" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L64" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M64" s="6" t="str">
+      <c r="K64" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L64" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M64" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3398,25 +3399,25 @@
       <c r="B65" t="str">
         <v>神级魔王</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="14">
         <v>2</v>
       </c>
       <c r="D65">
         <v>141499</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="14">
         <v>3</v>
       </c>
       <c r="J65">
         <v>141499</v>
       </c>
-      <c r="K65" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L65" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M65" s="6" t="str">
+      <c r="K65" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L65" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M65" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N65" s="1"/>
@@ -3436,25 +3437,25 @@
       <c r="B66" t="str">
         <v>四代火影</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="14">
         <v>2</v>
       </c>
       <c r="D66">
         <v>142921</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="14">
         <v>3</v>
       </c>
       <c r="J66">
         <v>142921</v>
       </c>
-      <c r="K66" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L66" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M66" s="6" t="str">
+      <c r="K66" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L66" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M66" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N66" s="1"/>
@@ -3474,25 +3475,25 @@
       <c r="B67" t="str">
         <v>美杜莎女王</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="14">
         <v>2</v>
       </c>
       <c r="D67">
         <v>163289</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="14">
         <v>3</v>
       </c>
       <c r="J67">
         <v>163289</v>
       </c>
-      <c r="K67" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L67" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M67" s="6" t="str">
+      <c r="K67" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L67" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M67" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N67" s="1"/>
@@ -3515,7 +3516,7 @@
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <v>361906</v>
       </c>
       <c r="E68" s="1">
@@ -3525,7 +3526,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="4">
+      <c r="J68" s="3">
         <v>65710</v>
       </c>
       <c r="K68" s="1" t="str">
@@ -3557,7 +3558,7 @@
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <v>357571</v>
       </c>
       <c r="E69" s="1">
@@ -3567,7 +3568,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="4">
+      <c r="J69" s="3">
         <v>64995</v>
       </c>
       <c r="K69" s="1" t="str">
@@ -3599,7 +3600,7 @@
       <c r="C70" s="1">
         <v>2</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <v>357567</v>
       </c>
       <c r="E70" s="1">
@@ -3609,7 +3610,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="4">
+      <c r="J70" s="3">
         <v>142606</v>
       </c>
       <c r="K70" s="1" t="str">
@@ -3641,7 +3642,7 @@
       <c r="C71" s="1">
         <v>2</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <v>357566</v>
       </c>
       <c r="E71" s="1">
@@ -3651,7 +3652,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="4">
+      <c r="J71" s="3">
         <v>63711</v>
       </c>
       <c r="K71" s="1" t="str">
@@ -3683,7 +3684,7 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <v>357563</v>
       </c>
       <c r="E72" s="1">
@@ -3693,7 +3694,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="4">
+      <c r="J72" s="3">
         <v>94782</v>
       </c>
       <c r="K72" s="1" t="str">
@@ -3725,7 +3726,7 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <v>357556</v>
       </c>
       <c r="E73" s="1">
@@ -3735,7 +3736,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="4">
+      <c r="J73" s="3">
         <v>112568</v>
       </c>
       <c r="K73" s="1" t="str">
@@ -3767,7 +3768,7 @@
       <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <v>357555</v>
       </c>
       <c r="E74" s="1">
@@ -3777,7 +3778,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="4">
+      <c r="J74" s="3">
         <v>117681</v>
       </c>
       <c r="K74" s="1" t="str">
@@ -3809,7 +3810,7 @@
       <c r="C75" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <v>351891</v>
       </c>
       <c r="E75" s="1">
@@ -3819,7 +3820,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="4">
+      <c r="J75" s="3">
         <v>64995</v>
       </c>
       <c r="K75" s="1" t="str">
@@ -3851,7 +3852,7 @@
       <c r="C76" s="1">
         <v>2</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="2">
         <v>351680</v>
       </c>
       <c r="E76" s="1">
@@ -3861,7 +3862,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="4">
+      <c r="J76" s="3">
         <v>127800</v>
       </c>
       <c r="K76" s="1" t="str">
@@ -3893,7 +3894,7 @@
       <c r="C77" s="1">
         <v>2</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="2">
         <v>351598</v>
       </c>
       <c r="E77" s="1">
@@ -3903,7 +3904,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="4">
+      <c r="J77" s="3">
         <v>224168</v>
       </c>
       <c r="K77" s="1" t="str">
@@ -3935,7 +3936,7 @@
       <c r="C78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="2">
         <v>351597</v>
       </c>
       <c r="E78" s="1">
@@ -3945,7 +3946,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="4">
+      <c r="J78" s="3">
         <v>94782</v>
       </c>
       <c r="K78" s="1" t="str">
@@ -3977,7 +3978,7 @@
       <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="2">
         <v>357570</v>
       </c>
       <c r="E79" s="1">
@@ -3987,7 +3988,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="4">
+      <c r="J79" s="3">
         <v>111768</v>
       </c>
       <c r="K79" s="1" t="str">
@@ -4019,7 +4020,7 @@
       <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="2">
         <v>357568</v>
       </c>
       <c r="E80" s="1">
@@ -4029,7 +4030,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="4">
+      <c r="J80" s="3">
         <v>111240</v>
       </c>
       <c r="K80" s="1" t="str">
@@ -4061,7 +4062,7 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="2">
         <v>351500</v>
       </c>
       <c r="E81" s="1">
@@ -4071,7 +4072,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="4">
+      <c r="J81" s="3">
         <v>269652</v>
       </c>
       <c r="K81" s="1" t="str">
@@ -4103,7 +4104,7 @@
       <c r="C82" s="1">
         <v>2</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="2">
         <v>351497</v>
       </c>
       <c r="E82" s="1">
@@ -4113,7 +4114,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="4">
+      <c r="J82" s="3">
         <v>60981</v>
       </c>
       <c r="K82" s="1" t="str">
@@ -4145,7 +4146,7 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="2">
         <v>351405</v>
       </c>
       <c r="E83" s="1">
@@ -4155,7 +4156,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="4">
+      <c r="J83" s="3">
         <v>64410</v>
       </c>
       <c r="K83" s="1" t="str">
@@ -4187,7 +4188,7 @@
       <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="2">
         <v>351404</v>
       </c>
       <c r="E84" s="1">
@@ -4197,7 +4198,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="4">
+      <c r="J84" s="3">
         <v>128834</v>
       </c>
       <c r="K84" s="1" t="str">
@@ -4229,7 +4230,7 @@
       <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="2">
         <v>351026</v>
       </c>
       <c r="E85" s="1">
@@ -4239,7 +4240,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="4">
+      <c r="J85" s="3">
         <v>115849</v>
       </c>
       <c r="K85" s="1" t="str">
@@ -4271,7 +4272,7 @@
       <c r="C86" s="1">
         <v>2</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="2">
         <v>351025</v>
       </c>
       <c r="E86" s="1">
@@ -4281,7 +4282,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="4">
+      <c r="J86" s="3">
         <v>299082</v>
       </c>
       <c r="K86" s="1" t="str">
@@ -4313,7 +4314,7 @@
       <c r="C87" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="2">
         <v>351024</v>
       </c>
       <c r="E87" s="1">
@@ -4323,7 +4324,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="4">
+      <c r="J87" s="3">
         <v>96576</v>
       </c>
       <c r="K87" s="1" t="str">
@@ -4355,7 +4356,7 @@
       <c r="C88" s="1">
         <v>2</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="2">
         <v>351004</v>
       </c>
       <c r="E88" s="1">
@@ -4365,7 +4366,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="4">
+      <c r="J88" s="3">
         <v>63291</v>
       </c>
       <c r="K88" s="1" t="str">
@@ -4397,7 +4398,7 @@
       <c r="C89" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="2">
         <v>350987</v>
       </c>
       <c r="E89" s="1">
@@ -4407,7 +4408,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
         <v>59857</v>
       </c>
       <c r="K89" s="1" t="str">
@@ -4439,7 +4440,7 @@
       <c r="C90" s="1">
         <v>2</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>350973</v>
       </c>
       <c r="E90" s="1">
@@ -4449,7 +4450,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
         <v>63648</v>
       </c>
       <c r="K90" s="1" t="str">
@@ -4481,7 +4482,7 @@
       <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <v>350959</v>
       </c>
       <c r="E91" s="1">
@@ -4491,7 +4492,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
         <v>248351</v>
       </c>
       <c r="K91" s="1" t="str">
@@ -4523,7 +4524,7 @@
       <c r="C92" s="1">
         <v>2</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <v>350958</v>
       </c>
       <c r="E92" s="1">
@@ -4533,7 +4534,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="4">
+      <c r="J92" s="3">
         <v>64774</v>
       </c>
       <c r="K92" s="1" t="str">
@@ -4565,7 +4566,7 @@
       <c r="C93" s="1">
         <v>2</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <v>350756</v>
       </c>
       <c r="E93" s="1">
@@ -4575,7 +4576,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
         <v>63291</v>
       </c>
       <c r="K93" s="1" t="str">
@@ -4607,7 +4608,7 @@
       <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <v>350752</v>
       </c>
       <c r="E94" s="1">
@@ -4617,7 +4618,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
         <v>111241</v>
       </c>
       <c r="K94" s="1" t="str">
@@ -4649,7 +4650,7 @@
       <c r="C95" s="1">
         <v>2</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <v>350746</v>
       </c>
       <c r="E95" s="1">
@@ -4659,7 +4660,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="4">
+      <c r="J95" s="3">
         <v>121948</v>
       </c>
       <c r="K95" s="1" t="str">
@@ -4691,7 +4692,7 @@
       <c r="C96" s="1">
         <v>2</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <v>350744</v>
       </c>
       <c r="E96" s="1">
@@ -4701,7 +4702,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="4">
+      <c r="J96" s="3">
         <v>64458</v>
       </c>
       <c r="K96" s="1" t="str">
@@ -4733,7 +4734,7 @@
       <c r="C97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <v>350739</v>
       </c>
       <c r="E97" s="1">
@@ -4743,7 +4744,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="4">
+      <c r="J97" s="3">
         <v>142606</v>
       </c>
       <c r="K97" s="1" t="str">
@@ -4775,7 +4776,7 @@
       <c r="C98" s="1">
         <v>2</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <v>350738</v>
       </c>
       <c r="E98" s="1">
@@ -4785,7 +4786,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="4">
+      <c r="J98" s="3">
         <v>64305</v>
       </c>
       <c r="K98" s="1" t="str">
@@ -4817,7 +4818,7 @@
       <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <v>350568</v>
       </c>
       <c r="E99" s="1">
@@ -4827,7 +4828,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="4">
+      <c r="J99" s="3">
         <v>299082</v>
       </c>
       <c r="K99" s="1" t="str">
@@ -4859,7 +4860,7 @@
       <c r="C100" s="1">
         <v>2</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <v>350318</v>
       </c>
       <c r="E100" s="1">
@@ -4869,7 +4870,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="4">
+      <c r="J100" s="3">
         <v>181365</v>
       </c>
       <c r="K100" s="1" t="str">
@@ -4901,7 +4902,7 @@
       <c r="C101" s="1">
         <v>2</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="4">
         <v>350569</v>
       </c>
       <c r="E101" s="1">
@@ -4911,7 +4912,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="4">
+      <c r="J101" s="3">
         <v>63291</v>
       </c>
       <c r="K101" s="1" t="str">
@@ -4943,7 +4944,7 @@
       <c r="C102" s="1">
         <v>2</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="4">
         <v>350314</v>
       </c>
       <c r="E102" s="1">
@@ -4953,7 +4954,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="4">
+      <c r="J102" s="3">
         <v>299082</v>
       </c>
       <c r="K102" s="1" t="str">
@@ -4985,7 +4986,7 @@
       <c r="C103" s="1">
         <v>2</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="4">
         <v>350260</v>
       </c>
       <c r="E103" s="1">
@@ -4995,7 +4996,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="4">
+      <c r="J103" s="3">
         <v>111088</v>
       </c>
       <c r="K103" s="1" t="str">
@@ -5027,7 +5028,7 @@
       <c r="C104" s="1">
         <v>2</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="4">
         <v>349270</v>
       </c>
       <c r="E104" s="1">
@@ -5037,7 +5038,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="4">
+      <c r="J104" s="3">
         <v>124880</v>
       </c>
       <c r="K104" s="1" t="str">
@@ -5069,7 +5070,7 @@
       <c r="C105" s="1">
         <v>2</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="4">
         <v>347528</v>
       </c>
       <c r="E105" s="1">
@@ -5079,7 +5080,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="4">
+      <c r="J105" s="3">
         <v>137518</v>
       </c>
       <c r="K105" s="1" t="str">
@@ -5111,7 +5112,7 @@
       <c r="C106" s="1">
         <v>2</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="4">
         <v>145319</v>
       </c>
       <c r="E106" s="1">
@@ -5121,7 +5122,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="4">
+      <c r="J106" s="3">
         <v>119773</v>
       </c>
       <c r="K106" s="1" t="str">
@@ -5153,7 +5154,7 @@
       <c r="C107" s="1">
         <v>2</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="4">
         <v>143403</v>
       </c>
       <c r="E107" s="1">
@@ -5163,7 +5164,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="4">
+      <c r="J107" s="3">
         <v>119229</v>
       </c>
       <c r="K107" s="1" t="str">
@@ -5205,7 +5206,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="4">
+      <c r="J108" s="3">
         <v>121882</v>
       </c>
       <c r="K108" s="1" t="str">
@@ -5247,7 +5248,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="4">
+      <c r="J109" s="3">
         <v>119745</v>
       </c>
       <c r="K109" s="1" t="str">
@@ -5289,7 +5290,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="4">
+      <c r="J110" s="3">
         <v>63539</v>
       </c>
       <c r="K110" s="1" t="str">
@@ -5331,7 +5332,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="4">
+      <c r="J111" s="3">
         <v>60981</v>
       </c>
       <c r="K111" s="1" t="str">
@@ -5373,7 +5374,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="4">
+      <c r="J112" s="3">
         <v>109144</v>
       </c>
       <c r="K112" s="1" t="str">
@@ -5415,7 +5416,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="4">
+      <c r="J113" s="3">
         <v>64141</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -5457,7 +5458,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="4">
+      <c r="J114" s="3">
         <v>109058</v>
       </c>
       <c r="K114" s="1" t="str">
@@ -5499,7 +5500,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="4">
+      <c r="J115" s="3">
         <v>109839</v>
       </c>
       <c r="K115" s="1" t="str">
@@ -5541,7 +5542,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="4">
+      <c r="J116" s="3">
         <v>118079</v>
       </c>
       <c r="K116" s="1" t="str">
@@ -5583,7 +5584,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="4">
+      <c r="J117" s="3">
         <v>109839</v>
       </c>
       <c r="K117" s="1" t="str">
@@ -5625,7 +5626,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="4">
+      <c r="J118" s="3">
         <v>117681</v>
       </c>
       <c r="K118" s="1" t="str">
@@ -5651,85 +5652,85 @@
       <c r="A119" s="1">
         <v>20052</v>
       </c>
-      <c r="B119" s="3" t="str">
+      <c r="B119" s="4" t="str">
         <v>Rainbow friends</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>2</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="4">
         <v>143385</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="4">
         <v>3</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="18">
         <v>119483</v>
       </c>
-      <c r="K119" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L119" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M119" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
+      <c r="K119" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L119" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M119" s="4" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
       <c r="P119" s="1">
         <v>1</v>
       </c>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="120">
       <c r="A120" s="1">
         <v>20053</v>
       </c>
-      <c r="B120" s="3" t="str">
+      <c r="B120" s="4" t="str">
         <v>海神</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>2</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="4">
         <v>226377</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>3</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4">
         <v>226377</v>
       </c>
-      <c r="K120" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L120" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M120" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="K120" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L120" s="4" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M120" s="4" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
       <c r="P120" s="1">
         <v>1</v>
       </c>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
     </row>
     <row customHeight="true" ht="25" r="121">
       <c r="A121" s="1">
@@ -7182,41 +7183,41 @@
       <c r="T149" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="150">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <v>40001</v>
       </c>
-      <c r="B150" s="6" t="str">
+      <c r="B150" s="5" t="str">
         <v>蛇女</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="5">
         <v>4</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="5">
         <v>328236</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="5">
         <v>3</v>
       </c>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6">
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5">
         <v>328236</v>
       </c>
-      <c r="K150" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L150" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M150" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N150" s="10">
+      <c r="K150" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L150" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M150" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N150" s="6">
         <v>318618</v>
       </c>
-      <c r="O150" s="10">
+      <c r="O150" s="6">
         <v>318617</v>
       </c>
       <c r="P150" s="1">
@@ -7228,41 +7229,41 @@
       <c r="T150" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="151">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <v>40002</v>
       </c>
-      <c r="B151" s="6" t="str">
+      <c r="B151" s="5" t="str">
         <v>络新妇</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="5">
         <v>4</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="5">
         <v>338436</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>3</v>
       </c>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6">
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5">
         <v>338436</v>
       </c>
-      <c r="K151" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L151" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M151" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N151" s="11">
+      <c r="K151" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L151" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M151" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N151" s="7">
         <v>336668</v>
       </c>
-      <c r="O151" s="10">
+      <c r="O151" s="6">
         <v>338467</v>
       </c>
       <c r="P151" s="1">
@@ -7274,41 +7275,41 @@
       <c r="T151" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="152">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>40003</v>
       </c>
-      <c r="B152" s="6" t="str">
+      <c r="B152" s="5" t="str">
         <v>大蜘蛛</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="5">
         <v>4</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="5">
         <v>328291</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>3</v>
       </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6">
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5">
         <v>328291</v>
       </c>
-      <c r="K152" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L152" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M152" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N152" s="11">
+      <c r="K152" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L152" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M152" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N152" s="7">
         <v>336668</v>
       </c>
-      <c r="O152" s="10">
+      <c r="O152" s="6">
         <v>336669</v>
       </c>
       <c r="P152" s="1">
@@ -7320,41 +7321,41 @@
       <c r="T152" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="153">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>40004</v>
       </c>
-      <c r="B153" s="6" t="str">
+      <c r="B153" s="5" t="str">
         <v>小型抱脸紫蜘蛛</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="5">
         <v>4</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="5">
         <v>340103</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>3</v>
       </c>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6">
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5">
         <v>340103</v>
       </c>
-      <c r="K153" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L153" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M153" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N153" s="11">
+      <c r="K153" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L153" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M153" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N153" s="7">
         <v>336668</v>
       </c>
-      <c r="O153" s="10">
+      <c r="O153" s="6">
         <v>336669</v>
       </c>
       <c r="P153" s="1">
@@ -7366,41 +7367,41 @@
       <c r="T153" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="154">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>40005</v>
       </c>
-      <c r="B154" s="6" t="str">
+      <c r="B154" s="5" t="str">
         <v>小型抱脸红蜘蛛</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="5">
         <v>4</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="5">
         <v>340104</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>3</v>
       </c>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6">
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5">
         <v>340104</v>
       </c>
-      <c r="K154" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L154" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M154" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N154" s="11">
+      <c r="K154" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L154" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M154" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N154" s="7">
         <v>336668</v>
       </c>
-      <c r="O154" s="10">
+      <c r="O154" s="6">
         <v>336669</v>
       </c>
       <c r="P154" s="1">
@@ -7412,41 +7413,41 @@
       <c r="T154" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="155">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>40006</v>
       </c>
-      <c r="B155" s="6" t="str">
+      <c r="B155" s="5" t="str">
         <v>小型抱脸绿蜘蛛</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="5">
         <v>4</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="5">
         <v>340105</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>3</v>
       </c>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6">
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5">
         <v>340105</v>
       </c>
-      <c r="K155" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L155" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M155" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N155" s="11">
+      <c r="K155" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L155" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M155" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N155" s="7">
         <v>336668</v>
       </c>
-      <c r="O155" s="10">
+      <c r="O155" s="6">
         <v>336669</v>
       </c>
       <c r="P155" s="1">
@@ -7458,41 +7459,41 @@
       <c r="T155" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="156">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>40007</v>
       </c>
-      <c r="B156" s="6" t="str">
+      <c r="B156" s="5" t="str">
         <v>小型抱脸蓝蜘蛛</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="5">
         <v>4</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="5">
         <v>340106</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>3</v>
       </c>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6">
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5">
         <v>340106</v>
       </c>
-      <c r="K156" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L156" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M156" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N156" s="11">
+      <c r="K156" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L156" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M156" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N156" s="7">
         <v>336668</v>
       </c>
-      <c r="O156" s="10">
+      <c r="O156" s="6">
         <v>336669</v>
       </c>
       <c r="P156" s="1">
@@ -7504,41 +7505,41 @@
       <c r="T156" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="157">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>40008</v>
       </c>
-      <c r="B157" s="6" t="str">
+      <c r="B157" s="5" t="str">
         <v>小龙</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="5">
         <v>4</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="5">
         <v>328246</v>
       </c>
-      <c r="E157" s="6">
-        <v>1</v>
-      </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6">
+      <c r="E157" s="5">
+        <v>1</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5">
         <v>328246</v>
       </c>
-      <c r="K157" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L157" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M157" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N157" s="11">
+      <c r="K157" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L157" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M157" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N157" s="7">
         <v>160627</v>
       </c>
-      <c r="O157" s="14">
+      <c r="O157" s="10">
         <v>160628</v>
       </c>
       <c r="P157" s="1">
@@ -7550,41 +7551,41 @@
       <c r="T157" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="158">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>40009</v>
       </c>
-      <c r="B158" s="6" t="str">
+      <c r="B158" s="5" t="str">
         <v>卡通木龙</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="5">
         <v>4</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="5">
         <v>328030</v>
       </c>
-      <c r="E158" s="6">
-        <v>1</v>
-      </c>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6">
+      <c r="E158" s="5">
+        <v>1</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5">
         <v>328030</v>
       </c>
-      <c r="K158" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L158" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M158" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N158" s="11">
+      <c r="K158" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L158" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M158" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N158" s="7">
         <v>160627</v>
       </c>
-      <c r="O158" s="14">
+      <c r="O158" s="10">
         <v>160628</v>
       </c>
       <c r="P158" s="1">
@@ -7596,41 +7597,41 @@
       <c r="T158" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="159">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>40010</v>
       </c>
-      <c r="B159" s="6" t="str">
+      <c r="B159" s="5" t="str">
         <v>红龙</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="5">
         <v>4</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="5">
         <v>328093</v>
       </c>
-      <c r="E159" s="6">
-        <v>1</v>
-      </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6">
+      <c r="E159" s="5">
+        <v>1</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5">
         <v>328093</v>
       </c>
-      <c r="K159" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L159" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M159" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N159" s="11">
+      <c r="K159" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L159" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M159" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N159" s="7">
         <v>160627</v>
       </c>
-      <c r="O159" s="14">
+      <c r="O159" s="10">
         <v>160628</v>
       </c>
       <c r="P159" s="1">
@@ -7642,41 +7643,41 @@
       <c r="T159" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="160">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>40011</v>
       </c>
-      <c r="B160" s="6" t="str">
+      <c r="B160" s="5" t="str">
         <v>黄龙</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="5">
         <v>4</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="5">
         <v>328083</v>
       </c>
-      <c r="E160" s="6">
-        <v>1</v>
-      </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6">
+      <c r="E160" s="5">
+        <v>1</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5">
         <v>328083</v>
       </c>
-      <c r="K160" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L160" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M160" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N160" s="11">
+      <c r="K160" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L160" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M160" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N160" s="7">
         <v>160627</v>
       </c>
-      <c r="O160" s="14">
+      <c r="O160" s="10">
         <v>160628</v>
       </c>
       <c r="P160" s="1">
@@ -7688,41 +7689,41 @@
       <c r="T160" s="1"/>
     </row>
     <row customHeight="true" ht="25" r="161">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>40012</v>
       </c>
-      <c r="B161" s="6" t="str">
+      <c r="B161" s="5" t="str">
         <v>蓝龙</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="5">
         <v>4</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="5">
         <v>328088</v>
       </c>
-      <c r="E161" s="6">
-        <v>1</v>
-      </c>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6">
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5">
         <v>328088</v>
       </c>
-      <c r="K161" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L161" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M161" s="6" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="N161" s="11">
+      <c r="K161" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L161" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M161" s="5" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="N161" s="7">
         <v>160627</v>
       </c>
-      <c r="O161" s="14">
+      <c r="O161" s="10">
         <v>160628</v>
       </c>
       <c r="P161" s="1">
@@ -7756,13 +7757,13 @@
       <c r="J162" s="1">
         <v>162938</v>
       </c>
-      <c r="K162" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="L162" s="6" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="M162" s="6" t="str">
+      <c r="K162" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="L162" s="5" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="M162" s="5" t="str">
         <v>1|1|1</v>
       </c>
       <c r="N162" s="1"/>
